--- a/20170917-infuse/builds/development/data/maindata.xlsx
+++ b/20170917-infuse/builds/development/data/maindata.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="timeline" sheetId="1" r:id="rId1"/>
+    <sheet name="notes" sheetId="2" r:id="rId1"/>
     <sheet name="infuse_data" sheetId="3" r:id="rId2"/>
-    <sheet name="notes" sheetId="2" r:id="rId3"/>
+    <sheet name="timeline" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,6 +20,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>StarTribune StarTribune</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">About this data
+The U.S. Food and Drug Administration recently provided the Star Tribune with a database of 1,039 surgeries that used Medtronic’s bone-growth product Infuse and were followed by postsurgical complications. The surgeries in the database took place at hospitals around the country between 2002 and 2006, and the information about them was mainly gathered in 2007 by Medtronic. The database, obtained via the Freedom of Information Act, was controversial because it was created as part of a large study that Medtronic quietly closed down ahead of schedule after documenting postsurgical problems in more than a third of the cases it examined. Medtronic then failed to report these postsurgical “adverse events” to the FDA until 2013, well after the FDA obtained similar information from other sources.
+The Star Tribune is presenting the injury data publicly for the first time here. The database includes a total of 1,923 different complications in 1,039 surgeries. The vast majority of the surgeries were done in ways not approved by the FDA, which is legal as long as the manufacturer has not encouraged the off-label uses. Medtronic has strenuously disputed any suggestion that it promoted Infuse improperly.
+The spreadsheet includes all of the data provided under the FOIA request, plus several fields of contextual information added by the Star Tribune. The “Index” column was created by the Star Tribune because the FDA redacted the original unique patient identifier numbers. The Star Tribune also added an interpretative column called “Where Infuse Used,” based on the unique surgical description for each procedure. Finally, the Star Tribune has converted the alphanumeric “Patient Codes” into the actual health effects tracked by the FDA. Some of the surgeries are associated with multiple patient codes.
+No information was provided by the FDA for the columns pertaining to: Date of Event, Date of Implantation, Model No., Serial No., Lot No., and Evaluation Code-Results; and only repetitive information was provided under Brand Name, Device Code, and Evaluation Code-Conclusions.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15749" uniqueCount="1685">
   <si>
@@ -5082,7 +5110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5122,6 +5150,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5506,464 +5540,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="A1:E30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>36404</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>36161</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>37257</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>37438</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>37773</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>38078</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>38139</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>38231</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>39022</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>39173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>39234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>39387</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>39630</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>39722</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>39753</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>39995</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>40422</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>40695</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>40695</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>40695</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <v>40756</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>41030</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>41183</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>41306</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <v>41334</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3">
-        <v>41456</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <v>41671</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3">
-        <v>41974</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <v>42461</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1684</v>
-      </c>
-    </row>
+    <row r="1" spans="1:1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -76154,55 +75741,3249 @@
     </row>
   </sheetData>
   <mergeCells count="3324">
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="W1156:W1157"/>
+    <mergeCell ref="X1156:X1157"/>
+    <mergeCell ref="Y1156:Y1157"/>
+    <mergeCell ref="Z1156:Z1157"/>
+    <mergeCell ref="Q1156:Q1157"/>
+    <mergeCell ref="R1156:R1157"/>
+    <mergeCell ref="S1156:S1157"/>
+    <mergeCell ref="T1156:T1157"/>
+    <mergeCell ref="U1156:U1157"/>
+    <mergeCell ref="V1156:V1157"/>
+    <mergeCell ref="K1156:K1157"/>
+    <mergeCell ref="L1156:L1157"/>
+    <mergeCell ref="M1156:M1157"/>
+    <mergeCell ref="N1156:N1157"/>
+    <mergeCell ref="O1156:O1157"/>
+    <mergeCell ref="P1156:P1157"/>
+    <mergeCell ref="Z1151:Z1153"/>
+    <mergeCell ref="A1156:A1157"/>
+    <mergeCell ref="B1156:B1157"/>
+    <mergeCell ref="C1156:C1157"/>
+    <mergeCell ref="D1156:D1157"/>
+    <mergeCell ref="F1156:F1157"/>
+    <mergeCell ref="G1156:G1157"/>
+    <mergeCell ref="H1156:H1157"/>
+    <mergeCell ref="I1156:I1157"/>
+    <mergeCell ref="J1156:J1157"/>
+    <mergeCell ref="T1151:T1153"/>
+    <mergeCell ref="U1151:U1153"/>
+    <mergeCell ref="V1151:V1153"/>
+    <mergeCell ref="W1151:W1153"/>
+    <mergeCell ref="X1151:X1153"/>
+    <mergeCell ref="Y1151:Y1153"/>
+    <mergeCell ref="N1151:N1153"/>
+    <mergeCell ref="O1151:O1153"/>
+    <mergeCell ref="P1151:P1153"/>
+    <mergeCell ref="Q1151:Q1153"/>
+    <mergeCell ref="R1151:R1153"/>
+    <mergeCell ref="S1151:S1153"/>
+    <mergeCell ref="H1151:H1153"/>
+    <mergeCell ref="I1151:I1153"/>
+    <mergeCell ref="J1151:J1153"/>
+    <mergeCell ref="K1151:K1153"/>
+    <mergeCell ref="L1151:L1153"/>
+    <mergeCell ref="M1151:M1153"/>
+    <mergeCell ref="A1151:A1153"/>
+    <mergeCell ref="B1151:B1153"/>
+    <mergeCell ref="C1151:C1153"/>
+    <mergeCell ref="D1151:D1153"/>
+    <mergeCell ref="F1151:F1153"/>
+    <mergeCell ref="G1151:G1153"/>
+    <mergeCell ref="U1132:U1133"/>
+    <mergeCell ref="V1132:V1133"/>
+    <mergeCell ref="W1132:W1133"/>
+    <mergeCell ref="X1132:X1133"/>
+    <mergeCell ref="Y1132:Y1133"/>
+    <mergeCell ref="Z1132:Z1133"/>
+    <mergeCell ref="O1132:O1133"/>
+    <mergeCell ref="P1132:P1133"/>
+    <mergeCell ref="Q1132:Q1133"/>
+    <mergeCell ref="R1132:R1133"/>
+    <mergeCell ref="S1132:S1133"/>
+    <mergeCell ref="T1132:T1133"/>
+    <mergeCell ref="I1132:I1133"/>
+    <mergeCell ref="J1132:J1133"/>
+    <mergeCell ref="K1132:K1133"/>
+    <mergeCell ref="L1132:L1133"/>
+    <mergeCell ref="M1132:M1133"/>
+    <mergeCell ref="N1132:N1133"/>
+    <mergeCell ref="R1126:S1126"/>
+    <mergeCell ref="R1128:S1128"/>
+    <mergeCell ref="U1131:V1131"/>
+    <mergeCell ref="A1132:A1133"/>
+    <mergeCell ref="B1132:B1133"/>
+    <mergeCell ref="C1132:C1133"/>
+    <mergeCell ref="D1132:D1133"/>
+    <mergeCell ref="F1132:F1133"/>
+    <mergeCell ref="G1132:G1133"/>
+    <mergeCell ref="H1132:H1133"/>
+    <mergeCell ref="Q1104:R1104"/>
+    <mergeCell ref="Q1107:R1107"/>
+    <mergeCell ref="V1115:W1115"/>
+    <mergeCell ref="Q1116:R1116"/>
+    <mergeCell ref="Q1123:R1123"/>
+    <mergeCell ref="Q1125:R1125"/>
+    <mergeCell ref="W1100:W1101"/>
+    <mergeCell ref="X1100:X1101"/>
+    <mergeCell ref="Y1100:Y1101"/>
+    <mergeCell ref="Z1100:Z1101"/>
+    <mergeCell ref="Q1102:R1102"/>
+    <mergeCell ref="R1103:S1103"/>
+    <mergeCell ref="P1100:P1101"/>
+    <mergeCell ref="Q1100:Q1101"/>
+    <mergeCell ref="R1100:S1100"/>
+    <mergeCell ref="T1100:T1101"/>
+    <mergeCell ref="U1100:U1101"/>
+    <mergeCell ref="V1100:V1101"/>
+    <mergeCell ref="J1100:J1101"/>
+    <mergeCell ref="K1100:K1101"/>
+    <mergeCell ref="L1100:L1101"/>
+    <mergeCell ref="M1100:M1101"/>
+    <mergeCell ref="N1100:N1101"/>
+    <mergeCell ref="O1100:O1101"/>
+    <mergeCell ref="Q1091:R1091"/>
+    <mergeCell ref="R1097:S1097"/>
+    <mergeCell ref="A1100:A1101"/>
+    <mergeCell ref="B1100:B1101"/>
+    <mergeCell ref="C1100:C1101"/>
+    <mergeCell ref="D1100:D1101"/>
+    <mergeCell ref="F1100:F1101"/>
+    <mergeCell ref="G1100:G1101"/>
+    <mergeCell ref="H1100:H1101"/>
+    <mergeCell ref="I1100:I1101"/>
+    <mergeCell ref="Y1082:Y1083"/>
+    <mergeCell ref="Z1082:Z1083"/>
+    <mergeCell ref="R1084:S1084"/>
+    <mergeCell ref="S1087:T1087"/>
+    <mergeCell ref="S1089:T1089"/>
+    <mergeCell ref="R1090:S1090"/>
+    <mergeCell ref="S1082:S1083"/>
+    <mergeCell ref="T1082:T1083"/>
+    <mergeCell ref="U1082:U1083"/>
+    <mergeCell ref="V1082:V1083"/>
+    <mergeCell ref="W1082:W1083"/>
+    <mergeCell ref="X1082:X1083"/>
+    <mergeCell ref="M1082:M1083"/>
+    <mergeCell ref="N1082:N1083"/>
+    <mergeCell ref="O1082:O1083"/>
+    <mergeCell ref="P1082:P1083"/>
+    <mergeCell ref="Q1082:Q1083"/>
+    <mergeCell ref="R1082:R1083"/>
+    <mergeCell ref="G1082:G1083"/>
+    <mergeCell ref="H1082:H1083"/>
+    <mergeCell ref="I1082:I1083"/>
+    <mergeCell ref="J1082:J1083"/>
+    <mergeCell ref="K1082:K1083"/>
+    <mergeCell ref="L1082:L1083"/>
+    <mergeCell ref="Z1069:Z1070"/>
+    <mergeCell ref="R1078:S1078"/>
+    <mergeCell ref="Q1079:R1079"/>
+    <mergeCell ref="S1080:T1080"/>
+    <mergeCell ref="Q1081:R1081"/>
+    <mergeCell ref="A1082:A1083"/>
+    <mergeCell ref="B1082:B1083"/>
+    <mergeCell ref="C1082:C1083"/>
+    <mergeCell ref="D1082:D1083"/>
+    <mergeCell ref="F1082:F1083"/>
+    <mergeCell ref="T1069:T1070"/>
+    <mergeCell ref="U1069:U1070"/>
+    <mergeCell ref="V1069:V1070"/>
+    <mergeCell ref="W1069:W1070"/>
+    <mergeCell ref="X1069:X1070"/>
+    <mergeCell ref="Y1069:Y1070"/>
+    <mergeCell ref="N1069:N1070"/>
+    <mergeCell ref="O1069:O1070"/>
+    <mergeCell ref="P1069:P1070"/>
+    <mergeCell ref="Q1069:Q1070"/>
+    <mergeCell ref="R1069:R1070"/>
+    <mergeCell ref="S1069:S1070"/>
+    <mergeCell ref="H1069:H1070"/>
+    <mergeCell ref="I1069:I1070"/>
+    <mergeCell ref="J1069:J1070"/>
+    <mergeCell ref="K1069:K1070"/>
+    <mergeCell ref="L1069:L1070"/>
+    <mergeCell ref="M1069:M1070"/>
+    <mergeCell ref="A1069:A1070"/>
+    <mergeCell ref="B1069:B1070"/>
+    <mergeCell ref="C1069:C1070"/>
+    <mergeCell ref="D1069:D1070"/>
+    <mergeCell ref="F1069:F1070"/>
+    <mergeCell ref="G1069:G1070"/>
+    <mergeCell ref="U1063:U1064"/>
+    <mergeCell ref="V1063:V1064"/>
+    <mergeCell ref="W1063:W1064"/>
+    <mergeCell ref="X1063:X1064"/>
+    <mergeCell ref="Y1063:Y1064"/>
+    <mergeCell ref="Z1063:Z1064"/>
+    <mergeCell ref="N1063:N1064"/>
+    <mergeCell ref="O1063:O1064"/>
+    <mergeCell ref="P1063:P1064"/>
+    <mergeCell ref="Q1063:R1063"/>
+    <mergeCell ref="S1063:S1064"/>
+    <mergeCell ref="T1063:T1064"/>
+    <mergeCell ref="H1063:H1064"/>
+    <mergeCell ref="I1063:I1064"/>
+    <mergeCell ref="J1063:J1064"/>
+    <mergeCell ref="K1063:K1064"/>
+    <mergeCell ref="L1063:L1064"/>
+    <mergeCell ref="M1063:M1064"/>
+    <mergeCell ref="A1063:A1064"/>
+    <mergeCell ref="B1063:B1064"/>
+    <mergeCell ref="C1063:C1064"/>
+    <mergeCell ref="D1063:D1064"/>
+    <mergeCell ref="F1063:F1064"/>
+    <mergeCell ref="G1063:G1064"/>
+    <mergeCell ref="U1061:U1062"/>
+    <mergeCell ref="V1061:V1062"/>
+    <mergeCell ref="W1061:W1062"/>
+    <mergeCell ref="X1061:X1062"/>
+    <mergeCell ref="Y1061:Y1062"/>
+    <mergeCell ref="Z1061:Z1062"/>
+    <mergeCell ref="N1061:N1062"/>
+    <mergeCell ref="O1061:O1062"/>
+    <mergeCell ref="P1061:P1062"/>
+    <mergeCell ref="Q1061:Q1062"/>
+    <mergeCell ref="R1061:R1062"/>
+    <mergeCell ref="S1061:T1061"/>
+    <mergeCell ref="H1061:H1062"/>
+    <mergeCell ref="I1061:I1062"/>
+    <mergeCell ref="J1061:J1062"/>
+    <mergeCell ref="K1061:K1062"/>
+    <mergeCell ref="L1061:L1062"/>
+    <mergeCell ref="M1061:M1062"/>
+    <mergeCell ref="A1061:A1062"/>
+    <mergeCell ref="B1061:B1062"/>
+    <mergeCell ref="C1061:C1062"/>
+    <mergeCell ref="D1061:D1062"/>
+    <mergeCell ref="F1061:F1062"/>
+    <mergeCell ref="G1061:G1062"/>
+    <mergeCell ref="Q1052:R1052"/>
+    <mergeCell ref="R1053:S1053"/>
+    <mergeCell ref="R1055:S1055"/>
+    <mergeCell ref="R1056:S1056"/>
+    <mergeCell ref="R1059:S1059"/>
+    <mergeCell ref="R1060:S1060"/>
+    <mergeCell ref="V1048:V1049"/>
+    <mergeCell ref="W1048:W1049"/>
+    <mergeCell ref="X1048:X1049"/>
+    <mergeCell ref="Y1048:Y1049"/>
+    <mergeCell ref="Z1048:Z1049"/>
+    <mergeCell ref="S1050:T1050"/>
+    <mergeCell ref="P1048:P1049"/>
+    <mergeCell ref="Q1048:Q1049"/>
+    <mergeCell ref="R1048:R1049"/>
+    <mergeCell ref="S1048:S1049"/>
+    <mergeCell ref="T1048:T1049"/>
+    <mergeCell ref="U1048:U1049"/>
+    <mergeCell ref="J1048:J1049"/>
+    <mergeCell ref="K1048:K1049"/>
+    <mergeCell ref="L1048:L1049"/>
+    <mergeCell ref="M1048:M1049"/>
+    <mergeCell ref="N1048:N1049"/>
+    <mergeCell ref="O1048:O1049"/>
+    <mergeCell ref="Y1045:Y1046"/>
+    <mergeCell ref="Z1045:Z1046"/>
+    <mergeCell ref="A1048:A1049"/>
+    <mergeCell ref="B1048:B1049"/>
+    <mergeCell ref="C1048:C1049"/>
+    <mergeCell ref="D1048:D1049"/>
+    <mergeCell ref="F1048:F1049"/>
+    <mergeCell ref="G1048:G1049"/>
+    <mergeCell ref="H1048:H1049"/>
+    <mergeCell ref="I1048:I1049"/>
+    <mergeCell ref="S1045:S1046"/>
+    <mergeCell ref="T1045:T1046"/>
+    <mergeCell ref="U1045:U1046"/>
+    <mergeCell ref="V1045:V1046"/>
+    <mergeCell ref="W1045:W1046"/>
+    <mergeCell ref="X1045:X1046"/>
+    <mergeCell ref="M1045:M1046"/>
+    <mergeCell ref="N1045:N1046"/>
+    <mergeCell ref="O1045:O1046"/>
+    <mergeCell ref="P1045:P1046"/>
+    <mergeCell ref="Q1045:Q1046"/>
+    <mergeCell ref="R1045:R1046"/>
+    <mergeCell ref="G1045:G1046"/>
+    <mergeCell ref="H1045:H1046"/>
+    <mergeCell ref="I1045:I1046"/>
+    <mergeCell ref="J1045:J1046"/>
+    <mergeCell ref="K1045:K1046"/>
+    <mergeCell ref="L1045:L1046"/>
+    <mergeCell ref="V1041:V1042"/>
+    <mergeCell ref="W1041:W1042"/>
+    <mergeCell ref="X1041:X1042"/>
+    <mergeCell ref="Y1041:Y1042"/>
+    <mergeCell ref="Z1041:Z1042"/>
+    <mergeCell ref="A1045:A1046"/>
+    <mergeCell ref="B1045:B1046"/>
+    <mergeCell ref="C1045:C1046"/>
+    <mergeCell ref="D1045:D1046"/>
+    <mergeCell ref="F1045:F1046"/>
+    <mergeCell ref="P1041:P1042"/>
+    <mergeCell ref="Q1041:Q1042"/>
+    <mergeCell ref="R1041:R1042"/>
+    <mergeCell ref="S1041:S1042"/>
+    <mergeCell ref="T1041:T1042"/>
+    <mergeCell ref="U1041:U1042"/>
+    <mergeCell ref="J1041:J1042"/>
+    <mergeCell ref="K1041:K1042"/>
+    <mergeCell ref="L1041:L1042"/>
+    <mergeCell ref="M1041:M1042"/>
+    <mergeCell ref="N1041:N1042"/>
+    <mergeCell ref="O1041:O1042"/>
+    <mergeCell ref="Q1040:R1040"/>
+    <mergeCell ref="A1041:A1042"/>
+    <mergeCell ref="B1041:B1042"/>
+    <mergeCell ref="C1041:C1042"/>
+    <mergeCell ref="D1041:D1042"/>
+    <mergeCell ref="F1041:F1042"/>
+    <mergeCell ref="G1041:G1042"/>
+    <mergeCell ref="H1041:H1042"/>
+    <mergeCell ref="I1041:I1042"/>
+    <mergeCell ref="T1037:T1038"/>
+    <mergeCell ref="U1037:U1038"/>
+    <mergeCell ref="V1037:V1038"/>
+    <mergeCell ref="W1037:W1038"/>
+    <mergeCell ref="X1037:X1038"/>
+    <mergeCell ref="Y1037:Y1038"/>
+    <mergeCell ref="N1037:N1038"/>
+    <mergeCell ref="O1037:O1038"/>
+    <mergeCell ref="P1037:P1038"/>
+    <mergeCell ref="Q1037:Q1038"/>
+    <mergeCell ref="R1037:R1038"/>
+    <mergeCell ref="S1037:S1038"/>
+    <mergeCell ref="H1037:H1038"/>
+    <mergeCell ref="I1037:I1038"/>
+    <mergeCell ref="J1037:J1038"/>
+    <mergeCell ref="K1037:K1038"/>
+    <mergeCell ref="L1037:L1038"/>
+    <mergeCell ref="M1037:M1038"/>
+    <mergeCell ref="A1037:A1038"/>
+    <mergeCell ref="B1037:B1038"/>
+    <mergeCell ref="C1037:C1038"/>
+    <mergeCell ref="D1037:D1038"/>
+    <mergeCell ref="F1037:F1038"/>
+    <mergeCell ref="G1037:G1038"/>
+    <mergeCell ref="R1019:S1019"/>
+    <mergeCell ref="R1023:S1023"/>
+    <mergeCell ref="R1024:S1024"/>
+    <mergeCell ref="Q1026:R1026"/>
+    <mergeCell ref="Q1027:R1027"/>
+    <mergeCell ref="Q1030:R1030"/>
+    <mergeCell ref="W1015:W1016"/>
+    <mergeCell ref="X1015:X1016"/>
+    <mergeCell ref="Y1015:Y1016"/>
+    <mergeCell ref="Z1015:Z1016"/>
+    <mergeCell ref="Q1017:R1017"/>
+    <mergeCell ref="Y1018:Z1018"/>
+    <mergeCell ref="Q1015:Q1016"/>
+    <mergeCell ref="R1015:R1016"/>
+    <mergeCell ref="S1015:S1016"/>
+    <mergeCell ref="T1015:T1016"/>
+    <mergeCell ref="U1015:U1016"/>
+    <mergeCell ref="V1015:V1016"/>
+    <mergeCell ref="K1015:K1016"/>
+    <mergeCell ref="L1015:L1016"/>
+    <mergeCell ref="M1015:M1016"/>
+    <mergeCell ref="N1015:N1016"/>
+    <mergeCell ref="O1015:O1016"/>
+    <mergeCell ref="P1015:P1016"/>
+    <mergeCell ref="Z1037:Z1038"/>
+    <mergeCell ref="R1014:S1014"/>
+    <mergeCell ref="A1015:A1016"/>
+    <mergeCell ref="B1015:B1016"/>
+    <mergeCell ref="C1015:C1016"/>
+    <mergeCell ref="D1015:D1016"/>
+    <mergeCell ref="F1015:F1016"/>
+    <mergeCell ref="G1015:G1016"/>
+    <mergeCell ref="H1015:H1016"/>
+    <mergeCell ref="I1015:I1016"/>
+    <mergeCell ref="J1015:J1016"/>
+    <mergeCell ref="V1005:V1006"/>
+    <mergeCell ref="W1005:W1006"/>
+    <mergeCell ref="X1005:X1006"/>
+    <mergeCell ref="Y1005:Y1006"/>
+    <mergeCell ref="Z1005:Z1006"/>
+    <mergeCell ref="S1008:T1008"/>
+    <mergeCell ref="O1005:O1006"/>
+    <mergeCell ref="P1005:P1006"/>
+    <mergeCell ref="Q1005:Q1006"/>
+    <mergeCell ref="R1005:S1005"/>
+    <mergeCell ref="T1005:T1006"/>
+    <mergeCell ref="U1005:U1006"/>
+    <mergeCell ref="I1005:I1006"/>
+    <mergeCell ref="J1005:J1006"/>
+    <mergeCell ref="K1005:K1006"/>
+    <mergeCell ref="L1005:L1006"/>
+    <mergeCell ref="M1005:M1006"/>
+    <mergeCell ref="N1005:N1006"/>
+    <mergeCell ref="R997:S997"/>
+    <mergeCell ref="R999:S999"/>
+    <mergeCell ref="Q1001:R1001"/>
+    <mergeCell ref="A1005:A1006"/>
+    <mergeCell ref="B1005:B1006"/>
+    <mergeCell ref="C1005:C1006"/>
+    <mergeCell ref="D1005:D1006"/>
+    <mergeCell ref="F1005:F1006"/>
+    <mergeCell ref="G1005:G1006"/>
+    <mergeCell ref="H1005:H1006"/>
+    <mergeCell ref="T993:U993"/>
+    <mergeCell ref="V993:V994"/>
+    <mergeCell ref="W993:W994"/>
+    <mergeCell ref="X993:X994"/>
+    <mergeCell ref="Y993:Y994"/>
+    <mergeCell ref="Z993:Z994"/>
+    <mergeCell ref="N993:N994"/>
+    <mergeCell ref="O993:O994"/>
+    <mergeCell ref="P993:P994"/>
+    <mergeCell ref="Q993:Q994"/>
+    <mergeCell ref="R993:R994"/>
+    <mergeCell ref="S993:S994"/>
+    <mergeCell ref="H993:H994"/>
+    <mergeCell ref="I993:I994"/>
+    <mergeCell ref="J993:J994"/>
+    <mergeCell ref="K993:K994"/>
+    <mergeCell ref="L993:L994"/>
+    <mergeCell ref="M993:M994"/>
+    <mergeCell ref="A993:A994"/>
+    <mergeCell ref="B993:B994"/>
+    <mergeCell ref="C993:C994"/>
+    <mergeCell ref="D993:D994"/>
+    <mergeCell ref="F993:F994"/>
+    <mergeCell ref="G993:G994"/>
+    <mergeCell ref="U991:U992"/>
+    <mergeCell ref="V991:V992"/>
+    <mergeCell ref="W991:W992"/>
+    <mergeCell ref="X991:X992"/>
+    <mergeCell ref="Y991:Y992"/>
+    <mergeCell ref="Z991:Z992"/>
+    <mergeCell ref="O991:O992"/>
+    <mergeCell ref="P991:P992"/>
+    <mergeCell ref="Q991:Q992"/>
+    <mergeCell ref="R991:R992"/>
+    <mergeCell ref="S991:S992"/>
+    <mergeCell ref="T991:T992"/>
+    <mergeCell ref="I991:I992"/>
+    <mergeCell ref="J991:J992"/>
+    <mergeCell ref="K991:K992"/>
+    <mergeCell ref="L991:L992"/>
+    <mergeCell ref="M991:M992"/>
+    <mergeCell ref="N991:N992"/>
+    <mergeCell ref="R981:S981"/>
+    <mergeCell ref="Q982:R982"/>
+    <mergeCell ref="Q983:R983"/>
+    <mergeCell ref="A991:A992"/>
+    <mergeCell ref="B991:B992"/>
+    <mergeCell ref="C991:C992"/>
+    <mergeCell ref="D991:D992"/>
+    <mergeCell ref="F991:F992"/>
+    <mergeCell ref="G991:G992"/>
+    <mergeCell ref="H991:H992"/>
+    <mergeCell ref="Z968:Z969"/>
+    <mergeCell ref="S970:T970"/>
+    <mergeCell ref="S971:T971"/>
+    <mergeCell ref="R973:S973"/>
+    <mergeCell ref="R977:S977"/>
+    <mergeCell ref="Q980:R980"/>
+    <mergeCell ref="T968:T969"/>
+    <mergeCell ref="U968:U969"/>
+    <mergeCell ref="V968:V969"/>
+    <mergeCell ref="W968:W969"/>
+    <mergeCell ref="X968:X969"/>
+    <mergeCell ref="Y968:Y969"/>
+    <mergeCell ref="N968:N969"/>
+    <mergeCell ref="O968:O969"/>
+    <mergeCell ref="P968:P969"/>
+    <mergeCell ref="Q968:Q969"/>
+    <mergeCell ref="R968:R969"/>
+    <mergeCell ref="S968:S969"/>
+    <mergeCell ref="H968:H969"/>
+    <mergeCell ref="I968:I969"/>
+    <mergeCell ref="J968:J969"/>
+    <mergeCell ref="K968:K969"/>
+    <mergeCell ref="L968:L969"/>
+    <mergeCell ref="M968:M969"/>
+    <mergeCell ref="W965:W966"/>
+    <mergeCell ref="X965:X966"/>
+    <mergeCell ref="Y965:Y966"/>
+    <mergeCell ref="Z965:Z966"/>
+    <mergeCell ref="A968:A969"/>
+    <mergeCell ref="B968:B969"/>
+    <mergeCell ref="C968:C969"/>
+    <mergeCell ref="D968:D969"/>
+    <mergeCell ref="F968:F969"/>
+    <mergeCell ref="G968:G969"/>
+    <mergeCell ref="Q965:Q966"/>
+    <mergeCell ref="R965:R966"/>
+    <mergeCell ref="S965:S966"/>
+    <mergeCell ref="T965:T966"/>
+    <mergeCell ref="U965:U966"/>
+    <mergeCell ref="V965:V966"/>
+    <mergeCell ref="K965:K966"/>
+    <mergeCell ref="L965:L966"/>
+    <mergeCell ref="M965:M966"/>
+    <mergeCell ref="N965:N966"/>
+    <mergeCell ref="O965:O966"/>
+    <mergeCell ref="P965:P966"/>
+    <mergeCell ref="A965:A966"/>
+    <mergeCell ref="B965:B966"/>
+    <mergeCell ref="C965:C966"/>
+    <mergeCell ref="D965:D966"/>
+    <mergeCell ref="F965:F966"/>
+    <mergeCell ref="G965:G966"/>
+    <mergeCell ref="H965:H966"/>
+    <mergeCell ref="I965:I966"/>
+    <mergeCell ref="J965:J966"/>
+    <mergeCell ref="T963:T964"/>
+    <mergeCell ref="U963:U964"/>
+    <mergeCell ref="V963:V964"/>
+    <mergeCell ref="W963:W964"/>
+    <mergeCell ref="X963:X964"/>
+    <mergeCell ref="Y963:Y964"/>
+    <mergeCell ref="N963:N964"/>
+    <mergeCell ref="O963:O964"/>
+    <mergeCell ref="P963:P964"/>
+    <mergeCell ref="Q963:Q964"/>
+    <mergeCell ref="R963:R964"/>
+    <mergeCell ref="S963:S964"/>
+    <mergeCell ref="H963:H964"/>
+    <mergeCell ref="I963:I964"/>
+    <mergeCell ref="J963:J964"/>
+    <mergeCell ref="K963:K964"/>
+    <mergeCell ref="L963:L964"/>
+    <mergeCell ref="M963:M964"/>
+    <mergeCell ref="R957:S957"/>
+    <mergeCell ref="S959:T959"/>
+    <mergeCell ref="Q960:R960"/>
+    <mergeCell ref="R961:S961"/>
+    <mergeCell ref="A963:A964"/>
+    <mergeCell ref="B963:B964"/>
+    <mergeCell ref="C963:C964"/>
+    <mergeCell ref="D963:D964"/>
+    <mergeCell ref="F963:F964"/>
+    <mergeCell ref="G963:G964"/>
+    <mergeCell ref="U955:U956"/>
+    <mergeCell ref="V955:V956"/>
+    <mergeCell ref="W955:W956"/>
+    <mergeCell ref="X955:X956"/>
+    <mergeCell ref="Y955:Y956"/>
+    <mergeCell ref="Z955:Z956"/>
+    <mergeCell ref="N955:N956"/>
+    <mergeCell ref="O955:O956"/>
+    <mergeCell ref="P955:P956"/>
+    <mergeCell ref="Q955:Q956"/>
+    <mergeCell ref="R955:S955"/>
+    <mergeCell ref="T955:T956"/>
+    <mergeCell ref="H955:H956"/>
+    <mergeCell ref="I955:I956"/>
+    <mergeCell ref="J955:J956"/>
+    <mergeCell ref="K955:K956"/>
+    <mergeCell ref="L955:L956"/>
+    <mergeCell ref="M955:M956"/>
+    <mergeCell ref="Z963:Z964"/>
+    <mergeCell ref="Q928:R928"/>
+    <mergeCell ref="S930:T930"/>
+    <mergeCell ref="R935:S935"/>
+    <mergeCell ref="R936:S936"/>
+    <mergeCell ref="W953:W954"/>
+    <mergeCell ref="X953:X954"/>
+    <mergeCell ref="Y953:Y954"/>
+    <mergeCell ref="Z953:Z954"/>
+    <mergeCell ref="A955:A956"/>
+    <mergeCell ref="B955:B956"/>
+    <mergeCell ref="C955:C956"/>
+    <mergeCell ref="D955:D956"/>
+    <mergeCell ref="F955:F956"/>
+    <mergeCell ref="G955:G956"/>
+    <mergeCell ref="Q953:Q954"/>
+    <mergeCell ref="R953:R954"/>
+    <mergeCell ref="S953:S954"/>
+    <mergeCell ref="T953:T954"/>
+    <mergeCell ref="U953:U954"/>
+    <mergeCell ref="V953:V954"/>
+    <mergeCell ref="K953:K954"/>
+    <mergeCell ref="L953:L954"/>
+    <mergeCell ref="M953:M954"/>
+    <mergeCell ref="N953:N954"/>
+    <mergeCell ref="O953:O954"/>
+    <mergeCell ref="P953:P954"/>
+    <mergeCell ref="Z919:Z920"/>
+    <mergeCell ref="Q922:R922"/>
+    <mergeCell ref="P919:P920"/>
+    <mergeCell ref="Q919:Q920"/>
+    <mergeCell ref="R919:R920"/>
+    <mergeCell ref="S919:S920"/>
+    <mergeCell ref="T919:T920"/>
+    <mergeCell ref="U919:U920"/>
+    <mergeCell ref="J919:J920"/>
+    <mergeCell ref="K919:K920"/>
+    <mergeCell ref="L919:L920"/>
+    <mergeCell ref="M919:M920"/>
+    <mergeCell ref="N919:N920"/>
+    <mergeCell ref="O919:O920"/>
+    <mergeCell ref="Q951:R951"/>
+    <mergeCell ref="A953:A954"/>
+    <mergeCell ref="B953:B954"/>
+    <mergeCell ref="C953:C954"/>
+    <mergeCell ref="D953:D954"/>
+    <mergeCell ref="F953:F954"/>
+    <mergeCell ref="G953:G954"/>
+    <mergeCell ref="H953:H954"/>
+    <mergeCell ref="I953:I954"/>
+    <mergeCell ref="J953:J954"/>
+    <mergeCell ref="S937:T937"/>
+    <mergeCell ref="R939:S939"/>
+    <mergeCell ref="Q945:R945"/>
+    <mergeCell ref="Q946:R946"/>
+    <mergeCell ref="Q948:R948"/>
+    <mergeCell ref="T950:U950"/>
+    <mergeCell ref="R924:S924"/>
+    <mergeCell ref="S927:T927"/>
+    <mergeCell ref="S915:T915"/>
+    <mergeCell ref="Q917:R917"/>
+    <mergeCell ref="A919:A920"/>
+    <mergeCell ref="B919:B920"/>
+    <mergeCell ref="C919:C920"/>
+    <mergeCell ref="D919:D920"/>
+    <mergeCell ref="F919:F920"/>
+    <mergeCell ref="G919:G920"/>
+    <mergeCell ref="H919:H920"/>
+    <mergeCell ref="I919:I920"/>
+    <mergeCell ref="W906:W907"/>
+    <mergeCell ref="X906:X907"/>
+    <mergeCell ref="Y906:Y907"/>
+    <mergeCell ref="Z906:Z907"/>
+    <mergeCell ref="U911:V911"/>
+    <mergeCell ref="R912:S912"/>
+    <mergeCell ref="Q906:Q907"/>
+    <mergeCell ref="R906:R907"/>
+    <mergeCell ref="S906:S907"/>
+    <mergeCell ref="T906:T907"/>
+    <mergeCell ref="U906:U907"/>
+    <mergeCell ref="V906:V907"/>
+    <mergeCell ref="K906:K907"/>
+    <mergeCell ref="L906:L907"/>
+    <mergeCell ref="M906:M907"/>
+    <mergeCell ref="N906:N907"/>
+    <mergeCell ref="O906:O907"/>
+    <mergeCell ref="P906:P907"/>
+    <mergeCell ref="V919:V920"/>
+    <mergeCell ref="W919:W920"/>
+    <mergeCell ref="X919:X920"/>
+    <mergeCell ref="Y919:Y920"/>
+    <mergeCell ref="A906:A907"/>
+    <mergeCell ref="B906:B907"/>
+    <mergeCell ref="C906:C907"/>
+    <mergeCell ref="D906:D907"/>
+    <mergeCell ref="F906:F907"/>
+    <mergeCell ref="G906:G907"/>
+    <mergeCell ref="H906:H907"/>
+    <mergeCell ref="I906:I907"/>
+    <mergeCell ref="J906:J907"/>
+    <mergeCell ref="T904:T905"/>
+    <mergeCell ref="U904:U905"/>
+    <mergeCell ref="V904:V905"/>
+    <mergeCell ref="W904:W905"/>
+    <mergeCell ref="X904:X905"/>
+    <mergeCell ref="Y904:Y905"/>
+    <mergeCell ref="M904:M905"/>
+    <mergeCell ref="N904:N905"/>
+    <mergeCell ref="O904:O905"/>
+    <mergeCell ref="P904:P905"/>
+    <mergeCell ref="Q904:Q905"/>
+    <mergeCell ref="R904:S904"/>
+    <mergeCell ref="G904:G905"/>
+    <mergeCell ref="H904:H905"/>
+    <mergeCell ref="I904:I905"/>
+    <mergeCell ref="J904:J905"/>
+    <mergeCell ref="K904:K905"/>
+    <mergeCell ref="L904:L905"/>
+    <mergeCell ref="R893:S893"/>
+    <mergeCell ref="Q894:R894"/>
+    <mergeCell ref="Q898:R898"/>
+    <mergeCell ref="R901:S901"/>
+    <mergeCell ref="R903:S903"/>
+    <mergeCell ref="A904:A905"/>
+    <mergeCell ref="B904:B905"/>
+    <mergeCell ref="C904:C905"/>
+    <mergeCell ref="D904:D905"/>
+    <mergeCell ref="F904:F905"/>
+    <mergeCell ref="U887:U889"/>
+    <mergeCell ref="V887:V889"/>
+    <mergeCell ref="W887:W889"/>
+    <mergeCell ref="X887:X889"/>
+    <mergeCell ref="Y887:Y889"/>
+    <mergeCell ref="Z887:Z889"/>
+    <mergeCell ref="O887:O889"/>
+    <mergeCell ref="P887:P889"/>
+    <mergeCell ref="Q887:Q889"/>
+    <mergeCell ref="R887:R889"/>
+    <mergeCell ref="S887:S889"/>
+    <mergeCell ref="T887:T889"/>
+    <mergeCell ref="I887:I889"/>
+    <mergeCell ref="J887:J889"/>
+    <mergeCell ref="K887:K889"/>
+    <mergeCell ref="L887:L889"/>
+    <mergeCell ref="M887:M889"/>
+    <mergeCell ref="N887:N889"/>
+    <mergeCell ref="Z904:Z905"/>
+    <mergeCell ref="R883:S883"/>
+    <mergeCell ref="R884:S884"/>
+    <mergeCell ref="R886:S886"/>
+    <mergeCell ref="A887:A889"/>
+    <mergeCell ref="B887:B889"/>
+    <mergeCell ref="C887:C889"/>
+    <mergeCell ref="D887:D889"/>
+    <mergeCell ref="F887:F889"/>
+    <mergeCell ref="G887:G889"/>
+    <mergeCell ref="H887:H889"/>
+    <mergeCell ref="Q871:R871"/>
+    <mergeCell ref="Q873:R873"/>
+    <mergeCell ref="R875:S875"/>
+    <mergeCell ref="Q876:R876"/>
+    <mergeCell ref="T877:U877"/>
+    <mergeCell ref="S881:T881"/>
+    <mergeCell ref="Z850:Z851"/>
+    <mergeCell ref="Q852:R852"/>
+    <mergeCell ref="R853:S853"/>
+    <mergeCell ref="Q866:R866"/>
+    <mergeCell ref="Q869:R869"/>
+    <mergeCell ref="Q870:R870"/>
+    <mergeCell ref="T850:T851"/>
+    <mergeCell ref="U850:U851"/>
+    <mergeCell ref="V850:V851"/>
+    <mergeCell ref="W850:W851"/>
+    <mergeCell ref="X850:X851"/>
+    <mergeCell ref="Y850:Y851"/>
+    <mergeCell ref="N850:N851"/>
+    <mergeCell ref="O850:O851"/>
+    <mergeCell ref="P850:P851"/>
+    <mergeCell ref="Q850:Q851"/>
+    <mergeCell ref="R850:R851"/>
+    <mergeCell ref="S850:S851"/>
+    <mergeCell ref="H850:H851"/>
+    <mergeCell ref="I850:I851"/>
+    <mergeCell ref="J850:J851"/>
+    <mergeCell ref="K850:K851"/>
+    <mergeCell ref="L850:L851"/>
+    <mergeCell ref="M850:M851"/>
+    <mergeCell ref="X843:X844"/>
+    <mergeCell ref="Y843:Y844"/>
+    <mergeCell ref="Z843:Z844"/>
+    <mergeCell ref="Q845:R845"/>
+    <mergeCell ref="A850:A851"/>
+    <mergeCell ref="B850:B851"/>
+    <mergeCell ref="C850:C851"/>
+    <mergeCell ref="D850:D851"/>
+    <mergeCell ref="F850:F851"/>
+    <mergeCell ref="G850:G851"/>
+    <mergeCell ref="Q843:Q844"/>
+    <mergeCell ref="R843:R844"/>
+    <mergeCell ref="S843:S844"/>
+    <mergeCell ref="T843:U843"/>
+    <mergeCell ref="V843:V844"/>
+    <mergeCell ref="W843:W844"/>
+    <mergeCell ref="K843:K844"/>
+    <mergeCell ref="L843:L844"/>
+    <mergeCell ref="M843:M844"/>
+    <mergeCell ref="N843:N844"/>
+    <mergeCell ref="O843:O844"/>
+    <mergeCell ref="P843:P844"/>
+    <mergeCell ref="R835:S835"/>
+    <mergeCell ref="A843:A844"/>
+    <mergeCell ref="B843:B844"/>
+    <mergeCell ref="C843:C844"/>
+    <mergeCell ref="D843:D844"/>
+    <mergeCell ref="F843:F844"/>
+    <mergeCell ref="G843:G844"/>
+    <mergeCell ref="H843:H844"/>
+    <mergeCell ref="I843:I844"/>
+    <mergeCell ref="J843:J844"/>
+    <mergeCell ref="Z821:Z823"/>
+    <mergeCell ref="Q825:R825"/>
+    <mergeCell ref="Q826:R826"/>
+    <mergeCell ref="R830:S830"/>
+    <mergeCell ref="Q832:R832"/>
+    <mergeCell ref="R833:S833"/>
+    <mergeCell ref="S821:T821"/>
+    <mergeCell ref="U821:U823"/>
+    <mergeCell ref="V821:V823"/>
+    <mergeCell ref="W821:W823"/>
+    <mergeCell ref="X821:X823"/>
+    <mergeCell ref="Y821:Y823"/>
+    <mergeCell ref="M821:M823"/>
+    <mergeCell ref="N821:N823"/>
+    <mergeCell ref="O821:O823"/>
+    <mergeCell ref="P821:P823"/>
+    <mergeCell ref="Q821:Q823"/>
+    <mergeCell ref="R821:R823"/>
+    <mergeCell ref="G821:G823"/>
+    <mergeCell ref="H821:H823"/>
+    <mergeCell ref="I821:I823"/>
+    <mergeCell ref="J821:J823"/>
+    <mergeCell ref="K821:K823"/>
+    <mergeCell ref="L821:L823"/>
+    <mergeCell ref="Q800:R800"/>
+    <mergeCell ref="Q803:R803"/>
+    <mergeCell ref="S805:T805"/>
+    <mergeCell ref="R807:S807"/>
+    <mergeCell ref="S818:T818"/>
+    <mergeCell ref="A821:A823"/>
+    <mergeCell ref="B821:B823"/>
+    <mergeCell ref="C821:C823"/>
+    <mergeCell ref="D821:D823"/>
+    <mergeCell ref="F821:F823"/>
+    <mergeCell ref="V796:V797"/>
+    <mergeCell ref="W796:W797"/>
+    <mergeCell ref="X796:X797"/>
+    <mergeCell ref="Y796:Y797"/>
+    <mergeCell ref="Z796:Z797"/>
+    <mergeCell ref="S798:T798"/>
+    <mergeCell ref="O796:O797"/>
+    <mergeCell ref="P796:P797"/>
+    <mergeCell ref="Q796:Q797"/>
+    <mergeCell ref="R796:S796"/>
+    <mergeCell ref="T796:T797"/>
+    <mergeCell ref="U796:U797"/>
+    <mergeCell ref="I796:I797"/>
+    <mergeCell ref="J796:J797"/>
+    <mergeCell ref="K796:K797"/>
+    <mergeCell ref="L796:L797"/>
+    <mergeCell ref="M796:M797"/>
+    <mergeCell ref="N796:N797"/>
+    <mergeCell ref="X794:X795"/>
+    <mergeCell ref="Y794:Y795"/>
+    <mergeCell ref="Z794:Z795"/>
+    <mergeCell ref="A796:A797"/>
+    <mergeCell ref="B796:B797"/>
+    <mergeCell ref="C796:C797"/>
+    <mergeCell ref="D796:D797"/>
+    <mergeCell ref="F796:F797"/>
+    <mergeCell ref="G796:G797"/>
+    <mergeCell ref="H796:H797"/>
+    <mergeCell ref="Q794:Q795"/>
+    <mergeCell ref="R794:S794"/>
+    <mergeCell ref="T794:T795"/>
+    <mergeCell ref="U794:U795"/>
+    <mergeCell ref="V794:V795"/>
+    <mergeCell ref="W794:W795"/>
+    <mergeCell ref="K794:K795"/>
+    <mergeCell ref="L794:L795"/>
+    <mergeCell ref="M794:M795"/>
+    <mergeCell ref="N794:N795"/>
+    <mergeCell ref="O794:O795"/>
+    <mergeCell ref="P794:P795"/>
+    <mergeCell ref="R792:S792"/>
+    <mergeCell ref="A794:A795"/>
+    <mergeCell ref="B794:B795"/>
+    <mergeCell ref="C794:C795"/>
+    <mergeCell ref="D794:D795"/>
+    <mergeCell ref="F794:F795"/>
+    <mergeCell ref="G794:G795"/>
+    <mergeCell ref="H794:H795"/>
+    <mergeCell ref="I794:I795"/>
+    <mergeCell ref="J794:J795"/>
+    <mergeCell ref="U788:U789"/>
+    <mergeCell ref="V788:V789"/>
+    <mergeCell ref="W788:W789"/>
+    <mergeCell ref="X788:X789"/>
+    <mergeCell ref="Y788:Y789"/>
+    <mergeCell ref="Z788:Z789"/>
+    <mergeCell ref="N788:N789"/>
+    <mergeCell ref="O788:O789"/>
+    <mergeCell ref="P788:P789"/>
+    <mergeCell ref="Q788:Q789"/>
+    <mergeCell ref="R788:S788"/>
+    <mergeCell ref="T788:T789"/>
+    <mergeCell ref="H788:H789"/>
+    <mergeCell ref="I788:I789"/>
+    <mergeCell ref="J788:J789"/>
+    <mergeCell ref="K788:K789"/>
+    <mergeCell ref="L788:L789"/>
+    <mergeCell ref="M788:M789"/>
+    <mergeCell ref="A788:A789"/>
+    <mergeCell ref="B788:B789"/>
+    <mergeCell ref="C788:C789"/>
+    <mergeCell ref="D788:D789"/>
+    <mergeCell ref="F788:F789"/>
+    <mergeCell ref="G788:G789"/>
+    <mergeCell ref="U785:U786"/>
+    <mergeCell ref="V785:V786"/>
+    <mergeCell ref="W785:W786"/>
+    <mergeCell ref="X785:X786"/>
+    <mergeCell ref="Y785:Y786"/>
+    <mergeCell ref="Z785:Z786"/>
+    <mergeCell ref="O785:O786"/>
+    <mergeCell ref="P785:P786"/>
+    <mergeCell ref="Q785:Q786"/>
+    <mergeCell ref="R785:R786"/>
+    <mergeCell ref="S785:S786"/>
+    <mergeCell ref="T785:T786"/>
+    <mergeCell ref="I785:I786"/>
+    <mergeCell ref="J785:J786"/>
+    <mergeCell ref="K785:K786"/>
+    <mergeCell ref="L785:L786"/>
+    <mergeCell ref="M785:M786"/>
+    <mergeCell ref="N785:N786"/>
+    <mergeCell ref="Y779:Y780"/>
+    <mergeCell ref="Z779:Z780"/>
+    <mergeCell ref="A785:A786"/>
+    <mergeCell ref="B785:B786"/>
+    <mergeCell ref="C785:C786"/>
+    <mergeCell ref="D785:D786"/>
+    <mergeCell ref="F785:F786"/>
+    <mergeCell ref="G785:G786"/>
+    <mergeCell ref="H785:H786"/>
+    <mergeCell ref="Q779:R779"/>
+    <mergeCell ref="S779:S780"/>
+    <mergeCell ref="T779:T780"/>
+    <mergeCell ref="U779:U780"/>
+    <mergeCell ref="V779:V780"/>
+    <mergeCell ref="W779:W780"/>
+    <mergeCell ref="K779:K780"/>
+    <mergeCell ref="L779:L780"/>
+    <mergeCell ref="M779:M780"/>
+    <mergeCell ref="N779:N780"/>
+    <mergeCell ref="O779:O780"/>
+    <mergeCell ref="P779:P780"/>
+    <mergeCell ref="A779:A780"/>
+    <mergeCell ref="B779:B780"/>
+    <mergeCell ref="C779:C780"/>
+    <mergeCell ref="D779:D780"/>
+    <mergeCell ref="F779:F780"/>
+    <mergeCell ref="G779:G780"/>
+    <mergeCell ref="H779:H780"/>
+    <mergeCell ref="I779:I780"/>
+    <mergeCell ref="J779:J780"/>
+    <mergeCell ref="T776:T777"/>
+    <mergeCell ref="U776:U777"/>
+    <mergeCell ref="V776:V777"/>
+    <mergeCell ref="W776:W777"/>
+    <mergeCell ref="X776:X777"/>
+    <mergeCell ref="Y776:Y777"/>
+    <mergeCell ref="N776:N777"/>
+    <mergeCell ref="O776:O777"/>
+    <mergeCell ref="P776:P777"/>
+    <mergeCell ref="Q776:Q777"/>
+    <mergeCell ref="R776:R777"/>
+    <mergeCell ref="S776:S777"/>
+    <mergeCell ref="H776:H777"/>
+    <mergeCell ref="I776:I777"/>
+    <mergeCell ref="J776:J777"/>
+    <mergeCell ref="K776:K777"/>
+    <mergeCell ref="L776:L777"/>
+    <mergeCell ref="M776:M777"/>
+    <mergeCell ref="A776:A777"/>
+    <mergeCell ref="B776:B777"/>
+    <mergeCell ref="C776:C777"/>
+    <mergeCell ref="D776:D777"/>
+    <mergeCell ref="X779:X780"/>
+    <mergeCell ref="F776:F777"/>
+    <mergeCell ref="G776:G777"/>
+    <mergeCell ref="W767:W768"/>
+    <mergeCell ref="X767:X768"/>
+    <mergeCell ref="Y767:Y768"/>
+    <mergeCell ref="Z767:Z768"/>
+    <mergeCell ref="Q769:R769"/>
+    <mergeCell ref="Q772:R772"/>
+    <mergeCell ref="P767:P768"/>
+    <mergeCell ref="Q767:Q768"/>
+    <mergeCell ref="R767:R768"/>
+    <mergeCell ref="S767:S768"/>
+    <mergeCell ref="T767:U767"/>
+    <mergeCell ref="V767:V768"/>
+    <mergeCell ref="J767:J768"/>
+    <mergeCell ref="K767:K768"/>
+    <mergeCell ref="L767:L768"/>
+    <mergeCell ref="M767:M768"/>
+    <mergeCell ref="N767:N768"/>
+    <mergeCell ref="O767:O768"/>
+    <mergeCell ref="Z776:Z777"/>
+    <mergeCell ref="Q762:R762"/>
+    <mergeCell ref="T766:U766"/>
+    <mergeCell ref="A767:A768"/>
+    <mergeCell ref="B767:B768"/>
+    <mergeCell ref="C767:C768"/>
+    <mergeCell ref="D767:D768"/>
+    <mergeCell ref="F767:F768"/>
+    <mergeCell ref="G767:G768"/>
+    <mergeCell ref="H767:H768"/>
+    <mergeCell ref="I767:I768"/>
+    <mergeCell ref="Z750:Z751"/>
+    <mergeCell ref="Q755:R755"/>
+    <mergeCell ref="R757:S757"/>
+    <mergeCell ref="R758:S758"/>
+    <mergeCell ref="R760:S760"/>
+    <mergeCell ref="Q761:R761"/>
+    <mergeCell ref="T750:T751"/>
+    <mergeCell ref="U750:U751"/>
+    <mergeCell ref="V750:V751"/>
+    <mergeCell ref="W750:W751"/>
+    <mergeCell ref="X750:X751"/>
+    <mergeCell ref="Y750:Y751"/>
+    <mergeCell ref="N750:N751"/>
+    <mergeCell ref="O750:O751"/>
+    <mergeCell ref="P750:P751"/>
+    <mergeCell ref="Q750:Q751"/>
+    <mergeCell ref="R750:R751"/>
+    <mergeCell ref="S750:S751"/>
+    <mergeCell ref="H750:H751"/>
+    <mergeCell ref="I750:I751"/>
+    <mergeCell ref="J750:J751"/>
+    <mergeCell ref="K750:K751"/>
+    <mergeCell ref="L750:L751"/>
+    <mergeCell ref="M750:M751"/>
+    <mergeCell ref="W747:W748"/>
+    <mergeCell ref="X747:X748"/>
+    <mergeCell ref="Y747:Y748"/>
+    <mergeCell ref="Z747:Z748"/>
+    <mergeCell ref="A750:A751"/>
+    <mergeCell ref="B750:B751"/>
+    <mergeCell ref="C750:C751"/>
+    <mergeCell ref="D750:D751"/>
+    <mergeCell ref="F750:F751"/>
+    <mergeCell ref="G750:G751"/>
+    <mergeCell ref="Q747:Q748"/>
+    <mergeCell ref="R747:R748"/>
+    <mergeCell ref="S747:S748"/>
+    <mergeCell ref="T747:T748"/>
+    <mergeCell ref="U747:U748"/>
+    <mergeCell ref="V747:V748"/>
+    <mergeCell ref="K747:K748"/>
+    <mergeCell ref="L747:L748"/>
+    <mergeCell ref="M747:M748"/>
+    <mergeCell ref="N747:N748"/>
+    <mergeCell ref="O747:O748"/>
+    <mergeCell ref="P747:P748"/>
+    <mergeCell ref="S746:T746"/>
+    <mergeCell ref="A747:A748"/>
+    <mergeCell ref="B747:B748"/>
+    <mergeCell ref="C747:C748"/>
+    <mergeCell ref="D747:D748"/>
+    <mergeCell ref="F747:F748"/>
+    <mergeCell ref="G747:G748"/>
+    <mergeCell ref="H747:H748"/>
+    <mergeCell ref="I747:I748"/>
+    <mergeCell ref="J747:J748"/>
+    <mergeCell ref="V742:V743"/>
+    <mergeCell ref="W742:W743"/>
+    <mergeCell ref="X742:X743"/>
+    <mergeCell ref="Y742:Y743"/>
+    <mergeCell ref="Z742:Z743"/>
+    <mergeCell ref="R744:S744"/>
+    <mergeCell ref="O742:O743"/>
+    <mergeCell ref="P742:P743"/>
+    <mergeCell ref="Q742:Q743"/>
+    <mergeCell ref="R742:S742"/>
+    <mergeCell ref="T742:T743"/>
+    <mergeCell ref="U742:U743"/>
+    <mergeCell ref="I742:I743"/>
+    <mergeCell ref="J742:J743"/>
+    <mergeCell ref="K742:K743"/>
+    <mergeCell ref="L742:L743"/>
+    <mergeCell ref="M742:M743"/>
+    <mergeCell ref="N742:N743"/>
+    <mergeCell ref="Z734:Z736"/>
+    <mergeCell ref="Q740:R740"/>
+    <mergeCell ref="W741:X741"/>
+    <mergeCell ref="A742:A743"/>
+    <mergeCell ref="B742:B743"/>
+    <mergeCell ref="C742:C743"/>
+    <mergeCell ref="D742:D743"/>
+    <mergeCell ref="F742:F743"/>
+    <mergeCell ref="G742:G743"/>
+    <mergeCell ref="H742:H743"/>
+    <mergeCell ref="T734:T736"/>
+    <mergeCell ref="U734:U736"/>
+    <mergeCell ref="V734:V736"/>
+    <mergeCell ref="W734:W736"/>
+    <mergeCell ref="X734:X736"/>
+    <mergeCell ref="Y734:Y736"/>
+    <mergeCell ref="M734:M736"/>
+    <mergeCell ref="N734:N736"/>
+    <mergeCell ref="O734:O736"/>
+    <mergeCell ref="P734:P736"/>
+    <mergeCell ref="Q734:Q736"/>
+    <mergeCell ref="R734:S734"/>
+    <mergeCell ref="G734:G736"/>
+    <mergeCell ref="H734:H736"/>
+    <mergeCell ref="I734:I736"/>
+    <mergeCell ref="J734:J736"/>
+    <mergeCell ref="K734:K736"/>
+    <mergeCell ref="L734:L736"/>
+    <mergeCell ref="R731:S731"/>
+    <mergeCell ref="A734:A736"/>
+    <mergeCell ref="B734:B736"/>
+    <mergeCell ref="C734:C736"/>
+    <mergeCell ref="D734:D736"/>
+    <mergeCell ref="F734:F736"/>
+    <mergeCell ref="Q728:Q729"/>
+    <mergeCell ref="R728:R729"/>
+    <mergeCell ref="S728:S729"/>
+    <mergeCell ref="T728:T729"/>
+    <mergeCell ref="U728:U729"/>
+    <mergeCell ref="V728:V729"/>
+    <mergeCell ref="K728:K729"/>
+    <mergeCell ref="L728:L729"/>
+    <mergeCell ref="M728:M729"/>
+    <mergeCell ref="N728:N729"/>
+    <mergeCell ref="O728:O729"/>
+    <mergeCell ref="P728:P729"/>
+    <mergeCell ref="Z726:Z727"/>
+    <mergeCell ref="A728:A729"/>
+    <mergeCell ref="B728:B729"/>
+    <mergeCell ref="C728:C729"/>
+    <mergeCell ref="D728:D729"/>
+    <mergeCell ref="F728:F729"/>
+    <mergeCell ref="G728:G729"/>
+    <mergeCell ref="H728:H729"/>
+    <mergeCell ref="I728:I729"/>
+    <mergeCell ref="J728:J729"/>
+    <mergeCell ref="T726:T727"/>
+    <mergeCell ref="U726:U727"/>
+    <mergeCell ref="V726:V727"/>
+    <mergeCell ref="W726:W727"/>
+    <mergeCell ref="X726:X727"/>
+    <mergeCell ref="Y726:Y727"/>
+    <mergeCell ref="M726:M727"/>
+    <mergeCell ref="N726:N727"/>
+    <mergeCell ref="O726:O727"/>
+    <mergeCell ref="P726:P727"/>
+    <mergeCell ref="Q726:Q727"/>
+    <mergeCell ref="R726:S726"/>
+    <mergeCell ref="G726:G727"/>
+    <mergeCell ref="H726:H727"/>
+    <mergeCell ref="I726:I727"/>
+    <mergeCell ref="J726:J727"/>
+    <mergeCell ref="K726:K727"/>
+    <mergeCell ref="L726:L727"/>
+    <mergeCell ref="W728:W729"/>
+    <mergeCell ref="X728:X729"/>
+    <mergeCell ref="Y728:Y729"/>
+    <mergeCell ref="Z728:Z729"/>
+    <mergeCell ref="T709:U709"/>
+    <mergeCell ref="R714:S714"/>
+    <mergeCell ref="R717:S717"/>
+    <mergeCell ref="Q721:R721"/>
+    <mergeCell ref="R722:S722"/>
+    <mergeCell ref="A726:A727"/>
+    <mergeCell ref="B726:B727"/>
+    <mergeCell ref="C726:C727"/>
+    <mergeCell ref="D726:D727"/>
+    <mergeCell ref="F726:F727"/>
+    <mergeCell ref="R699:S699"/>
+    <mergeCell ref="Q700:R700"/>
+    <mergeCell ref="S703:T703"/>
+    <mergeCell ref="R705:S705"/>
+    <mergeCell ref="Q706:R706"/>
+    <mergeCell ref="S708:T708"/>
+    <mergeCell ref="Y687:Y688"/>
+    <mergeCell ref="G687:G688"/>
+    <mergeCell ref="H687:H688"/>
+    <mergeCell ref="I687:I688"/>
+    <mergeCell ref="J687:J688"/>
+    <mergeCell ref="K687:K688"/>
+    <mergeCell ref="L687:L688"/>
+    <mergeCell ref="Z687:Z688"/>
+    <mergeCell ref="Q692:R692"/>
+    <mergeCell ref="Q693:R693"/>
+    <mergeCell ref="Q694:R694"/>
+    <mergeCell ref="R697:S697"/>
+    <mergeCell ref="S687:S688"/>
+    <mergeCell ref="T687:T688"/>
+    <mergeCell ref="U687:U688"/>
+    <mergeCell ref="V687:V688"/>
+    <mergeCell ref="W687:W688"/>
+    <mergeCell ref="X687:X688"/>
+    <mergeCell ref="M687:M688"/>
+    <mergeCell ref="N687:N688"/>
+    <mergeCell ref="O687:O688"/>
+    <mergeCell ref="P687:P688"/>
+    <mergeCell ref="Q687:Q688"/>
+    <mergeCell ref="R687:R688"/>
+    <mergeCell ref="Q683:R683"/>
+    <mergeCell ref="A687:A688"/>
+    <mergeCell ref="B687:B688"/>
+    <mergeCell ref="C687:C688"/>
+    <mergeCell ref="D687:D688"/>
+    <mergeCell ref="F687:F688"/>
+    <mergeCell ref="P681:P682"/>
+    <mergeCell ref="Q681:R681"/>
+    <mergeCell ref="S681:S682"/>
+    <mergeCell ref="T681:T682"/>
+    <mergeCell ref="U681:U682"/>
+    <mergeCell ref="V681:V682"/>
+    <mergeCell ref="J681:J682"/>
+    <mergeCell ref="K681:K682"/>
+    <mergeCell ref="L681:L682"/>
+    <mergeCell ref="M681:M682"/>
+    <mergeCell ref="N681:N682"/>
+    <mergeCell ref="O681:O682"/>
+    <mergeCell ref="Z678:Z679"/>
+    <mergeCell ref="A681:A682"/>
+    <mergeCell ref="B681:B682"/>
+    <mergeCell ref="C681:C682"/>
+    <mergeCell ref="D681:D682"/>
+    <mergeCell ref="F681:F682"/>
+    <mergeCell ref="G681:G682"/>
+    <mergeCell ref="H681:H682"/>
+    <mergeCell ref="I681:I682"/>
+    <mergeCell ref="S678:S679"/>
+    <mergeCell ref="T678:T679"/>
+    <mergeCell ref="U678:U679"/>
+    <mergeCell ref="V678:V679"/>
+    <mergeCell ref="W678:W679"/>
+    <mergeCell ref="X678:X679"/>
+    <mergeCell ref="M678:M679"/>
+    <mergeCell ref="N678:N679"/>
+    <mergeCell ref="O678:O679"/>
+    <mergeCell ref="P678:P679"/>
+    <mergeCell ref="Q678:Q679"/>
+    <mergeCell ref="R678:R679"/>
+    <mergeCell ref="G678:G679"/>
+    <mergeCell ref="H678:H679"/>
+    <mergeCell ref="I678:I679"/>
+    <mergeCell ref="J678:J679"/>
+    <mergeCell ref="K678:K679"/>
+    <mergeCell ref="L678:L679"/>
+    <mergeCell ref="W681:W682"/>
+    <mergeCell ref="X681:X682"/>
+    <mergeCell ref="Y681:Y682"/>
+    <mergeCell ref="Z681:Z682"/>
+    <mergeCell ref="Q675:R675"/>
+    <mergeCell ref="Q676:R676"/>
+    <mergeCell ref="X677:Y677"/>
+    <mergeCell ref="A678:A679"/>
+    <mergeCell ref="B678:B679"/>
+    <mergeCell ref="C678:C679"/>
+    <mergeCell ref="D678:D679"/>
+    <mergeCell ref="F678:F679"/>
+    <mergeCell ref="S672:S674"/>
+    <mergeCell ref="T672:T674"/>
+    <mergeCell ref="U672:U674"/>
+    <mergeCell ref="V672:V674"/>
+    <mergeCell ref="W672:W674"/>
+    <mergeCell ref="X672:X674"/>
+    <mergeCell ref="M672:M674"/>
+    <mergeCell ref="N672:N674"/>
+    <mergeCell ref="O672:O674"/>
+    <mergeCell ref="P672:P674"/>
+    <mergeCell ref="Q672:Q674"/>
+    <mergeCell ref="R672:R674"/>
+    <mergeCell ref="G672:G674"/>
+    <mergeCell ref="H672:H674"/>
+    <mergeCell ref="I672:I674"/>
+    <mergeCell ref="J672:J674"/>
+    <mergeCell ref="K672:K674"/>
+    <mergeCell ref="L672:L674"/>
+    <mergeCell ref="Y678:Y679"/>
+    <mergeCell ref="X665:X666"/>
+    <mergeCell ref="Y665:Y666"/>
+    <mergeCell ref="Z665:Z666"/>
+    <mergeCell ref="R669:S669"/>
+    <mergeCell ref="Q670:R670"/>
+    <mergeCell ref="A672:A674"/>
+    <mergeCell ref="B672:B674"/>
+    <mergeCell ref="C672:C674"/>
+    <mergeCell ref="D672:D674"/>
+    <mergeCell ref="F672:F674"/>
+    <mergeCell ref="Q665:R665"/>
+    <mergeCell ref="S665:S666"/>
+    <mergeCell ref="T665:T666"/>
+    <mergeCell ref="U665:U666"/>
+    <mergeCell ref="V665:V666"/>
+    <mergeCell ref="W665:W666"/>
+    <mergeCell ref="K665:K666"/>
+    <mergeCell ref="L665:L666"/>
+    <mergeCell ref="M665:M666"/>
+    <mergeCell ref="N665:N666"/>
+    <mergeCell ref="O665:O666"/>
+    <mergeCell ref="P665:P666"/>
+    <mergeCell ref="Y672:Y674"/>
+    <mergeCell ref="Z672:Z674"/>
+    <mergeCell ref="S664:T664"/>
+    <mergeCell ref="A665:A666"/>
+    <mergeCell ref="B665:B666"/>
+    <mergeCell ref="C665:C666"/>
+    <mergeCell ref="D665:D666"/>
+    <mergeCell ref="F665:F666"/>
+    <mergeCell ref="G665:G666"/>
+    <mergeCell ref="H665:H666"/>
+    <mergeCell ref="I665:I666"/>
+    <mergeCell ref="J665:J666"/>
+    <mergeCell ref="U659:U661"/>
+    <mergeCell ref="V659:V661"/>
+    <mergeCell ref="W659:W661"/>
+    <mergeCell ref="X659:X661"/>
+    <mergeCell ref="Y659:Y661"/>
+    <mergeCell ref="Z659:Z661"/>
+    <mergeCell ref="N659:N661"/>
+    <mergeCell ref="O659:O661"/>
+    <mergeCell ref="P659:P661"/>
+    <mergeCell ref="Q659:R659"/>
+    <mergeCell ref="S659:S661"/>
+    <mergeCell ref="T659:T661"/>
+    <mergeCell ref="H659:H661"/>
+    <mergeCell ref="I659:I661"/>
+    <mergeCell ref="J659:J661"/>
+    <mergeCell ref="K659:K661"/>
+    <mergeCell ref="L659:L661"/>
+    <mergeCell ref="M659:M661"/>
+    <mergeCell ref="A659:A661"/>
+    <mergeCell ref="B659:B661"/>
+    <mergeCell ref="C659:C661"/>
+    <mergeCell ref="D659:D661"/>
+    <mergeCell ref="F659:F661"/>
+    <mergeCell ref="G659:G661"/>
+    <mergeCell ref="U656:U657"/>
+    <mergeCell ref="V656:V657"/>
+    <mergeCell ref="W656:W657"/>
+    <mergeCell ref="X656:X657"/>
+    <mergeCell ref="Y656:Y657"/>
+    <mergeCell ref="Z656:Z657"/>
+    <mergeCell ref="O656:O657"/>
+    <mergeCell ref="P656:P657"/>
+    <mergeCell ref="Q656:Q657"/>
+    <mergeCell ref="R656:R657"/>
+    <mergeCell ref="S656:S657"/>
+    <mergeCell ref="T656:T657"/>
+    <mergeCell ref="I656:I657"/>
+    <mergeCell ref="J656:J657"/>
+    <mergeCell ref="K656:K657"/>
+    <mergeCell ref="L656:L657"/>
+    <mergeCell ref="M656:M657"/>
+    <mergeCell ref="N656:N657"/>
+    <mergeCell ref="T655:U655"/>
+    <mergeCell ref="A656:A657"/>
+    <mergeCell ref="B656:B657"/>
+    <mergeCell ref="C656:C657"/>
+    <mergeCell ref="D656:D657"/>
+    <mergeCell ref="F656:F657"/>
+    <mergeCell ref="G656:G657"/>
+    <mergeCell ref="H656:H657"/>
+    <mergeCell ref="S653:S654"/>
+    <mergeCell ref="T653:T654"/>
+    <mergeCell ref="U653:U654"/>
+    <mergeCell ref="V653:V654"/>
+    <mergeCell ref="W653:W654"/>
+    <mergeCell ref="X653:X654"/>
+    <mergeCell ref="M653:M654"/>
+    <mergeCell ref="N653:N654"/>
+    <mergeCell ref="O653:O654"/>
+    <mergeCell ref="P653:P654"/>
+    <mergeCell ref="Q653:Q654"/>
+    <mergeCell ref="R653:R654"/>
+    <mergeCell ref="G653:G654"/>
+    <mergeCell ref="H653:H654"/>
+    <mergeCell ref="I653:I654"/>
+    <mergeCell ref="J653:J654"/>
+    <mergeCell ref="K653:K654"/>
+    <mergeCell ref="L653:L654"/>
+    <mergeCell ref="Z638:Z639"/>
+    <mergeCell ref="S643:T643"/>
+    <mergeCell ref="R644:S644"/>
+    <mergeCell ref="Q645:R645"/>
+    <mergeCell ref="Q648:R648"/>
+    <mergeCell ref="A653:A654"/>
+    <mergeCell ref="B653:B654"/>
+    <mergeCell ref="C653:C654"/>
+    <mergeCell ref="D653:D654"/>
+    <mergeCell ref="F653:F654"/>
+    <mergeCell ref="T638:T639"/>
+    <mergeCell ref="U638:U639"/>
+    <mergeCell ref="V638:V639"/>
+    <mergeCell ref="W638:W639"/>
+    <mergeCell ref="X638:X639"/>
+    <mergeCell ref="Y638:Y639"/>
+    <mergeCell ref="N638:N639"/>
+    <mergeCell ref="O638:O639"/>
+    <mergeCell ref="P638:P639"/>
+    <mergeCell ref="Q638:Q639"/>
+    <mergeCell ref="R638:R639"/>
+    <mergeCell ref="S638:S639"/>
+    <mergeCell ref="H638:H639"/>
+    <mergeCell ref="I638:I639"/>
+    <mergeCell ref="J638:J639"/>
+    <mergeCell ref="K638:K639"/>
+    <mergeCell ref="L638:L639"/>
+    <mergeCell ref="M638:M639"/>
+    <mergeCell ref="Y653:Y654"/>
+    <mergeCell ref="Z653:Z654"/>
+    <mergeCell ref="A638:A639"/>
+    <mergeCell ref="B638:B639"/>
+    <mergeCell ref="C638:C639"/>
+    <mergeCell ref="D638:D639"/>
+    <mergeCell ref="F638:F639"/>
+    <mergeCell ref="G638:G639"/>
+    <mergeCell ref="Q636:Q637"/>
+    <mergeCell ref="R636:R637"/>
+    <mergeCell ref="S636:S637"/>
+    <mergeCell ref="T636:T637"/>
+    <mergeCell ref="U636:U637"/>
+    <mergeCell ref="V636:V637"/>
+    <mergeCell ref="K636:K637"/>
+    <mergeCell ref="L636:L637"/>
+    <mergeCell ref="M636:M637"/>
+    <mergeCell ref="N636:N637"/>
+    <mergeCell ref="O636:O637"/>
+    <mergeCell ref="P636:P637"/>
+    <mergeCell ref="Q635:R635"/>
+    <mergeCell ref="A636:A637"/>
+    <mergeCell ref="B636:B637"/>
+    <mergeCell ref="C636:C637"/>
+    <mergeCell ref="D636:D637"/>
+    <mergeCell ref="F636:F637"/>
+    <mergeCell ref="G636:G637"/>
+    <mergeCell ref="H636:H637"/>
+    <mergeCell ref="I636:I637"/>
+    <mergeCell ref="J636:J637"/>
+    <mergeCell ref="W628:W629"/>
+    <mergeCell ref="X628:X629"/>
+    <mergeCell ref="Y628:Y629"/>
+    <mergeCell ref="Z628:Z629"/>
+    <mergeCell ref="R632:S632"/>
+    <mergeCell ref="Q633:R633"/>
+    <mergeCell ref="P628:P629"/>
+    <mergeCell ref="Q628:Q629"/>
+    <mergeCell ref="R628:R629"/>
+    <mergeCell ref="S628:T628"/>
+    <mergeCell ref="U628:U629"/>
+    <mergeCell ref="V628:V629"/>
+    <mergeCell ref="J628:J629"/>
+    <mergeCell ref="K628:K629"/>
+    <mergeCell ref="L628:L629"/>
+    <mergeCell ref="M628:M629"/>
+    <mergeCell ref="N628:N629"/>
+    <mergeCell ref="O628:O629"/>
+    <mergeCell ref="W636:W637"/>
+    <mergeCell ref="X636:X637"/>
+    <mergeCell ref="Y636:Y637"/>
+    <mergeCell ref="Z636:Z637"/>
+    <mergeCell ref="S624:T624"/>
+    <mergeCell ref="R625:S625"/>
+    <mergeCell ref="A628:A629"/>
+    <mergeCell ref="B628:B629"/>
+    <mergeCell ref="C628:C629"/>
+    <mergeCell ref="D628:D629"/>
+    <mergeCell ref="F628:F629"/>
+    <mergeCell ref="G628:G629"/>
+    <mergeCell ref="H628:H629"/>
+    <mergeCell ref="I628:I629"/>
+    <mergeCell ref="Q610:R610"/>
+    <mergeCell ref="X612:Y612"/>
+    <mergeCell ref="R614:S614"/>
+    <mergeCell ref="Q615:R615"/>
+    <mergeCell ref="R620:S620"/>
+    <mergeCell ref="T621:U621"/>
+    <mergeCell ref="W603:W605"/>
+    <mergeCell ref="X603:X605"/>
+    <mergeCell ref="Y603:Y605"/>
+    <mergeCell ref="Z603:Z605"/>
+    <mergeCell ref="T606:U606"/>
+    <mergeCell ref="R607:S607"/>
+    <mergeCell ref="Q603:Q605"/>
+    <mergeCell ref="R603:R605"/>
+    <mergeCell ref="S603:S605"/>
+    <mergeCell ref="T603:T605"/>
+    <mergeCell ref="U603:U605"/>
+    <mergeCell ref="V603:V605"/>
+    <mergeCell ref="K603:K605"/>
+    <mergeCell ref="L603:L605"/>
+    <mergeCell ref="M603:M605"/>
+    <mergeCell ref="N603:N605"/>
+    <mergeCell ref="O603:O605"/>
+    <mergeCell ref="P603:P605"/>
+    <mergeCell ref="Z598:Z599"/>
+    <mergeCell ref="A603:A605"/>
+    <mergeCell ref="B603:B605"/>
+    <mergeCell ref="C603:C605"/>
+    <mergeCell ref="D603:D605"/>
+    <mergeCell ref="F603:F605"/>
+    <mergeCell ref="G603:G605"/>
+    <mergeCell ref="H603:H605"/>
+    <mergeCell ref="I603:I605"/>
+    <mergeCell ref="J603:J605"/>
+    <mergeCell ref="T598:T599"/>
+    <mergeCell ref="U598:U599"/>
+    <mergeCell ref="V598:V599"/>
+    <mergeCell ref="W598:W599"/>
+    <mergeCell ref="X598:X599"/>
+    <mergeCell ref="Y598:Y599"/>
+    <mergeCell ref="N598:N599"/>
+    <mergeCell ref="O598:O599"/>
+    <mergeCell ref="P598:P599"/>
+    <mergeCell ref="Q598:Q599"/>
+    <mergeCell ref="R598:R599"/>
+    <mergeCell ref="S598:S599"/>
+    <mergeCell ref="H598:H599"/>
+    <mergeCell ref="I598:I599"/>
+    <mergeCell ref="J598:J599"/>
+    <mergeCell ref="K598:K599"/>
+    <mergeCell ref="L598:L599"/>
+    <mergeCell ref="M598:M599"/>
+    <mergeCell ref="A598:A599"/>
+    <mergeCell ref="B598:B599"/>
+    <mergeCell ref="C598:C599"/>
+    <mergeCell ref="D598:D599"/>
+    <mergeCell ref="F598:F599"/>
+    <mergeCell ref="G598:G599"/>
+    <mergeCell ref="X593:X594"/>
+    <mergeCell ref="Y593:Y594"/>
+    <mergeCell ref="Z593:Z594"/>
+    <mergeCell ref="R595:S595"/>
+    <mergeCell ref="Q597:R597"/>
+    <mergeCell ref="Q593:Q594"/>
+    <mergeCell ref="R593:R594"/>
+    <mergeCell ref="S593:S594"/>
+    <mergeCell ref="T593:T594"/>
+    <mergeCell ref="U593:U594"/>
+    <mergeCell ref="V593:V594"/>
+    <mergeCell ref="K593:K594"/>
+    <mergeCell ref="L593:L594"/>
+    <mergeCell ref="M593:M594"/>
+    <mergeCell ref="N593:N594"/>
+    <mergeCell ref="O593:O594"/>
+    <mergeCell ref="P593:P594"/>
+    <mergeCell ref="A593:A594"/>
+    <mergeCell ref="B593:B594"/>
+    <mergeCell ref="C593:C594"/>
+    <mergeCell ref="D593:D594"/>
+    <mergeCell ref="F593:F594"/>
+    <mergeCell ref="G593:G594"/>
+    <mergeCell ref="H593:H594"/>
+    <mergeCell ref="I593:I594"/>
+    <mergeCell ref="J593:J594"/>
+    <mergeCell ref="T588:T589"/>
+    <mergeCell ref="U588:U589"/>
+    <mergeCell ref="V588:V589"/>
+    <mergeCell ref="W588:W589"/>
+    <mergeCell ref="X588:X589"/>
+    <mergeCell ref="Y588:Y589"/>
+    <mergeCell ref="N588:N589"/>
+    <mergeCell ref="O588:O589"/>
+    <mergeCell ref="P588:P589"/>
+    <mergeCell ref="Q588:Q589"/>
+    <mergeCell ref="R588:R589"/>
+    <mergeCell ref="S588:S589"/>
+    <mergeCell ref="H588:H589"/>
+    <mergeCell ref="I588:I589"/>
+    <mergeCell ref="J588:J589"/>
+    <mergeCell ref="K588:K589"/>
+    <mergeCell ref="L588:L589"/>
+    <mergeCell ref="M588:M589"/>
+    <mergeCell ref="A588:A589"/>
+    <mergeCell ref="B588:B589"/>
+    <mergeCell ref="C588:C589"/>
+    <mergeCell ref="D588:D589"/>
+    <mergeCell ref="W593:W594"/>
+    <mergeCell ref="F588:F589"/>
+    <mergeCell ref="G588:G589"/>
+    <mergeCell ref="U585:U586"/>
+    <mergeCell ref="V585:V586"/>
+    <mergeCell ref="W585:W586"/>
+    <mergeCell ref="X585:X586"/>
+    <mergeCell ref="Y585:Y586"/>
+    <mergeCell ref="Z585:Z586"/>
+    <mergeCell ref="O585:O586"/>
+    <mergeCell ref="P585:P586"/>
+    <mergeCell ref="Q585:Q586"/>
+    <mergeCell ref="R585:R586"/>
+    <mergeCell ref="S585:S586"/>
+    <mergeCell ref="T585:T586"/>
+    <mergeCell ref="I585:I586"/>
+    <mergeCell ref="J585:J586"/>
+    <mergeCell ref="K585:K586"/>
+    <mergeCell ref="L585:L586"/>
+    <mergeCell ref="M585:M586"/>
+    <mergeCell ref="N585:N586"/>
+    <mergeCell ref="Z588:Z589"/>
+    <mergeCell ref="Z577:Z578"/>
+    <mergeCell ref="R582:S582"/>
+    <mergeCell ref="S584:T584"/>
+    <mergeCell ref="A585:A586"/>
+    <mergeCell ref="B585:B586"/>
+    <mergeCell ref="C585:C586"/>
+    <mergeCell ref="D585:D586"/>
+    <mergeCell ref="F585:F586"/>
+    <mergeCell ref="G585:G586"/>
+    <mergeCell ref="H585:H586"/>
+    <mergeCell ref="T577:T578"/>
+    <mergeCell ref="U577:U578"/>
+    <mergeCell ref="V577:V578"/>
+    <mergeCell ref="W577:W578"/>
+    <mergeCell ref="X577:X578"/>
+    <mergeCell ref="Y577:Y578"/>
+    <mergeCell ref="N577:N578"/>
+    <mergeCell ref="O577:O578"/>
+    <mergeCell ref="P577:P578"/>
+    <mergeCell ref="Q577:Q578"/>
+    <mergeCell ref="R577:R578"/>
+    <mergeCell ref="S577:S578"/>
+    <mergeCell ref="H577:H578"/>
+    <mergeCell ref="I577:I578"/>
+    <mergeCell ref="J577:J578"/>
+    <mergeCell ref="K577:K578"/>
+    <mergeCell ref="L577:L578"/>
+    <mergeCell ref="M577:M578"/>
+    <mergeCell ref="R569:S569"/>
+    <mergeCell ref="R571:S571"/>
+    <mergeCell ref="Q574:R574"/>
+    <mergeCell ref="R576:S576"/>
+    <mergeCell ref="A577:A578"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="C577:C578"/>
+    <mergeCell ref="D577:D578"/>
+    <mergeCell ref="F577:F578"/>
+    <mergeCell ref="G577:G578"/>
+    <mergeCell ref="Z558:Z559"/>
+    <mergeCell ref="R560:S560"/>
+    <mergeCell ref="T561:U561"/>
+    <mergeCell ref="R562:S562"/>
+    <mergeCell ref="S563:T563"/>
+    <mergeCell ref="Q566:R566"/>
+    <mergeCell ref="T558:T559"/>
+    <mergeCell ref="U558:U559"/>
+    <mergeCell ref="V558:V559"/>
+    <mergeCell ref="W558:W559"/>
+    <mergeCell ref="X558:X559"/>
+    <mergeCell ref="Y558:Y559"/>
+    <mergeCell ref="M558:M559"/>
+    <mergeCell ref="N558:N559"/>
+    <mergeCell ref="O558:O559"/>
+    <mergeCell ref="P558:P559"/>
+    <mergeCell ref="Q558:R558"/>
+    <mergeCell ref="S558:S559"/>
+    <mergeCell ref="G558:G559"/>
+    <mergeCell ref="H558:H559"/>
+    <mergeCell ref="I558:I559"/>
+    <mergeCell ref="J558:J559"/>
+    <mergeCell ref="K558:K559"/>
+    <mergeCell ref="L558:L559"/>
+    <mergeCell ref="V553:V554"/>
+    <mergeCell ref="W553:W554"/>
+    <mergeCell ref="X553:X554"/>
+    <mergeCell ref="Y553:Y554"/>
+    <mergeCell ref="Z553:Z554"/>
+    <mergeCell ref="A558:A559"/>
+    <mergeCell ref="B558:B559"/>
+    <mergeCell ref="C558:C559"/>
+    <mergeCell ref="D558:D559"/>
+    <mergeCell ref="F558:F559"/>
+    <mergeCell ref="P553:P554"/>
+    <mergeCell ref="Q553:Q554"/>
+    <mergeCell ref="R553:R554"/>
+    <mergeCell ref="S553:S554"/>
+    <mergeCell ref="T553:T554"/>
+    <mergeCell ref="U553:U554"/>
+    <mergeCell ref="J553:J554"/>
+    <mergeCell ref="K553:K554"/>
+    <mergeCell ref="L553:L554"/>
+    <mergeCell ref="M553:M554"/>
+    <mergeCell ref="N553:N554"/>
+    <mergeCell ref="O553:O554"/>
+    <mergeCell ref="S552:T552"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="C553:C554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="F553:F554"/>
+    <mergeCell ref="G553:G554"/>
+    <mergeCell ref="H553:H554"/>
+    <mergeCell ref="I553:I554"/>
+    <mergeCell ref="T550:T551"/>
+    <mergeCell ref="U550:U551"/>
+    <mergeCell ref="V550:V551"/>
+    <mergeCell ref="W550:W551"/>
+    <mergeCell ref="X550:X551"/>
+    <mergeCell ref="Y550:Y551"/>
+    <mergeCell ref="N550:N551"/>
+    <mergeCell ref="O550:O551"/>
+    <mergeCell ref="P550:P551"/>
+    <mergeCell ref="Q550:Q551"/>
+    <mergeCell ref="R550:R551"/>
+    <mergeCell ref="S550:S551"/>
+    <mergeCell ref="H550:H551"/>
+    <mergeCell ref="I550:I551"/>
+    <mergeCell ref="J550:J551"/>
+    <mergeCell ref="K550:K551"/>
+    <mergeCell ref="L550:L551"/>
+    <mergeCell ref="M550:M551"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="C550:C551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="F550:F551"/>
+    <mergeCell ref="G550:G551"/>
+    <mergeCell ref="U548:U549"/>
+    <mergeCell ref="V548:V549"/>
+    <mergeCell ref="W548:W549"/>
+    <mergeCell ref="X548:X549"/>
+    <mergeCell ref="Y548:Y549"/>
+    <mergeCell ref="Z548:Z549"/>
+    <mergeCell ref="N548:N549"/>
+    <mergeCell ref="O548:O549"/>
+    <mergeCell ref="P548:P549"/>
+    <mergeCell ref="Q548:Q549"/>
+    <mergeCell ref="R548:S548"/>
+    <mergeCell ref="T548:T549"/>
+    <mergeCell ref="H548:H549"/>
+    <mergeCell ref="I548:I549"/>
+    <mergeCell ref="J548:J549"/>
+    <mergeCell ref="K548:K549"/>
+    <mergeCell ref="L548:L549"/>
+    <mergeCell ref="M548:M549"/>
+    <mergeCell ref="Z550:Z551"/>
+    <mergeCell ref="A548:A549"/>
+    <mergeCell ref="B548:B549"/>
+    <mergeCell ref="C548:C549"/>
+    <mergeCell ref="D548:D549"/>
+    <mergeCell ref="F548:F549"/>
+    <mergeCell ref="G548:G549"/>
+    <mergeCell ref="Q538:R538"/>
+    <mergeCell ref="Q539:R539"/>
+    <mergeCell ref="Q540:R540"/>
+    <mergeCell ref="R542:S542"/>
+    <mergeCell ref="R544:S544"/>
+    <mergeCell ref="Q547:R547"/>
+    <mergeCell ref="V535:V536"/>
+    <mergeCell ref="W535:W536"/>
+    <mergeCell ref="X535:X536"/>
+    <mergeCell ref="Y535:Y536"/>
+    <mergeCell ref="Z535:Z536"/>
+    <mergeCell ref="S537:T537"/>
+    <mergeCell ref="P535:P536"/>
+    <mergeCell ref="Q535:Q536"/>
+    <mergeCell ref="R535:R536"/>
+    <mergeCell ref="S535:S536"/>
+    <mergeCell ref="T535:T536"/>
+    <mergeCell ref="U535:U536"/>
+    <mergeCell ref="J535:J536"/>
+    <mergeCell ref="K535:K536"/>
+    <mergeCell ref="L535:L536"/>
+    <mergeCell ref="M535:M536"/>
+    <mergeCell ref="N535:N536"/>
+    <mergeCell ref="O535:O536"/>
+    <mergeCell ref="R534:S534"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="C535:C536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="F535:F536"/>
+    <mergeCell ref="G535:G536"/>
+    <mergeCell ref="H535:H536"/>
+    <mergeCell ref="I535:I536"/>
+    <mergeCell ref="T532:T533"/>
+    <mergeCell ref="U532:U533"/>
+    <mergeCell ref="V532:V533"/>
+    <mergeCell ref="W532:W533"/>
+    <mergeCell ref="X532:X533"/>
+    <mergeCell ref="Y532:Y533"/>
+    <mergeCell ref="N532:N533"/>
+    <mergeCell ref="O532:O533"/>
+    <mergeCell ref="P532:P533"/>
+    <mergeCell ref="Q532:Q533"/>
+    <mergeCell ref="R532:R533"/>
+    <mergeCell ref="S532:S533"/>
+    <mergeCell ref="H532:H533"/>
+    <mergeCell ref="I532:I533"/>
+    <mergeCell ref="J532:J533"/>
+    <mergeCell ref="K532:K533"/>
+    <mergeCell ref="L532:L533"/>
+    <mergeCell ref="M532:M533"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="C532:C533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="F532:F533"/>
+    <mergeCell ref="G532:G533"/>
+    <mergeCell ref="V528:V529"/>
+    <mergeCell ref="W528:W529"/>
+    <mergeCell ref="X528:X529"/>
+    <mergeCell ref="Y528:Y529"/>
+    <mergeCell ref="Z528:Z529"/>
+    <mergeCell ref="Q531:R531"/>
+    <mergeCell ref="P528:P529"/>
+    <mergeCell ref="Q528:Q529"/>
+    <mergeCell ref="R528:R529"/>
+    <mergeCell ref="S528:S529"/>
+    <mergeCell ref="T528:T529"/>
+    <mergeCell ref="U528:U529"/>
+    <mergeCell ref="J528:J529"/>
+    <mergeCell ref="K528:K529"/>
+    <mergeCell ref="L528:L529"/>
+    <mergeCell ref="M528:M529"/>
+    <mergeCell ref="N528:N529"/>
+    <mergeCell ref="O528:O529"/>
+    <mergeCell ref="Z532:Z533"/>
+    <mergeCell ref="R527:S527"/>
+    <mergeCell ref="A528:A529"/>
+    <mergeCell ref="B528:B529"/>
+    <mergeCell ref="C528:C529"/>
+    <mergeCell ref="D528:D529"/>
+    <mergeCell ref="F528:F529"/>
+    <mergeCell ref="G528:G529"/>
+    <mergeCell ref="H528:H529"/>
+    <mergeCell ref="I528:I529"/>
+    <mergeCell ref="T525:T526"/>
+    <mergeCell ref="U525:U526"/>
+    <mergeCell ref="V525:V526"/>
+    <mergeCell ref="W525:W526"/>
+    <mergeCell ref="X525:X526"/>
+    <mergeCell ref="Y525:Y526"/>
+    <mergeCell ref="N525:N526"/>
+    <mergeCell ref="O525:O526"/>
+    <mergeCell ref="P525:P526"/>
+    <mergeCell ref="Q525:Q526"/>
+    <mergeCell ref="R525:R526"/>
+    <mergeCell ref="S525:S526"/>
+    <mergeCell ref="H525:H526"/>
+    <mergeCell ref="I525:I526"/>
+    <mergeCell ref="J525:J526"/>
+    <mergeCell ref="K525:K526"/>
+    <mergeCell ref="L525:L526"/>
+    <mergeCell ref="M525:M526"/>
+    <mergeCell ref="A525:A526"/>
+    <mergeCell ref="B525:B526"/>
+    <mergeCell ref="C525:C526"/>
+    <mergeCell ref="D525:D526"/>
+    <mergeCell ref="F525:F526"/>
+    <mergeCell ref="G525:G526"/>
+    <mergeCell ref="U522:U524"/>
+    <mergeCell ref="V522:V524"/>
+    <mergeCell ref="W522:W524"/>
+    <mergeCell ref="X522:X524"/>
+    <mergeCell ref="Y522:Y524"/>
+    <mergeCell ref="Z522:Z524"/>
+    <mergeCell ref="N522:N524"/>
+    <mergeCell ref="O522:O524"/>
+    <mergeCell ref="P522:P524"/>
+    <mergeCell ref="Q522:Q524"/>
+    <mergeCell ref="R522:S522"/>
+    <mergeCell ref="T522:T524"/>
+    <mergeCell ref="H522:H524"/>
+    <mergeCell ref="I522:I524"/>
+    <mergeCell ref="J522:J524"/>
+    <mergeCell ref="K522:K524"/>
+    <mergeCell ref="L522:L524"/>
+    <mergeCell ref="M522:M524"/>
+    <mergeCell ref="Z525:Z526"/>
+    <mergeCell ref="A522:A524"/>
+    <mergeCell ref="B522:B524"/>
+    <mergeCell ref="C522:C524"/>
+    <mergeCell ref="D522:D524"/>
+    <mergeCell ref="F522:F524"/>
+    <mergeCell ref="G522:G524"/>
+    <mergeCell ref="U520:U521"/>
+    <mergeCell ref="V520:V521"/>
+    <mergeCell ref="W520:W521"/>
+    <mergeCell ref="X520:X521"/>
+    <mergeCell ref="Y520:Y521"/>
+    <mergeCell ref="Z520:Z521"/>
+    <mergeCell ref="O520:O521"/>
+    <mergeCell ref="P520:P521"/>
+    <mergeCell ref="Q520:Q521"/>
+    <mergeCell ref="R520:R521"/>
+    <mergeCell ref="S520:S521"/>
+    <mergeCell ref="T520:T521"/>
+    <mergeCell ref="I520:I521"/>
+    <mergeCell ref="J520:J521"/>
+    <mergeCell ref="K520:K521"/>
+    <mergeCell ref="L520:L521"/>
+    <mergeCell ref="M520:M521"/>
+    <mergeCell ref="N520:N521"/>
+    <mergeCell ref="R509:S509"/>
+    <mergeCell ref="Q515:R515"/>
+    <mergeCell ref="Q516:R516"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="C520:C521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="F520:F521"/>
+    <mergeCell ref="G520:G521"/>
+    <mergeCell ref="H520:H521"/>
+    <mergeCell ref="U503:U504"/>
+    <mergeCell ref="V503:V504"/>
+    <mergeCell ref="W503:W504"/>
+    <mergeCell ref="X503:X504"/>
+    <mergeCell ref="Y503:Y504"/>
+    <mergeCell ref="Z503:Z504"/>
+    <mergeCell ref="N503:N504"/>
+    <mergeCell ref="O503:O504"/>
+    <mergeCell ref="P503:P504"/>
+    <mergeCell ref="Q503:R503"/>
+    <mergeCell ref="S503:S504"/>
+    <mergeCell ref="T503:T504"/>
+    <mergeCell ref="H503:H504"/>
+    <mergeCell ref="I503:I504"/>
+    <mergeCell ref="J503:J504"/>
+    <mergeCell ref="K503:K504"/>
+    <mergeCell ref="L503:L504"/>
+    <mergeCell ref="M503:M504"/>
+    <mergeCell ref="A503:A504"/>
+    <mergeCell ref="B503:B504"/>
+    <mergeCell ref="C503:C504"/>
+    <mergeCell ref="D503:D504"/>
+    <mergeCell ref="F503:F504"/>
+    <mergeCell ref="G503:G504"/>
+    <mergeCell ref="W499:W500"/>
+    <mergeCell ref="X499:X500"/>
+    <mergeCell ref="Y499:Y500"/>
+    <mergeCell ref="Z499:Z500"/>
+    <mergeCell ref="R501:S501"/>
+    <mergeCell ref="Q502:R502"/>
+    <mergeCell ref="P499:P500"/>
+    <mergeCell ref="Q499:Q500"/>
+    <mergeCell ref="R499:S499"/>
+    <mergeCell ref="T499:T500"/>
+    <mergeCell ref="U499:U500"/>
+    <mergeCell ref="V499:V500"/>
+    <mergeCell ref="J499:J500"/>
+    <mergeCell ref="K499:K500"/>
+    <mergeCell ref="L499:L500"/>
+    <mergeCell ref="M499:M500"/>
+    <mergeCell ref="N499:N500"/>
+    <mergeCell ref="O499:O500"/>
+    <mergeCell ref="Q497:R497"/>
+    <mergeCell ref="R498:S498"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="C499:C500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="F499:F500"/>
+    <mergeCell ref="G499:G500"/>
+    <mergeCell ref="H499:H500"/>
+    <mergeCell ref="I499:I500"/>
+    <mergeCell ref="V490:V491"/>
+    <mergeCell ref="W490:W491"/>
+    <mergeCell ref="X490:X491"/>
+    <mergeCell ref="Y490:Y491"/>
+    <mergeCell ref="Z490:Z491"/>
+    <mergeCell ref="S492:T492"/>
+    <mergeCell ref="P490:P491"/>
+    <mergeCell ref="Q490:Q491"/>
+    <mergeCell ref="R490:R491"/>
+    <mergeCell ref="S490:S491"/>
+    <mergeCell ref="T490:T491"/>
+    <mergeCell ref="U490:U491"/>
+    <mergeCell ref="J490:J491"/>
+    <mergeCell ref="K490:K491"/>
+    <mergeCell ref="L490:L491"/>
+    <mergeCell ref="M490:M491"/>
+    <mergeCell ref="N490:N491"/>
+    <mergeCell ref="O490:O491"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="C490:C491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="F490:F491"/>
+    <mergeCell ref="G490:G491"/>
+    <mergeCell ref="H490:H491"/>
+    <mergeCell ref="I490:I491"/>
+    <mergeCell ref="S488:S489"/>
+    <mergeCell ref="T488:T489"/>
+    <mergeCell ref="U488:U489"/>
+    <mergeCell ref="V488:V489"/>
+    <mergeCell ref="W488:W489"/>
+    <mergeCell ref="X488:X489"/>
+    <mergeCell ref="M488:M489"/>
+    <mergeCell ref="N488:N489"/>
+    <mergeCell ref="O488:O489"/>
+    <mergeCell ref="P488:P489"/>
+    <mergeCell ref="Q488:Q489"/>
+    <mergeCell ref="R488:R489"/>
+    <mergeCell ref="G488:G489"/>
+    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="I488:I489"/>
+    <mergeCell ref="J488:J489"/>
+    <mergeCell ref="K488:K489"/>
+    <mergeCell ref="L488:L489"/>
+    <mergeCell ref="Z476:Z478"/>
+    <mergeCell ref="Q479:R479"/>
+    <mergeCell ref="Q483:R483"/>
+    <mergeCell ref="Q485:R485"/>
+    <mergeCell ref="S486:T486"/>
+    <mergeCell ref="A488:A489"/>
+    <mergeCell ref="B488:B489"/>
+    <mergeCell ref="C488:C489"/>
+    <mergeCell ref="D488:D489"/>
+    <mergeCell ref="F488:F489"/>
+    <mergeCell ref="T476:T478"/>
+    <mergeCell ref="U476:U478"/>
+    <mergeCell ref="V476:V478"/>
+    <mergeCell ref="W476:W478"/>
+    <mergeCell ref="X476:X478"/>
+    <mergeCell ref="Y476:Y478"/>
+    <mergeCell ref="N476:N478"/>
+    <mergeCell ref="O476:O478"/>
+    <mergeCell ref="P476:P478"/>
+    <mergeCell ref="Q476:Q478"/>
+    <mergeCell ref="R476:R478"/>
+    <mergeCell ref="S476:S478"/>
+    <mergeCell ref="H476:H478"/>
+    <mergeCell ref="I476:I478"/>
+    <mergeCell ref="J476:J478"/>
+    <mergeCell ref="K476:K478"/>
+    <mergeCell ref="L476:L478"/>
+    <mergeCell ref="M476:M478"/>
+    <mergeCell ref="Y488:Y489"/>
+    <mergeCell ref="Z488:Z489"/>
+    <mergeCell ref="R466:S466"/>
+    <mergeCell ref="Q468:R468"/>
+    <mergeCell ref="Q472:R472"/>
+    <mergeCell ref="R473:S473"/>
+    <mergeCell ref="A476:A478"/>
+    <mergeCell ref="B476:B478"/>
+    <mergeCell ref="C476:C478"/>
+    <mergeCell ref="D476:D478"/>
+    <mergeCell ref="F476:F478"/>
+    <mergeCell ref="G476:G478"/>
+    <mergeCell ref="Y460:Y461"/>
+    <mergeCell ref="Z460:Z461"/>
+    <mergeCell ref="S462:T462"/>
+    <mergeCell ref="R463:S463"/>
+    <mergeCell ref="Q464:R464"/>
+    <mergeCell ref="R465:S465"/>
+    <mergeCell ref="S460:S461"/>
+    <mergeCell ref="T460:T461"/>
+    <mergeCell ref="U460:U461"/>
+    <mergeCell ref="V460:V461"/>
+    <mergeCell ref="W460:W461"/>
+    <mergeCell ref="X460:X461"/>
+    <mergeCell ref="M460:M461"/>
+    <mergeCell ref="N460:N461"/>
+    <mergeCell ref="O460:O461"/>
+    <mergeCell ref="P460:P461"/>
+    <mergeCell ref="Q460:Q461"/>
+    <mergeCell ref="R460:R461"/>
+    <mergeCell ref="G460:G461"/>
+    <mergeCell ref="H460:H461"/>
+    <mergeCell ref="I460:I461"/>
+    <mergeCell ref="J460:J461"/>
+    <mergeCell ref="K460:K461"/>
+    <mergeCell ref="L460:L461"/>
+    <mergeCell ref="V458:V459"/>
+    <mergeCell ref="W458:W459"/>
+    <mergeCell ref="X458:X459"/>
+    <mergeCell ref="Y458:Y459"/>
+    <mergeCell ref="Z458:Z459"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="F460:F461"/>
+    <mergeCell ref="P458:P459"/>
+    <mergeCell ref="Q458:Q459"/>
+    <mergeCell ref="R458:R459"/>
+    <mergeCell ref="S458:S459"/>
+    <mergeCell ref="T458:T459"/>
+    <mergeCell ref="U458:U459"/>
+    <mergeCell ref="J458:J459"/>
+    <mergeCell ref="K458:K459"/>
+    <mergeCell ref="L458:L459"/>
+    <mergeCell ref="M458:M459"/>
+    <mergeCell ref="N458:N459"/>
+    <mergeCell ref="O458:O459"/>
+    <mergeCell ref="Q447:R447"/>
+    <mergeCell ref="Q450:R450"/>
+    <mergeCell ref="A458:A459"/>
+    <mergeCell ref="B458:B459"/>
+    <mergeCell ref="C458:C459"/>
+    <mergeCell ref="D458:D459"/>
+    <mergeCell ref="F458:F459"/>
+    <mergeCell ref="G458:G459"/>
+    <mergeCell ref="H458:H459"/>
+    <mergeCell ref="I458:I459"/>
+    <mergeCell ref="W440:W441"/>
+    <mergeCell ref="X440:X441"/>
+    <mergeCell ref="Y440:Y441"/>
+    <mergeCell ref="Z440:Z441"/>
+    <mergeCell ref="R444:S444"/>
+    <mergeCell ref="R446:S446"/>
+    <mergeCell ref="Q440:Q441"/>
+    <mergeCell ref="R440:R441"/>
+    <mergeCell ref="S440:S441"/>
+    <mergeCell ref="T440:T441"/>
+    <mergeCell ref="U440:U441"/>
+    <mergeCell ref="V440:V441"/>
+    <mergeCell ref="K440:K441"/>
+    <mergeCell ref="L440:L441"/>
+    <mergeCell ref="M440:M441"/>
+    <mergeCell ref="N440:N441"/>
+    <mergeCell ref="O440:O441"/>
+    <mergeCell ref="P440:P441"/>
+    <mergeCell ref="R439:S439"/>
+    <mergeCell ref="A440:A441"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="D440:D441"/>
+    <mergeCell ref="F440:F441"/>
+    <mergeCell ref="G440:G441"/>
+    <mergeCell ref="H440:H441"/>
+    <mergeCell ref="I440:I441"/>
+    <mergeCell ref="J440:J441"/>
+    <mergeCell ref="U437:U438"/>
+    <mergeCell ref="V437:V438"/>
+    <mergeCell ref="W437:W438"/>
+    <mergeCell ref="X437:X438"/>
+    <mergeCell ref="Y437:Y438"/>
+    <mergeCell ref="Z437:Z438"/>
+    <mergeCell ref="N437:N438"/>
+    <mergeCell ref="O437:O438"/>
+    <mergeCell ref="P437:P438"/>
+    <mergeCell ref="Q437:R437"/>
+    <mergeCell ref="S437:S438"/>
+    <mergeCell ref="T437:T438"/>
+    <mergeCell ref="H437:H438"/>
+    <mergeCell ref="I437:I438"/>
+    <mergeCell ref="J437:J438"/>
+    <mergeCell ref="K437:K438"/>
+    <mergeCell ref="L437:L438"/>
+    <mergeCell ref="M437:M438"/>
+    <mergeCell ref="Q428:R428"/>
+    <mergeCell ref="Q430:R430"/>
+    <mergeCell ref="R431:S431"/>
+    <mergeCell ref="S434:T434"/>
+    <mergeCell ref="A437:A438"/>
+    <mergeCell ref="B437:B438"/>
+    <mergeCell ref="C437:C438"/>
+    <mergeCell ref="D437:D438"/>
+    <mergeCell ref="F437:F438"/>
+    <mergeCell ref="G437:G438"/>
+    <mergeCell ref="X417:X418"/>
+    <mergeCell ref="Y417:Y418"/>
+    <mergeCell ref="Z417:Z418"/>
+    <mergeCell ref="Q420:R420"/>
+    <mergeCell ref="Q422:R422"/>
+    <mergeCell ref="Q424:R424"/>
+    <mergeCell ref="Q417:Q418"/>
+    <mergeCell ref="R417:S417"/>
+    <mergeCell ref="T417:T418"/>
+    <mergeCell ref="U417:U418"/>
+    <mergeCell ref="V417:V418"/>
+    <mergeCell ref="W417:W418"/>
+    <mergeCell ref="K417:K418"/>
+    <mergeCell ref="L417:L418"/>
+    <mergeCell ref="M417:M418"/>
+    <mergeCell ref="N417:N418"/>
+    <mergeCell ref="O417:O418"/>
+    <mergeCell ref="P417:P418"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="C417:C418"/>
+    <mergeCell ref="D417:D418"/>
+    <mergeCell ref="F417:F418"/>
+    <mergeCell ref="G417:G418"/>
+    <mergeCell ref="H417:H418"/>
+    <mergeCell ref="I417:I418"/>
+    <mergeCell ref="J417:J418"/>
+    <mergeCell ref="T415:T416"/>
+    <mergeCell ref="U415:U416"/>
+    <mergeCell ref="V415:V416"/>
+    <mergeCell ref="W415:W416"/>
+    <mergeCell ref="X415:X416"/>
+    <mergeCell ref="Y415:Y416"/>
+    <mergeCell ref="N415:N416"/>
+    <mergeCell ref="O415:O416"/>
+    <mergeCell ref="P415:P416"/>
+    <mergeCell ref="Q415:Q416"/>
+    <mergeCell ref="R415:R416"/>
+    <mergeCell ref="S415:S416"/>
+    <mergeCell ref="H415:H416"/>
+    <mergeCell ref="I415:I416"/>
+    <mergeCell ref="J415:J416"/>
+    <mergeCell ref="K415:K416"/>
+    <mergeCell ref="L415:L416"/>
+    <mergeCell ref="M415:M416"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="C415:C416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="F415:F416"/>
+    <mergeCell ref="G415:G416"/>
+    <mergeCell ref="Z389:Z390"/>
+    <mergeCell ref="Q395:R395"/>
+    <mergeCell ref="R399:S399"/>
+    <mergeCell ref="R402:S402"/>
+    <mergeCell ref="R410:S410"/>
+    <mergeCell ref="Q411:R411"/>
+    <mergeCell ref="T389:T390"/>
+    <mergeCell ref="U389:U390"/>
+    <mergeCell ref="V389:V390"/>
+    <mergeCell ref="W389:W390"/>
+    <mergeCell ref="X389:X390"/>
+    <mergeCell ref="Y389:Y390"/>
+    <mergeCell ref="N389:N390"/>
+    <mergeCell ref="O389:O390"/>
+    <mergeCell ref="P389:P390"/>
+    <mergeCell ref="Q389:Q390"/>
+    <mergeCell ref="R389:R390"/>
+    <mergeCell ref="S389:S390"/>
+    <mergeCell ref="H389:H390"/>
+    <mergeCell ref="I389:I390"/>
+    <mergeCell ref="J389:J390"/>
+    <mergeCell ref="K389:K390"/>
+    <mergeCell ref="L389:L390"/>
+    <mergeCell ref="M389:M390"/>
+    <mergeCell ref="Z415:Z416"/>
+    <mergeCell ref="A389:A390"/>
+    <mergeCell ref="B389:B390"/>
+    <mergeCell ref="C389:C390"/>
+    <mergeCell ref="D389:D390"/>
+    <mergeCell ref="F389:F390"/>
+    <mergeCell ref="G389:G390"/>
+    <mergeCell ref="W382:W383"/>
+    <mergeCell ref="X382:X383"/>
+    <mergeCell ref="Y382:Y383"/>
+    <mergeCell ref="Z382:Z383"/>
+    <mergeCell ref="R384:S384"/>
+    <mergeCell ref="R388:S388"/>
+    <mergeCell ref="Q382:Q383"/>
+    <mergeCell ref="R382:R383"/>
+    <mergeCell ref="S382:S383"/>
+    <mergeCell ref="T382:T383"/>
+    <mergeCell ref="U382:U383"/>
+    <mergeCell ref="V382:V383"/>
+    <mergeCell ref="K382:K383"/>
+    <mergeCell ref="L382:L383"/>
+    <mergeCell ref="M382:M383"/>
+    <mergeCell ref="N382:N383"/>
+    <mergeCell ref="O382:O383"/>
+    <mergeCell ref="P382:P383"/>
+    <mergeCell ref="R381:S381"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="F382:F383"/>
+    <mergeCell ref="G382:G383"/>
+    <mergeCell ref="H382:H383"/>
+    <mergeCell ref="I382:I383"/>
+    <mergeCell ref="J382:J383"/>
+    <mergeCell ref="V376:V378"/>
+    <mergeCell ref="W376:W378"/>
+    <mergeCell ref="X376:X378"/>
+    <mergeCell ref="Y376:Y378"/>
+    <mergeCell ref="Z376:Z378"/>
+    <mergeCell ref="S379:T379"/>
+    <mergeCell ref="P376:P378"/>
+    <mergeCell ref="Q376:Q378"/>
+    <mergeCell ref="R376:R378"/>
+    <mergeCell ref="S376:S378"/>
+    <mergeCell ref="T376:T378"/>
+    <mergeCell ref="U376:U378"/>
+    <mergeCell ref="J376:J378"/>
+    <mergeCell ref="K376:K378"/>
+    <mergeCell ref="L376:L378"/>
+    <mergeCell ref="M376:M378"/>
+    <mergeCell ref="N376:N378"/>
+    <mergeCell ref="O376:O378"/>
+    <mergeCell ref="Q371:R371"/>
+    <mergeCell ref="R373:S373"/>
+    <mergeCell ref="A376:A378"/>
+    <mergeCell ref="B376:B378"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="F376:F378"/>
+    <mergeCell ref="G376:G378"/>
+    <mergeCell ref="H376:H378"/>
+    <mergeCell ref="I376:I378"/>
+    <mergeCell ref="Z359:Z360"/>
+    <mergeCell ref="T361:U361"/>
+    <mergeCell ref="T364:U364"/>
+    <mergeCell ref="Q366:R366"/>
+    <mergeCell ref="S367:T367"/>
+    <mergeCell ref="Q368:R368"/>
+    <mergeCell ref="T359:T360"/>
+    <mergeCell ref="U359:U360"/>
+    <mergeCell ref="V359:V360"/>
+    <mergeCell ref="W359:W360"/>
+    <mergeCell ref="X359:X360"/>
+    <mergeCell ref="Y359:Y360"/>
+    <mergeCell ref="N359:N360"/>
+    <mergeCell ref="O359:O360"/>
+    <mergeCell ref="P359:P360"/>
+    <mergeCell ref="Q359:Q360"/>
+    <mergeCell ref="R359:R360"/>
+    <mergeCell ref="S359:S360"/>
+    <mergeCell ref="H359:H360"/>
+    <mergeCell ref="I359:I360"/>
+    <mergeCell ref="J359:J360"/>
+    <mergeCell ref="K359:K360"/>
+    <mergeCell ref="L359:L360"/>
+    <mergeCell ref="M359:M360"/>
+    <mergeCell ref="Z348:Z349"/>
+    <mergeCell ref="Q350:R350"/>
+    <mergeCell ref="R351:S351"/>
+    <mergeCell ref="Q355:R355"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="D359:D360"/>
+    <mergeCell ref="F359:F360"/>
+    <mergeCell ref="G359:G360"/>
+    <mergeCell ref="T348:T349"/>
+    <mergeCell ref="U348:U349"/>
+    <mergeCell ref="V348:V349"/>
+    <mergeCell ref="W348:W349"/>
+    <mergeCell ref="X348:X349"/>
+    <mergeCell ref="Y348:Y349"/>
+    <mergeCell ref="N348:N349"/>
+    <mergeCell ref="O348:O349"/>
+    <mergeCell ref="P348:P349"/>
+    <mergeCell ref="Q348:Q349"/>
+    <mergeCell ref="R348:R349"/>
+    <mergeCell ref="S348:S349"/>
+    <mergeCell ref="H348:H349"/>
+    <mergeCell ref="I348:I349"/>
+    <mergeCell ref="J348:J349"/>
+    <mergeCell ref="K348:K349"/>
+    <mergeCell ref="L348:L349"/>
+    <mergeCell ref="M348:M349"/>
+    <mergeCell ref="R342:S342"/>
+    <mergeCell ref="Q343:R343"/>
+    <mergeCell ref="Q344:R344"/>
+    <mergeCell ref="R347:S347"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="C348:C349"/>
+    <mergeCell ref="D348:D349"/>
+    <mergeCell ref="F348:F349"/>
+    <mergeCell ref="G348:G349"/>
+    <mergeCell ref="U332:U334"/>
+    <mergeCell ref="V332:V334"/>
+    <mergeCell ref="W332:W334"/>
+    <mergeCell ref="X332:X334"/>
+    <mergeCell ref="Y332:Y334"/>
+    <mergeCell ref="Z332:Z334"/>
+    <mergeCell ref="N332:N334"/>
+    <mergeCell ref="O332:O334"/>
+    <mergeCell ref="P332:P334"/>
+    <mergeCell ref="Q332:Q334"/>
+    <mergeCell ref="R332:S332"/>
+    <mergeCell ref="T332:T334"/>
+    <mergeCell ref="H332:H334"/>
+    <mergeCell ref="I332:I334"/>
+    <mergeCell ref="J332:J334"/>
+    <mergeCell ref="K332:K334"/>
+    <mergeCell ref="L332:L334"/>
+    <mergeCell ref="M332:M334"/>
+    <mergeCell ref="A332:A334"/>
+    <mergeCell ref="B332:B334"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="D332:D334"/>
+    <mergeCell ref="F332:F334"/>
+    <mergeCell ref="G332:G334"/>
+    <mergeCell ref="W322:W323"/>
+    <mergeCell ref="X322:X323"/>
+    <mergeCell ref="Y322:Y323"/>
+    <mergeCell ref="Z322:Z323"/>
+    <mergeCell ref="Q324:R324"/>
+    <mergeCell ref="R325:S325"/>
+    <mergeCell ref="Q322:Q323"/>
+    <mergeCell ref="R322:R323"/>
+    <mergeCell ref="S322:S323"/>
+    <mergeCell ref="T322:T323"/>
+    <mergeCell ref="U322:U323"/>
+    <mergeCell ref="V322:V323"/>
+    <mergeCell ref="K322:K323"/>
+    <mergeCell ref="L322:L323"/>
+    <mergeCell ref="M322:M323"/>
+    <mergeCell ref="N322:N323"/>
+    <mergeCell ref="O322:O323"/>
+    <mergeCell ref="P322:P323"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="F322:F323"/>
+    <mergeCell ref="G322:G323"/>
+    <mergeCell ref="H322:H323"/>
+    <mergeCell ref="I322:I323"/>
+    <mergeCell ref="J322:J323"/>
+    <mergeCell ref="T318:T319"/>
+    <mergeCell ref="U318:U319"/>
+    <mergeCell ref="V318:V319"/>
+    <mergeCell ref="W318:W319"/>
+    <mergeCell ref="X318:X319"/>
+    <mergeCell ref="Y318:Y319"/>
+    <mergeCell ref="N318:N319"/>
+    <mergeCell ref="O318:O319"/>
+    <mergeCell ref="P318:P319"/>
+    <mergeCell ref="Q318:Q319"/>
+    <mergeCell ref="R318:R319"/>
+    <mergeCell ref="S318:S319"/>
+    <mergeCell ref="H318:H319"/>
+    <mergeCell ref="I318:I319"/>
+    <mergeCell ref="J318:J319"/>
+    <mergeCell ref="K318:K319"/>
+    <mergeCell ref="L318:L319"/>
+    <mergeCell ref="M318:M319"/>
+    <mergeCell ref="X316:X317"/>
+    <mergeCell ref="Y316:Y317"/>
+    <mergeCell ref="Z316:Z317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="D318:D319"/>
+    <mergeCell ref="F318:F319"/>
+    <mergeCell ref="G318:G319"/>
+    <mergeCell ref="Q316:Q317"/>
+    <mergeCell ref="R316:R317"/>
+    <mergeCell ref="S316:S317"/>
+    <mergeCell ref="T316:T317"/>
+    <mergeCell ref="U316:U317"/>
+    <mergeCell ref="V316:V317"/>
+    <mergeCell ref="K316:K317"/>
+    <mergeCell ref="L316:L317"/>
+    <mergeCell ref="M316:M317"/>
+    <mergeCell ref="N316:N317"/>
+    <mergeCell ref="O316:O317"/>
+    <mergeCell ref="P316:P317"/>
+    <mergeCell ref="Z318:Z319"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="F316:F317"/>
+    <mergeCell ref="G316:G317"/>
+    <mergeCell ref="H316:H317"/>
+    <mergeCell ref="I316:I317"/>
+    <mergeCell ref="J316:J317"/>
+    <mergeCell ref="T312:T313"/>
+    <mergeCell ref="U312:U313"/>
+    <mergeCell ref="V312:V313"/>
+    <mergeCell ref="W312:W313"/>
+    <mergeCell ref="X312:X313"/>
+    <mergeCell ref="Y312:Y313"/>
+    <mergeCell ref="N312:N313"/>
+    <mergeCell ref="O312:O313"/>
+    <mergeCell ref="P312:P313"/>
+    <mergeCell ref="Q312:Q313"/>
+    <mergeCell ref="R312:R313"/>
+    <mergeCell ref="S312:S313"/>
+    <mergeCell ref="H312:H313"/>
+    <mergeCell ref="I312:I313"/>
+    <mergeCell ref="J312:J313"/>
+    <mergeCell ref="K312:K313"/>
+    <mergeCell ref="L312:L313"/>
+    <mergeCell ref="M312:M313"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="D312:D313"/>
+    <mergeCell ref="W316:W317"/>
+    <mergeCell ref="F312:F313"/>
+    <mergeCell ref="G312:G313"/>
+    <mergeCell ref="U307:U308"/>
+    <mergeCell ref="V307:V308"/>
+    <mergeCell ref="W307:W308"/>
+    <mergeCell ref="X307:X308"/>
+    <mergeCell ref="Y307:Y308"/>
+    <mergeCell ref="Z307:Z308"/>
+    <mergeCell ref="O307:O308"/>
+    <mergeCell ref="P307:P308"/>
+    <mergeCell ref="Q307:Q308"/>
+    <mergeCell ref="R307:R308"/>
+    <mergeCell ref="S307:S308"/>
+    <mergeCell ref="T307:T308"/>
+    <mergeCell ref="I307:I308"/>
+    <mergeCell ref="J307:J308"/>
+    <mergeCell ref="K307:K308"/>
+    <mergeCell ref="L307:L308"/>
+    <mergeCell ref="M307:M308"/>
+    <mergeCell ref="N307:N308"/>
+    <mergeCell ref="Z312:Z313"/>
+    <mergeCell ref="Z304:Z305"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="F307:F308"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="H307:H308"/>
+    <mergeCell ref="Q304:Q305"/>
+    <mergeCell ref="R304:S304"/>
+    <mergeCell ref="T304:T305"/>
+    <mergeCell ref="U304:U305"/>
+    <mergeCell ref="V304:V305"/>
+    <mergeCell ref="W304:W305"/>
+    <mergeCell ref="K304:K305"/>
+    <mergeCell ref="L304:L305"/>
+    <mergeCell ref="M304:M305"/>
+    <mergeCell ref="N304:N305"/>
+    <mergeCell ref="O304:O305"/>
+    <mergeCell ref="P304:P305"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="F304:F305"/>
+    <mergeCell ref="G304:G305"/>
+    <mergeCell ref="H304:H305"/>
+    <mergeCell ref="I304:I305"/>
+    <mergeCell ref="J304:J305"/>
+    <mergeCell ref="T298:T299"/>
+    <mergeCell ref="U298:U299"/>
+    <mergeCell ref="V298:V299"/>
+    <mergeCell ref="W298:W299"/>
+    <mergeCell ref="X298:X299"/>
+    <mergeCell ref="Y298:Y299"/>
+    <mergeCell ref="N298:N299"/>
+    <mergeCell ref="O298:O299"/>
+    <mergeCell ref="P298:P299"/>
+    <mergeCell ref="Q298:Q299"/>
+    <mergeCell ref="R298:R299"/>
+    <mergeCell ref="S298:S299"/>
+    <mergeCell ref="H298:H299"/>
+    <mergeCell ref="I298:I299"/>
+    <mergeCell ref="J298:J299"/>
+    <mergeCell ref="K298:K299"/>
+    <mergeCell ref="L298:L299"/>
+    <mergeCell ref="M298:M299"/>
+    <mergeCell ref="X304:X305"/>
+    <mergeCell ref="Y304:Y305"/>
+    <mergeCell ref="W289:W290"/>
+    <mergeCell ref="X289:X290"/>
+    <mergeCell ref="Y289:Y290"/>
+    <mergeCell ref="Z289:Z290"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="F298:F299"/>
+    <mergeCell ref="G298:G299"/>
+    <mergeCell ref="Q289:Q290"/>
+    <mergeCell ref="R289:R290"/>
+    <mergeCell ref="S289:S290"/>
+    <mergeCell ref="T289:T290"/>
+    <mergeCell ref="U289:U290"/>
+    <mergeCell ref="V289:V290"/>
+    <mergeCell ref="K289:K290"/>
+    <mergeCell ref="L289:L290"/>
+    <mergeCell ref="M289:M290"/>
+    <mergeCell ref="N289:N290"/>
+    <mergeCell ref="O289:O290"/>
+    <mergeCell ref="P289:P290"/>
+    <mergeCell ref="Z298:Z299"/>
+    <mergeCell ref="Q287:R287"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="G289:G290"/>
+    <mergeCell ref="H289:H290"/>
+    <mergeCell ref="I289:I290"/>
+    <mergeCell ref="J289:J290"/>
+    <mergeCell ref="Y278:Y279"/>
+    <mergeCell ref="Z278:Z279"/>
+    <mergeCell ref="Q281:R281"/>
+    <mergeCell ref="Q283:R283"/>
+    <mergeCell ref="R284:S284"/>
+    <mergeCell ref="Q286:R286"/>
+    <mergeCell ref="S278:S279"/>
+    <mergeCell ref="T278:T279"/>
+    <mergeCell ref="U278:U279"/>
+    <mergeCell ref="V278:V279"/>
+    <mergeCell ref="W278:W279"/>
+    <mergeCell ref="X278:X279"/>
+    <mergeCell ref="M278:M279"/>
+    <mergeCell ref="N278:N279"/>
+    <mergeCell ref="O278:O279"/>
+    <mergeCell ref="P278:P279"/>
+    <mergeCell ref="Q278:Q279"/>
+    <mergeCell ref="R278:R279"/>
+    <mergeCell ref="G278:G279"/>
+    <mergeCell ref="H278:H279"/>
+    <mergeCell ref="I278:I279"/>
+    <mergeCell ref="J278:J279"/>
+    <mergeCell ref="K278:K279"/>
+    <mergeCell ref="L278:L279"/>
+    <mergeCell ref="S269:T269"/>
+    <mergeCell ref="Q270:R270"/>
+    <mergeCell ref="R271:S271"/>
+    <mergeCell ref="S272:T272"/>
+    <mergeCell ref="Q275:R275"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="F278:F279"/>
+    <mergeCell ref="U263:U264"/>
+    <mergeCell ref="V263:V264"/>
+    <mergeCell ref="W263:W264"/>
+    <mergeCell ref="X263:X264"/>
+    <mergeCell ref="Y263:Y264"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="F259:F260"/>
+    <mergeCell ref="Z263:Z264"/>
+    <mergeCell ref="O263:O264"/>
+    <mergeCell ref="P263:P264"/>
+    <mergeCell ref="Q263:Q264"/>
+    <mergeCell ref="R263:R264"/>
+    <mergeCell ref="S263:S264"/>
+    <mergeCell ref="T263:T264"/>
+    <mergeCell ref="I263:I264"/>
+    <mergeCell ref="J263:J264"/>
+    <mergeCell ref="K263:K264"/>
+    <mergeCell ref="L263:L264"/>
+    <mergeCell ref="M263:M264"/>
+    <mergeCell ref="N263:N264"/>
+    <mergeCell ref="Y259:Y260"/>
+    <mergeCell ref="Z259:Z260"/>
+    <mergeCell ref="S261:T261"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="F263:F264"/>
+    <mergeCell ref="G263:G264"/>
+    <mergeCell ref="H263:H264"/>
+    <mergeCell ref="S259:S260"/>
+    <mergeCell ref="T259:T260"/>
+    <mergeCell ref="U259:U260"/>
+    <mergeCell ref="V259:V260"/>
+    <mergeCell ref="Z243:Z244"/>
+    <mergeCell ref="O243:O244"/>
+    <mergeCell ref="P243:P244"/>
+    <mergeCell ref="Q243:Q244"/>
+    <mergeCell ref="R243:R244"/>
+    <mergeCell ref="S243:S244"/>
+    <mergeCell ref="T243:T244"/>
+    <mergeCell ref="I243:I244"/>
+    <mergeCell ref="J243:J244"/>
+    <mergeCell ref="K243:K244"/>
+    <mergeCell ref="L243:L244"/>
+    <mergeCell ref="M243:M244"/>
+    <mergeCell ref="N243:N244"/>
+    <mergeCell ref="P259:P260"/>
+    <mergeCell ref="Q259:Q260"/>
+    <mergeCell ref="R259:R260"/>
+    <mergeCell ref="G259:G260"/>
+    <mergeCell ref="H259:H260"/>
+    <mergeCell ref="I259:I260"/>
+    <mergeCell ref="J259:J260"/>
+    <mergeCell ref="K259:K260"/>
+    <mergeCell ref="L259:L260"/>
+    <mergeCell ref="R245:S245"/>
+    <mergeCell ref="Q249:R249"/>
+    <mergeCell ref="Q253:R253"/>
+    <mergeCell ref="R254:S254"/>
+    <mergeCell ref="R257:S257"/>
+    <mergeCell ref="W259:W260"/>
+    <mergeCell ref="X259:X260"/>
+    <mergeCell ref="M259:M260"/>
+    <mergeCell ref="N259:N260"/>
+    <mergeCell ref="O259:O260"/>
+    <mergeCell ref="Q241:R241"/>
+    <mergeCell ref="Q242:R242"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="G243:G244"/>
+    <mergeCell ref="H243:H244"/>
+    <mergeCell ref="T239:T240"/>
+    <mergeCell ref="U239:U240"/>
+    <mergeCell ref="V239:V240"/>
+    <mergeCell ref="W239:W240"/>
+    <mergeCell ref="X239:X240"/>
+    <mergeCell ref="Y239:Y240"/>
+    <mergeCell ref="N239:N240"/>
+    <mergeCell ref="O239:O240"/>
+    <mergeCell ref="P239:P240"/>
+    <mergeCell ref="Q239:Q240"/>
+    <mergeCell ref="R239:R240"/>
+    <mergeCell ref="S239:S240"/>
+    <mergeCell ref="H239:H240"/>
+    <mergeCell ref="I239:I240"/>
+    <mergeCell ref="J239:J240"/>
+    <mergeCell ref="K239:K240"/>
+    <mergeCell ref="L239:L240"/>
+    <mergeCell ref="M239:M240"/>
+    <mergeCell ref="U243:U244"/>
+    <mergeCell ref="V243:V244"/>
+    <mergeCell ref="W243:W244"/>
+    <mergeCell ref="X243:X244"/>
+    <mergeCell ref="Y243:Y244"/>
+    <mergeCell ref="Z227:Z228"/>
+    <mergeCell ref="R230:S230"/>
+    <mergeCell ref="R231:S231"/>
+    <mergeCell ref="R237:S237"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="F239:F240"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="T227:T228"/>
+    <mergeCell ref="U227:U228"/>
+    <mergeCell ref="V227:V228"/>
+    <mergeCell ref="W227:W228"/>
+    <mergeCell ref="X227:X228"/>
+    <mergeCell ref="Y227:Y228"/>
+    <mergeCell ref="N227:N228"/>
+    <mergeCell ref="O227:O228"/>
+    <mergeCell ref="P227:P228"/>
+    <mergeCell ref="Q227:Q228"/>
+    <mergeCell ref="R227:R228"/>
+    <mergeCell ref="S227:S228"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="I227:I228"/>
+    <mergeCell ref="J227:J228"/>
+    <mergeCell ref="K227:K228"/>
+    <mergeCell ref="L227:L228"/>
+    <mergeCell ref="M227:M228"/>
+    <mergeCell ref="Z239:Z240"/>
+    <mergeCell ref="Q221:R221"/>
+    <mergeCell ref="T223:U223"/>
+    <mergeCell ref="S225:T225"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="T219:T220"/>
+    <mergeCell ref="U219:U220"/>
+    <mergeCell ref="V219:V220"/>
+    <mergeCell ref="W219:W220"/>
+    <mergeCell ref="X219:X220"/>
+    <mergeCell ref="Y219:Y220"/>
+    <mergeCell ref="N219:N220"/>
+    <mergeCell ref="O219:O220"/>
+    <mergeCell ref="P219:P220"/>
+    <mergeCell ref="Q219:Q220"/>
+    <mergeCell ref="R219:R220"/>
+    <mergeCell ref="S219:S220"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="L219:L220"/>
+    <mergeCell ref="M219:M220"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="W213:W214"/>
+    <mergeCell ref="X213:X214"/>
+    <mergeCell ref="Y213:Y214"/>
+    <mergeCell ref="Z213:Z214"/>
+    <mergeCell ref="Q215:R215"/>
+    <mergeCell ref="R216:S216"/>
+    <mergeCell ref="Q213:Q214"/>
+    <mergeCell ref="R213:R214"/>
+    <mergeCell ref="S213:S214"/>
+    <mergeCell ref="T213:T214"/>
+    <mergeCell ref="U213:U214"/>
+    <mergeCell ref="V213:V214"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="M213:M214"/>
+    <mergeCell ref="N213:N214"/>
+    <mergeCell ref="O213:O214"/>
+    <mergeCell ref="P213:P214"/>
+    <mergeCell ref="Z219:Z220"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="T211:T212"/>
+    <mergeCell ref="U211:U212"/>
+    <mergeCell ref="V211:V212"/>
+    <mergeCell ref="W211:W212"/>
+    <mergeCell ref="X211:X212"/>
+    <mergeCell ref="Y211:Y212"/>
+    <mergeCell ref="N211:N212"/>
+    <mergeCell ref="O211:O212"/>
+    <mergeCell ref="P211:P212"/>
+    <mergeCell ref="Q211:Q212"/>
+    <mergeCell ref="R211:R212"/>
+    <mergeCell ref="S211:S212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="I211:I212"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="L211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="T208:U208"/>
+    <mergeCell ref="V208:V209"/>
+    <mergeCell ref="W208:W209"/>
+    <mergeCell ref="X208:X209"/>
+    <mergeCell ref="Y208:Y209"/>
+    <mergeCell ref="Z208:Z209"/>
+    <mergeCell ref="N208:N209"/>
+    <mergeCell ref="O208:O209"/>
+    <mergeCell ref="P208:P209"/>
+    <mergeCell ref="Q208:Q209"/>
+    <mergeCell ref="R208:R209"/>
+    <mergeCell ref="S208:S209"/>
+    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="I208:I209"/>
+    <mergeCell ref="J208:J209"/>
+    <mergeCell ref="K208:K209"/>
+    <mergeCell ref="L208:L209"/>
+    <mergeCell ref="M208:M209"/>
+    <mergeCell ref="Z211:Z212"/>
+    <mergeCell ref="Q204:R204"/>
+    <mergeCell ref="S205:T205"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="Q207:R207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="Y196:Y197"/>
+    <mergeCell ref="Z196:Z197"/>
+    <mergeCell ref="R199:S199"/>
+    <mergeCell ref="R200:S200"/>
+    <mergeCell ref="Q201:R201"/>
+    <mergeCell ref="S203:T203"/>
+    <mergeCell ref="S196:S197"/>
+    <mergeCell ref="T196:T197"/>
+    <mergeCell ref="U196:U197"/>
+    <mergeCell ref="V196:V197"/>
+    <mergeCell ref="W196:W197"/>
+    <mergeCell ref="X196:X197"/>
+    <mergeCell ref="M196:M197"/>
+    <mergeCell ref="N196:N197"/>
+    <mergeCell ref="O196:O197"/>
+    <mergeCell ref="P196:P197"/>
+    <mergeCell ref="Q196:Q197"/>
+    <mergeCell ref="R196:R197"/>
+    <mergeCell ref="G196:G197"/>
+    <mergeCell ref="H196:H197"/>
+    <mergeCell ref="I196:I197"/>
+    <mergeCell ref="J196:J197"/>
+    <mergeCell ref="K196:K197"/>
+    <mergeCell ref="L196:L197"/>
+    <mergeCell ref="Z189:Z190"/>
+    <mergeCell ref="Q191:R191"/>
+    <mergeCell ref="S192:T192"/>
+    <mergeCell ref="Q193:R193"/>
+    <mergeCell ref="Q194:R194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="T189:T190"/>
+    <mergeCell ref="U189:U190"/>
+    <mergeCell ref="V189:V190"/>
+    <mergeCell ref="W189:W190"/>
+    <mergeCell ref="X189:X190"/>
+    <mergeCell ref="Y189:Y190"/>
+    <mergeCell ref="N189:N190"/>
+    <mergeCell ref="O189:O190"/>
+    <mergeCell ref="P189:P190"/>
+    <mergeCell ref="Q189:Q190"/>
+    <mergeCell ref="R189:R190"/>
+    <mergeCell ref="S189:S190"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="M189:M190"/>
+    <mergeCell ref="Y185:Y186"/>
+    <mergeCell ref="Z185:Z186"/>
+    <mergeCell ref="R187:S187"/>
+    <mergeCell ref="R188:S188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="S185:S186"/>
+    <mergeCell ref="T185:T186"/>
+    <mergeCell ref="U185:U186"/>
+    <mergeCell ref="V185:V186"/>
+    <mergeCell ref="W185:W186"/>
+    <mergeCell ref="X185:X186"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="N185:N186"/>
+    <mergeCell ref="O185:O186"/>
+    <mergeCell ref="P185:P186"/>
+    <mergeCell ref="Q185:Q186"/>
+    <mergeCell ref="R185:R186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="L185:L186"/>
+    <mergeCell ref="S167:T167"/>
+    <mergeCell ref="Q169:R169"/>
+    <mergeCell ref="Q178:R178"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="S182:T182"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="Z155:Z156"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="R160:S160"/>
+    <mergeCell ref="R163:S163"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="T155:T156"/>
+    <mergeCell ref="U155:U156"/>
+    <mergeCell ref="V155:V156"/>
+    <mergeCell ref="W155:W156"/>
+    <mergeCell ref="X155:X156"/>
+    <mergeCell ref="Y155:Y156"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="O155:O156"/>
+    <mergeCell ref="P155:P156"/>
+    <mergeCell ref="Q155:Q156"/>
+    <mergeCell ref="R155:R156"/>
+    <mergeCell ref="S155:S156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="T150:U150"/>
+    <mergeCell ref="S152:T152"/>
+    <mergeCell ref="Q154:R154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="U145:U146"/>
+    <mergeCell ref="V145:V146"/>
+    <mergeCell ref="W145:W146"/>
+    <mergeCell ref="X145:X146"/>
+    <mergeCell ref="Y145:Y146"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="Z145:Z146"/>
+    <mergeCell ref="N145:N146"/>
+    <mergeCell ref="O145:O146"/>
+    <mergeCell ref="P145:P146"/>
+    <mergeCell ref="Q145:R145"/>
+    <mergeCell ref="S145:S146"/>
+    <mergeCell ref="T145:T146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="W140:W141"/>
+    <mergeCell ref="X140:X141"/>
+    <mergeCell ref="Y140:Y141"/>
+    <mergeCell ref="Z140:Z141"/>
+    <mergeCell ref="Q140:Q141"/>
+    <mergeCell ref="R140:R141"/>
+    <mergeCell ref="S140:S141"/>
+    <mergeCell ref="T140:T141"/>
+    <mergeCell ref="U140:U141"/>
+    <mergeCell ref="V140:V141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="M140:M141"/>
+    <mergeCell ref="N140:N141"/>
+    <mergeCell ref="O140:O141"/>
+    <mergeCell ref="P140:P141"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="W131:W132"/>
+    <mergeCell ref="X131:X132"/>
+    <mergeCell ref="Y131:Y132"/>
+    <mergeCell ref="Z131:Z132"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="P131:P132"/>
+    <mergeCell ref="Q131:Q132"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="T131:T132"/>
+    <mergeCell ref="U131:U132"/>
+    <mergeCell ref="V131:V132"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="N131:N132"/>
+    <mergeCell ref="O131:O132"/>
+    <mergeCell ref="Z126:Z128"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="S126:S128"/>
+    <mergeCell ref="T126:T128"/>
+    <mergeCell ref="U126:U128"/>
+    <mergeCell ref="V126:V128"/>
+    <mergeCell ref="W126:W128"/>
+    <mergeCell ref="X126:X128"/>
+    <mergeCell ref="M126:M128"/>
+    <mergeCell ref="N126:N128"/>
+    <mergeCell ref="O126:O128"/>
+    <mergeCell ref="P126:P128"/>
+    <mergeCell ref="Q126:Q128"/>
+    <mergeCell ref="R126:R128"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="H126:H128"/>
+    <mergeCell ref="I126:I128"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="L126:L128"/>
+    <mergeCell ref="R122:S122"/>
+    <mergeCell ref="R123:S123"/>
+    <mergeCell ref="R124:S124"/>
+    <mergeCell ref="R125:S125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="T119:T120"/>
+    <mergeCell ref="U119:U120"/>
+    <mergeCell ref="V119:V120"/>
+    <mergeCell ref="W119:W120"/>
+    <mergeCell ref="X119:X120"/>
+    <mergeCell ref="Y119:Y120"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="O119:O120"/>
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="R119:R120"/>
+    <mergeCell ref="S119:S120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="Y126:Y128"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="V116:V117"/>
+    <mergeCell ref="W116:W117"/>
+    <mergeCell ref="X116:X117"/>
+    <mergeCell ref="Y116:Y117"/>
+    <mergeCell ref="Z116:Z117"/>
+    <mergeCell ref="N116:N117"/>
+    <mergeCell ref="O116:O117"/>
+    <mergeCell ref="P116:P117"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:S117"/>
+    <mergeCell ref="T116:T117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="Z119:Z120"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="Z95:Z96"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="T95:T96"/>
+    <mergeCell ref="U95:U96"/>
+    <mergeCell ref="V95:V96"/>
+    <mergeCell ref="W95:W96"/>
+    <mergeCell ref="X95:X96"/>
+    <mergeCell ref="Y95:Y96"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="S95:S96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="Z92:Z93"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="Q92:Q93"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="T92:T93"/>
+    <mergeCell ref="U92:U93"/>
+    <mergeCell ref="V92:V93"/>
+    <mergeCell ref="W92:W93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="P92:P93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="T89:T90"/>
+    <mergeCell ref="U89:U90"/>
+    <mergeCell ref="V89:V90"/>
+    <mergeCell ref="W89:W90"/>
+    <mergeCell ref="X89:X90"/>
+    <mergeCell ref="Y89:Y90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="S89:S90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="X92:X93"/>
+    <mergeCell ref="Y92:Y93"/>
+    <mergeCell ref="X84:X85"/>
+    <mergeCell ref="Y84:Y85"/>
+    <mergeCell ref="Z84:Z85"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="T84:T85"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="W84:W85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="Z89:Z90"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="Z60:Z61"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="T60:T61"/>
+    <mergeCell ref="U60:U61"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="Y60:Y61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="U50:U51"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="X50:X51"/>
+    <mergeCell ref="Y50:Y51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
     <mergeCell ref="Z50:Z51"/>
     <mergeCell ref="N50:N51"/>
     <mergeCell ref="O50:O51"/>
@@ -76235,3249 +79016,55 @@
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="U50:U51"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="W50:W51"/>
-    <mergeCell ref="X50:X51"/>
-    <mergeCell ref="Y50:Y51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="Z60:Z61"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="T60:T61"/>
-    <mergeCell ref="U60:U61"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="X60:X61"/>
-    <mergeCell ref="Y60:Y61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="X84:X85"/>
-    <mergeCell ref="Y84:Y85"/>
-    <mergeCell ref="Z84:Z85"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="S84:S85"/>
-    <mergeCell ref="T84:T85"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="V84:V85"/>
-    <mergeCell ref="W84:W85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="Z89:Z90"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="T89:T90"/>
-    <mergeCell ref="U89:U90"/>
-    <mergeCell ref="V89:V90"/>
-    <mergeCell ref="W89:W90"/>
-    <mergeCell ref="X89:X90"/>
-    <mergeCell ref="Y89:Y90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="S89:S90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="X92:X93"/>
-    <mergeCell ref="Y92:Y93"/>
-    <mergeCell ref="Z92:Z93"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="Q92:Q93"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="T92:T93"/>
-    <mergeCell ref="U92:U93"/>
-    <mergeCell ref="V92:V93"/>
-    <mergeCell ref="W92:W93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="N92:N93"/>
-    <mergeCell ref="O92:O93"/>
-    <mergeCell ref="P92:P93"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="Z95:Z96"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="T95:T96"/>
-    <mergeCell ref="U95:U96"/>
-    <mergeCell ref="V95:V96"/>
-    <mergeCell ref="W95:W96"/>
-    <mergeCell ref="X95:X96"/>
-    <mergeCell ref="Y95:Y96"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="S95:S96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="V116:V117"/>
-    <mergeCell ref="W116:W117"/>
-    <mergeCell ref="X116:X117"/>
-    <mergeCell ref="Y116:Y117"/>
-    <mergeCell ref="Z116:Z117"/>
-    <mergeCell ref="N116:N117"/>
-    <mergeCell ref="O116:O117"/>
-    <mergeCell ref="P116:P117"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="S116:S117"/>
-    <mergeCell ref="T116:T117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="Z119:Z120"/>
-    <mergeCell ref="R122:S122"/>
-    <mergeCell ref="R123:S123"/>
-    <mergeCell ref="R124:S124"/>
-    <mergeCell ref="R125:S125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="T119:T120"/>
-    <mergeCell ref="U119:U120"/>
-    <mergeCell ref="V119:V120"/>
-    <mergeCell ref="W119:W120"/>
-    <mergeCell ref="X119:X120"/>
-    <mergeCell ref="Y119:Y120"/>
-    <mergeCell ref="N119:N120"/>
-    <mergeCell ref="O119:O120"/>
-    <mergeCell ref="P119:P120"/>
-    <mergeCell ref="Q119:Q120"/>
-    <mergeCell ref="R119:R120"/>
-    <mergeCell ref="S119:S120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="Y126:Y128"/>
-    <mergeCell ref="Z126:Z128"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="S126:S128"/>
-    <mergeCell ref="T126:T128"/>
-    <mergeCell ref="U126:U128"/>
-    <mergeCell ref="V126:V128"/>
-    <mergeCell ref="W126:W128"/>
-    <mergeCell ref="X126:X128"/>
-    <mergeCell ref="M126:M128"/>
-    <mergeCell ref="N126:N128"/>
-    <mergeCell ref="O126:O128"/>
-    <mergeCell ref="P126:P128"/>
-    <mergeCell ref="Q126:Q128"/>
-    <mergeCell ref="R126:R128"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="H126:H128"/>
-    <mergeCell ref="I126:I128"/>
-    <mergeCell ref="J126:J128"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="L126:L128"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="W131:W132"/>
-    <mergeCell ref="X131:X132"/>
-    <mergeCell ref="Y131:Y132"/>
-    <mergeCell ref="Z131:Z132"/>
-    <mergeCell ref="R133:S133"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="P131:P132"/>
-    <mergeCell ref="Q131:Q132"/>
-    <mergeCell ref="R131:S131"/>
-    <mergeCell ref="T131:T132"/>
-    <mergeCell ref="U131:U132"/>
-    <mergeCell ref="V131:V132"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="N131:N132"/>
-    <mergeCell ref="O131:O132"/>
-    <mergeCell ref="Z145:Z146"/>
-    <mergeCell ref="N145:N146"/>
-    <mergeCell ref="O145:O146"/>
-    <mergeCell ref="P145:P146"/>
-    <mergeCell ref="Q145:R145"/>
-    <mergeCell ref="S145:S146"/>
-    <mergeCell ref="T145:T146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="W140:W141"/>
-    <mergeCell ref="X140:X141"/>
-    <mergeCell ref="Y140:Y141"/>
-    <mergeCell ref="Z140:Z141"/>
-    <mergeCell ref="Q140:Q141"/>
-    <mergeCell ref="R140:R141"/>
-    <mergeCell ref="S140:S141"/>
-    <mergeCell ref="T140:T141"/>
-    <mergeCell ref="U140:U141"/>
-    <mergeCell ref="V140:V141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="M140:M141"/>
-    <mergeCell ref="N140:N141"/>
-    <mergeCell ref="O140:O141"/>
-    <mergeCell ref="P140:P141"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="T150:U150"/>
-    <mergeCell ref="S152:T152"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="V145:V146"/>
-    <mergeCell ref="W145:W146"/>
-    <mergeCell ref="X145:X146"/>
-    <mergeCell ref="Y145:Y146"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="S167:T167"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="Q178:R178"/>
-    <mergeCell ref="Q180:R180"/>
-    <mergeCell ref="S182:T182"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="Z155:Z156"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="R160:S160"/>
-    <mergeCell ref="R163:S163"/>
-    <mergeCell ref="R165:S165"/>
-    <mergeCell ref="T155:T156"/>
-    <mergeCell ref="U155:U156"/>
-    <mergeCell ref="V155:V156"/>
-    <mergeCell ref="W155:W156"/>
-    <mergeCell ref="X155:X156"/>
-    <mergeCell ref="Y155:Y156"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="O155:O156"/>
-    <mergeCell ref="P155:P156"/>
-    <mergeCell ref="Q155:Q156"/>
-    <mergeCell ref="R155:R156"/>
-    <mergeCell ref="S155:S156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="Y185:Y186"/>
-    <mergeCell ref="Z185:Z186"/>
-    <mergeCell ref="R187:S187"/>
-    <mergeCell ref="R188:S188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="S185:S186"/>
-    <mergeCell ref="T185:T186"/>
-    <mergeCell ref="U185:U186"/>
-    <mergeCell ref="V185:V186"/>
-    <mergeCell ref="W185:W186"/>
-    <mergeCell ref="X185:X186"/>
-    <mergeCell ref="M185:M186"/>
-    <mergeCell ref="N185:N186"/>
-    <mergeCell ref="O185:O186"/>
-    <mergeCell ref="P185:P186"/>
-    <mergeCell ref="Q185:Q186"/>
-    <mergeCell ref="R185:R186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="I185:I186"/>
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="K185:K186"/>
-    <mergeCell ref="L185:L186"/>
-    <mergeCell ref="K196:K197"/>
-    <mergeCell ref="L196:L197"/>
-    <mergeCell ref="Z189:Z190"/>
-    <mergeCell ref="Q191:R191"/>
-    <mergeCell ref="S192:T192"/>
-    <mergeCell ref="Q193:R193"/>
-    <mergeCell ref="Q194:R194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="T189:T190"/>
-    <mergeCell ref="U189:U190"/>
-    <mergeCell ref="V189:V190"/>
-    <mergeCell ref="W189:W190"/>
-    <mergeCell ref="X189:X190"/>
-    <mergeCell ref="Y189:Y190"/>
-    <mergeCell ref="N189:N190"/>
-    <mergeCell ref="O189:O190"/>
-    <mergeCell ref="P189:P190"/>
-    <mergeCell ref="Q189:Q190"/>
-    <mergeCell ref="R189:R190"/>
-    <mergeCell ref="S189:S190"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="M189:M190"/>
-    <mergeCell ref="Q204:R204"/>
-    <mergeCell ref="S205:T205"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="Q207:R207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="Y196:Y197"/>
-    <mergeCell ref="Z196:Z197"/>
-    <mergeCell ref="R199:S199"/>
-    <mergeCell ref="R200:S200"/>
-    <mergeCell ref="Q201:R201"/>
-    <mergeCell ref="S203:T203"/>
-    <mergeCell ref="S196:S197"/>
-    <mergeCell ref="T196:T197"/>
-    <mergeCell ref="U196:U197"/>
-    <mergeCell ref="V196:V197"/>
-    <mergeCell ref="W196:W197"/>
-    <mergeCell ref="X196:X197"/>
-    <mergeCell ref="M196:M197"/>
-    <mergeCell ref="N196:N197"/>
-    <mergeCell ref="O196:O197"/>
-    <mergeCell ref="P196:P197"/>
-    <mergeCell ref="Q196:Q197"/>
-    <mergeCell ref="R196:R197"/>
-    <mergeCell ref="G196:G197"/>
-    <mergeCell ref="H196:H197"/>
-    <mergeCell ref="I196:I197"/>
-    <mergeCell ref="J196:J197"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="T208:U208"/>
-    <mergeCell ref="V208:V209"/>
-    <mergeCell ref="W208:W209"/>
-    <mergeCell ref="X208:X209"/>
-    <mergeCell ref="Y208:Y209"/>
-    <mergeCell ref="Z208:Z209"/>
-    <mergeCell ref="N208:N209"/>
-    <mergeCell ref="O208:O209"/>
-    <mergeCell ref="P208:P209"/>
-    <mergeCell ref="Q208:Q209"/>
-    <mergeCell ref="R208:R209"/>
-    <mergeCell ref="S208:S209"/>
-    <mergeCell ref="H208:H209"/>
-    <mergeCell ref="I208:I209"/>
-    <mergeCell ref="J208:J209"/>
-    <mergeCell ref="K208:K209"/>
-    <mergeCell ref="L208:L209"/>
-    <mergeCell ref="M208:M209"/>
-    <mergeCell ref="Z211:Z212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="T211:T212"/>
-    <mergeCell ref="U211:U212"/>
-    <mergeCell ref="V211:V212"/>
-    <mergeCell ref="W211:W212"/>
-    <mergeCell ref="X211:X212"/>
-    <mergeCell ref="Y211:Y212"/>
-    <mergeCell ref="N211:N212"/>
-    <mergeCell ref="O211:O212"/>
-    <mergeCell ref="P211:P212"/>
-    <mergeCell ref="Q211:Q212"/>
-    <mergeCell ref="R211:R212"/>
-    <mergeCell ref="S211:S212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="I211:I212"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="L211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="W213:W214"/>
-    <mergeCell ref="X213:X214"/>
-    <mergeCell ref="Y213:Y214"/>
-    <mergeCell ref="Z213:Z214"/>
-    <mergeCell ref="Q215:R215"/>
-    <mergeCell ref="R216:S216"/>
-    <mergeCell ref="Q213:Q214"/>
-    <mergeCell ref="R213:R214"/>
-    <mergeCell ref="S213:S214"/>
-    <mergeCell ref="T213:T214"/>
-    <mergeCell ref="U213:U214"/>
-    <mergeCell ref="V213:V214"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="M213:M214"/>
-    <mergeCell ref="N213:N214"/>
-    <mergeCell ref="O213:O214"/>
-    <mergeCell ref="P213:P214"/>
-    <mergeCell ref="Z219:Z220"/>
-    <mergeCell ref="Q221:R221"/>
-    <mergeCell ref="T223:U223"/>
-    <mergeCell ref="S225:T225"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="T219:T220"/>
-    <mergeCell ref="U219:U220"/>
-    <mergeCell ref="V219:V220"/>
-    <mergeCell ref="W219:W220"/>
-    <mergeCell ref="X219:X220"/>
-    <mergeCell ref="Y219:Y220"/>
-    <mergeCell ref="N219:N220"/>
-    <mergeCell ref="O219:O220"/>
-    <mergeCell ref="P219:P220"/>
-    <mergeCell ref="Q219:Q220"/>
-    <mergeCell ref="R219:R220"/>
-    <mergeCell ref="S219:S220"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="I219:I220"/>
-    <mergeCell ref="J219:J220"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="L219:L220"/>
-    <mergeCell ref="M219:M220"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="Z227:Z228"/>
-    <mergeCell ref="R230:S230"/>
-    <mergeCell ref="R231:S231"/>
-    <mergeCell ref="R237:S237"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="B239:B240"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="F239:F240"/>
-    <mergeCell ref="G239:G240"/>
-    <mergeCell ref="T227:T228"/>
-    <mergeCell ref="U227:U228"/>
-    <mergeCell ref="V227:V228"/>
-    <mergeCell ref="W227:W228"/>
-    <mergeCell ref="X227:X228"/>
-    <mergeCell ref="Y227:Y228"/>
-    <mergeCell ref="N227:N228"/>
-    <mergeCell ref="O227:O228"/>
-    <mergeCell ref="P227:P228"/>
-    <mergeCell ref="Q227:Q228"/>
-    <mergeCell ref="R227:R228"/>
-    <mergeCell ref="S227:S228"/>
-    <mergeCell ref="H227:H228"/>
-    <mergeCell ref="I227:I228"/>
-    <mergeCell ref="J227:J228"/>
-    <mergeCell ref="K227:K228"/>
-    <mergeCell ref="L227:L228"/>
-    <mergeCell ref="M227:M228"/>
-    <mergeCell ref="Z239:Z240"/>
-    <mergeCell ref="Q241:R241"/>
-    <mergeCell ref="Q242:R242"/>
-    <mergeCell ref="A243:A244"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="G243:G244"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="T239:T240"/>
-    <mergeCell ref="U239:U240"/>
-    <mergeCell ref="V239:V240"/>
-    <mergeCell ref="W239:W240"/>
-    <mergeCell ref="X239:X240"/>
-    <mergeCell ref="Y239:Y240"/>
-    <mergeCell ref="N239:N240"/>
-    <mergeCell ref="O239:O240"/>
-    <mergeCell ref="P239:P240"/>
-    <mergeCell ref="Q239:Q240"/>
-    <mergeCell ref="R239:R240"/>
-    <mergeCell ref="S239:S240"/>
-    <mergeCell ref="H239:H240"/>
-    <mergeCell ref="I239:I240"/>
-    <mergeCell ref="J239:J240"/>
-    <mergeCell ref="K239:K240"/>
-    <mergeCell ref="L239:L240"/>
-    <mergeCell ref="M239:M240"/>
-    <mergeCell ref="U243:U244"/>
-    <mergeCell ref="V243:V244"/>
-    <mergeCell ref="W243:W244"/>
-    <mergeCell ref="X243:X244"/>
-    <mergeCell ref="Y243:Y244"/>
-    <mergeCell ref="Z243:Z244"/>
-    <mergeCell ref="O243:O244"/>
-    <mergeCell ref="P243:P244"/>
-    <mergeCell ref="Q243:Q244"/>
-    <mergeCell ref="R243:R244"/>
-    <mergeCell ref="S243:S244"/>
-    <mergeCell ref="T243:T244"/>
-    <mergeCell ref="I243:I244"/>
-    <mergeCell ref="J243:J244"/>
-    <mergeCell ref="K243:K244"/>
-    <mergeCell ref="L243:L244"/>
-    <mergeCell ref="M243:M244"/>
-    <mergeCell ref="N243:N244"/>
-    <mergeCell ref="P259:P260"/>
-    <mergeCell ref="Q259:Q260"/>
-    <mergeCell ref="R259:R260"/>
-    <mergeCell ref="G259:G260"/>
-    <mergeCell ref="H259:H260"/>
-    <mergeCell ref="I259:I260"/>
-    <mergeCell ref="J259:J260"/>
-    <mergeCell ref="K259:K260"/>
-    <mergeCell ref="L259:L260"/>
-    <mergeCell ref="R245:S245"/>
-    <mergeCell ref="Q249:R249"/>
-    <mergeCell ref="Q253:R253"/>
-    <mergeCell ref="R254:S254"/>
-    <mergeCell ref="R257:S257"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="F259:F260"/>
-    <mergeCell ref="Z263:Z264"/>
-    <mergeCell ref="O263:O264"/>
-    <mergeCell ref="P263:P264"/>
-    <mergeCell ref="Q263:Q264"/>
-    <mergeCell ref="R263:R264"/>
-    <mergeCell ref="S263:S264"/>
-    <mergeCell ref="T263:T264"/>
-    <mergeCell ref="I263:I264"/>
-    <mergeCell ref="J263:J264"/>
-    <mergeCell ref="K263:K264"/>
-    <mergeCell ref="L263:L264"/>
-    <mergeCell ref="M263:M264"/>
-    <mergeCell ref="N263:N264"/>
-    <mergeCell ref="Y259:Y260"/>
-    <mergeCell ref="Z259:Z260"/>
-    <mergeCell ref="S261:T261"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="F263:F264"/>
-    <mergeCell ref="G263:G264"/>
-    <mergeCell ref="H263:H264"/>
-    <mergeCell ref="S259:S260"/>
-    <mergeCell ref="T259:T260"/>
-    <mergeCell ref="U259:U260"/>
-    <mergeCell ref="V259:V260"/>
-    <mergeCell ref="W259:W260"/>
-    <mergeCell ref="X259:X260"/>
-    <mergeCell ref="M259:M260"/>
-    <mergeCell ref="N259:N260"/>
-    <mergeCell ref="O259:O260"/>
-    <mergeCell ref="K278:K279"/>
-    <mergeCell ref="L278:L279"/>
-    <mergeCell ref="S269:T269"/>
-    <mergeCell ref="Q270:R270"/>
-    <mergeCell ref="R271:S271"/>
-    <mergeCell ref="S272:T272"/>
-    <mergeCell ref="Q275:R275"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="F278:F279"/>
-    <mergeCell ref="U263:U264"/>
-    <mergeCell ref="V263:V264"/>
-    <mergeCell ref="W263:W264"/>
-    <mergeCell ref="X263:X264"/>
-    <mergeCell ref="Y263:Y264"/>
-    <mergeCell ref="Q287:R287"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="G289:G290"/>
-    <mergeCell ref="H289:H290"/>
-    <mergeCell ref="I289:I290"/>
-    <mergeCell ref="J289:J290"/>
-    <mergeCell ref="Y278:Y279"/>
-    <mergeCell ref="Z278:Z279"/>
-    <mergeCell ref="Q281:R281"/>
-    <mergeCell ref="Q283:R283"/>
-    <mergeCell ref="R284:S284"/>
-    <mergeCell ref="Q286:R286"/>
-    <mergeCell ref="S278:S279"/>
-    <mergeCell ref="T278:T279"/>
-    <mergeCell ref="U278:U279"/>
-    <mergeCell ref="V278:V279"/>
-    <mergeCell ref="W278:W279"/>
-    <mergeCell ref="X278:X279"/>
-    <mergeCell ref="M278:M279"/>
-    <mergeCell ref="N278:N279"/>
-    <mergeCell ref="O278:O279"/>
-    <mergeCell ref="P278:P279"/>
-    <mergeCell ref="Q278:Q279"/>
-    <mergeCell ref="R278:R279"/>
-    <mergeCell ref="G278:G279"/>
-    <mergeCell ref="H278:H279"/>
-    <mergeCell ref="I278:I279"/>
-    <mergeCell ref="J278:J279"/>
-    <mergeCell ref="W289:W290"/>
-    <mergeCell ref="X289:X290"/>
-    <mergeCell ref="Y289:Y290"/>
-    <mergeCell ref="Z289:Z290"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="F298:F299"/>
-    <mergeCell ref="G298:G299"/>
-    <mergeCell ref="Q289:Q290"/>
-    <mergeCell ref="R289:R290"/>
-    <mergeCell ref="S289:S290"/>
-    <mergeCell ref="T289:T290"/>
-    <mergeCell ref="U289:U290"/>
-    <mergeCell ref="V289:V290"/>
-    <mergeCell ref="K289:K290"/>
-    <mergeCell ref="L289:L290"/>
-    <mergeCell ref="M289:M290"/>
-    <mergeCell ref="N289:N290"/>
-    <mergeCell ref="O289:O290"/>
-    <mergeCell ref="P289:P290"/>
-    <mergeCell ref="Z298:Z299"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="F304:F305"/>
-    <mergeCell ref="G304:G305"/>
-    <mergeCell ref="H304:H305"/>
-    <mergeCell ref="I304:I305"/>
-    <mergeCell ref="J304:J305"/>
-    <mergeCell ref="T298:T299"/>
-    <mergeCell ref="U298:U299"/>
-    <mergeCell ref="V298:V299"/>
-    <mergeCell ref="W298:W299"/>
-    <mergeCell ref="X298:X299"/>
-    <mergeCell ref="Y298:Y299"/>
-    <mergeCell ref="N298:N299"/>
-    <mergeCell ref="O298:O299"/>
-    <mergeCell ref="P298:P299"/>
-    <mergeCell ref="Q298:Q299"/>
-    <mergeCell ref="R298:R299"/>
-    <mergeCell ref="S298:S299"/>
-    <mergeCell ref="H298:H299"/>
-    <mergeCell ref="I298:I299"/>
-    <mergeCell ref="J298:J299"/>
-    <mergeCell ref="K298:K299"/>
-    <mergeCell ref="L298:L299"/>
-    <mergeCell ref="M298:M299"/>
-    <mergeCell ref="X304:X305"/>
-    <mergeCell ref="Y304:Y305"/>
-    <mergeCell ref="Z304:Z305"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="F307:F308"/>
-    <mergeCell ref="G307:G308"/>
-    <mergeCell ref="H307:H308"/>
-    <mergeCell ref="Q304:Q305"/>
-    <mergeCell ref="R304:S304"/>
-    <mergeCell ref="T304:T305"/>
-    <mergeCell ref="U304:U305"/>
-    <mergeCell ref="V304:V305"/>
-    <mergeCell ref="W304:W305"/>
-    <mergeCell ref="K304:K305"/>
-    <mergeCell ref="L304:L305"/>
-    <mergeCell ref="M304:M305"/>
-    <mergeCell ref="N304:N305"/>
-    <mergeCell ref="O304:O305"/>
-    <mergeCell ref="P304:P305"/>
-    <mergeCell ref="F312:F313"/>
-    <mergeCell ref="G312:G313"/>
-    <mergeCell ref="U307:U308"/>
-    <mergeCell ref="V307:V308"/>
-    <mergeCell ref="W307:W308"/>
-    <mergeCell ref="X307:X308"/>
-    <mergeCell ref="Y307:Y308"/>
-    <mergeCell ref="Z307:Z308"/>
-    <mergeCell ref="O307:O308"/>
-    <mergeCell ref="P307:P308"/>
-    <mergeCell ref="Q307:Q308"/>
-    <mergeCell ref="R307:R308"/>
-    <mergeCell ref="S307:S308"/>
-    <mergeCell ref="T307:T308"/>
-    <mergeCell ref="I307:I308"/>
-    <mergeCell ref="J307:J308"/>
-    <mergeCell ref="K307:K308"/>
-    <mergeCell ref="L307:L308"/>
-    <mergeCell ref="M307:M308"/>
-    <mergeCell ref="N307:N308"/>
-    <mergeCell ref="Z312:Z313"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="F316:F317"/>
-    <mergeCell ref="G316:G317"/>
-    <mergeCell ref="H316:H317"/>
-    <mergeCell ref="I316:I317"/>
-    <mergeCell ref="J316:J317"/>
-    <mergeCell ref="T312:T313"/>
-    <mergeCell ref="U312:U313"/>
-    <mergeCell ref="V312:V313"/>
-    <mergeCell ref="W312:W313"/>
-    <mergeCell ref="X312:X313"/>
-    <mergeCell ref="Y312:Y313"/>
-    <mergeCell ref="N312:N313"/>
-    <mergeCell ref="O312:O313"/>
-    <mergeCell ref="P312:P313"/>
-    <mergeCell ref="Q312:Q313"/>
-    <mergeCell ref="R312:R313"/>
-    <mergeCell ref="S312:S313"/>
-    <mergeCell ref="H312:H313"/>
-    <mergeCell ref="I312:I313"/>
-    <mergeCell ref="J312:J313"/>
-    <mergeCell ref="K312:K313"/>
-    <mergeCell ref="L312:L313"/>
-    <mergeCell ref="M312:M313"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="D312:D313"/>
-    <mergeCell ref="W316:W317"/>
-    <mergeCell ref="X316:X317"/>
-    <mergeCell ref="Y316:Y317"/>
-    <mergeCell ref="Z316:Z317"/>
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="B318:B319"/>
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="D318:D319"/>
-    <mergeCell ref="F318:F319"/>
-    <mergeCell ref="G318:G319"/>
-    <mergeCell ref="Q316:Q317"/>
-    <mergeCell ref="R316:R317"/>
-    <mergeCell ref="S316:S317"/>
-    <mergeCell ref="T316:T317"/>
-    <mergeCell ref="U316:U317"/>
-    <mergeCell ref="V316:V317"/>
-    <mergeCell ref="K316:K317"/>
-    <mergeCell ref="L316:L317"/>
-    <mergeCell ref="M316:M317"/>
-    <mergeCell ref="N316:N317"/>
-    <mergeCell ref="O316:O317"/>
-    <mergeCell ref="P316:P317"/>
-    <mergeCell ref="Z318:Z319"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="F322:F323"/>
-    <mergeCell ref="G322:G323"/>
-    <mergeCell ref="H322:H323"/>
-    <mergeCell ref="I322:I323"/>
-    <mergeCell ref="J322:J323"/>
-    <mergeCell ref="T318:T319"/>
-    <mergeCell ref="U318:U319"/>
-    <mergeCell ref="V318:V319"/>
-    <mergeCell ref="W318:W319"/>
-    <mergeCell ref="X318:X319"/>
-    <mergeCell ref="Y318:Y319"/>
-    <mergeCell ref="N318:N319"/>
-    <mergeCell ref="O318:O319"/>
-    <mergeCell ref="P318:P319"/>
-    <mergeCell ref="Q318:Q319"/>
-    <mergeCell ref="R318:R319"/>
-    <mergeCell ref="S318:S319"/>
-    <mergeCell ref="H318:H319"/>
-    <mergeCell ref="I318:I319"/>
-    <mergeCell ref="J318:J319"/>
-    <mergeCell ref="K318:K319"/>
-    <mergeCell ref="L318:L319"/>
-    <mergeCell ref="M318:M319"/>
-    <mergeCell ref="F332:F334"/>
-    <mergeCell ref="G332:G334"/>
-    <mergeCell ref="W322:W323"/>
-    <mergeCell ref="X322:X323"/>
-    <mergeCell ref="Y322:Y323"/>
-    <mergeCell ref="Z322:Z323"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="R325:S325"/>
-    <mergeCell ref="Q322:Q323"/>
-    <mergeCell ref="R322:R323"/>
-    <mergeCell ref="S322:S323"/>
-    <mergeCell ref="T322:T323"/>
-    <mergeCell ref="U322:U323"/>
-    <mergeCell ref="V322:V323"/>
-    <mergeCell ref="K322:K323"/>
-    <mergeCell ref="L322:L323"/>
-    <mergeCell ref="M322:M323"/>
-    <mergeCell ref="N322:N323"/>
-    <mergeCell ref="O322:O323"/>
-    <mergeCell ref="P322:P323"/>
-    <mergeCell ref="R342:S342"/>
-    <mergeCell ref="Q343:R343"/>
-    <mergeCell ref="Q344:R344"/>
-    <mergeCell ref="R347:S347"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="C348:C349"/>
-    <mergeCell ref="D348:D349"/>
-    <mergeCell ref="F348:F349"/>
-    <mergeCell ref="G348:G349"/>
-    <mergeCell ref="U332:U334"/>
-    <mergeCell ref="V332:V334"/>
-    <mergeCell ref="W332:W334"/>
-    <mergeCell ref="X332:X334"/>
-    <mergeCell ref="Y332:Y334"/>
-    <mergeCell ref="Z332:Z334"/>
-    <mergeCell ref="N332:N334"/>
-    <mergeCell ref="O332:O334"/>
-    <mergeCell ref="P332:P334"/>
-    <mergeCell ref="Q332:Q334"/>
-    <mergeCell ref="R332:S332"/>
-    <mergeCell ref="T332:T334"/>
-    <mergeCell ref="H332:H334"/>
-    <mergeCell ref="I332:I334"/>
-    <mergeCell ref="J332:J334"/>
-    <mergeCell ref="K332:K334"/>
-    <mergeCell ref="L332:L334"/>
-    <mergeCell ref="M332:M334"/>
-    <mergeCell ref="A332:A334"/>
-    <mergeCell ref="B332:B334"/>
-    <mergeCell ref="C332:C334"/>
-    <mergeCell ref="D332:D334"/>
-    <mergeCell ref="L359:L360"/>
-    <mergeCell ref="M359:M360"/>
-    <mergeCell ref="Z348:Z349"/>
-    <mergeCell ref="Q350:R350"/>
-    <mergeCell ref="R351:S351"/>
-    <mergeCell ref="Q355:R355"/>
-    <mergeCell ref="A359:A360"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="D359:D360"/>
-    <mergeCell ref="F359:F360"/>
-    <mergeCell ref="G359:G360"/>
-    <mergeCell ref="T348:T349"/>
-    <mergeCell ref="U348:U349"/>
-    <mergeCell ref="V348:V349"/>
-    <mergeCell ref="W348:W349"/>
-    <mergeCell ref="X348:X349"/>
-    <mergeCell ref="Y348:Y349"/>
-    <mergeCell ref="N348:N349"/>
-    <mergeCell ref="O348:O349"/>
-    <mergeCell ref="P348:P349"/>
-    <mergeCell ref="Q348:Q349"/>
-    <mergeCell ref="R348:R349"/>
-    <mergeCell ref="S348:S349"/>
-    <mergeCell ref="H348:H349"/>
-    <mergeCell ref="I348:I349"/>
-    <mergeCell ref="J348:J349"/>
-    <mergeCell ref="K348:K349"/>
-    <mergeCell ref="L348:L349"/>
-    <mergeCell ref="M348:M349"/>
-    <mergeCell ref="Q371:R371"/>
-    <mergeCell ref="R373:S373"/>
-    <mergeCell ref="A376:A378"/>
-    <mergeCell ref="B376:B378"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="F376:F378"/>
-    <mergeCell ref="G376:G378"/>
-    <mergeCell ref="H376:H378"/>
-    <mergeCell ref="I376:I378"/>
-    <mergeCell ref="Z359:Z360"/>
-    <mergeCell ref="T361:U361"/>
-    <mergeCell ref="T364:U364"/>
-    <mergeCell ref="Q366:R366"/>
-    <mergeCell ref="S367:T367"/>
-    <mergeCell ref="Q368:R368"/>
-    <mergeCell ref="T359:T360"/>
-    <mergeCell ref="U359:U360"/>
-    <mergeCell ref="V359:V360"/>
-    <mergeCell ref="W359:W360"/>
-    <mergeCell ref="X359:X360"/>
-    <mergeCell ref="Y359:Y360"/>
-    <mergeCell ref="N359:N360"/>
-    <mergeCell ref="O359:O360"/>
-    <mergeCell ref="P359:P360"/>
-    <mergeCell ref="Q359:Q360"/>
-    <mergeCell ref="R359:R360"/>
-    <mergeCell ref="S359:S360"/>
-    <mergeCell ref="H359:H360"/>
-    <mergeCell ref="I359:I360"/>
-    <mergeCell ref="J359:J360"/>
-    <mergeCell ref="K359:K360"/>
-    <mergeCell ref="R381:S381"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="F382:F383"/>
-    <mergeCell ref="G382:G383"/>
-    <mergeCell ref="H382:H383"/>
-    <mergeCell ref="I382:I383"/>
-    <mergeCell ref="J382:J383"/>
-    <mergeCell ref="V376:V378"/>
-    <mergeCell ref="W376:W378"/>
-    <mergeCell ref="X376:X378"/>
-    <mergeCell ref="Y376:Y378"/>
-    <mergeCell ref="Z376:Z378"/>
-    <mergeCell ref="S379:T379"/>
-    <mergeCell ref="P376:P378"/>
-    <mergeCell ref="Q376:Q378"/>
-    <mergeCell ref="R376:R378"/>
-    <mergeCell ref="S376:S378"/>
-    <mergeCell ref="T376:T378"/>
-    <mergeCell ref="U376:U378"/>
-    <mergeCell ref="J376:J378"/>
-    <mergeCell ref="K376:K378"/>
-    <mergeCell ref="L376:L378"/>
-    <mergeCell ref="M376:M378"/>
-    <mergeCell ref="N376:N378"/>
-    <mergeCell ref="O376:O378"/>
-    <mergeCell ref="A389:A390"/>
-    <mergeCell ref="B389:B390"/>
-    <mergeCell ref="C389:C390"/>
-    <mergeCell ref="D389:D390"/>
-    <mergeCell ref="F389:F390"/>
-    <mergeCell ref="G389:G390"/>
-    <mergeCell ref="W382:W383"/>
-    <mergeCell ref="X382:X383"/>
-    <mergeCell ref="Y382:Y383"/>
-    <mergeCell ref="Z382:Z383"/>
-    <mergeCell ref="R384:S384"/>
-    <mergeCell ref="R388:S388"/>
-    <mergeCell ref="Q382:Q383"/>
-    <mergeCell ref="R382:R383"/>
-    <mergeCell ref="S382:S383"/>
-    <mergeCell ref="T382:T383"/>
-    <mergeCell ref="U382:U383"/>
-    <mergeCell ref="V382:V383"/>
-    <mergeCell ref="K382:K383"/>
-    <mergeCell ref="L382:L383"/>
-    <mergeCell ref="M382:M383"/>
-    <mergeCell ref="N382:N383"/>
-    <mergeCell ref="O382:O383"/>
-    <mergeCell ref="P382:P383"/>
-    <mergeCell ref="F415:F416"/>
-    <mergeCell ref="G415:G416"/>
-    <mergeCell ref="Z389:Z390"/>
-    <mergeCell ref="Q395:R395"/>
-    <mergeCell ref="R399:S399"/>
-    <mergeCell ref="R402:S402"/>
-    <mergeCell ref="R410:S410"/>
-    <mergeCell ref="Q411:R411"/>
-    <mergeCell ref="T389:T390"/>
-    <mergeCell ref="U389:U390"/>
-    <mergeCell ref="V389:V390"/>
-    <mergeCell ref="W389:W390"/>
-    <mergeCell ref="X389:X390"/>
-    <mergeCell ref="Y389:Y390"/>
-    <mergeCell ref="N389:N390"/>
-    <mergeCell ref="O389:O390"/>
-    <mergeCell ref="P389:P390"/>
-    <mergeCell ref="Q389:Q390"/>
-    <mergeCell ref="R389:R390"/>
-    <mergeCell ref="S389:S390"/>
-    <mergeCell ref="H389:H390"/>
-    <mergeCell ref="I389:I390"/>
-    <mergeCell ref="J389:J390"/>
-    <mergeCell ref="K389:K390"/>
-    <mergeCell ref="L389:L390"/>
-    <mergeCell ref="M389:M390"/>
-    <mergeCell ref="Z415:Z416"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="B417:B418"/>
-    <mergeCell ref="C417:C418"/>
-    <mergeCell ref="D417:D418"/>
-    <mergeCell ref="F417:F418"/>
-    <mergeCell ref="G417:G418"/>
-    <mergeCell ref="H417:H418"/>
-    <mergeCell ref="I417:I418"/>
-    <mergeCell ref="J417:J418"/>
-    <mergeCell ref="T415:T416"/>
-    <mergeCell ref="U415:U416"/>
-    <mergeCell ref="V415:V416"/>
-    <mergeCell ref="W415:W416"/>
-    <mergeCell ref="X415:X416"/>
-    <mergeCell ref="Y415:Y416"/>
-    <mergeCell ref="N415:N416"/>
-    <mergeCell ref="O415:O416"/>
-    <mergeCell ref="P415:P416"/>
-    <mergeCell ref="Q415:Q416"/>
-    <mergeCell ref="R415:R416"/>
-    <mergeCell ref="S415:S416"/>
-    <mergeCell ref="H415:H416"/>
-    <mergeCell ref="I415:I416"/>
-    <mergeCell ref="J415:J416"/>
-    <mergeCell ref="K415:K416"/>
-    <mergeCell ref="L415:L416"/>
-    <mergeCell ref="M415:M416"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="C415:C416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="Q428:R428"/>
-    <mergeCell ref="Q430:R430"/>
-    <mergeCell ref="R431:S431"/>
-    <mergeCell ref="S434:T434"/>
-    <mergeCell ref="A437:A438"/>
-    <mergeCell ref="B437:B438"/>
-    <mergeCell ref="C437:C438"/>
-    <mergeCell ref="D437:D438"/>
-    <mergeCell ref="F437:F438"/>
-    <mergeCell ref="G437:G438"/>
-    <mergeCell ref="X417:X418"/>
-    <mergeCell ref="Y417:Y418"/>
-    <mergeCell ref="Z417:Z418"/>
-    <mergeCell ref="Q420:R420"/>
-    <mergeCell ref="Q422:R422"/>
-    <mergeCell ref="Q424:R424"/>
-    <mergeCell ref="Q417:Q418"/>
-    <mergeCell ref="R417:S417"/>
-    <mergeCell ref="T417:T418"/>
-    <mergeCell ref="U417:U418"/>
-    <mergeCell ref="V417:V418"/>
-    <mergeCell ref="W417:W418"/>
-    <mergeCell ref="K417:K418"/>
-    <mergeCell ref="L417:L418"/>
-    <mergeCell ref="M417:M418"/>
-    <mergeCell ref="N417:N418"/>
-    <mergeCell ref="O417:O418"/>
-    <mergeCell ref="P417:P418"/>
-    <mergeCell ref="R439:S439"/>
-    <mergeCell ref="A440:A441"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="D440:D441"/>
-    <mergeCell ref="F440:F441"/>
-    <mergeCell ref="G440:G441"/>
-    <mergeCell ref="H440:H441"/>
-    <mergeCell ref="I440:I441"/>
-    <mergeCell ref="J440:J441"/>
-    <mergeCell ref="U437:U438"/>
-    <mergeCell ref="V437:V438"/>
-    <mergeCell ref="W437:W438"/>
-    <mergeCell ref="X437:X438"/>
-    <mergeCell ref="Y437:Y438"/>
-    <mergeCell ref="Z437:Z438"/>
-    <mergeCell ref="N437:N438"/>
-    <mergeCell ref="O437:O438"/>
-    <mergeCell ref="P437:P438"/>
-    <mergeCell ref="Q437:R437"/>
-    <mergeCell ref="S437:S438"/>
-    <mergeCell ref="T437:T438"/>
-    <mergeCell ref="H437:H438"/>
-    <mergeCell ref="I437:I438"/>
-    <mergeCell ref="J437:J438"/>
-    <mergeCell ref="K437:K438"/>
-    <mergeCell ref="L437:L438"/>
-    <mergeCell ref="M437:M438"/>
-    <mergeCell ref="Q447:R447"/>
-    <mergeCell ref="Q450:R450"/>
-    <mergeCell ref="A458:A459"/>
-    <mergeCell ref="B458:B459"/>
-    <mergeCell ref="C458:C459"/>
-    <mergeCell ref="D458:D459"/>
-    <mergeCell ref="F458:F459"/>
-    <mergeCell ref="G458:G459"/>
-    <mergeCell ref="H458:H459"/>
-    <mergeCell ref="I458:I459"/>
-    <mergeCell ref="W440:W441"/>
-    <mergeCell ref="X440:X441"/>
-    <mergeCell ref="Y440:Y441"/>
-    <mergeCell ref="Z440:Z441"/>
-    <mergeCell ref="R444:S444"/>
-    <mergeCell ref="R446:S446"/>
-    <mergeCell ref="Q440:Q441"/>
-    <mergeCell ref="R440:R441"/>
-    <mergeCell ref="S440:S441"/>
-    <mergeCell ref="T440:T441"/>
-    <mergeCell ref="U440:U441"/>
-    <mergeCell ref="V440:V441"/>
-    <mergeCell ref="K440:K441"/>
-    <mergeCell ref="L440:L441"/>
-    <mergeCell ref="M440:M441"/>
-    <mergeCell ref="N440:N441"/>
-    <mergeCell ref="O440:O441"/>
-    <mergeCell ref="P440:P441"/>
-    <mergeCell ref="K460:K461"/>
-    <mergeCell ref="L460:L461"/>
-    <mergeCell ref="V458:V459"/>
-    <mergeCell ref="W458:W459"/>
-    <mergeCell ref="X458:X459"/>
-    <mergeCell ref="Y458:Y459"/>
-    <mergeCell ref="Z458:Z459"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="F460:F461"/>
-    <mergeCell ref="P458:P459"/>
-    <mergeCell ref="Q458:Q459"/>
-    <mergeCell ref="R458:R459"/>
-    <mergeCell ref="S458:S459"/>
-    <mergeCell ref="T458:T459"/>
-    <mergeCell ref="U458:U459"/>
-    <mergeCell ref="J458:J459"/>
-    <mergeCell ref="K458:K459"/>
-    <mergeCell ref="L458:L459"/>
-    <mergeCell ref="M458:M459"/>
-    <mergeCell ref="N458:N459"/>
-    <mergeCell ref="O458:O459"/>
-    <mergeCell ref="R466:S466"/>
-    <mergeCell ref="Q468:R468"/>
-    <mergeCell ref="Q472:R472"/>
-    <mergeCell ref="R473:S473"/>
-    <mergeCell ref="A476:A478"/>
-    <mergeCell ref="B476:B478"/>
-    <mergeCell ref="C476:C478"/>
-    <mergeCell ref="D476:D478"/>
-    <mergeCell ref="F476:F478"/>
-    <mergeCell ref="G476:G478"/>
-    <mergeCell ref="Y460:Y461"/>
-    <mergeCell ref="Z460:Z461"/>
-    <mergeCell ref="S462:T462"/>
-    <mergeCell ref="R463:S463"/>
-    <mergeCell ref="Q464:R464"/>
-    <mergeCell ref="R465:S465"/>
-    <mergeCell ref="S460:S461"/>
-    <mergeCell ref="T460:T461"/>
-    <mergeCell ref="U460:U461"/>
-    <mergeCell ref="V460:V461"/>
-    <mergeCell ref="W460:W461"/>
-    <mergeCell ref="X460:X461"/>
-    <mergeCell ref="M460:M461"/>
-    <mergeCell ref="N460:N461"/>
-    <mergeCell ref="O460:O461"/>
-    <mergeCell ref="P460:P461"/>
-    <mergeCell ref="Q460:Q461"/>
-    <mergeCell ref="R460:R461"/>
-    <mergeCell ref="G460:G461"/>
-    <mergeCell ref="H460:H461"/>
-    <mergeCell ref="I460:I461"/>
-    <mergeCell ref="J460:J461"/>
-    <mergeCell ref="Z476:Z478"/>
-    <mergeCell ref="Q479:R479"/>
-    <mergeCell ref="Q483:R483"/>
-    <mergeCell ref="Q485:R485"/>
-    <mergeCell ref="S486:T486"/>
-    <mergeCell ref="A488:A489"/>
-    <mergeCell ref="B488:B489"/>
-    <mergeCell ref="C488:C489"/>
-    <mergeCell ref="D488:D489"/>
-    <mergeCell ref="F488:F489"/>
-    <mergeCell ref="T476:T478"/>
-    <mergeCell ref="U476:U478"/>
-    <mergeCell ref="V476:V478"/>
-    <mergeCell ref="W476:W478"/>
-    <mergeCell ref="X476:X478"/>
-    <mergeCell ref="Y476:Y478"/>
-    <mergeCell ref="N476:N478"/>
-    <mergeCell ref="O476:O478"/>
-    <mergeCell ref="P476:P478"/>
-    <mergeCell ref="Q476:Q478"/>
-    <mergeCell ref="R476:R478"/>
-    <mergeCell ref="S476:S478"/>
-    <mergeCell ref="H476:H478"/>
-    <mergeCell ref="I476:I478"/>
-    <mergeCell ref="J476:J478"/>
-    <mergeCell ref="K476:K478"/>
-    <mergeCell ref="L476:L478"/>
-    <mergeCell ref="M476:M478"/>
-    <mergeCell ref="Y488:Y489"/>
-    <mergeCell ref="Z488:Z489"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="C490:C491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="F490:F491"/>
-    <mergeCell ref="G490:G491"/>
-    <mergeCell ref="H490:H491"/>
-    <mergeCell ref="I490:I491"/>
-    <mergeCell ref="S488:S489"/>
-    <mergeCell ref="T488:T489"/>
-    <mergeCell ref="U488:U489"/>
-    <mergeCell ref="V488:V489"/>
-    <mergeCell ref="W488:W489"/>
-    <mergeCell ref="X488:X489"/>
-    <mergeCell ref="M488:M489"/>
-    <mergeCell ref="N488:N489"/>
-    <mergeCell ref="O488:O489"/>
-    <mergeCell ref="P488:P489"/>
-    <mergeCell ref="Q488:Q489"/>
-    <mergeCell ref="R488:R489"/>
-    <mergeCell ref="G488:G489"/>
-    <mergeCell ref="H488:H489"/>
-    <mergeCell ref="I488:I489"/>
-    <mergeCell ref="J488:J489"/>
-    <mergeCell ref="K488:K489"/>
-    <mergeCell ref="L488:L489"/>
-    <mergeCell ref="Q497:R497"/>
-    <mergeCell ref="R498:S498"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="C499:C500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="F499:F500"/>
-    <mergeCell ref="G499:G500"/>
-    <mergeCell ref="H499:H500"/>
-    <mergeCell ref="I499:I500"/>
-    <mergeCell ref="V490:V491"/>
-    <mergeCell ref="W490:W491"/>
-    <mergeCell ref="X490:X491"/>
-    <mergeCell ref="Y490:Y491"/>
-    <mergeCell ref="Z490:Z491"/>
-    <mergeCell ref="S492:T492"/>
-    <mergeCell ref="P490:P491"/>
-    <mergeCell ref="Q490:Q491"/>
-    <mergeCell ref="R490:R491"/>
-    <mergeCell ref="S490:S491"/>
-    <mergeCell ref="T490:T491"/>
-    <mergeCell ref="U490:U491"/>
-    <mergeCell ref="J490:J491"/>
-    <mergeCell ref="K490:K491"/>
-    <mergeCell ref="L490:L491"/>
-    <mergeCell ref="M490:M491"/>
-    <mergeCell ref="N490:N491"/>
-    <mergeCell ref="O490:O491"/>
-    <mergeCell ref="F503:F504"/>
-    <mergeCell ref="G503:G504"/>
-    <mergeCell ref="W499:W500"/>
-    <mergeCell ref="X499:X500"/>
-    <mergeCell ref="Y499:Y500"/>
-    <mergeCell ref="Z499:Z500"/>
-    <mergeCell ref="R501:S501"/>
-    <mergeCell ref="Q502:R502"/>
-    <mergeCell ref="P499:P500"/>
-    <mergeCell ref="Q499:Q500"/>
-    <mergeCell ref="R499:S499"/>
-    <mergeCell ref="T499:T500"/>
-    <mergeCell ref="U499:U500"/>
-    <mergeCell ref="V499:V500"/>
-    <mergeCell ref="J499:J500"/>
-    <mergeCell ref="K499:K500"/>
-    <mergeCell ref="L499:L500"/>
-    <mergeCell ref="M499:M500"/>
-    <mergeCell ref="N499:N500"/>
-    <mergeCell ref="O499:O500"/>
-    <mergeCell ref="R509:S509"/>
-    <mergeCell ref="Q515:R515"/>
-    <mergeCell ref="Q516:R516"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="C520:C521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="F520:F521"/>
-    <mergeCell ref="G520:G521"/>
-    <mergeCell ref="H520:H521"/>
-    <mergeCell ref="U503:U504"/>
-    <mergeCell ref="V503:V504"/>
-    <mergeCell ref="W503:W504"/>
-    <mergeCell ref="X503:X504"/>
-    <mergeCell ref="Y503:Y504"/>
-    <mergeCell ref="Z503:Z504"/>
-    <mergeCell ref="N503:N504"/>
-    <mergeCell ref="O503:O504"/>
-    <mergeCell ref="P503:P504"/>
-    <mergeCell ref="Q503:R503"/>
-    <mergeCell ref="S503:S504"/>
-    <mergeCell ref="T503:T504"/>
-    <mergeCell ref="H503:H504"/>
-    <mergeCell ref="I503:I504"/>
-    <mergeCell ref="J503:J504"/>
-    <mergeCell ref="K503:K504"/>
-    <mergeCell ref="L503:L504"/>
-    <mergeCell ref="M503:M504"/>
-    <mergeCell ref="A503:A504"/>
-    <mergeCell ref="B503:B504"/>
-    <mergeCell ref="C503:C504"/>
-    <mergeCell ref="D503:D504"/>
-    <mergeCell ref="A522:A524"/>
-    <mergeCell ref="B522:B524"/>
-    <mergeCell ref="C522:C524"/>
-    <mergeCell ref="D522:D524"/>
-    <mergeCell ref="F522:F524"/>
-    <mergeCell ref="G522:G524"/>
-    <mergeCell ref="U520:U521"/>
-    <mergeCell ref="V520:V521"/>
-    <mergeCell ref="W520:W521"/>
-    <mergeCell ref="X520:X521"/>
-    <mergeCell ref="Y520:Y521"/>
-    <mergeCell ref="Z520:Z521"/>
-    <mergeCell ref="O520:O521"/>
-    <mergeCell ref="P520:P521"/>
-    <mergeCell ref="Q520:Q521"/>
-    <mergeCell ref="R520:R521"/>
-    <mergeCell ref="S520:S521"/>
-    <mergeCell ref="T520:T521"/>
-    <mergeCell ref="I520:I521"/>
-    <mergeCell ref="J520:J521"/>
-    <mergeCell ref="K520:K521"/>
-    <mergeCell ref="L520:L521"/>
-    <mergeCell ref="M520:M521"/>
-    <mergeCell ref="N520:N521"/>
-    <mergeCell ref="F525:F526"/>
-    <mergeCell ref="G525:G526"/>
-    <mergeCell ref="U522:U524"/>
-    <mergeCell ref="V522:V524"/>
-    <mergeCell ref="W522:W524"/>
-    <mergeCell ref="X522:X524"/>
-    <mergeCell ref="Y522:Y524"/>
-    <mergeCell ref="Z522:Z524"/>
-    <mergeCell ref="N522:N524"/>
-    <mergeCell ref="O522:O524"/>
-    <mergeCell ref="P522:P524"/>
-    <mergeCell ref="Q522:Q524"/>
-    <mergeCell ref="R522:S522"/>
-    <mergeCell ref="T522:T524"/>
-    <mergeCell ref="H522:H524"/>
-    <mergeCell ref="I522:I524"/>
-    <mergeCell ref="J522:J524"/>
-    <mergeCell ref="K522:K524"/>
-    <mergeCell ref="L522:L524"/>
-    <mergeCell ref="M522:M524"/>
-    <mergeCell ref="Z525:Z526"/>
-    <mergeCell ref="R527:S527"/>
-    <mergeCell ref="A528:A529"/>
-    <mergeCell ref="B528:B529"/>
-    <mergeCell ref="C528:C529"/>
-    <mergeCell ref="D528:D529"/>
-    <mergeCell ref="F528:F529"/>
-    <mergeCell ref="G528:G529"/>
-    <mergeCell ref="H528:H529"/>
-    <mergeCell ref="I528:I529"/>
-    <mergeCell ref="T525:T526"/>
-    <mergeCell ref="U525:U526"/>
-    <mergeCell ref="V525:V526"/>
-    <mergeCell ref="W525:W526"/>
-    <mergeCell ref="X525:X526"/>
-    <mergeCell ref="Y525:Y526"/>
-    <mergeCell ref="N525:N526"/>
-    <mergeCell ref="O525:O526"/>
-    <mergeCell ref="P525:P526"/>
-    <mergeCell ref="Q525:Q526"/>
-    <mergeCell ref="R525:R526"/>
-    <mergeCell ref="S525:S526"/>
-    <mergeCell ref="H525:H526"/>
-    <mergeCell ref="I525:I526"/>
-    <mergeCell ref="J525:J526"/>
-    <mergeCell ref="K525:K526"/>
-    <mergeCell ref="L525:L526"/>
-    <mergeCell ref="M525:M526"/>
-    <mergeCell ref="A525:A526"/>
-    <mergeCell ref="B525:B526"/>
-    <mergeCell ref="C525:C526"/>
-    <mergeCell ref="D525:D526"/>
-    <mergeCell ref="F532:F533"/>
-    <mergeCell ref="G532:G533"/>
-    <mergeCell ref="V528:V529"/>
-    <mergeCell ref="W528:W529"/>
-    <mergeCell ref="X528:X529"/>
-    <mergeCell ref="Y528:Y529"/>
-    <mergeCell ref="Z528:Z529"/>
-    <mergeCell ref="Q531:R531"/>
-    <mergeCell ref="P528:P529"/>
-    <mergeCell ref="Q528:Q529"/>
-    <mergeCell ref="R528:R529"/>
-    <mergeCell ref="S528:S529"/>
-    <mergeCell ref="T528:T529"/>
-    <mergeCell ref="U528:U529"/>
-    <mergeCell ref="J528:J529"/>
-    <mergeCell ref="K528:K529"/>
-    <mergeCell ref="L528:L529"/>
-    <mergeCell ref="M528:M529"/>
-    <mergeCell ref="N528:N529"/>
-    <mergeCell ref="O528:O529"/>
-    <mergeCell ref="Z532:Z533"/>
-    <mergeCell ref="R534:S534"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="C535:C536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="F535:F536"/>
-    <mergeCell ref="G535:G536"/>
-    <mergeCell ref="H535:H536"/>
-    <mergeCell ref="I535:I536"/>
-    <mergeCell ref="T532:T533"/>
-    <mergeCell ref="U532:U533"/>
-    <mergeCell ref="V532:V533"/>
-    <mergeCell ref="W532:W533"/>
-    <mergeCell ref="X532:X533"/>
-    <mergeCell ref="Y532:Y533"/>
-    <mergeCell ref="N532:N533"/>
-    <mergeCell ref="O532:O533"/>
-    <mergeCell ref="P532:P533"/>
-    <mergeCell ref="Q532:Q533"/>
-    <mergeCell ref="R532:R533"/>
-    <mergeCell ref="S532:S533"/>
-    <mergeCell ref="H532:H533"/>
-    <mergeCell ref="I532:I533"/>
-    <mergeCell ref="J532:J533"/>
-    <mergeCell ref="K532:K533"/>
-    <mergeCell ref="L532:L533"/>
-    <mergeCell ref="M532:M533"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="C532:C533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="A548:A549"/>
-    <mergeCell ref="B548:B549"/>
-    <mergeCell ref="C548:C549"/>
-    <mergeCell ref="D548:D549"/>
-    <mergeCell ref="F548:F549"/>
-    <mergeCell ref="G548:G549"/>
-    <mergeCell ref="Q538:R538"/>
-    <mergeCell ref="Q539:R539"/>
-    <mergeCell ref="Q540:R540"/>
-    <mergeCell ref="R542:S542"/>
-    <mergeCell ref="R544:S544"/>
-    <mergeCell ref="Q547:R547"/>
-    <mergeCell ref="V535:V536"/>
-    <mergeCell ref="W535:W536"/>
-    <mergeCell ref="X535:X536"/>
-    <mergeCell ref="Y535:Y536"/>
-    <mergeCell ref="Z535:Z536"/>
-    <mergeCell ref="S537:T537"/>
-    <mergeCell ref="P535:P536"/>
-    <mergeCell ref="Q535:Q536"/>
-    <mergeCell ref="R535:R536"/>
-    <mergeCell ref="S535:S536"/>
-    <mergeCell ref="T535:T536"/>
-    <mergeCell ref="U535:U536"/>
-    <mergeCell ref="J535:J536"/>
-    <mergeCell ref="K535:K536"/>
-    <mergeCell ref="L535:L536"/>
-    <mergeCell ref="M535:M536"/>
-    <mergeCell ref="N535:N536"/>
-    <mergeCell ref="O535:O536"/>
-    <mergeCell ref="F550:F551"/>
-    <mergeCell ref="G550:G551"/>
-    <mergeCell ref="U548:U549"/>
-    <mergeCell ref="V548:V549"/>
-    <mergeCell ref="W548:W549"/>
-    <mergeCell ref="X548:X549"/>
-    <mergeCell ref="Y548:Y549"/>
-    <mergeCell ref="Z548:Z549"/>
-    <mergeCell ref="N548:N549"/>
-    <mergeCell ref="O548:O549"/>
-    <mergeCell ref="P548:P549"/>
-    <mergeCell ref="Q548:Q549"/>
-    <mergeCell ref="R548:S548"/>
-    <mergeCell ref="T548:T549"/>
-    <mergeCell ref="H548:H549"/>
-    <mergeCell ref="I548:I549"/>
-    <mergeCell ref="J548:J549"/>
-    <mergeCell ref="K548:K549"/>
-    <mergeCell ref="L548:L549"/>
-    <mergeCell ref="M548:M549"/>
-    <mergeCell ref="Z550:Z551"/>
-    <mergeCell ref="S552:T552"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="C553:C554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="F553:F554"/>
-    <mergeCell ref="G553:G554"/>
-    <mergeCell ref="H553:H554"/>
-    <mergeCell ref="I553:I554"/>
-    <mergeCell ref="T550:T551"/>
-    <mergeCell ref="U550:U551"/>
-    <mergeCell ref="V550:V551"/>
-    <mergeCell ref="W550:W551"/>
-    <mergeCell ref="X550:X551"/>
-    <mergeCell ref="Y550:Y551"/>
-    <mergeCell ref="N550:N551"/>
-    <mergeCell ref="O550:O551"/>
-    <mergeCell ref="P550:P551"/>
-    <mergeCell ref="Q550:Q551"/>
-    <mergeCell ref="R550:R551"/>
-    <mergeCell ref="S550:S551"/>
-    <mergeCell ref="H550:H551"/>
-    <mergeCell ref="I550:I551"/>
-    <mergeCell ref="J550:J551"/>
-    <mergeCell ref="K550:K551"/>
-    <mergeCell ref="L550:L551"/>
-    <mergeCell ref="M550:M551"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="C550:C551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="K558:K559"/>
-    <mergeCell ref="L558:L559"/>
-    <mergeCell ref="V553:V554"/>
-    <mergeCell ref="W553:W554"/>
-    <mergeCell ref="X553:X554"/>
-    <mergeCell ref="Y553:Y554"/>
-    <mergeCell ref="Z553:Z554"/>
-    <mergeCell ref="A558:A559"/>
-    <mergeCell ref="B558:B559"/>
-    <mergeCell ref="C558:C559"/>
-    <mergeCell ref="D558:D559"/>
-    <mergeCell ref="F558:F559"/>
-    <mergeCell ref="P553:P554"/>
-    <mergeCell ref="Q553:Q554"/>
-    <mergeCell ref="R553:R554"/>
-    <mergeCell ref="S553:S554"/>
-    <mergeCell ref="T553:T554"/>
-    <mergeCell ref="U553:U554"/>
-    <mergeCell ref="J553:J554"/>
-    <mergeCell ref="K553:K554"/>
-    <mergeCell ref="L553:L554"/>
-    <mergeCell ref="M553:M554"/>
-    <mergeCell ref="N553:N554"/>
-    <mergeCell ref="O553:O554"/>
-    <mergeCell ref="R569:S569"/>
-    <mergeCell ref="R571:S571"/>
-    <mergeCell ref="Q574:R574"/>
-    <mergeCell ref="R576:S576"/>
-    <mergeCell ref="A577:A578"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="C577:C578"/>
-    <mergeCell ref="D577:D578"/>
-    <mergeCell ref="F577:F578"/>
-    <mergeCell ref="G577:G578"/>
-    <mergeCell ref="Z558:Z559"/>
-    <mergeCell ref="R560:S560"/>
-    <mergeCell ref="T561:U561"/>
-    <mergeCell ref="R562:S562"/>
-    <mergeCell ref="S563:T563"/>
-    <mergeCell ref="Q566:R566"/>
-    <mergeCell ref="T558:T559"/>
-    <mergeCell ref="U558:U559"/>
-    <mergeCell ref="V558:V559"/>
-    <mergeCell ref="W558:W559"/>
-    <mergeCell ref="X558:X559"/>
-    <mergeCell ref="Y558:Y559"/>
-    <mergeCell ref="M558:M559"/>
-    <mergeCell ref="N558:N559"/>
-    <mergeCell ref="O558:O559"/>
-    <mergeCell ref="P558:P559"/>
-    <mergeCell ref="Q558:R558"/>
-    <mergeCell ref="S558:S559"/>
-    <mergeCell ref="G558:G559"/>
-    <mergeCell ref="H558:H559"/>
-    <mergeCell ref="I558:I559"/>
-    <mergeCell ref="J558:J559"/>
-    <mergeCell ref="Z577:Z578"/>
-    <mergeCell ref="R582:S582"/>
-    <mergeCell ref="S584:T584"/>
-    <mergeCell ref="A585:A586"/>
-    <mergeCell ref="B585:B586"/>
-    <mergeCell ref="C585:C586"/>
-    <mergeCell ref="D585:D586"/>
-    <mergeCell ref="F585:F586"/>
-    <mergeCell ref="G585:G586"/>
-    <mergeCell ref="H585:H586"/>
-    <mergeCell ref="T577:T578"/>
-    <mergeCell ref="U577:U578"/>
-    <mergeCell ref="V577:V578"/>
-    <mergeCell ref="W577:W578"/>
-    <mergeCell ref="X577:X578"/>
-    <mergeCell ref="Y577:Y578"/>
-    <mergeCell ref="N577:N578"/>
-    <mergeCell ref="O577:O578"/>
-    <mergeCell ref="P577:P578"/>
-    <mergeCell ref="Q577:Q578"/>
-    <mergeCell ref="R577:R578"/>
-    <mergeCell ref="S577:S578"/>
-    <mergeCell ref="H577:H578"/>
-    <mergeCell ref="I577:I578"/>
-    <mergeCell ref="J577:J578"/>
-    <mergeCell ref="K577:K578"/>
-    <mergeCell ref="L577:L578"/>
-    <mergeCell ref="M577:M578"/>
-    <mergeCell ref="F588:F589"/>
-    <mergeCell ref="G588:G589"/>
-    <mergeCell ref="U585:U586"/>
-    <mergeCell ref="V585:V586"/>
-    <mergeCell ref="W585:W586"/>
-    <mergeCell ref="X585:X586"/>
-    <mergeCell ref="Y585:Y586"/>
-    <mergeCell ref="Z585:Z586"/>
-    <mergeCell ref="O585:O586"/>
-    <mergeCell ref="P585:P586"/>
-    <mergeCell ref="Q585:Q586"/>
-    <mergeCell ref="R585:R586"/>
-    <mergeCell ref="S585:S586"/>
-    <mergeCell ref="T585:T586"/>
-    <mergeCell ref="I585:I586"/>
-    <mergeCell ref="J585:J586"/>
-    <mergeCell ref="K585:K586"/>
-    <mergeCell ref="L585:L586"/>
-    <mergeCell ref="M585:M586"/>
-    <mergeCell ref="N585:N586"/>
-    <mergeCell ref="Z588:Z589"/>
-    <mergeCell ref="A593:A594"/>
-    <mergeCell ref="B593:B594"/>
-    <mergeCell ref="C593:C594"/>
-    <mergeCell ref="D593:D594"/>
-    <mergeCell ref="F593:F594"/>
-    <mergeCell ref="G593:G594"/>
-    <mergeCell ref="H593:H594"/>
-    <mergeCell ref="I593:I594"/>
-    <mergeCell ref="J593:J594"/>
-    <mergeCell ref="T588:T589"/>
-    <mergeCell ref="U588:U589"/>
-    <mergeCell ref="V588:V589"/>
-    <mergeCell ref="W588:W589"/>
-    <mergeCell ref="X588:X589"/>
-    <mergeCell ref="Y588:Y589"/>
-    <mergeCell ref="N588:N589"/>
-    <mergeCell ref="O588:O589"/>
-    <mergeCell ref="P588:P589"/>
-    <mergeCell ref="Q588:Q589"/>
-    <mergeCell ref="R588:R589"/>
-    <mergeCell ref="S588:S589"/>
-    <mergeCell ref="H588:H589"/>
-    <mergeCell ref="I588:I589"/>
-    <mergeCell ref="J588:J589"/>
-    <mergeCell ref="K588:K589"/>
-    <mergeCell ref="L588:L589"/>
-    <mergeCell ref="M588:M589"/>
-    <mergeCell ref="A588:A589"/>
-    <mergeCell ref="B588:B589"/>
-    <mergeCell ref="C588:C589"/>
-    <mergeCell ref="D588:D589"/>
-    <mergeCell ref="W593:W594"/>
-    <mergeCell ref="X593:X594"/>
-    <mergeCell ref="Y593:Y594"/>
-    <mergeCell ref="Z593:Z594"/>
-    <mergeCell ref="R595:S595"/>
-    <mergeCell ref="Q597:R597"/>
-    <mergeCell ref="Q593:Q594"/>
-    <mergeCell ref="R593:R594"/>
-    <mergeCell ref="S593:S594"/>
-    <mergeCell ref="T593:T594"/>
-    <mergeCell ref="U593:U594"/>
-    <mergeCell ref="V593:V594"/>
-    <mergeCell ref="K593:K594"/>
-    <mergeCell ref="L593:L594"/>
-    <mergeCell ref="M593:M594"/>
-    <mergeCell ref="N593:N594"/>
-    <mergeCell ref="O593:O594"/>
-    <mergeCell ref="P593:P594"/>
-    <mergeCell ref="O598:O599"/>
-    <mergeCell ref="P598:P599"/>
-    <mergeCell ref="Q598:Q599"/>
-    <mergeCell ref="R598:R599"/>
-    <mergeCell ref="S598:S599"/>
-    <mergeCell ref="H598:H599"/>
-    <mergeCell ref="I598:I599"/>
-    <mergeCell ref="J598:J599"/>
-    <mergeCell ref="K598:K599"/>
-    <mergeCell ref="L598:L599"/>
-    <mergeCell ref="M598:M599"/>
-    <mergeCell ref="A598:A599"/>
-    <mergeCell ref="B598:B599"/>
-    <mergeCell ref="C598:C599"/>
-    <mergeCell ref="D598:D599"/>
-    <mergeCell ref="F598:F599"/>
-    <mergeCell ref="G598:G599"/>
-    <mergeCell ref="Z603:Z605"/>
-    <mergeCell ref="T606:U606"/>
-    <mergeCell ref="R607:S607"/>
-    <mergeCell ref="Q603:Q605"/>
-    <mergeCell ref="R603:R605"/>
-    <mergeCell ref="S603:S605"/>
-    <mergeCell ref="T603:T605"/>
-    <mergeCell ref="U603:U605"/>
-    <mergeCell ref="V603:V605"/>
-    <mergeCell ref="K603:K605"/>
-    <mergeCell ref="L603:L605"/>
-    <mergeCell ref="M603:M605"/>
-    <mergeCell ref="N603:N605"/>
-    <mergeCell ref="O603:O605"/>
-    <mergeCell ref="P603:P605"/>
-    <mergeCell ref="Z598:Z599"/>
-    <mergeCell ref="A603:A605"/>
-    <mergeCell ref="B603:B605"/>
-    <mergeCell ref="C603:C605"/>
-    <mergeCell ref="D603:D605"/>
-    <mergeCell ref="F603:F605"/>
-    <mergeCell ref="G603:G605"/>
-    <mergeCell ref="H603:H605"/>
-    <mergeCell ref="I603:I605"/>
-    <mergeCell ref="J603:J605"/>
-    <mergeCell ref="T598:T599"/>
-    <mergeCell ref="U598:U599"/>
-    <mergeCell ref="V598:V599"/>
-    <mergeCell ref="W598:W599"/>
-    <mergeCell ref="X598:X599"/>
-    <mergeCell ref="Y598:Y599"/>
-    <mergeCell ref="N598:N599"/>
-    <mergeCell ref="S624:T624"/>
-    <mergeCell ref="R625:S625"/>
-    <mergeCell ref="A628:A629"/>
-    <mergeCell ref="B628:B629"/>
-    <mergeCell ref="C628:C629"/>
-    <mergeCell ref="D628:D629"/>
-    <mergeCell ref="F628:F629"/>
-    <mergeCell ref="G628:G629"/>
-    <mergeCell ref="H628:H629"/>
-    <mergeCell ref="I628:I629"/>
-    <mergeCell ref="Q610:R610"/>
-    <mergeCell ref="X612:Y612"/>
-    <mergeCell ref="R614:S614"/>
-    <mergeCell ref="Q615:R615"/>
-    <mergeCell ref="R620:S620"/>
-    <mergeCell ref="T621:U621"/>
-    <mergeCell ref="W603:W605"/>
-    <mergeCell ref="X603:X605"/>
-    <mergeCell ref="Y603:Y605"/>
-    <mergeCell ref="Q635:R635"/>
-    <mergeCell ref="A636:A637"/>
-    <mergeCell ref="B636:B637"/>
-    <mergeCell ref="C636:C637"/>
-    <mergeCell ref="D636:D637"/>
-    <mergeCell ref="F636:F637"/>
-    <mergeCell ref="G636:G637"/>
-    <mergeCell ref="H636:H637"/>
-    <mergeCell ref="I636:I637"/>
-    <mergeCell ref="J636:J637"/>
-    <mergeCell ref="W628:W629"/>
-    <mergeCell ref="X628:X629"/>
-    <mergeCell ref="Y628:Y629"/>
-    <mergeCell ref="Z628:Z629"/>
-    <mergeCell ref="R632:S632"/>
-    <mergeCell ref="Q633:R633"/>
-    <mergeCell ref="P628:P629"/>
-    <mergeCell ref="Q628:Q629"/>
-    <mergeCell ref="R628:R629"/>
-    <mergeCell ref="S628:T628"/>
-    <mergeCell ref="U628:U629"/>
-    <mergeCell ref="V628:V629"/>
-    <mergeCell ref="J628:J629"/>
-    <mergeCell ref="K628:K629"/>
-    <mergeCell ref="L628:L629"/>
-    <mergeCell ref="M628:M629"/>
-    <mergeCell ref="N628:N629"/>
-    <mergeCell ref="O628:O629"/>
-    <mergeCell ref="W636:W637"/>
-    <mergeCell ref="X636:X637"/>
-    <mergeCell ref="Y636:Y637"/>
-    <mergeCell ref="Z636:Z637"/>
-    <mergeCell ref="A638:A639"/>
-    <mergeCell ref="B638:B639"/>
-    <mergeCell ref="C638:C639"/>
-    <mergeCell ref="D638:D639"/>
-    <mergeCell ref="F638:F639"/>
-    <mergeCell ref="G638:G639"/>
-    <mergeCell ref="Q636:Q637"/>
-    <mergeCell ref="R636:R637"/>
-    <mergeCell ref="S636:S637"/>
-    <mergeCell ref="T636:T637"/>
-    <mergeCell ref="U636:U637"/>
-    <mergeCell ref="V636:V637"/>
-    <mergeCell ref="K636:K637"/>
-    <mergeCell ref="L636:L637"/>
-    <mergeCell ref="M636:M637"/>
-    <mergeCell ref="N636:N637"/>
-    <mergeCell ref="O636:O637"/>
-    <mergeCell ref="P636:P637"/>
-    <mergeCell ref="Z638:Z639"/>
-    <mergeCell ref="S643:T643"/>
-    <mergeCell ref="R644:S644"/>
-    <mergeCell ref="Q645:R645"/>
-    <mergeCell ref="Q648:R648"/>
-    <mergeCell ref="A653:A654"/>
-    <mergeCell ref="B653:B654"/>
-    <mergeCell ref="C653:C654"/>
-    <mergeCell ref="D653:D654"/>
-    <mergeCell ref="F653:F654"/>
-    <mergeCell ref="T638:T639"/>
-    <mergeCell ref="U638:U639"/>
-    <mergeCell ref="V638:V639"/>
-    <mergeCell ref="W638:W639"/>
-    <mergeCell ref="X638:X639"/>
-    <mergeCell ref="Y638:Y639"/>
-    <mergeCell ref="N638:N639"/>
-    <mergeCell ref="O638:O639"/>
-    <mergeCell ref="P638:P639"/>
-    <mergeCell ref="Q638:Q639"/>
-    <mergeCell ref="R638:R639"/>
-    <mergeCell ref="S638:S639"/>
-    <mergeCell ref="H638:H639"/>
-    <mergeCell ref="I638:I639"/>
-    <mergeCell ref="J638:J639"/>
-    <mergeCell ref="K638:K639"/>
-    <mergeCell ref="L638:L639"/>
-    <mergeCell ref="M638:M639"/>
-    <mergeCell ref="Y653:Y654"/>
-    <mergeCell ref="Z653:Z654"/>
-    <mergeCell ref="T655:U655"/>
-    <mergeCell ref="A656:A657"/>
-    <mergeCell ref="B656:B657"/>
-    <mergeCell ref="C656:C657"/>
-    <mergeCell ref="D656:D657"/>
-    <mergeCell ref="F656:F657"/>
-    <mergeCell ref="G656:G657"/>
-    <mergeCell ref="H656:H657"/>
-    <mergeCell ref="S653:S654"/>
-    <mergeCell ref="T653:T654"/>
-    <mergeCell ref="U653:U654"/>
-    <mergeCell ref="V653:V654"/>
-    <mergeCell ref="W653:W654"/>
-    <mergeCell ref="X653:X654"/>
-    <mergeCell ref="M653:M654"/>
-    <mergeCell ref="N653:N654"/>
-    <mergeCell ref="O653:O654"/>
-    <mergeCell ref="P653:P654"/>
-    <mergeCell ref="Q653:Q654"/>
-    <mergeCell ref="R653:R654"/>
-    <mergeCell ref="G653:G654"/>
-    <mergeCell ref="H653:H654"/>
-    <mergeCell ref="I653:I654"/>
-    <mergeCell ref="J653:J654"/>
-    <mergeCell ref="K653:K654"/>
-    <mergeCell ref="L653:L654"/>
-    <mergeCell ref="F659:F661"/>
-    <mergeCell ref="G659:G661"/>
-    <mergeCell ref="U656:U657"/>
-    <mergeCell ref="V656:V657"/>
-    <mergeCell ref="W656:W657"/>
-    <mergeCell ref="X656:X657"/>
-    <mergeCell ref="Y656:Y657"/>
-    <mergeCell ref="Z656:Z657"/>
-    <mergeCell ref="O656:O657"/>
-    <mergeCell ref="P656:P657"/>
-    <mergeCell ref="Q656:Q657"/>
-    <mergeCell ref="R656:R657"/>
-    <mergeCell ref="S656:S657"/>
-    <mergeCell ref="T656:T657"/>
-    <mergeCell ref="I656:I657"/>
-    <mergeCell ref="J656:J657"/>
-    <mergeCell ref="K656:K657"/>
-    <mergeCell ref="L656:L657"/>
-    <mergeCell ref="M656:M657"/>
-    <mergeCell ref="N656:N657"/>
-    <mergeCell ref="S664:T664"/>
-    <mergeCell ref="A665:A666"/>
-    <mergeCell ref="B665:B666"/>
-    <mergeCell ref="C665:C666"/>
-    <mergeCell ref="D665:D666"/>
-    <mergeCell ref="F665:F666"/>
-    <mergeCell ref="G665:G666"/>
-    <mergeCell ref="H665:H666"/>
-    <mergeCell ref="I665:I666"/>
-    <mergeCell ref="J665:J666"/>
-    <mergeCell ref="U659:U661"/>
-    <mergeCell ref="V659:V661"/>
-    <mergeCell ref="W659:W661"/>
-    <mergeCell ref="X659:X661"/>
-    <mergeCell ref="Y659:Y661"/>
-    <mergeCell ref="Z659:Z661"/>
-    <mergeCell ref="N659:N661"/>
-    <mergeCell ref="O659:O661"/>
-    <mergeCell ref="P659:P661"/>
-    <mergeCell ref="Q659:R659"/>
-    <mergeCell ref="S659:S661"/>
-    <mergeCell ref="T659:T661"/>
-    <mergeCell ref="H659:H661"/>
-    <mergeCell ref="I659:I661"/>
-    <mergeCell ref="J659:J661"/>
-    <mergeCell ref="K659:K661"/>
-    <mergeCell ref="L659:L661"/>
-    <mergeCell ref="M659:M661"/>
-    <mergeCell ref="A659:A661"/>
-    <mergeCell ref="B659:B661"/>
-    <mergeCell ref="C659:C661"/>
-    <mergeCell ref="D659:D661"/>
-    <mergeCell ref="X665:X666"/>
-    <mergeCell ref="Y665:Y666"/>
-    <mergeCell ref="Z665:Z666"/>
-    <mergeCell ref="R669:S669"/>
-    <mergeCell ref="Q670:R670"/>
-    <mergeCell ref="A672:A674"/>
-    <mergeCell ref="B672:B674"/>
-    <mergeCell ref="C672:C674"/>
-    <mergeCell ref="D672:D674"/>
-    <mergeCell ref="F672:F674"/>
-    <mergeCell ref="Q665:R665"/>
-    <mergeCell ref="S665:S666"/>
-    <mergeCell ref="T665:T666"/>
-    <mergeCell ref="U665:U666"/>
-    <mergeCell ref="V665:V666"/>
-    <mergeCell ref="W665:W666"/>
-    <mergeCell ref="K665:K666"/>
-    <mergeCell ref="L665:L666"/>
-    <mergeCell ref="M665:M666"/>
-    <mergeCell ref="N665:N666"/>
-    <mergeCell ref="O665:O666"/>
-    <mergeCell ref="P665:P666"/>
-    <mergeCell ref="Y672:Y674"/>
-    <mergeCell ref="Z672:Z674"/>
-    <mergeCell ref="Q675:R675"/>
-    <mergeCell ref="Q676:R676"/>
-    <mergeCell ref="X677:Y677"/>
-    <mergeCell ref="A678:A679"/>
-    <mergeCell ref="B678:B679"/>
-    <mergeCell ref="C678:C679"/>
-    <mergeCell ref="D678:D679"/>
-    <mergeCell ref="F678:F679"/>
-    <mergeCell ref="S672:S674"/>
-    <mergeCell ref="T672:T674"/>
-    <mergeCell ref="U672:U674"/>
-    <mergeCell ref="V672:V674"/>
-    <mergeCell ref="W672:W674"/>
-    <mergeCell ref="X672:X674"/>
-    <mergeCell ref="M672:M674"/>
-    <mergeCell ref="N672:N674"/>
-    <mergeCell ref="O672:O674"/>
-    <mergeCell ref="P672:P674"/>
-    <mergeCell ref="Q672:Q674"/>
-    <mergeCell ref="R672:R674"/>
-    <mergeCell ref="G672:G674"/>
-    <mergeCell ref="H672:H674"/>
-    <mergeCell ref="I672:I674"/>
-    <mergeCell ref="J672:J674"/>
-    <mergeCell ref="K672:K674"/>
-    <mergeCell ref="L672:L674"/>
-    <mergeCell ref="Y678:Y679"/>
-    <mergeCell ref="Z678:Z679"/>
-    <mergeCell ref="A681:A682"/>
-    <mergeCell ref="B681:B682"/>
-    <mergeCell ref="C681:C682"/>
-    <mergeCell ref="D681:D682"/>
-    <mergeCell ref="F681:F682"/>
-    <mergeCell ref="G681:G682"/>
-    <mergeCell ref="H681:H682"/>
-    <mergeCell ref="I681:I682"/>
-    <mergeCell ref="S678:S679"/>
-    <mergeCell ref="T678:T679"/>
-    <mergeCell ref="U678:U679"/>
-    <mergeCell ref="V678:V679"/>
-    <mergeCell ref="W678:W679"/>
-    <mergeCell ref="X678:X679"/>
-    <mergeCell ref="M678:M679"/>
-    <mergeCell ref="N678:N679"/>
-    <mergeCell ref="O678:O679"/>
-    <mergeCell ref="P678:P679"/>
-    <mergeCell ref="Q678:Q679"/>
-    <mergeCell ref="R678:R679"/>
-    <mergeCell ref="G678:G679"/>
-    <mergeCell ref="H678:H679"/>
-    <mergeCell ref="I678:I679"/>
-    <mergeCell ref="J678:J679"/>
-    <mergeCell ref="K678:K679"/>
-    <mergeCell ref="L678:L679"/>
-    <mergeCell ref="W681:W682"/>
-    <mergeCell ref="X681:X682"/>
-    <mergeCell ref="Y681:Y682"/>
-    <mergeCell ref="Z681:Z682"/>
-    <mergeCell ref="Q683:R683"/>
-    <mergeCell ref="A687:A688"/>
-    <mergeCell ref="B687:B688"/>
-    <mergeCell ref="C687:C688"/>
-    <mergeCell ref="D687:D688"/>
-    <mergeCell ref="F687:F688"/>
-    <mergeCell ref="P681:P682"/>
-    <mergeCell ref="Q681:R681"/>
-    <mergeCell ref="S681:S682"/>
-    <mergeCell ref="T681:T682"/>
-    <mergeCell ref="U681:U682"/>
-    <mergeCell ref="V681:V682"/>
-    <mergeCell ref="J681:J682"/>
-    <mergeCell ref="K681:K682"/>
-    <mergeCell ref="L681:L682"/>
-    <mergeCell ref="M681:M682"/>
-    <mergeCell ref="N681:N682"/>
-    <mergeCell ref="O681:O682"/>
-    <mergeCell ref="Z687:Z688"/>
-    <mergeCell ref="Q692:R692"/>
-    <mergeCell ref="Q693:R693"/>
-    <mergeCell ref="Q694:R694"/>
-    <mergeCell ref="R697:S697"/>
-    <mergeCell ref="S687:S688"/>
-    <mergeCell ref="T687:T688"/>
-    <mergeCell ref="U687:U688"/>
-    <mergeCell ref="V687:V688"/>
-    <mergeCell ref="W687:W688"/>
-    <mergeCell ref="X687:X688"/>
-    <mergeCell ref="M687:M688"/>
-    <mergeCell ref="N687:N688"/>
-    <mergeCell ref="O687:O688"/>
-    <mergeCell ref="P687:P688"/>
-    <mergeCell ref="Q687:Q688"/>
-    <mergeCell ref="R687:R688"/>
-    <mergeCell ref="T709:U709"/>
-    <mergeCell ref="R714:S714"/>
-    <mergeCell ref="R717:S717"/>
-    <mergeCell ref="Q721:R721"/>
-    <mergeCell ref="R722:S722"/>
-    <mergeCell ref="A726:A727"/>
-    <mergeCell ref="B726:B727"/>
-    <mergeCell ref="C726:C727"/>
-    <mergeCell ref="D726:D727"/>
-    <mergeCell ref="F726:F727"/>
-    <mergeCell ref="R699:S699"/>
-    <mergeCell ref="Q700:R700"/>
-    <mergeCell ref="S703:T703"/>
-    <mergeCell ref="R705:S705"/>
-    <mergeCell ref="Q706:R706"/>
-    <mergeCell ref="S708:T708"/>
-    <mergeCell ref="Y687:Y688"/>
-    <mergeCell ref="G687:G688"/>
-    <mergeCell ref="H687:H688"/>
-    <mergeCell ref="I687:I688"/>
-    <mergeCell ref="J687:J688"/>
-    <mergeCell ref="K687:K688"/>
-    <mergeCell ref="L687:L688"/>
-    <mergeCell ref="Z726:Z727"/>
-    <mergeCell ref="A728:A729"/>
-    <mergeCell ref="B728:B729"/>
-    <mergeCell ref="C728:C729"/>
-    <mergeCell ref="D728:D729"/>
-    <mergeCell ref="F728:F729"/>
-    <mergeCell ref="G728:G729"/>
-    <mergeCell ref="H728:H729"/>
-    <mergeCell ref="I728:I729"/>
-    <mergeCell ref="J728:J729"/>
-    <mergeCell ref="T726:T727"/>
-    <mergeCell ref="U726:U727"/>
-    <mergeCell ref="V726:V727"/>
-    <mergeCell ref="W726:W727"/>
-    <mergeCell ref="X726:X727"/>
-    <mergeCell ref="Y726:Y727"/>
-    <mergeCell ref="M726:M727"/>
-    <mergeCell ref="N726:N727"/>
-    <mergeCell ref="O726:O727"/>
-    <mergeCell ref="P726:P727"/>
-    <mergeCell ref="Q726:Q727"/>
-    <mergeCell ref="R726:S726"/>
-    <mergeCell ref="G726:G727"/>
-    <mergeCell ref="H726:H727"/>
-    <mergeCell ref="I726:I727"/>
-    <mergeCell ref="J726:J727"/>
-    <mergeCell ref="K726:K727"/>
-    <mergeCell ref="L726:L727"/>
-    <mergeCell ref="W728:W729"/>
-    <mergeCell ref="X728:X729"/>
-    <mergeCell ref="Y728:Y729"/>
-    <mergeCell ref="Z728:Z729"/>
-    <mergeCell ref="R731:S731"/>
-    <mergeCell ref="A734:A736"/>
-    <mergeCell ref="B734:B736"/>
-    <mergeCell ref="C734:C736"/>
-    <mergeCell ref="D734:D736"/>
-    <mergeCell ref="F734:F736"/>
-    <mergeCell ref="Q728:Q729"/>
-    <mergeCell ref="R728:R729"/>
-    <mergeCell ref="S728:S729"/>
-    <mergeCell ref="T728:T729"/>
-    <mergeCell ref="U728:U729"/>
-    <mergeCell ref="V728:V729"/>
-    <mergeCell ref="K728:K729"/>
-    <mergeCell ref="L728:L729"/>
-    <mergeCell ref="M728:M729"/>
-    <mergeCell ref="N728:N729"/>
-    <mergeCell ref="O728:O729"/>
-    <mergeCell ref="P728:P729"/>
-    <mergeCell ref="Z734:Z736"/>
-    <mergeCell ref="Q740:R740"/>
-    <mergeCell ref="W741:X741"/>
-    <mergeCell ref="A742:A743"/>
-    <mergeCell ref="B742:B743"/>
-    <mergeCell ref="C742:C743"/>
-    <mergeCell ref="D742:D743"/>
-    <mergeCell ref="F742:F743"/>
-    <mergeCell ref="G742:G743"/>
-    <mergeCell ref="H742:H743"/>
-    <mergeCell ref="T734:T736"/>
-    <mergeCell ref="U734:U736"/>
-    <mergeCell ref="V734:V736"/>
-    <mergeCell ref="W734:W736"/>
-    <mergeCell ref="X734:X736"/>
-    <mergeCell ref="Y734:Y736"/>
-    <mergeCell ref="M734:M736"/>
-    <mergeCell ref="N734:N736"/>
-    <mergeCell ref="O734:O736"/>
-    <mergeCell ref="P734:P736"/>
-    <mergeCell ref="Q734:Q736"/>
-    <mergeCell ref="R734:S734"/>
-    <mergeCell ref="G734:G736"/>
-    <mergeCell ref="H734:H736"/>
-    <mergeCell ref="I734:I736"/>
-    <mergeCell ref="J734:J736"/>
-    <mergeCell ref="K734:K736"/>
-    <mergeCell ref="L734:L736"/>
-    <mergeCell ref="S746:T746"/>
-    <mergeCell ref="A747:A748"/>
-    <mergeCell ref="B747:B748"/>
-    <mergeCell ref="C747:C748"/>
-    <mergeCell ref="D747:D748"/>
-    <mergeCell ref="F747:F748"/>
-    <mergeCell ref="G747:G748"/>
-    <mergeCell ref="H747:H748"/>
-    <mergeCell ref="I747:I748"/>
-    <mergeCell ref="J747:J748"/>
-    <mergeCell ref="V742:V743"/>
-    <mergeCell ref="W742:W743"/>
-    <mergeCell ref="X742:X743"/>
-    <mergeCell ref="Y742:Y743"/>
-    <mergeCell ref="Z742:Z743"/>
-    <mergeCell ref="R744:S744"/>
-    <mergeCell ref="O742:O743"/>
-    <mergeCell ref="P742:P743"/>
-    <mergeCell ref="Q742:Q743"/>
-    <mergeCell ref="R742:S742"/>
-    <mergeCell ref="T742:T743"/>
-    <mergeCell ref="U742:U743"/>
-    <mergeCell ref="I742:I743"/>
-    <mergeCell ref="J742:J743"/>
-    <mergeCell ref="K742:K743"/>
-    <mergeCell ref="L742:L743"/>
-    <mergeCell ref="M742:M743"/>
-    <mergeCell ref="N742:N743"/>
-    <mergeCell ref="L750:L751"/>
-    <mergeCell ref="M750:M751"/>
-    <mergeCell ref="W747:W748"/>
-    <mergeCell ref="X747:X748"/>
-    <mergeCell ref="Y747:Y748"/>
-    <mergeCell ref="Z747:Z748"/>
-    <mergeCell ref="A750:A751"/>
-    <mergeCell ref="B750:B751"/>
-    <mergeCell ref="C750:C751"/>
-    <mergeCell ref="D750:D751"/>
-    <mergeCell ref="F750:F751"/>
-    <mergeCell ref="G750:G751"/>
-    <mergeCell ref="Q747:Q748"/>
-    <mergeCell ref="R747:R748"/>
-    <mergeCell ref="S747:S748"/>
-    <mergeCell ref="T747:T748"/>
-    <mergeCell ref="U747:U748"/>
-    <mergeCell ref="V747:V748"/>
-    <mergeCell ref="K747:K748"/>
-    <mergeCell ref="L747:L748"/>
-    <mergeCell ref="M747:M748"/>
-    <mergeCell ref="N747:N748"/>
-    <mergeCell ref="O747:O748"/>
-    <mergeCell ref="P747:P748"/>
-    <mergeCell ref="Q762:R762"/>
-    <mergeCell ref="T766:U766"/>
-    <mergeCell ref="A767:A768"/>
-    <mergeCell ref="B767:B768"/>
-    <mergeCell ref="C767:C768"/>
-    <mergeCell ref="D767:D768"/>
-    <mergeCell ref="F767:F768"/>
-    <mergeCell ref="G767:G768"/>
-    <mergeCell ref="H767:H768"/>
-    <mergeCell ref="I767:I768"/>
-    <mergeCell ref="Z750:Z751"/>
-    <mergeCell ref="Q755:R755"/>
-    <mergeCell ref="R757:S757"/>
-    <mergeCell ref="R758:S758"/>
-    <mergeCell ref="R760:S760"/>
-    <mergeCell ref="Q761:R761"/>
-    <mergeCell ref="T750:T751"/>
-    <mergeCell ref="U750:U751"/>
-    <mergeCell ref="V750:V751"/>
-    <mergeCell ref="W750:W751"/>
-    <mergeCell ref="X750:X751"/>
-    <mergeCell ref="Y750:Y751"/>
-    <mergeCell ref="N750:N751"/>
-    <mergeCell ref="O750:O751"/>
-    <mergeCell ref="P750:P751"/>
-    <mergeCell ref="Q750:Q751"/>
-    <mergeCell ref="R750:R751"/>
-    <mergeCell ref="S750:S751"/>
-    <mergeCell ref="H750:H751"/>
-    <mergeCell ref="I750:I751"/>
-    <mergeCell ref="J750:J751"/>
-    <mergeCell ref="K750:K751"/>
-    <mergeCell ref="F776:F777"/>
-    <mergeCell ref="G776:G777"/>
-    <mergeCell ref="W767:W768"/>
-    <mergeCell ref="X767:X768"/>
-    <mergeCell ref="Y767:Y768"/>
-    <mergeCell ref="Z767:Z768"/>
-    <mergeCell ref="Q769:R769"/>
-    <mergeCell ref="Q772:R772"/>
-    <mergeCell ref="P767:P768"/>
-    <mergeCell ref="Q767:Q768"/>
-    <mergeCell ref="R767:R768"/>
-    <mergeCell ref="S767:S768"/>
-    <mergeCell ref="T767:U767"/>
-    <mergeCell ref="V767:V768"/>
-    <mergeCell ref="J767:J768"/>
-    <mergeCell ref="K767:K768"/>
-    <mergeCell ref="L767:L768"/>
-    <mergeCell ref="M767:M768"/>
-    <mergeCell ref="N767:N768"/>
-    <mergeCell ref="O767:O768"/>
-    <mergeCell ref="Z776:Z777"/>
-    <mergeCell ref="A779:A780"/>
-    <mergeCell ref="B779:B780"/>
-    <mergeCell ref="C779:C780"/>
-    <mergeCell ref="D779:D780"/>
-    <mergeCell ref="F779:F780"/>
-    <mergeCell ref="G779:G780"/>
-    <mergeCell ref="H779:H780"/>
-    <mergeCell ref="I779:I780"/>
-    <mergeCell ref="J779:J780"/>
-    <mergeCell ref="T776:T777"/>
-    <mergeCell ref="U776:U777"/>
-    <mergeCell ref="V776:V777"/>
-    <mergeCell ref="W776:W777"/>
-    <mergeCell ref="X776:X777"/>
-    <mergeCell ref="Y776:Y777"/>
-    <mergeCell ref="N776:N777"/>
-    <mergeCell ref="O776:O777"/>
-    <mergeCell ref="P776:P777"/>
-    <mergeCell ref="Q776:Q777"/>
-    <mergeCell ref="R776:R777"/>
-    <mergeCell ref="S776:S777"/>
-    <mergeCell ref="H776:H777"/>
-    <mergeCell ref="I776:I777"/>
-    <mergeCell ref="J776:J777"/>
-    <mergeCell ref="K776:K777"/>
-    <mergeCell ref="L776:L777"/>
-    <mergeCell ref="M776:M777"/>
-    <mergeCell ref="A776:A777"/>
-    <mergeCell ref="B776:B777"/>
-    <mergeCell ref="C776:C777"/>
-    <mergeCell ref="D776:D777"/>
-    <mergeCell ref="X779:X780"/>
-    <mergeCell ref="Y779:Y780"/>
-    <mergeCell ref="Z779:Z780"/>
-    <mergeCell ref="A785:A786"/>
-    <mergeCell ref="B785:B786"/>
-    <mergeCell ref="C785:C786"/>
-    <mergeCell ref="D785:D786"/>
-    <mergeCell ref="F785:F786"/>
-    <mergeCell ref="G785:G786"/>
-    <mergeCell ref="H785:H786"/>
-    <mergeCell ref="Q779:R779"/>
-    <mergeCell ref="S779:S780"/>
-    <mergeCell ref="T779:T780"/>
-    <mergeCell ref="U779:U780"/>
-    <mergeCell ref="V779:V780"/>
-    <mergeCell ref="W779:W780"/>
-    <mergeCell ref="K779:K780"/>
-    <mergeCell ref="L779:L780"/>
-    <mergeCell ref="M779:M780"/>
-    <mergeCell ref="N779:N780"/>
-    <mergeCell ref="O779:O780"/>
-    <mergeCell ref="P779:P780"/>
-    <mergeCell ref="F788:F789"/>
-    <mergeCell ref="G788:G789"/>
-    <mergeCell ref="U785:U786"/>
-    <mergeCell ref="V785:V786"/>
-    <mergeCell ref="W785:W786"/>
-    <mergeCell ref="X785:X786"/>
-    <mergeCell ref="Y785:Y786"/>
-    <mergeCell ref="Z785:Z786"/>
-    <mergeCell ref="O785:O786"/>
-    <mergeCell ref="P785:P786"/>
-    <mergeCell ref="Q785:Q786"/>
-    <mergeCell ref="R785:R786"/>
-    <mergeCell ref="S785:S786"/>
-    <mergeCell ref="T785:T786"/>
-    <mergeCell ref="I785:I786"/>
-    <mergeCell ref="J785:J786"/>
-    <mergeCell ref="K785:K786"/>
-    <mergeCell ref="L785:L786"/>
-    <mergeCell ref="M785:M786"/>
-    <mergeCell ref="N785:N786"/>
-    <mergeCell ref="R792:S792"/>
-    <mergeCell ref="A794:A795"/>
-    <mergeCell ref="B794:B795"/>
-    <mergeCell ref="C794:C795"/>
-    <mergeCell ref="D794:D795"/>
-    <mergeCell ref="F794:F795"/>
-    <mergeCell ref="G794:G795"/>
-    <mergeCell ref="H794:H795"/>
-    <mergeCell ref="I794:I795"/>
-    <mergeCell ref="J794:J795"/>
-    <mergeCell ref="U788:U789"/>
-    <mergeCell ref="V788:V789"/>
-    <mergeCell ref="W788:W789"/>
-    <mergeCell ref="X788:X789"/>
-    <mergeCell ref="Y788:Y789"/>
-    <mergeCell ref="Z788:Z789"/>
-    <mergeCell ref="N788:N789"/>
-    <mergeCell ref="O788:O789"/>
-    <mergeCell ref="P788:P789"/>
-    <mergeCell ref="Q788:Q789"/>
-    <mergeCell ref="R788:S788"/>
-    <mergeCell ref="T788:T789"/>
-    <mergeCell ref="H788:H789"/>
-    <mergeCell ref="I788:I789"/>
-    <mergeCell ref="J788:J789"/>
-    <mergeCell ref="K788:K789"/>
-    <mergeCell ref="L788:L789"/>
-    <mergeCell ref="M788:M789"/>
-    <mergeCell ref="A788:A789"/>
-    <mergeCell ref="B788:B789"/>
-    <mergeCell ref="C788:C789"/>
-    <mergeCell ref="D788:D789"/>
-    <mergeCell ref="X794:X795"/>
-    <mergeCell ref="Y794:Y795"/>
-    <mergeCell ref="Z794:Z795"/>
-    <mergeCell ref="A796:A797"/>
-    <mergeCell ref="B796:B797"/>
-    <mergeCell ref="C796:C797"/>
-    <mergeCell ref="D796:D797"/>
-    <mergeCell ref="F796:F797"/>
-    <mergeCell ref="G796:G797"/>
-    <mergeCell ref="H796:H797"/>
-    <mergeCell ref="Q794:Q795"/>
-    <mergeCell ref="R794:S794"/>
-    <mergeCell ref="T794:T795"/>
-    <mergeCell ref="U794:U795"/>
-    <mergeCell ref="V794:V795"/>
-    <mergeCell ref="W794:W795"/>
-    <mergeCell ref="K794:K795"/>
-    <mergeCell ref="L794:L795"/>
-    <mergeCell ref="M794:M795"/>
-    <mergeCell ref="N794:N795"/>
-    <mergeCell ref="O794:O795"/>
-    <mergeCell ref="P794:P795"/>
-    <mergeCell ref="K821:K823"/>
-    <mergeCell ref="L821:L823"/>
-    <mergeCell ref="Q800:R800"/>
-    <mergeCell ref="Q803:R803"/>
-    <mergeCell ref="S805:T805"/>
-    <mergeCell ref="R807:S807"/>
-    <mergeCell ref="S818:T818"/>
-    <mergeCell ref="A821:A823"/>
-    <mergeCell ref="B821:B823"/>
-    <mergeCell ref="C821:C823"/>
-    <mergeCell ref="D821:D823"/>
-    <mergeCell ref="F821:F823"/>
-    <mergeCell ref="V796:V797"/>
-    <mergeCell ref="W796:W797"/>
-    <mergeCell ref="X796:X797"/>
-    <mergeCell ref="Y796:Y797"/>
-    <mergeCell ref="Z796:Z797"/>
-    <mergeCell ref="S798:T798"/>
-    <mergeCell ref="O796:O797"/>
-    <mergeCell ref="P796:P797"/>
-    <mergeCell ref="Q796:Q797"/>
-    <mergeCell ref="R796:S796"/>
-    <mergeCell ref="T796:T797"/>
-    <mergeCell ref="U796:U797"/>
-    <mergeCell ref="I796:I797"/>
-    <mergeCell ref="J796:J797"/>
-    <mergeCell ref="K796:K797"/>
-    <mergeCell ref="L796:L797"/>
-    <mergeCell ref="M796:M797"/>
-    <mergeCell ref="N796:N797"/>
-    <mergeCell ref="R835:S835"/>
-    <mergeCell ref="A843:A844"/>
-    <mergeCell ref="B843:B844"/>
-    <mergeCell ref="C843:C844"/>
-    <mergeCell ref="D843:D844"/>
-    <mergeCell ref="F843:F844"/>
-    <mergeCell ref="G843:G844"/>
-    <mergeCell ref="H843:H844"/>
-    <mergeCell ref="I843:I844"/>
-    <mergeCell ref="J843:J844"/>
-    <mergeCell ref="Z821:Z823"/>
-    <mergeCell ref="Q825:R825"/>
-    <mergeCell ref="Q826:R826"/>
-    <mergeCell ref="R830:S830"/>
-    <mergeCell ref="Q832:R832"/>
-    <mergeCell ref="R833:S833"/>
-    <mergeCell ref="S821:T821"/>
-    <mergeCell ref="U821:U823"/>
-    <mergeCell ref="V821:V823"/>
-    <mergeCell ref="W821:W823"/>
-    <mergeCell ref="X821:X823"/>
-    <mergeCell ref="Y821:Y823"/>
-    <mergeCell ref="M821:M823"/>
-    <mergeCell ref="N821:N823"/>
-    <mergeCell ref="O821:O823"/>
-    <mergeCell ref="P821:P823"/>
-    <mergeCell ref="Q821:Q823"/>
-    <mergeCell ref="R821:R823"/>
-    <mergeCell ref="G821:G823"/>
-    <mergeCell ref="H821:H823"/>
-    <mergeCell ref="I821:I823"/>
-    <mergeCell ref="J821:J823"/>
-    <mergeCell ref="R850:R851"/>
-    <mergeCell ref="S850:S851"/>
-    <mergeCell ref="H850:H851"/>
-    <mergeCell ref="I850:I851"/>
-    <mergeCell ref="J850:J851"/>
-    <mergeCell ref="K850:K851"/>
-    <mergeCell ref="L850:L851"/>
-    <mergeCell ref="M850:M851"/>
-    <mergeCell ref="X843:X844"/>
-    <mergeCell ref="Y843:Y844"/>
-    <mergeCell ref="Z843:Z844"/>
-    <mergeCell ref="Q845:R845"/>
-    <mergeCell ref="A850:A851"/>
-    <mergeCell ref="B850:B851"/>
-    <mergeCell ref="C850:C851"/>
-    <mergeCell ref="D850:D851"/>
-    <mergeCell ref="F850:F851"/>
-    <mergeCell ref="G850:G851"/>
-    <mergeCell ref="Q843:Q844"/>
-    <mergeCell ref="R843:R844"/>
-    <mergeCell ref="S843:S844"/>
-    <mergeCell ref="T843:U843"/>
-    <mergeCell ref="V843:V844"/>
-    <mergeCell ref="W843:W844"/>
-    <mergeCell ref="K843:K844"/>
-    <mergeCell ref="L843:L844"/>
-    <mergeCell ref="M843:M844"/>
-    <mergeCell ref="N843:N844"/>
-    <mergeCell ref="O843:O844"/>
-    <mergeCell ref="P843:P844"/>
-    <mergeCell ref="R883:S883"/>
-    <mergeCell ref="R884:S884"/>
-    <mergeCell ref="R886:S886"/>
-    <mergeCell ref="A887:A889"/>
-    <mergeCell ref="B887:B889"/>
-    <mergeCell ref="C887:C889"/>
-    <mergeCell ref="D887:D889"/>
-    <mergeCell ref="F887:F889"/>
-    <mergeCell ref="G887:G889"/>
-    <mergeCell ref="H887:H889"/>
-    <mergeCell ref="Q871:R871"/>
-    <mergeCell ref="Q873:R873"/>
-    <mergeCell ref="R875:S875"/>
-    <mergeCell ref="Q876:R876"/>
-    <mergeCell ref="T877:U877"/>
-    <mergeCell ref="S881:T881"/>
-    <mergeCell ref="Z850:Z851"/>
-    <mergeCell ref="Q852:R852"/>
-    <mergeCell ref="R853:S853"/>
-    <mergeCell ref="Q866:R866"/>
-    <mergeCell ref="Q869:R869"/>
-    <mergeCell ref="Q870:R870"/>
-    <mergeCell ref="T850:T851"/>
-    <mergeCell ref="U850:U851"/>
-    <mergeCell ref="V850:V851"/>
-    <mergeCell ref="W850:W851"/>
-    <mergeCell ref="X850:X851"/>
-    <mergeCell ref="Y850:Y851"/>
-    <mergeCell ref="N850:N851"/>
-    <mergeCell ref="O850:O851"/>
-    <mergeCell ref="P850:P851"/>
-    <mergeCell ref="Q850:Q851"/>
-    <mergeCell ref="R893:S893"/>
-    <mergeCell ref="Q894:R894"/>
-    <mergeCell ref="Q898:R898"/>
-    <mergeCell ref="R901:S901"/>
-    <mergeCell ref="R903:S903"/>
-    <mergeCell ref="A904:A905"/>
-    <mergeCell ref="B904:B905"/>
-    <mergeCell ref="C904:C905"/>
-    <mergeCell ref="D904:D905"/>
-    <mergeCell ref="F904:F905"/>
-    <mergeCell ref="U887:U889"/>
-    <mergeCell ref="V887:V889"/>
-    <mergeCell ref="W887:W889"/>
-    <mergeCell ref="X887:X889"/>
-    <mergeCell ref="Y887:Y889"/>
-    <mergeCell ref="Z887:Z889"/>
-    <mergeCell ref="O887:O889"/>
-    <mergeCell ref="P887:P889"/>
-    <mergeCell ref="Q887:Q889"/>
-    <mergeCell ref="R887:R889"/>
-    <mergeCell ref="S887:S889"/>
-    <mergeCell ref="T887:T889"/>
-    <mergeCell ref="I887:I889"/>
-    <mergeCell ref="J887:J889"/>
-    <mergeCell ref="K887:K889"/>
-    <mergeCell ref="L887:L889"/>
-    <mergeCell ref="M887:M889"/>
-    <mergeCell ref="N887:N889"/>
-    <mergeCell ref="Z904:Z905"/>
-    <mergeCell ref="A906:A907"/>
-    <mergeCell ref="B906:B907"/>
-    <mergeCell ref="C906:C907"/>
-    <mergeCell ref="D906:D907"/>
-    <mergeCell ref="F906:F907"/>
-    <mergeCell ref="G906:G907"/>
-    <mergeCell ref="H906:H907"/>
-    <mergeCell ref="I906:I907"/>
-    <mergeCell ref="J906:J907"/>
-    <mergeCell ref="T904:T905"/>
-    <mergeCell ref="U904:U905"/>
-    <mergeCell ref="V904:V905"/>
-    <mergeCell ref="W904:W905"/>
-    <mergeCell ref="X904:X905"/>
-    <mergeCell ref="Y904:Y905"/>
-    <mergeCell ref="M904:M905"/>
-    <mergeCell ref="N904:N905"/>
-    <mergeCell ref="O904:O905"/>
-    <mergeCell ref="P904:P905"/>
-    <mergeCell ref="Q904:Q905"/>
-    <mergeCell ref="R904:S904"/>
-    <mergeCell ref="G904:G905"/>
-    <mergeCell ref="H904:H905"/>
-    <mergeCell ref="I904:I905"/>
-    <mergeCell ref="J904:J905"/>
-    <mergeCell ref="K904:K905"/>
-    <mergeCell ref="L904:L905"/>
-    <mergeCell ref="S915:T915"/>
-    <mergeCell ref="Q917:R917"/>
-    <mergeCell ref="A919:A920"/>
-    <mergeCell ref="B919:B920"/>
-    <mergeCell ref="C919:C920"/>
-    <mergeCell ref="D919:D920"/>
-    <mergeCell ref="F919:F920"/>
-    <mergeCell ref="G919:G920"/>
-    <mergeCell ref="H919:H920"/>
-    <mergeCell ref="I919:I920"/>
-    <mergeCell ref="W906:W907"/>
-    <mergeCell ref="X906:X907"/>
-    <mergeCell ref="Y906:Y907"/>
-    <mergeCell ref="Z906:Z907"/>
-    <mergeCell ref="U911:V911"/>
-    <mergeCell ref="R912:S912"/>
-    <mergeCell ref="Q906:Q907"/>
-    <mergeCell ref="R906:R907"/>
-    <mergeCell ref="S906:S907"/>
-    <mergeCell ref="T906:T907"/>
-    <mergeCell ref="U906:U907"/>
-    <mergeCell ref="V906:V907"/>
-    <mergeCell ref="K906:K907"/>
-    <mergeCell ref="L906:L907"/>
-    <mergeCell ref="M906:M907"/>
-    <mergeCell ref="N906:N907"/>
-    <mergeCell ref="O906:O907"/>
-    <mergeCell ref="P906:P907"/>
-    <mergeCell ref="V919:V920"/>
-    <mergeCell ref="W919:W920"/>
-    <mergeCell ref="X919:X920"/>
-    <mergeCell ref="Y919:Y920"/>
-    <mergeCell ref="Z919:Z920"/>
-    <mergeCell ref="Q922:R922"/>
-    <mergeCell ref="P919:P920"/>
-    <mergeCell ref="Q919:Q920"/>
-    <mergeCell ref="R919:R920"/>
-    <mergeCell ref="S919:S920"/>
-    <mergeCell ref="T919:T920"/>
-    <mergeCell ref="U919:U920"/>
-    <mergeCell ref="J919:J920"/>
-    <mergeCell ref="K919:K920"/>
-    <mergeCell ref="L919:L920"/>
-    <mergeCell ref="M919:M920"/>
-    <mergeCell ref="N919:N920"/>
-    <mergeCell ref="O919:O920"/>
-    <mergeCell ref="Q951:R951"/>
-    <mergeCell ref="A953:A954"/>
-    <mergeCell ref="B953:B954"/>
-    <mergeCell ref="C953:C954"/>
-    <mergeCell ref="D953:D954"/>
-    <mergeCell ref="F953:F954"/>
-    <mergeCell ref="G953:G954"/>
-    <mergeCell ref="H953:H954"/>
-    <mergeCell ref="I953:I954"/>
-    <mergeCell ref="J953:J954"/>
-    <mergeCell ref="S937:T937"/>
-    <mergeCell ref="R939:S939"/>
-    <mergeCell ref="Q945:R945"/>
-    <mergeCell ref="Q946:R946"/>
-    <mergeCell ref="Q948:R948"/>
-    <mergeCell ref="T950:U950"/>
-    <mergeCell ref="R924:S924"/>
-    <mergeCell ref="S927:T927"/>
-    <mergeCell ref="Q928:R928"/>
-    <mergeCell ref="S930:T930"/>
-    <mergeCell ref="R935:S935"/>
-    <mergeCell ref="R936:S936"/>
-    <mergeCell ref="W953:W954"/>
-    <mergeCell ref="X953:X954"/>
-    <mergeCell ref="Y953:Y954"/>
-    <mergeCell ref="Z953:Z954"/>
-    <mergeCell ref="A955:A956"/>
-    <mergeCell ref="B955:B956"/>
-    <mergeCell ref="C955:C956"/>
-    <mergeCell ref="D955:D956"/>
-    <mergeCell ref="F955:F956"/>
-    <mergeCell ref="G955:G956"/>
-    <mergeCell ref="Q953:Q954"/>
-    <mergeCell ref="R953:R954"/>
-    <mergeCell ref="S953:S954"/>
-    <mergeCell ref="T953:T954"/>
-    <mergeCell ref="U953:U954"/>
-    <mergeCell ref="V953:V954"/>
-    <mergeCell ref="K953:K954"/>
-    <mergeCell ref="L953:L954"/>
-    <mergeCell ref="M953:M954"/>
-    <mergeCell ref="N953:N954"/>
-    <mergeCell ref="O953:O954"/>
-    <mergeCell ref="P953:P954"/>
-    <mergeCell ref="R957:S957"/>
-    <mergeCell ref="S959:T959"/>
-    <mergeCell ref="Q960:R960"/>
-    <mergeCell ref="R961:S961"/>
-    <mergeCell ref="A963:A964"/>
-    <mergeCell ref="B963:B964"/>
-    <mergeCell ref="C963:C964"/>
-    <mergeCell ref="D963:D964"/>
-    <mergeCell ref="F963:F964"/>
-    <mergeCell ref="G963:G964"/>
-    <mergeCell ref="U955:U956"/>
-    <mergeCell ref="V955:V956"/>
-    <mergeCell ref="W955:W956"/>
-    <mergeCell ref="X955:X956"/>
-    <mergeCell ref="Y955:Y956"/>
-    <mergeCell ref="Z955:Z956"/>
-    <mergeCell ref="N955:N956"/>
-    <mergeCell ref="O955:O956"/>
-    <mergeCell ref="P955:P956"/>
-    <mergeCell ref="Q955:Q956"/>
-    <mergeCell ref="R955:S955"/>
-    <mergeCell ref="T955:T956"/>
-    <mergeCell ref="H955:H956"/>
-    <mergeCell ref="I955:I956"/>
-    <mergeCell ref="J955:J956"/>
-    <mergeCell ref="K955:K956"/>
-    <mergeCell ref="L955:L956"/>
-    <mergeCell ref="M955:M956"/>
-    <mergeCell ref="Z963:Z964"/>
-    <mergeCell ref="A965:A966"/>
-    <mergeCell ref="B965:B966"/>
-    <mergeCell ref="C965:C966"/>
-    <mergeCell ref="D965:D966"/>
-    <mergeCell ref="F965:F966"/>
-    <mergeCell ref="G965:G966"/>
-    <mergeCell ref="H965:H966"/>
-    <mergeCell ref="I965:I966"/>
-    <mergeCell ref="J965:J966"/>
-    <mergeCell ref="T963:T964"/>
-    <mergeCell ref="U963:U964"/>
-    <mergeCell ref="V963:V964"/>
-    <mergeCell ref="W963:W964"/>
-    <mergeCell ref="X963:X964"/>
-    <mergeCell ref="Y963:Y964"/>
-    <mergeCell ref="N963:N964"/>
-    <mergeCell ref="O963:O964"/>
-    <mergeCell ref="P963:P964"/>
-    <mergeCell ref="Q963:Q964"/>
-    <mergeCell ref="R963:R964"/>
-    <mergeCell ref="S963:S964"/>
-    <mergeCell ref="H963:H964"/>
-    <mergeCell ref="I963:I964"/>
-    <mergeCell ref="J963:J964"/>
-    <mergeCell ref="K963:K964"/>
-    <mergeCell ref="L963:L964"/>
-    <mergeCell ref="M963:M964"/>
-    <mergeCell ref="L968:L969"/>
-    <mergeCell ref="M968:M969"/>
-    <mergeCell ref="W965:W966"/>
-    <mergeCell ref="X965:X966"/>
-    <mergeCell ref="Y965:Y966"/>
-    <mergeCell ref="Z965:Z966"/>
-    <mergeCell ref="A968:A969"/>
-    <mergeCell ref="B968:B969"/>
-    <mergeCell ref="C968:C969"/>
-    <mergeCell ref="D968:D969"/>
-    <mergeCell ref="F968:F969"/>
-    <mergeCell ref="G968:G969"/>
-    <mergeCell ref="Q965:Q966"/>
-    <mergeCell ref="R965:R966"/>
-    <mergeCell ref="S965:S966"/>
-    <mergeCell ref="T965:T966"/>
-    <mergeCell ref="U965:U966"/>
-    <mergeCell ref="V965:V966"/>
-    <mergeCell ref="K965:K966"/>
-    <mergeCell ref="L965:L966"/>
-    <mergeCell ref="M965:M966"/>
-    <mergeCell ref="N965:N966"/>
-    <mergeCell ref="O965:O966"/>
-    <mergeCell ref="P965:P966"/>
-    <mergeCell ref="R981:S981"/>
-    <mergeCell ref="Q982:R982"/>
-    <mergeCell ref="Q983:R983"/>
-    <mergeCell ref="A991:A992"/>
-    <mergeCell ref="B991:B992"/>
-    <mergeCell ref="C991:C992"/>
-    <mergeCell ref="D991:D992"/>
-    <mergeCell ref="F991:F992"/>
-    <mergeCell ref="G991:G992"/>
-    <mergeCell ref="H991:H992"/>
-    <mergeCell ref="Z968:Z969"/>
-    <mergeCell ref="S970:T970"/>
-    <mergeCell ref="S971:T971"/>
-    <mergeCell ref="R973:S973"/>
-    <mergeCell ref="R977:S977"/>
-    <mergeCell ref="Q980:R980"/>
-    <mergeCell ref="T968:T969"/>
-    <mergeCell ref="U968:U969"/>
-    <mergeCell ref="V968:V969"/>
-    <mergeCell ref="W968:W969"/>
-    <mergeCell ref="X968:X969"/>
-    <mergeCell ref="Y968:Y969"/>
-    <mergeCell ref="N968:N969"/>
-    <mergeCell ref="O968:O969"/>
-    <mergeCell ref="P968:P969"/>
-    <mergeCell ref="Q968:Q969"/>
-    <mergeCell ref="R968:R969"/>
-    <mergeCell ref="S968:S969"/>
-    <mergeCell ref="H968:H969"/>
-    <mergeCell ref="I968:I969"/>
-    <mergeCell ref="J968:J969"/>
-    <mergeCell ref="K968:K969"/>
-    <mergeCell ref="F993:F994"/>
-    <mergeCell ref="G993:G994"/>
-    <mergeCell ref="U991:U992"/>
-    <mergeCell ref="V991:V992"/>
-    <mergeCell ref="W991:W992"/>
-    <mergeCell ref="X991:X992"/>
-    <mergeCell ref="Y991:Y992"/>
-    <mergeCell ref="Z991:Z992"/>
-    <mergeCell ref="O991:O992"/>
-    <mergeCell ref="P991:P992"/>
-    <mergeCell ref="Q991:Q992"/>
-    <mergeCell ref="R991:R992"/>
-    <mergeCell ref="S991:S992"/>
-    <mergeCell ref="T991:T992"/>
-    <mergeCell ref="I991:I992"/>
-    <mergeCell ref="J991:J992"/>
-    <mergeCell ref="K991:K992"/>
-    <mergeCell ref="L991:L992"/>
-    <mergeCell ref="M991:M992"/>
-    <mergeCell ref="N991:N992"/>
-    <mergeCell ref="R997:S997"/>
-    <mergeCell ref="R999:S999"/>
-    <mergeCell ref="Q1001:R1001"/>
-    <mergeCell ref="A1005:A1006"/>
-    <mergeCell ref="B1005:B1006"/>
-    <mergeCell ref="C1005:C1006"/>
-    <mergeCell ref="D1005:D1006"/>
-    <mergeCell ref="F1005:F1006"/>
-    <mergeCell ref="G1005:G1006"/>
-    <mergeCell ref="H1005:H1006"/>
-    <mergeCell ref="T993:U993"/>
-    <mergeCell ref="V993:V994"/>
-    <mergeCell ref="W993:W994"/>
-    <mergeCell ref="X993:X994"/>
-    <mergeCell ref="Y993:Y994"/>
-    <mergeCell ref="Z993:Z994"/>
-    <mergeCell ref="N993:N994"/>
-    <mergeCell ref="O993:O994"/>
-    <mergeCell ref="P993:P994"/>
-    <mergeCell ref="Q993:Q994"/>
-    <mergeCell ref="R993:R994"/>
-    <mergeCell ref="S993:S994"/>
-    <mergeCell ref="H993:H994"/>
-    <mergeCell ref="I993:I994"/>
-    <mergeCell ref="J993:J994"/>
-    <mergeCell ref="K993:K994"/>
-    <mergeCell ref="L993:L994"/>
-    <mergeCell ref="M993:M994"/>
-    <mergeCell ref="A993:A994"/>
-    <mergeCell ref="B993:B994"/>
-    <mergeCell ref="C993:C994"/>
-    <mergeCell ref="D993:D994"/>
-    <mergeCell ref="R1014:S1014"/>
-    <mergeCell ref="A1015:A1016"/>
-    <mergeCell ref="B1015:B1016"/>
-    <mergeCell ref="C1015:C1016"/>
-    <mergeCell ref="D1015:D1016"/>
-    <mergeCell ref="F1015:F1016"/>
-    <mergeCell ref="G1015:G1016"/>
-    <mergeCell ref="H1015:H1016"/>
-    <mergeCell ref="I1015:I1016"/>
-    <mergeCell ref="J1015:J1016"/>
-    <mergeCell ref="V1005:V1006"/>
-    <mergeCell ref="W1005:W1006"/>
-    <mergeCell ref="X1005:X1006"/>
-    <mergeCell ref="Y1005:Y1006"/>
-    <mergeCell ref="Z1005:Z1006"/>
-    <mergeCell ref="S1008:T1008"/>
-    <mergeCell ref="O1005:O1006"/>
-    <mergeCell ref="P1005:P1006"/>
-    <mergeCell ref="Q1005:Q1006"/>
-    <mergeCell ref="R1005:S1005"/>
-    <mergeCell ref="T1005:T1006"/>
-    <mergeCell ref="U1005:U1006"/>
-    <mergeCell ref="I1005:I1006"/>
-    <mergeCell ref="J1005:J1006"/>
-    <mergeCell ref="K1005:K1006"/>
-    <mergeCell ref="L1005:L1006"/>
-    <mergeCell ref="M1005:M1006"/>
-    <mergeCell ref="N1005:N1006"/>
-    <mergeCell ref="F1037:F1038"/>
-    <mergeCell ref="G1037:G1038"/>
-    <mergeCell ref="R1019:S1019"/>
-    <mergeCell ref="R1023:S1023"/>
-    <mergeCell ref="R1024:S1024"/>
-    <mergeCell ref="Q1026:R1026"/>
-    <mergeCell ref="Q1027:R1027"/>
-    <mergeCell ref="Q1030:R1030"/>
-    <mergeCell ref="W1015:W1016"/>
-    <mergeCell ref="X1015:X1016"/>
-    <mergeCell ref="Y1015:Y1016"/>
-    <mergeCell ref="Z1015:Z1016"/>
-    <mergeCell ref="Q1017:R1017"/>
-    <mergeCell ref="Y1018:Z1018"/>
-    <mergeCell ref="Q1015:Q1016"/>
-    <mergeCell ref="R1015:R1016"/>
-    <mergeCell ref="S1015:S1016"/>
-    <mergeCell ref="T1015:T1016"/>
-    <mergeCell ref="U1015:U1016"/>
-    <mergeCell ref="V1015:V1016"/>
-    <mergeCell ref="K1015:K1016"/>
-    <mergeCell ref="L1015:L1016"/>
-    <mergeCell ref="M1015:M1016"/>
-    <mergeCell ref="N1015:N1016"/>
-    <mergeCell ref="O1015:O1016"/>
-    <mergeCell ref="P1015:P1016"/>
-    <mergeCell ref="Z1037:Z1038"/>
-    <mergeCell ref="Q1040:R1040"/>
-    <mergeCell ref="A1041:A1042"/>
-    <mergeCell ref="B1041:B1042"/>
-    <mergeCell ref="C1041:C1042"/>
-    <mergeCell ref="D1041:D1042"/>
-    <mergeCell ref="F1041:F1042"/>
-    <mergeCell ref="G1041:G1042"/>
-    <mergeCell ref="H1041:H1042"/>
-    <mergeCell ref="I1041:I1042"/>
-    <mergeCell ref="T1037:T1038"/>
-    <mergeCell ref="U1037:U1038"/>
-    <mergeCell ref="V1037:V1038"/>
-    <mergeCell ref="W1037:W1038"/>
-    <mergeCell ref="X1037:X1038"/>
-    <mergeCell ref="Y1037:Y1038"/>
-    <mergeCell ref="N1037:N1038"/>
-    <mergeCell ref="O1037:O1038"/>
-    <mergeCell ref="P1037:P1038"/>
-    <mergeCell ref="Q1037:Q1038"/>
-    <mergeCell ref="R1037:R1038"/>
-    <mergeCell ref="S1037:S1038"/>
-    <mergeCell ref="H1037:H1038"/>
-    <mergeCell ref="I1037:I1038"/>
-    <mergeCell ref="J1037:J1038"/>
-    <mergeCell ref="K1037:K1038"/>
-    <mergeCell ref="L1037:L1038"/>
-    <mergeCell ref="M1037:M1038"/>
-    <mergeCell ref="A1037:A1038"/>
-    <mergeCell ref="B1037:B1038"/>
-    <mergeCell ref="C1037:C1038"/>
-    <mergeCell ref="D1037:D1038"/>
-    <mergeCell ref="K1045:K1046"/>
-    <mergeCell ref="L1045:L1046"/>
-    <mergeCell ref="V1041:V1042"/>
-    <mergeCell ref="W1041:W1042"/>
-    <mergeCell ref="X1041:X1042"/>
-    <mergeCell ref="Y1041:Y1042"/>
-    <mergeCell ref="Z1041:Z1042"/>
-    <mergeCell ref="A1045:A1046"/>
-    <mergeCell ref="B1045:B1046"/>
-    <mergeCell ref="C1045:C1046"/>
-    <mergeCell ref="D1045:D1046"/>
-    <mergeCell ref="F1045:F1046"/>
-    <mergeCell ref="P1041:P1042"/>
-    <mergeCell ref="Q1041:Q1042"/>
-    <mergeCell ref="R1041:R1042"/>
-    <mergeCell ref="S1041:S1042"/>
-    <mergeCell ref="T1041:T1042"/>
-    <mergeCell ref="U1041:U1042"/>
-    <mergeCell ref="J1041:J1042"/>
-    <mergeCell ref="K1041:K1042"/>
-    <mergeCell ref="L1041:L1042"/>
-    <mergeCell ref="M1041:M1042"/>
-    <mergeCell ref="N1041:N1042"/>
-    <mergeCell ref="O1041:O1042"/>
-    <mergeCell ref="J1048:J1049"/>
-    <mergeCell ref="K1048:K1049"/>
-    <mergeCell ref="L1048:L1049"/>
-    <mergeCell ref="M1048:M1049"/>
-    <mergeCell ref="N1048:N1049"/>
-    <mergeCell ref="O1048:O1049"/>
-    <mergeCell ref="Y1045:Y1046"/>
-    <mergeCell ref="Z1045:Z1046"/>
-    <mergeCell ref="A1048:A1049"/>
-    <mergeCell ref="B1048:B1049"/>
-    <mergeCell ref="C1048:C1049"/>
-    <mergeCell ref="D1048:D1049"/>
-    <mergeCell ref="F1048:F1049"/>
-    <mergeCell ref="G1048:G1049"/>
-    <mergeCell ref="H1048:H1049"/>
-    <mergeCell ref="I1048:I1049"/>
-    <mergeCell ref="S1045:S1046"/>
-    <mergeCell ref="T1045:T1046"/>
-    <mergeCell ref="U1045:U1046"/>
-    <mergeCell ref="V1045:V1046"/>
-    <mergeCell ref="W1045:W1046"/>
-    <mergeCell ref="X1045:X1046"/>
-    <mergeCell ref="M1045:M1046"/>
-    <mergeCell ref="N1045:N1046"/>
-    <mergeCell ref="O1045:O1046"/>
-    <mergeCell ref="P1045:P1046"/>
-    <mergeCell ref="Q1045:Q1046"/>
-    <mergeCell ref="R1045:R1046"/>
-    <mergeCell ref="G1045:G1046"/>
-    <mergeCell ref="H1045:H1046"/>
-    <mergeCell ref="I1045:I1046"/>
-    <mergeCell ref="J1045:J1046"/>
-    <mergeCell ref="Q1052:R1052"/>
-    <mergeCell ref="R1053:S1053"/>
-    <mergeCell ref="R1055:S1055"/>
-    <mergeCell ref="R1056:S1056"/>
-    <mergeCell ref="R1059:S1059"/>
-    <mergeCell ref="R1060:S1060"/>
-    <mergeCell ref="V1048:V1049"/>
-    <mergeCell ref="W1048:W1049"/>
-    <mergeCell ref="X1048:X1049"/>
-    <mergeCell ref="Y1048:Y1049"/>
-    <mergeCell ref="Z1048:Z1049"/>
-    <mergeCell ref="S1050:T1050"/>
-    <mergeCell ref="P1048:P1049"/>
-    <mergeCell ref="Q1048:Q1049"/>
-    <mergeCell ref="R1048:R1049"/>
-    <mergeCell ref="S1048:S1049"/>
-    <mergeCell ref="T1048:T1049"/>
-    <mergeCell ref="U1048:U1049"/>
-    <mergeCell ref="A1063:A1064"/>
-    <mergeCell ref="B1063:B1064"/>
-    <mergeCell ref="C1063:C1064"/>
-    <mergeCell ref="D1063:D1064"/>
-    <mergeCell ref="F1063:F1064"/>
-    <mergeCell ref="G1063:G1064"/>
-    <mergeCell ref="U1061:U1062"/>
-    <mergeCell ref="V1061:V1062"/>
-    <mergeCell ref="W1061:W1062"/>
-    <mergeCell ref="X1061:X1062"/>
-    <mergeCell ref="Y1061:Y1062"/>
-    <mergeCell ref="Z1061:Z1062"/>
-    <mergeCell ref="N1061:N1062"/>
-    <mergeCell ref="O1061:O1062"/>
-    <mergeCell ref="P1061:P1062"/>
-    <mergeCell ref="Q1061:Q1062"/>
-    <mergeCell ref="R1061:R1062"/>
-    <mergeCell ref="S1061:T1061"/>
-    <mergeCell ref="H1061:H1062"/>
-    <mergeCell ref="I1061:I1062"/>
-    <mergeCell ref="J1061:J1062"/>
-    <mergeCell ref="K1061:K1062"/>
-    <mergeCell ref="L1061:L1062"/>
-    <mergeCell ref="M1061:M1062"/>
-    <mergeCell ref="A1061:A1062"/>
-    <mergeCell ref="B1061:B1062"/>
-    <mergeCell ref="C1061:C1062"/>
-    <mergeCell ref="D1061:D1062"/>
-    <mergeCell ref="F1061:F1062"/>
-    <mergeCell ref="G1061:G1062"/>
-    <mergeCell ref="C1069:C1070"/>
-    <mergeCell ref="D1069:D1070"/>
-    <mergeCell ref="F1069:F1070"/>
-    <mergeCell ref="G1069:G1070"/>
-    <mergeCell ref="U1063:U1064"/>
-    <mergeCell ref="V1063:V1064"/>
-    <mergeCell ref="W1063:W1064"/>
-    <mergeCell ref="X1063:X1064"/>
-    <mergeCell ref="Y1063:Y1064"/>
-    <mergeCell ref="Z1063:Z1064"/>
-    <mergeCell ref="N1063:N1064"/>
-    <mergeCell ref="O1063:O1064"/>
-    <mergeCell ref="P1063:P1064"/>
-    <mergeCell ref="Q1063:R1063"/>
-    <mergeCell ref="S1063:S1064"/>
-    <mergeCell ref="T1063:T1064"/>
-    <mergeCell ref="H1063:H1064"/>
-    <mergeCell ref="I1063:I1064"/>
-    <mergeCell ref="J1063:J1064"/>
-    <mergeCell ref="K1063:K1064"/>
-    <mergeCell ref="L1063:L1064"/>
-    <mergeCell ref="M1063:M1064"/>
-    <mergeCell ref="K1082:K1083"/>
-    <mergeCell ref="L1082:L1083"/>
-    <mergeCell ref="Z1069:Z1070"/>
-    <mergeCell ref="R1078:S1078"/>
-    <mergeCell ref="Q1079:R1079"/>
-    <mergeCell ref="S1080:T1080"/>
-    <mergeCell ref="Q1081:R1081"/>
-    <mergeCell ref="A1082:A1083"/>
-    <mergeCell ref="B1082:B1083"/>
-    <mergeCell ref="C1082:C1083"/>
-    <mergeCell ref="D1082:D1083"/>
-    <mergeCell ref="F1082:F1083"/>
-    <mergeCell ref="T1069:T1070"/>
-    <mergeCell ref="U1069:U1070"/>
-    <mergeCell ref="V1069:V1070"/>
-    <mergeCell ref="W1069:W1070"/>
-    <mergeCell ref="X1069:X1070"/>
-    <mergeCell ref="Y1069:Y1070"/>
-    <mergeCell ref="N1069:N1070"/>
-    <mergeCell ref="O1069:O1070"/>
-    <mergeCell ref="P1069:P1070"/>
-    <mergeCell ref="Q1069:Q1070"/>
-    <mergeCell ref="R1069:R1070"/>
-    <mergeCell ref="S1069:S1070"/>
-    <mergeCell ref="H1069:H1070"/>
-    <mergeCell ref="I1069:I1070"/>
-    <mergeCell ref="J1069:J1070"/>
-    <mergeCell ref="K1069:K1070"/>
-    <mergeCell ref="L1069:L1070"/>
-    <mergeCell ref="M1069:M1070"/>
-    <mergeCell ref="A1069:A1070"/>
-    <mergeCell ref="B1069:B1070"/>
-    <mergeCell ref="Q1091:R1091"/>
-    <mergeCell ref="R1097:S1097"/>
-    <mergeCell ref="A1100:A1101"/>
-    <mergeCell ref="B1100:B1101"/>
-    <mergeCell ref="C1100:C1101"/>
-    <mergeCell ref="D1100:D1101"/>
-    <mergeCell ref="F1100:F1101"/>
-    <mergeCell ref="G1100:G1101"/>
-    <mergeCell ref="H1100:H1101"/>
-    <mergeCell ref="I1100:I1101"/>
-    <mergeCell ref="Y1082:Y1083"/>
-    <mergeCell ref="Z1082:Z1083"/>
-    <mergeCell ref="R1084:S1084"/>
-    <mergeCell ref="S1087:T1087"/>
-    <mergeCell ref="S1089:T1089"/>
-    <mergeCell ref="R1090:S1090"/>
-    <mergeCell ref="S1082:S1083"/>
-    <mergeCell ref="T1082:T1083"/>
-    <mergeCell ref="U1082:U1083"/>
-    <mergeCell ref="V1082:V1083"/>
-    <mergeCell ref="W1082:W1083"/>
-    <mergeCell ref="X1082:X1083"/>
-    <mergeCell ref="M1082:M1083"/>
-    <mergeCell ref="N1082:N1083"/>
-    <mergeCell ref="O1082:O1083"/>
-    <mergeCell ref="P1082:P1083"/>
-    <mergeCell ref="Q1082:Q1083"/>
-    <mergeCell ref="R1082:R1083"/>
-    <mergeCell ref="G1082:G1083"/>
-    <mergeCell ref="H1082:H1083"/>
-    <mergeCell ref="I1082:I1083"/>
-    <mergeCell ref="J1082:J1083"/>
-    <mergeCell ref="X1100:X1101"/>
-    <mergeCell ref="Y1100:Y1101"/>
-    <mergeCell ref="Z1100:Z1101"/>
-    <mergeCell ref="Q1102:R1102"/>
-    <mergeCell ref="R1103:S1103"/>
-    <mergeCell ref="P1100:P1101"/>
-    <mergeCell ref="Q1100:Q1101"/>
-    <mergeCell ref="R1100:S1100"/>
-    <mergeCell ref="T1100:T1101"/>
-    <mergeCell ref="U1100:U1101"/>
-    <mergeCell ref="V1100:V1101"/>
-    <mergeCell ref="J1100:J1101"/>
-    <mergeCell ref="K1100:K1101"/>
-    <mergeCell ref="L1100:L1101"/>
-    <mergeCell ref="M1100:M1101"/>
-    <mergeCell ref="N1100:N1101"/>
-    <mergeCell ref="O1100:O1101"/>
-    <mergeCell ref="R1126:S1126"/>
-    <mergeCell ref="R1128:S1128"/>
-    <mergeCell ref="U1131:V1131"/>
-    <mergeCell ref="A1132:A1133"/>
-    <mergeCell ref="B1132:B1133"/>
-    <mergeCell ref="C1132:C1133"/>
-    <mergeCell ref="D1132:D1133"/>
-    <mergeCell ref="F1132:F1133"/>
-    <mergeCell ref="G1132:G1133"/>
-    <mergeCell ref="H1132:H1133"/>
-    <mergeCell ref="Q1104:R1104"/>
-    <mergeCell ref="Q1107:R1107"/>
-    <mergeCell ref="V1115:W1115"/>
-    <mergeCell ref="Q1116:R1116"/>
-    <mergeCell ref="Q1123:R1123"/>
-    <mergeCell ref="Q1125:R1125"/>
-    <mergeCell ref="W1100:W1101"/>
-    <mergeCell ref="G1151:G1153"/>
-    <mergeCell ref="U1132:U1133"/>
-    <mergeCell ref="V1132:V1133"/>
-    <mergeCell ref="W1132:W1133"/>
-    <mergeCell ref="X1132:X1133"/>
-    <mergeCell ref="Y1132:Y1133"/>
-    <mergeCell ref="Z1132:Z1133"/>
-    <mergeCell ref="O1132:O1133"/>
-    <mergeCell ref="P1132:P1133"/>
-    <mergeCell ref="Q1132:Q1133"/>
-    <mergeCell ref="R1132:R1133"/>
-    <mergeCell ref="S1132:S1133"/>
-    <mergeCell ref="T1132:T1133"/>
-    <mergeCell ref="I1132:I1133"/>
-    <mergeCell ref="J1132:J1133"/>
-    <mergeCell ref="K1132:K1133"/>
-    <mergeCell ref="L1132:L1133"/>
-    <mergeCell ref="M1132:M1133"/>
-    <mergeCell ref="N1132:N1133"/>
-    <mergeCell ref="A1156:A1157"/>
-    <mergeCell ref="B1156:B1157"/>
-    <mergeCell ref="C1156:C1157"/>
-    <mergeCell ref="D1156:D1157"/>
-    <mergeCell ref="F1156:F1157"/>
-    <mergeCell ref="G1156:G1157"/>
-    <mergeCell ref="H1156:H1157"/>
-    <mergeCell ref="I1156:I1157"/>
-    <mergeCell ref="J1156:J1157"/>
-    <mergeCell ref="T1151:T1153"/>
-    <mergeCell ref="U1151:U1153"/>
-    <mergeCell ref="V1151:V1153"/>
-    <mergeCell ref="W1151:W1153"/>
-    <mergeCell ref="X1151:X1153"/>
-    <mergeCell ref="Y1151:Y1153"/>
-    <mergeCell ref="N1151:N1153"/>
-    <mergeCell ref="O1151:O1153"/>
-    <mergeCell ref="P1151:P1153"/>
-    <mergeCell ref="Q1151:Q1153"/>
-    <mergeCell ref="R1151:R1153"/>
-    <mergeCell ref="S1151:S1153"/>
-    <mergeCell ref="H1151:H1153"/>
-    <mergeCell ref="I1151:I1153"/>
-    <mergeCell ref="J1151:J1153"/>
-    <mergeCell ref="K1151:K1153"/>
-    <mergeCell ref="L1151:L1153"/>
-    <mergeCell ref="M1151:M1153"/>
-    <mergeCell ref="A1151:A1153"/>
-    <mergeCell ref="B1151:B1153"/>
-    <mergeCell ref="C1151:C1153"/>
-    <mergeCell ref="D1151:D1153"/>
-    <mergeCell ref="F1151:F1153"/>
-    <mergeCell ref="W1156:W1157"/>
-    <mergeCell ref="X1156:X1157"/>
-    <mergeCell ref="Y1156:Y1157"/>
-    <mergeCell ref="Z1156:Z1157"/>
-    <mergeCell ref="Q1156:Q1157"/>
-    <mergeCell ref="R1156:R1157"/>
-    <mergeCell ref="S1156:S1157"/>
-    <mergeCell ref="T1156:T1157"/>
-    <mergeCell ref="U1156:U1157"/>
-    <mergeCell ref="V1156:V1157"/>
-    <mergeCell ref="K1156:K1157"/>
-    <mergeCell ref="L1156:L1157"/>
-    <mergeCell ref="M1156:M1157"/>
-    <mergeCell ref="N1156:N1157"/>
-    <mergeCell ref="O1156:O1157"/>
-    <mergeCell ref="P1156:P1157"/>
-    <mergeCell ref="Z1151:Z1153"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q14:R14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -79490,13 +79077,463 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="A1:E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>36404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>36161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>37257</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>37438</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>37773</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>38078</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>38139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>38231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>39022</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>39173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>39234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>39387</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>39630</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>39722</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>39753</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>39995</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>40422</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>40695</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>40695</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>40695</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>40756</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>41030</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>41183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>41306</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>41334</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>41456</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>41671</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>41974</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>42461</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/20170917-infuse/builds/development/data/maindata.xlsx
+++ b/20170917-infuse/builds/development/data/maindata.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="2" r:id="rId1"/>
     <sheet name="infuse_data" sheetId="3" r:id="rId2"/>
     <sheet name="timeline" sheetId="1" r:id="rId3"/>
+    <sheet name="source" sheetId="4" r:id="rId4"/>
+    <sheet name="layout" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -5543,7 +5545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
@@ -75741,23 +75743,3281 @@
     </row>
   </sheetData>
   <mergeCells count="3324">
-    <mergeCell ref="W1156:W1157"/>
-    <mergeCell ref="X1156:X1157"/>
-    <mergeCell ref="Y1156:Y1157"/>
-    <mergeCell ref="Z1156:Z1157"/>
-    <mergeCell ref="Q1156:Q1157"/>
-    <mergeCell ref="R1156:R1157"/>
-    <mergeCell ref="S1156:S1157"/>
-    <mergeCell ref="T1156:T1157"/>
-    <mergeCell ref="U1156:U1157"/>
-    <mergeCell ref="V1156:V1157"/>
-    <mergeCell ref="K1156:K1157"/>
-    <mergeCell ref="L1156:L1157"/>
-    <mergeCell ref="M1156:M1157"/>
-    <mergeCell ref="N1156:N1157"/>
-    <mergeCell ref="O1156:O1157"/>
-    <mergeCell ref="P1156:P1157"/>
-    <mergeCell ref="Z1151:Z1153"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="Z50:Z51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:S51"/>
+    <mergeCell ref="T50:T51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="Y40:Y41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="U50:U51"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="X50:X51"/>
+    <mergeCell ref="Y50:Y51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="Z60:Z61"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="T60:T61"/>
+    <mergeCell ref="U60:U61"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="Y60:Y61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="X84:X85"/>
+    <mergeCell ref="Y84:Y85"/>
+    <mergeCell ref="Z84:Z85"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="T84:T85"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="W84:W85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="Z89:Z90"/>
+    <mergeCell ref="T89:T90"/>
+    <mergeCell ref="U89:U90"/>
+    <mergeCell ref="V89:V90"/>
+    <mergeCell ref="W89:W90"/>
+    <mergeCell ref="X89:X90"/>
+    <mergeCell ref="Y89:Y90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="S89:S90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="Z92:Z93"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="Q92:Q93"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="T92:T93"/>
+    <mergeCell ref="U92:U93"/>
+    <mergeCell ref="V92:V93"/>
+    <mergeCell ref="W92:W93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="P92:P93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="X92:X93"/>
+    <mergeCell ref="Y92:Y93"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="Z95:Z96"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="T95:T96"/>
+    <mergeCell ref="U95:U96"/>
+    <mergeCell ref="V95:V96"/>
+    <mergeCell ref="W95:W96"/>
+    <mergeCell ref="X95:X96"/>
+    <mergeCell ref="Y95:Y96"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="S95:S96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="V116:V117"/>
+    <mergeCell ref="W116:W117"/>
+    <mergeCell ref="X116:X117"/>
+    <mergeCell ref="Y116:Y117"/>
+    <mergeCell ref="Z116:Z117"/>
+    <mergeCell ref="N116:N117"/>
+    <mergeCell ref="O116:O117"/>
+    <mergeCell ref="P116:P117"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:S117"/>
+    <mergeCell ref="T116:T117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="Z119:Z120"/>
+    <mergeCell ref="R122:S122"/>
+    <mergeCell ref="R123:S123"/>
+    <mergeCell ref="R124:S124"/>
+    <mergeCell ref="R125:S125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="T119:T120"/>
+    <mergeCell ref="U119:U120"/>
+    <mergeCell ref="V119:V120"/>
+    <mergeCell ref="W119:W120"/>
+    <mergeCell ref="X119:X120"/>
+    <mergeCell ref="Y119:Y120"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="O119:O120"/>
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="R119:R120"/>
+    <mergeCell ref="S119:S120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="Y126:Y128"/>
+    <mergeCell ref="Z126:Z128"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="S126:S128"/>
+    <mergeCell ref="T126:T128"/>
+    <mergeCell ref="U126:U128"/>
+    <mergeCell ref="V126:V128"/>
+    <mergeCell ref="W126:W128"/>
+    <mergeCell ref="X126:X128"/>
+    <mergeCell ref="M126:M128"/>
+    <mergeCell ref="N126:N128"/>
+    <mergeCell ref="O126:O128"/>
+    <mergeCell ref="P126:P128"/>
+    <mergeCell ref="Q126:Q128"/>
+    <mergeCell ref="R126:R128"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="H126:H128"/>
+    <mergeCell ref="I126:I128"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="L126:L128"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="W131:W132"/>
+    <mergeCell ref="X131:X132"/>
+    <mergeCell ref="Y131:Y132"/>
+    <mergeCell ref="Z131:Z132"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="P131:P132"/>
+    <mergeCell ref="Q131:Q132"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="T131:T132"/>
+    <mergeCell ref="U131:U132"/>
+    <mergeCell ref="V131:V132"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="N131:N132"/>
+    <mergeCell ref="O131:O132"/>
+    <mergeCell ref="Z145:Z146"/>
+    <mergeCell ref="N145:N146"/>
+    <mergeCell ref="O145:O146"/>
+    <mergeCell ref="P145:P146"/>
+    <mergeCell ref="Q145:R145"/>
+    <mergeCell ref="S145:S146"/>
+    <mergeCell ref="T145:T146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="W140:W141"/>
+    <mergeCell ref="X140:X141"/>
+    <mergeCell ref="Y140:Y141"/>
+    <mergeCell ref="Z140:Z141"/>
+    <mergeCell ref="Q140:Q141"/>
+    <mergeCell ref="R140:R141"/>
+    <mergeCell ref="S140:S141"/>
+    <mergeCell ref="T140:T141"/>
+    <mergeCell ref="U140:U141"/>
+    <mergeCell ref="V140:V141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
+    <mergeCell ref="M140:M141"/>
+    <mergeCell ref="N140:N141"/>
+    <mergeCell ref="O140:O141"/>
+    <mergeCell ref="P140:P141"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="T150:U150"/>
+    <mergeCell ref="S152:T152"/>
+    <mergeCell ref="Q154:R154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="U145:U146"/>
+    <mergeCell ref="V145:V146"/>
+    <mergeCell ref="W145:W146"/>
+    <mergeCell ref="X145:X146"/>
+    <mergeCell ref="Y145:Y146"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="S167:T167"/>
+    <mergeCell ref="Q169:R169"/>
+    <mergeCell ref="Q178:R178"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="S182:T182"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="Z155:Z156"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="R160:S160"/>
+    <mergeCell ref="R163:S163"/>
+    <mergeCell ref="R165:S165"/>
+    <mergeCell ref="T155:T156"/>
+    <mergeCell ref="U155:U156"/>
+    <mergeCell ref="V155:V156"/>
+    <mergeCell ref="W155:W156"/>
+    <mergeCell ref="X155:X156"/>
+    <mergeCell ref="Y155:Y156"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="O155:O156"/>
+    <mergeCell ref="P155:P156"/>
+    <mergeCell ref="Q155:Q156"/>
+    <mergeCell ref="R155:R156"/>
+    <mergeCell ref="S155:S156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="Y185:Y186"/>
+    <mergeCell ref="Z185:Z186"/>
+    <mergeCell ref="R187:S187"/>
+    <mergeCell ref="R188:S188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="S185:S186"/>
+    <mergeCell ref="T185:T186"/>
+    <mergeCell ref="U185:U186"/>
+    <mergeCell ref="V185:V186"/>
+    <mergeCell ref="W185:W186"/>
+    <mergeCell ref="X185:X186"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="N185:N186"/>
+    <mergeCell ref="O185:O186"/>
+    <mergeCell ref="P185:P186"/>
+    <mergeCell ref="Q185:Q186"/>
+    <mergeCell ref="R185:R186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="L185:L186"/>
+    <mergeCell ref="K196:K197"/>
+    <mergeCell ref="L196:L197"/>
+    <mergeCell ref="Z189:Z190"/>
+    <mergeCell ref="Q191:R191"/>
+    <mergeCell ref="S192:T192"/>
+    <mergeCell ref="Q193:R193"/>
+    <mergeCell ref="Q194:R194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="T189:T190"/>
+    <mergeCell ref="U189:U190"/>
+    <mergeCell ref="V189:V190"/>
+    <mergeCell ref="W189:W190"/>
+    <mergeCell ref="X189:X190"/>
+    <mergeCell ref="Y189:Y190"/>
+    <mergeCell ref="N189:N190"/>
+    <mergeCell ref="O189:O190"/>
+    <mergeCell ref="P189:P190"/>
+    <mergeCell ref="Q189:Q190"/>
+    <mergeCell ref="R189:R190"/>
+    <mergeCell ref="S189:S190"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="M189:M190"/>
+    <mergeCell ref="Q204:R204"/>
+    <mergeCell ref="S205:T205"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="Q207:R207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="Y196:Y197"/>
+    <mergeCell ref="Z196:Z197"/>
+    <mergeCell ref="R199:S199"/>
+    <mergeCell ref="R200:S200"/>
+    <mergeCell ref="Q201:R201"/>
+    <mergeCell ref="S203:T203"/>
+    <mergeCell ref="S196:S197"/>
+    <mergeCell ref="T196:T197"/>
+    <mergeCell ref="U196:U197"/>
+    <mergeCell ref="V196:V197"/>
+    <mergeCell ref="W196:W197"/>
+    <mergeCell ref="X196:X197"/>
+    <mergeCell ref="M196:M197"/>
+    <mergeCell ref="N196:N197"/>
+    <mergeCell ref="O196:O197"/>
+    <mergeCell ref="P196:P197"/>
+    <mergeCell ref="Q196:Q197"/>
+    <mergeCell ref="R196:R197"/>
+    <mergeCell ref="G196:G197"/>
+    <mergeCell ref="H196:H197"/>
+    <mergeCell ref="I196:I197"/>
+    <mergeCell ref="J196:J197"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="T208:U208"/>
+    <mergeCell ref="V208:V209"/>
+    <mergeCell ref="W208:W209"/>
+    <mergeCell ref="X208:X209"/>
+    <mergeCell ref="Y208:Y209"/>
+    <mergeCell ref="Z208:Z209"/>
+    <mergeCell ref="N208:N209"/>
+    <mergeCell ref="O208:O209"/>
+    <mergeCell ref="P208:P209"/>
+    <mergeCell ref="Q208:Q209"/>
+    <mergeCell ref="R208:R209"/>
+    <mergeCell ref="S208:S209"/>
+    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="I208:I209"/>
+    <mergeCell ref="J208:J209"/>
+    <mergeCell ref="K208:K209"/>
+    <mergeCell ref="L208:L209"/>
+    <mergeCell ref="M208:M209"/>
+    <mergeCell ref="Z211:Z212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="T211:T212"/>
+    <mergeCell ref="U211:U212"/>
+    <mergeCell ref="V211:V212"/>
+    <mergeCell ref="W211:W212"/>
+    <mergeCell ref="X211:X212"/>
+    <mergeCell ref="Y211:Y212"/>
+    <mergeCell ref="N211:N212"/>
+    <mergeCell ref="O211:O212"/>
+    <mergeCell ref="P211:P212"/>
+    <mergeCell ref="Q211:Q212"/>
+    <mergeCell ref="R211:R212"/>
+    <mergeCell ref="S211:S212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="I211:I212"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="L211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="W213:W214"/>
+    <mergeCell ref="X213:X214"/>
+    <mergeCell ref="Y213:Y214"/>
+    <mergeCell ref="Z213:Z214"/>
+    <mergeCell ref="Q215:R215"/>
+    <mergeCell ref="R216:S216"/>
+    <mergeCell ref="Q213:Q214"/>
+    <mergeCell ref="R213:R214"/>
+    <mergeCell ref="S213:S214"/>
+    <mergeCell ref="T213:T214"/>
+    <mergeCell ref="U213:U214"/>
+    <mergeCell ref="V213:V214"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="M213:M214"/>
+    <mergeCell ref="N213:N214"/>
+    <mergeCell ref="O213:O214"/>
+    <mergeCell ref="P213:P214"/>
+    <mergeCell ref="Z219:Z220"/>
+    <mergeCell ref="Q221:R221"/>
+    <mergeCell ref="T223:U223"/>
+    <mergeCell ref="S225:T225"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="T219:T220"/>
+    <mergeCell ref="U219:U220"/>
+    <mergeCell ref="V219:V220"/>
+    <mergeCell ref="W219:W220"/>
+    <mergeCell ref="X219:X220"/>
+    <mergeCell ref="Y219:Y220"/>
+    <mergeCell ref="N219:N220"/>
+    <mergeCell ref="O219:O220"/>
+    <mergeCell ref="P219:P220"/>
+    <mergeCell ref="Q219:Q220"/>
+    <mergeCell ref="R219:R220"/>
+    <mergeCell ref="S219:S220"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="L219:L220"/>
+    <mergeCell ref="M219:M220"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="Z227:Z228"/>
+    <mergeCell ref="R230:S230"/>
+    <mergeCell ref="R231:S231"/>
+    <mergeCell ref="R237:S237"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="F239:F240"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="T227:T228"/>
+    <mergeCell ref="U227:U228"/>
+    <mergeCell ref="V227:V228"/>
+    <mergeCell ref="W227:W228"/>
+    <mergeCell ref="X227:X228"/>
+    <mergeCell ref="Y227:Y228"/>
+    <mergeCell ref="N227:N228"/>
+    <mergeCell ref="O227:O228"/>
+    <mergeCell ref="P227:P228"/>
+    <mergeCell ref="Q227:Q228"/>
+    <mergeCell ref="R227:R228"/>
+    <mergeCell ref="S227:S228"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="I227:I228"/>
+    <mergeCell ref="J227:J228"/>
+    <mergeCell ref="K227:K228"/>
+    <mergeCell ref="L227:L228"/>
+    <mergeCell ref="M227:M228"/>
+    <mergeCell ref="Z239:Z240"/>
+    <mergeCell ref="Q241:R241"/>
+    <mergeCell ref="Q242:R242"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="G243:G244"/>
+    <mergeCell ref="H243:H244"/>
+    <mergeCell ref="T239:T240"/>
+    <mergeCell ref="U239:U240"/>
+    <mergeCell ref="V239:V240"/>
+    <mergeCell ref="W239:W240"/>
+    <mergeCell ref="X239:X240"/>
+    <mergeCell ref="Y239:Y240"/>
+    <mergeCell ref="N239:N240"/>
+    <mergeCell ref="O239:O240"/>
+    <mergeCell ref="P239:P240"/>
+    <mergeCell ref="Q239:Q240"/>
+    <mergeCell ref="R239:R240"/>
+    <mergeCell ref="S239:S240"/>
+    <mergeCell ref="H239:H240"/>
+    <mergeCell ref="I239:I240"/>
+    <mergeCell ref="J239:J240"/>
+    <mergeCell ref="K239:K240"/>
+    <mergeCell ref="L239:L240"/>
+    <mergeCell ref="M239:M240"/>
+    <mergeCell ref="U243:U244"/>
+    <mergeCell ref="V243:V244"/>
+    <mergeCell ref="W243:W244"/>
+    <mergeCell ref="X243:X244"/>
+    <mergeCell ref="Y243:Y244"/>
+    <mergeCell ref="Z243:Z244"/>
+    <mergeCell ref="O243:O244"/>
+    <mergeCell ref="P243:P244"/>
+    <mergeCell ref="Q243:Q244"/>
+    <mergeCell ref="R243:R244"/>
+    <mergeCell ref="S243:S244"/>
+    <mergeCell ref="T243:T244"/>
+    <mergeCell ref="I243:I244"/>
+    <mergeCell ref="J243:J244"/>
+    <mergeCell ref="K243:K244"/>
+    <mergeCell ref="L243:L244"/>
+    <mergeCell ref="M243:M244"/>
+    <mergeCell ref="N243:N244"/>
+    <mergeCell ref="P259:P260"/>
+    <mergeCell ref="Q259:Q260"/>
+    <mergeCell ref="R259:R260"/>
+    <mergeCell ref="G259:G260"/>
+    <mergeCell ref="H259:H260"/>
+    <mergeCell ref="I259:I260"/>
+    <mergeCell ref="J259:J260"/>
+    <mergeCell ref="K259:K260"/>
+    <mergeCell ref="L259:L260"/>
+    <mergeCell ref="R245:S245"/>
+    <mergeCell ref="Q249:R249"/>
+    <mergeCell ref="Q253:R253"/>
+    <mergeCell ref="R254:S254"/>
+    <mergeCell ref="R257:S257"/>
+    <mergeCell ref="W259:W260"/>
+    <mergeCell ref="X259:X260"/>
+    <mergeCell ref="M259:M260"/>
+    <mergeCell ref="N259:N260"/>
+    <mergeCell ref="O259:O260"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="F259:F260"/>
+    <mergeCell ref="Z263:Z264"/>
+    <mergeCell ref="O263:O264"/>
+    <mergeCell ref="P263:P264"/>
+    <mergeCell ref="Q263:Q264"/>
+    <mergeCell ref="R263:R264"/>
+    <mergeCell ref="S263:S264"/>
+    <mergeCell ref="T263:T264"/>
+    <mergeCell ref="I263:I264"/>
+    <mergeCell ref="J263:J264"/>
+    <mergeCell ref="K263:K264"/>
+    <mergeCell ref="L263:L264"/>
+    <mergeCell ref="M263:M264"/>
+    <mergeCell ref="N263:N264"/>
+    <mergeCell ref="Y259:Y260"/>
+    <mergeCell ref="Z259:Z260"/>
+    <mergeCell ref="S261:T261"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="F263:F264"/>
+    <mergeCell ref="G263:G264"/>
+    <mergeCell ref="H263:H264"/>
+    <mergeCell ref="S259:S260"/>
+    <mergeCell ref="T259:T260"/>
+    <mergeCell ref="U259:U260"/>
+    <mergeCell ref="V259:V260"/>
+    <mergeCell ref="K278:K279"/>
+    <mergeCell ref="L278:L279"/>
+    <mergeCell ref="S269:T269"/>
+    <mergeCell ref="Q270:R270"/>
+    <mergeCell ref="R271:S271"/>
+    <mergeCell ref="S272:T272"/>
+    <mergeCell ref="Q275:R275"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="F278:F279"/>
+    <mergeCell ref="U263:U264"/>
+    <mergeCell ref="V263:V264"/>
+    <mergeCell ref="W263:W264"/>
+    <mergeCell ref="X263:X264"/>
+    <mergeCell ref="Y263:Y264"/>
+    <mergeCell ref="Q287:R287"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="G289:G290"/>
+    <mergeCell ref="H289:H290"/>
+    <mergeCell ref="I289:I290"/>
+    <mergeCell ref="J289:J290"/>
+    <mergeCell ref="Y278:Y279"/>
+    <mergeCell ref="Z278:Z279"/>
+    <mergeCell ref="Q281:R281"/>
+    <mergeCell ref="Q283:R283"/>
+    <mergeCell ref="R284:S284"/>
+    <mergeCell ref="Q286:R286"/>
+    <mergeCell ref="S278:S279"/>
+    <mergeCell ref="T278:T279"/>
+    <mergeCell ref="U278:U279"/>
+    <mergeCell ref="V278:V279"/>
+    <mergeCell ref="W278:W279"/>
+    <mergeCell ref="X278:X279"/>
+    <mergeCell ref="M278:M279"/>
+    <mergeCell ref="N278:N279"/>
+    <mergeCell ref="O278:O279"/>
+    <mergeCell ref="P278:P279"/>
+    <mergeCell ref="Q278:Q279"/>
+    <mergeCell ref="R278:R279"/>
+    <mergeCell ref="G278:G279"/>
+    <mergeCell ref="H278:H279"/>
+    <mergeCell ref="I278:I279"/>
+    <mergeCell ref="J278:J279"/>
+    <mergeCell ref="W289:W290"/>
+    <mergeCell ref="X289:X290"/>
+    <mergeCell ref="Y289:Y290"/>
+    <mergeCell ref="Z289:Z290"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="F298:F299"/>
+    <mergeCell ref="G298:G299"/>
+    <mergeCell ref="Q289:Q290"/>
+    <mergeCell ref="R289:R290"/>
+    <mergeCell ref="S289:S290"/>
+    <mergeCell ref="T289:T290"/>
+    <mergeCell ref="U289:U290"/>
+    <mergeCell ref="V289:V290"/>
+    <mergeCell ref="K289:K290"/>
+    <mergeCell ref="L289:L290"/>
+    <mergeCell ref="M289:M290"/>
+    <mergeCell ref="N289:N290"/>
+    <mergeCell ref="O289:O290"/>
+    <mergeCell ref="P289:P290"/>
+    <mergeCell ref="Z298:Z299"/>
+    <mergeCell ref="T298:T299"/>
+    <mergeCell ref="U298:U299"/>
+    <mergeCell ref="V298:V299"/>
+    <mergeCell ref="W298:W299"/>
+    <mergeCell ref="X298:X299"/>
+    <mergeCell ref="Y298:Y299"/>
+    <mergeCell ref="N298:N299"/>
+    <mergeCell ref="O298:O299"/>
+    <mergeCell ref="P298:P299"/>
+    <mergeCell ref="Q298:Q299"/>
+    <mergeCell ref="R298:R299"/>
+    <mergeCell ref="S298:S299"/>
+    <mergeCell ref="H298:H299"/>
+    <mergeCell ref="I298:I299"/>
+    <mergeCell ref="J298:J299"/>
+    <mergeCell ref="K298:K299"/>
+    <mergeCell ref="L298:L299"/>
+    <mergeCell ref="M298:M299"/>
+    <mergeCell ref="Z304:Z305"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="F307:F308"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="H307:H308"/>
+    <mergeCell ref="Q304:Q305"/>
+    <mergeCell ref="R304:S304"/>
+    <mergeCell ref="T304:T305"/>
+    <mergeCell ref="U304:U305"/>
+    <mergeCell ref="V304:V305"/>
+    <mergeCell ref="W304:W305"/>
+    <mergeCell ref="K304:K305"/>
+    <mergeCell ref="L304:L305"/>
+    <mergeCell ref="M304:M305"/>
+    <mergeCell ref="N304:N305"/>
+    <mergeCell ref="O304:O305"/>
+    <mergeCell ref="P304:P305"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="F304:F305"/>
+    <mergeCell ref="G304:G305"/>
+    <mergeCell ref="H304:H305"/>
+    <mergeCell ref="I304:I305"/>
+    <mergeCell ref="J304:J305"/>
+    <mergeCell ref="X304:X305"/>
+    <mergeCell ref="Y304:Y305"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="D312:D313"/>
+    <mergeCell ref="W316:W317"/>
+    <mergeCell ref="F312:F313"/>
+    <mergeCell ref="G312:G313"/>
+    <mergeCell ref="U307:U308"/>
+    <mergeCell ref="V307:V308"/>
+    <mergeCell ref="W307:W308"/>
+    <mergeCell ref="X307:X308"/>
+    <mergeCell ref="Y307:Y308"/>
+    <mergeCell ref="Z307:Z308"/>
+    <mergeCell ref="O307:O308"/>
+    <mergeCell ref="P307:P308"/>
+    <mergeCell ref="Q307:Q308"/>
+    <mergeCell ref="R307:R308"/>
+    <mergeCell ref="S307:S308"/>
+    <mergeCell ref="T307:T308"/>
+    <mergeCell ref="I307:I308"/>
+    <mergeCell ref="J307:J308"/>
+    <mergeCell ref="K307:K308"/>
+    <mergeCell ref="L307:L308"/>
+    <mergeCell ref="M307:M308"/>
+    <mergeCell ref="N307:N308"/>
+    <mergeCell ref="Z312:Z313"/>
+    <mergeCell ref="T312:T313"/>
+    <mergeCell ref="U312:U313"/>
+    <mergeCell ref="V312:V313"/>
+    <mergeCell ref="W312:W313"/>
+    <mergeCell ref="X312:X313"/>
+    <mergeCell ref="Y312:Y313"/>
+    <mergeCell ref="N312:N313"/>
+    <mergeCell ref="O312:O313"/>
+    <mergeCell ref="P312:P313"/>
+    <mergeCell ref="Q312:Q313"/>
+    <mergeCell ref="R312:R313"/>
+    <mergeCell ref="S312:S313"/>
+    <mergeCell ref="H312:H313"/>
+    <mergeCell ref="I312:I313"/>
+    <mergeCell ref="J312:J313"/>
+    <mergeCell ref="K312:K313"/>
+    <mergeCell ref="L312:L313"/>
+    <mergeCell ref="M312:M313"/>
+    <mergeCell ref="X316:X317"/>
+    <mergeCell ref="Y316:Y317"/>
+    <mergeCell ref="Z316:Z317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="D318:D319"/>
+    <mergeCell ref="F318:F319"/>
+    <mergeCell ref="G318:G319"/>
+    <mergeCell ref="Q316:Q317"/>
+    <mergeCell ref="R316:R317"/>
+    <mergeCell ref="S316:S317"/>
+    <mergeCell ref="T316:T317"/>
+    <mergeCell ref="U316:U317"/>
+    <mergeCell ref="V316:V317"/>
+    <mergeCell ref="K316:K317"/>
+    <mergeCell ref="L316:L317"/>
+    <mergeCell ref="M316:M317"/>
+    <mergeCell ref="N316:N317"/>
+    <mergeCell ref="O316:O317"/>
+    <mergeCell ref="P316:P317"/>
+    <mergeCell ref="Z318:Z319"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="F316:F317"/>
+    <mergeCell ref="G316:G317"/>
+    <mergeCell ref="H316:H317"/>
+    <mergeCell ref="I316:I317"/>
+    <mergeCell ref="J316:J317"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="F322:F323"/>
+    <mergeCell ref="G322:G323"/>
+    <mergeCell ref="H322:H323"/>
+    <mergeCell ref="I322:I323"/>
+    <mergeCell ref="J322:J323"/>
+    <mergeCell ref="T318:T319"/>
+    <mergeCell ref="U318:U319"/>
+    <mergeCell ref="V318:V319"/>
+    <mergeCell ref="W318:W319"/>
+    <mergeCell ref="X318:X319"/>
+    <mergeCell ref="Y318:Y319"/>
+    <mergeCell ref="N318:N319"/>
+    <mergeCell ref="O318:O319"/>
+    <mergeCell ref="P318:P319"/>
+    <mergeCell ref="Q318:Q319"/>
+    <mergeCell ref="R318:R319"/>
+    <mergeCell ref="S318:S319"/>
+    <mergeCell ref="H318:H319"/>
+    <mergeCell ref="I318:I319"/>
+    <mergeCell ref="J318:J319"/>
+    <mergeCell ref="K318:K319"/>
+    <mergeCell ref="L318:L319"/>
+    <mergeCell ref="M318:M319"/>
+    <mergeCell ref="F332:F334"/>
+    <mergeCell ref="G332:G334"/>
+    <mergeCell ref="W322:W323"/>
+    <mergeCell ref="X322:X323"/>
+    <mergeCell ref="Y322:Y323"/>
+    <mergeCell ref="Z322:Z323"/>
+    <mergeCell ref="Q324:R324"/>
+    <mergeCell ref="R325:S325"/>
+    <mergeCell ref="Q322:Q323"/>
+    <mergeCell ref="R322:R323"/>
+    <mergeCell ref="S322:S323"/>
+    <mergeCell ref="T322:T323"/>
+    <mergeCell ref="U322:U323"/>
+    <mergeCell ref="V322:V323"/>
+    <mergeCell ref="K322:K323"/>
+    <mergeCell ref="L322:L323"/>
+    <mergeCell ref="M322:M323"/>
+    <mergeCell ref="N322:N323"/>
+    <mergeCell ref="O322:O323"/>
+    <mergeCell ref="P322:P323"/>
+    <mergeCell ref="R342:S342"/>
+    <mergeCell ref="Q343:R343"/>
+    <mergeCell ref="Q344:R344"/>
+    <mergeCell ref="R347:S347"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="C348:C349"/>
+    <mergeCell ref="D348:D349"/>
+    <mergeCell ref="F348:F349"/>
+    <mergeCell ref="G348:G349"/>
+    <mergeCell ref="U332:U334"/>
+    <mergeCell ref="V332:V334"/>
+    <mergeCell ref="W332:W334"/>
+    <mergeCell ref="X332:X334"/>
+    <mergeCell ref="Y332:Y334"/>
+    <mergeCell ref="Z332:Z334"/>
+    <mergeCell ref="N332:N334"/>
+    <mergeCell ref="O332:O334"/>
+    <mergeCell ref="P332:P334"/>
+    <mergeCell ref="Q332:Q334"/>
+    <mergeCell ref="R332:S332"/>
+    <mergeCell ref="T332:T334"/>
+    <mergeCell ref="H332:H334"/>
+    <mergeCell ref="I332:I334"/>
+    <mergeCell ref="J332:J334"/>
+    <mergeCell ref="K332:K334"/>
+    <mergeCell ref="L332:L334"/>
+    <mergeCell ref="M332:M334"/>
+    <mergeCell ref="A332:A334"/>
+    <mergeCell ref="B332:B334"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="D332:D334"/>
+    <mergeCell ref="L359:L360"/>
+    <mergeCell ref="M359:M360"/>
+    <mergeCell ref="Z348:Z349"/>
+    <mergeCell ref="Q350:R350"/>
+    <mergeCell ref="R351:S351"/>
+    <mergeCell ref="Q355:R355"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="D359:D360"/>
+    <mergeCell ref="F359:F360"/>
+    <mergeCell ref="G359:G360"/>
+    <mergeCell ref="T348:T349"/>
+    <mergeCell ref="U348:U349"/>
+    <mergeCell ref="V348:V349"/>
+    <mergeCell ref="W348:W349"/>
+    <mergeCell ref="X348:X349"/>
+    <mergeCell ref="Y348:Y349"/>
+    <mergeCell ref="N348:N349"/>
+    <mergeCell ref="O348:O349"/>
+    <mergeCell ref="P348:P349"/>
+    <mergeCell ref="Q348:Q349"/>
+    <mergeCell ref="R348:R349"/>
+    <mergeCell ref="S348:S349"/>
+    <mergeCell ref="H348:H349"/>
+    <mergeCell ref="I348:I349"/>
+    <mergeCell ref="J348:J349"/>
+    <mergeCell ref="K348:K349"/>
+    <mergeCell ref="L348:L349"/>
+    <mergeCell ref="M348:M349"/>
+    <mergeCell ref="Q371:R371"/>
+    <mergeCell ref="R373:S373"/>
+    <mergeCell ref="A376:A378"/>
+    <mergeCell ref="B376:B378"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="D376:D378"/>
+    <mergeCell ref="F376:F378"/>
+    <mergeCell ref="G376:G378"/>
+    <mergeCell ref="H376:H378"/>
+    <mergeCell ref="I376:I378"/>
+    <mergeCell ref="Z359:Z360"/>
+    <mergeCell ref="T361:U361"/>
+    <mergeCell ref="T364:U364"/>
+    <mergeCell ref="Q366:R366"/>
+    <mergeCell ref="S367:T367"/>
+    <mergeCell ref="Q368:R368"/>
+    <mergeCell ref="T359:T360"/>
+    <mergeCell ref="U359:U360"/>
+    <mergeCell ref="V359:V360"/>
+    <mergeCell ref="W359:W360"/>
+    <mergeCell ref="X359:X360"/>
+    <mergeCell ref="Y359:Y360"/>
+    <mergeCell ref="N359:N360"/>
+    <mergeCell ref="O359:O360"/>
+    <mergeCell ref="P359:P360"/>
+    <mergeCell ref="Q359:Q360"/>
+    <mergeCell ref="R359:R360"/>
+    <mergeCell ref="S359:S360"/>
+    <mergeCell ref="H359:H360"/>
+    <mergeCell ref="I359:I360"/>
+    <mergeCell ref="J359:J360"/>
+    <mergeCell ref="K359:K360"/>
+    <mergeCell ref="R381:S381"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="F382:F383"/>
+    <mergeCell ref="G382:G383"/>
+    <mergeCell ref="H382:H383"/>
+    <mergeCell ref="I382:I383"/>
+    <mergeCell ref="J382:J383"/>
+    <mergeCell ref="V376:V378"/>
+    <mergeCell ref="W376:W378"/>
+    <mergeCell ref="X376:X378"/>
+    <mergeCell ref="Y376:Y378"/>
+    <mergeCell ref="Z376:Z378"/>
+    <mergeCell ref="S379:T379"/>
+    <mergeCell ref="P376:P378"/>
+    <mergeCell ref="Q376:Q378"/>
+    <mergeCell ref="R376:R378"/>
+    <mergeCell ref="S376:S378"/>
+    <mergeCell ref="T376:T378"/>
+    <mergeCell ref="U376:U378"/>
+    <mergeCell ref="J376:J378"/>
+    <mergeCell ref="K376:K378"/>
+    <mergeCell ref="L376:L378"/>
+    <mergeCell ref="M376:M378"/>
+    <mergeCell ref="N376:N378"/>
+    <mergeCell ref="O376:O378"/>
+    <mergeCell ref="B389:B390"/>
+    <mergeCell ref="C389:C390"/>
+    <mergeCell ref="D389:D390"/>
+    <mergeCell ref="F389:F390"/>
+    <mergeCell ref="G389:G390"/>
+    <mergeCell ref="W382:W383"/>
+    <mergeCell ref="X382:X383"/>
+    <mergeCell ref="Y382:Y383"/>
+    <mergeCell ref="Z382:Z383"/>
+    <mergeCell ref="R384:S384"/>
+    <mergeCell ref="R388:S388"/>
+    <mergeCell ref="Q382:Q383"/>
+    <mergeCell ref="R382:R383"/>
+    <mergeCell ref="S382:S383"/>
+    <mergeCell ref="T382:T383"/>
+    <mergeCell ref="U382:U383"/>
+    <mergeCell ref="V382:V383"/>
+    <mergeCell ref="K382:K383"/>
+    <mergeCell ref="L382:L383"/>
+    <mergeCell ref="M382:M383"/>
+    <mergeCell ref="N382:N383"/>
+    <mergeCell ref="O382:O383"/>
+    <mergeCell ref="P382:P383"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="C415:C416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="F415:F416"/>
+    <mergeCell ref="G415:G416"/>
+    <mergeCell ref="Z389:Z390"/>
+    <mergeCell ref="Q395:R395"/>
+    <mergeCell ref="R399:S399"/>
+    <mergeCell ref="R402:S402"/>
+    <mergeCell ref="R410:S410"/>
+    <mergeCell ref="Q411:R411"/>
+    <mergeCell ref="T389:T390"/>
+    <mergeCell ref="U389:U390"/>
+    <mergeCell ref="V389:V390"/>
+    <mergeCell ref="W389:W390"/>
+    <mergeCell ref="X389:X390"/>
+    <mergeCell ref="Y389:Y390"/>
+    <mergeCell ref="N389:N390"/>
+    <mergeCell ref="O389:O390"/>
+    <mergeCell ref="P389:P390"/>
+    <mergeCell ref="Q389:Q390"/>
+    <mergeCell ref="R389:R390"/>
+    <mergeCell ref="S389:S390"/>
+    <mergeCell ref="H389:H390"/>
+    <mergeCell ref="I389:I390"/>
+    <mergeCell ref="J389:J390"/>
+    <mergeCell ref="K389:K390"/>
+    <mergeCell ref="L389:L390"/>
+    <mergeCell ref="M389:M390"/>
+    <mergeCell ref="Z415:Z416"/>
+    <mergeCell ref="A389:A390"/>
+    <mergeCell ref="F417:F418"/>
+    <mergeCell ref="G417:G418"/>
+    <mergeCell ref="H417:H418"/>
+    <mergeCell ref="I417:I418"/>
+    <mergeCell ref="J417:J418"/>
+    <mergeCell ref="T415:T416"/>
+    <mergeCell ref="U415:U416"/>
+    <mergeCell ref="V415:V416"/>
+    <mergeCell ref="W415:W416"/>
+    <mergeCell ref="X415:X416"/>
+    <mergeCell ref="Y415:Y416"/>
+    <mergeCell ref="N415:N416"/>
+    <mergeCell ref="O415:O416"/>
+    <mergeCell ref="P415:P416"/>
+    <mergeCell ref="Q415:Q416"/>
+    <mergeCell ref="R415:R416"/>
+    <mergeCell ref="S415:S416"/>
+    <mergeCell ref="H415:H416"/>
+    <mergeCell ref="I415:I416"/>
+    <mergeCell ref="J415:J416"/>
+    <mergeCell ref="K415:K416"/>
+    <mergeCell ref="L415:L416"/>
+    <mergeCell ref="M415:M416"/>
+    <mergeCell ref="Q428:R428"/>
+    <mergeCell ref="Q430:R430"/>
+    <mergeCell ref="R431:S431"/>
+    <mergeCell ref="S434:T434"/>
+    <mergeCell ref="A437:A438"/>
+    <mergeCell ref="B437:B438"/>
+    <mergeCell ref="C437:C438"/>
+    <mergeCell ref="D437:D438"/>
+    <mergeCell ref="F437:F438"/>
+    <mergeCell ref="G437:G438"/>
+    <mergeCell ref="X417:X418"/>
+    <mergeCell ref="Y417:Y418"/>
+    <mergeCell ref="Z417:Z418"/>
+    <mergeCell ref="Q420:R420"/>
+    <mergeCell ref="Q422:R422"/>
+    <mergeCell ref="Q424:R424"/>
+    <mergeCell ref="Q417:Q418"/>
+    <mergeCell ref="R417:S417"/>
+    <mergeCell ref="T417:T418"/>
+    <mergeCell ref="U417:U418"/>
+    <mergeCell ref="V417:V418"/>
+    <mergeCell ref="W417:W418"/>
+    <mergeCell ref="K417:K418"/>
+    <mergeCell ref="L417:L418"/>
+    <mergeCell ref="M417:M418"/>
+    <mergeCell ref="N417:N418"/>
+    <mergeCell ref="O417:O418"/>
+    <mergeCell ref="P417:P418"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="C417:C418"/>
+    <mergeCell ref="D417:D418"/>
+    <mergeCell ref="R439:S439"/>
+    <mergeCell ref="A440:A441"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="D440:D441"/>
+    <mergeCell ref="F440:F441"/>
+    <mergeCell ref="G440:G441"/>
+    <mergeCell ref="H440:H441"/>
+    <mergeCell ref="I440:I441"/>
+    <mergeCell ref="J440:J441"/>
+    <mergeCell ref="U437:U438"/>
+    <mergeCell ref="V437:V438"/>
+    <mergeCell ref="W437:W438"/>
+    <mergeCell ref="X437:X438"/>
+    <mergeCell ref="Y437:Y438"/>
+    <mergeCell ref="Z437:Z438"/>
+    <mergeCell ref="N437:N438"/>
+    <mergeCell ref="O437:O438"/>
+    <mergeCell ref="P437:P438"/>
+    <mergeCell ref="Q437:R437"/>
+    <mergeCell ref="S437:S438"/>
+    <mergeCell ref="T437:T438"/>
+    <mergeCell ref="H437:H438"/>
+    <mergeCell ref="I437:I438"/>
+    <mergeCell ref="J437:J438"/>
+    <mergeCell ref="K437:K438"/>
+    <mergeCell ref="L437:L438"/>
+    <mergeCell ref="M437:M438"/>
+    <mergeCell ref="Q447:R447"/>
+    <mergeCell ref="Q450:R450"/>
+    <mergeCell ref="A458:A459"/>
+    <mergeCell ref="B458:B459"/>
+    <mergeCell ref="C458:C459"/>
+    <mergeCell ref="D458:D459"/>
+    <mergeCell ref="F458:F459"/>
+    <mergeCell ref="G458:G459"/>
+    <mergeCell ref="H458:H459"/>
+    <mergeCell ref="I458:I459"/>
+    <mergeCell ref="W440:W441"/>
+    <mergeCell ref="X440:X441"/>
+    <mergeCell ref="Y440:Y441"/>
+    <mergeCell ref="Z440:Z441"/>
+    <mergeCell ref="R444:S444"/>
+    <mergeCell ref="R446:S446"/>
+    <mergeCell ref="Q440:Q441"/>
+    <mergeCell ref="R440:R441"/>
+    <mergeCell ref="S440:S441"/>
+    <mergeCell ref="T440:T441"/>
+    <mergeCell ref="U440:U441"/>
+    <mergeCell ref="V440:V441"/>
+    <mergeCell ref="K440:K441"/>
+    <mergeCell ref="L440:L441"/>
+    <mergeCell ref="M440:M441"/>
+    <mergeCell ref="N440:N441"/>
+    <mergeCell ref="O440:O441"/>
+    <mergeCell ref="P440:P441"/>
+    <mergeCell ref="K460:K461"/>
+    <mergeCell ref="L460:L461"/>
+    <mergeCell ref="V458:V459"/>
+    <mergeCell ref="W458:W459"/>
+    <mergeCell ref="X458:X459"/>
+    <mergeCell ref="Y458:Y459"/>
+    <mergeCell ref="Z458:Z459"/>
+    <mergeCell ref="A460:A461"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="F460:F461"/>
+    <mergeCell ref="P458:P459"/>
+    <mergeCell ref="Q458:Q459"/>
+    <mergeCell ref="R458:R459"/>
+    <mergeCell ref="S458:S459"/>
+    <mergeCell ref="T458:T459"/>
+    <mergeCell ref="U458:U459"/>
+    <mergeCell ref="J458:J459"/>
+    <mergeCell ref="K458:K459"/>
+    <mergeCell ref="L458:L459"/>
+    <mergeCell ref="M458:M459"/>
+    <mergeCell ref="N458:N459"/>
+    <mergeCell ref="O458:O459"/>
+    <mergeCell ref="R466:S466"/>
+    <mergeCell ref="Q468:R468"/>
+    <mergeCell ref="Q472:R472"/>
+    <mergeCell ref="R473:S473"/>
+    <mergeCell ref="A476:A478"/>
+    <mergeCell ref="B476:B478"/>
+    <mergeCell ref="C476:C478"/>
+    <mergeCell ref="D476:D478"/>
+    <mergeCell ref="F476:F478"/>
+    <mergeCell ref="G476:G478"/>
+    <mergeCell ref="Y460:Y461"/>
+    <mergeCell ref="Z460:Z461"/>
+    <mergeCell ref="S462:T462"/>
+    <mergeCell ref="R463:S463"/>
+    <mergeCell ref="Q464:R464"/>
+    <mergeCell ref="R465:S465"/>
+    <mergeCell ref="S460:S461"/>
+    <mergeCell ref="T460:T461"/>
+    <mergeCell ref="U460:U461"/>
+    <mergeCell ref="V460:V461"/>
+    <mergeCell ref="W460:W461"/>
+    <mergeCell ref="X460:X461"/>
+    <mergeCell ref="M460:M461"/>
+    <mergeCell ref="N460:N461"/>
+    <mergeCell ref="O460:O461"/>
+    <mergeCell ref="P460:P461"/>
+    <mergeCell ref="Q460:Q461"/>
+    <mergeCell ref="R460:R461"/>
+    <mergeCell ref="G460:G461"/>
+    <mergeCell ref="H460:H461"/>
+    <mergeCell ref="I460:I461"/>
+    <mergeCell ref="J460:J461"/>
+    <mergeCell ref="Z476:Z478"/>
+    <mergeCell ref="Q479:R479"/>
+    <mergeCell ref="Q483:R483"/>
+    <mergeCell ref="Q485:R485"/>
+    <mergeCell ref="S486:T486"/>
+    <mergeCell ref="A488:A489"/>
+    <mergeCell ref="B488:B489"/>
+    <mergeCell ref="C488:C489"/>
+    <mergeCell ref="D488:D489"/>
+    <mergeCell ref="F488:F489"/>
+    <mergeCell ref="T476:T478"/>
+    <mergeCell ref="U476:U478"/>
+    <mergeCell ref="V476:V478"/>
+    <mergeCell ref="W476:W478"/>
+    <mergeCell ref="X476:X478"/>
+    <mergeCell ref="Y476:Y478"/>
+    <mergeCell ref="N476:N478"/>
+    <mergeCell ref="O476:O478"/>
+    <mergeCell ref="P476:P478"/>
+    <mergeCell ref="Q476:Q478"/>
+    <mergeCell ref="R476:R478"/>
+    <mergeCell ref="S476:S478"/>
+    <mergeCell ref="H476:H478"/>
+    <mergeCell ref="I476:I478"/>
+    <mergeCell ref="J476:J478"/>
+    <mergeCell ref="K476:K478"/>
+    <mergeCell ref="L476:L478"/>
+    <mergeCell ref="M476:M478"/>
+    <mergeCell ref="Y488:Y489"/>
+    <mergeCell ref="Z488:Z489"/>
+    <mergeCell ref="F490:F491"/>
+    <mergeCell ref="G490:G491"/>
+    <mergeCell ref="H490:H491"/>
+    <mergeCell ref="I490:I491"/>
+    <mergeCell ref="S488:S489"/>
+    <mergeCell ref="T488:T489"/>
+    <mergeCell ref="U488:U489"/>
+    <mergeCell ref="V488:V489"/>
+    <mergeCell ref="W488:W489"/>
+    <mergeCell ref="X488:X489"/>
+    <mergeCell ref="M488:M489"/>
+    <mergeCell ref="N488:N489"/>
+    <mergeCell ref="O488:O489"/>
+    <mergeCell ref="P488:P489"/>
+    <mergeCell ref="Q488:Q489"/>
+    <mergeCell ref="R488:R489"/>
+    <mergeCell ref="G488:G489"/>
+    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="I488:I489"/>
+    <mergeCell ref="J488:J489"/>
+    <mergeCell ref="K488:K489"/>
+    <mergeCell ref="L488:L489"/>
+    <mergeCell ref="Q497:R497"/>
+    <mergeCell ref="R498:S498"/>
+    <mergeCell ref="A499:A500"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="C499:C500"/>
+    <mergeCell ref="D499:D500"/>
+    <mergeCell ref="F499:F500"/>
+    <mergeCell ref="G499:G500"/>
+    <mergeCell ref="H499:H500"/>
+    <mergeCell ref="I499:I500"/>
+    <mergeCell ref="V490:V491"/>
+    <mergeCell ref="W490:W491"/>
+    <mergeCell ref="X490:X491"/>
+    <mergeCell ref="Y490:Y491"/>
+    <mergeCell ref="Z490:Z491"/>
+    <mergeCell ref="S492:T492"/>
+    <mergeCell ref="P490:P491"/>
+    <mergeCell ref="Q490:Q491"/>
+    <mergeCell ref="R490:R491"/>
+    <mergeCell ref="S490:S491"/>
+    <mergeCell ref="T490:T491"/>
+    <mergeCell ref="U490:U491"/>
+    <mergeCell ref="J490:J491"/>
+    <mergeCell ref="K490:K491"/>
+    <mergeCell ref="L490:L491"/>
+    <mergeCell ref="M490:M491"/>
+    <mergeCell ref="N490:N491"/>
+    <mergeCell ref="O490:O491"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="B490:B491"/>
+    <mergeCell ref="C490:C491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="F503:F504"/>
+    <mergeCell ref="G503:G504"/>
+    <mergeCell ref="W499:W500"/>
+    <mergeCell ref="X499:X500"/>
+    <mergeCell ref="Y499:Y500"/>
+    <mergeCell ref="Z499:Z500"/>
+    <mergeCell ref="R501:S501"/>
+    <mergeCell ref="Q502:R502"/>
+    <mergeCell ref="P499:P500"/>
+    <mergeCell ref="Q499:Q500"/>
+    <mergeCell ref="R499:S499"/>
+    <mergeCell ref="T499:T500"/>
+    <mergeCell ref="U499:U500"/>
+    <mergeCell ref="V499:V500"/>
+    <mergeCell ref="J499:J500"/>
+    <mergeCell ref="K499:K500"/>
+    <mergeCell ref="L499:L500"/>
+    <mergeCell ref="M499:M500"/>
+    <mergeCell ref="N499:N500"/>
+    <mergeCell ref="O499:O500"/>
+    <mergeCell ref="R509:S509"/>
+    <mergeCell ref="Q515:R515"/>
+    <mergeCell ref="Q516:R516"/>
+    <mergeCell ref="A520:A521"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="C520:C521"/>
+    <mergeCell ref="D520:D521"/>
+    <mergeCell ref="F520:F521"/>
+    <mergeCell ref="G520:G521"/>
+    <mergeCell ref="H520:H521"/>
+    <mergeCell ref="U503:U504"/>
+    <mergeCell ref="V503:V504"/>
+    <mergeCell ref="W503:W504"/>
+    <mergeCell ref="X503:X504"/>
+    <mergeCell ref="Y503:Y504"/>
+    <mergeCell ref="Z503:Z504"/>
+    <mergeCell ref="N503:N504"/>
+    <mergeCell ref="O503:O504"/>
+    <mergeCell ref="P503:P504"/>
+    <mergeCell ref="Q503:R503"/>
+    <mergeCell ref="S503:S504"/>
+    <mergeCell ref="T503:T504"/>
+    <mergeCell ref="H503:H504"/>
+    <mergeCell ref="I503:I504"/>
+    <mergeCell ref="J503:J504"/>
+    <mergeCell ref="K503:K504"/>
+    <mergeCell ref="L503:L504"/>
+    <mergeCell ref="M503:M504"/>
+    <mergeCell ref="A503:A504"/>
+    <mergeCell ref="B503:B504"/>
+    <mergeCell ref="C503:C504"/>
+    <mergeCell ref="D503:D504"/>
+    <mergeCell ref="A522:A524"/>
+    <mergeCell ref="B522:B524"/>
+    <mergeCell ref="C522:C524"/>
+    <mergeCell ref="D522:D524"/>
+    <mergeCell ref="F522:F524"/>
+    <mergeCell ref="G522:G524"/>
+    <mergeCell ref="U520:U521"/>
+    <mergeCell ref="V520:V521"/>
+    <mergeCell ref="W520:W521"/>
+    <mergeCell ref="X520:X521"/>
+    <mergeCell ref="Y520:Y521"/>
+    <mergeCell ref="Z520:Z521"/>
+    <mergeCell ref="O520:O521"/>
+    <mergeCell ref="P520:P521"/>
+    <mergeCell ref="Q520:Q521"/>
+    <mergeCell ref="R520:R521"/>
+    <mergeCell ref="S520:S521"/>
+    <mergeCell ref="T520:T521"/>
+    <mergeCell ref="I520:I521"/>
+    <mergeCell ref="J520:J521"/>
+    <mergeCell ref="K520:K521"/>
+    <mergeCell ref="L520:L521"/>
+    <mergeCell ref="M520:M521"/>
+    <mergeCell ref="N520:N521"/>
+    <mergeCell ref="G525:G526"/>
+    <mergeCell ref="U522:U524"/>
+    <mergeCell ref="V522:V524"/>
+    <mergeCell ref="W522:W524"/>
+    <mergeCell ref="X522:X524"/>
+    <mergeCell ref="Y522:Y524"/>
+    <mergeCell ref="Z522:Z524"/>
+    <mergeCell ref="N522:N524"/>
+    <mergeCell ref="O522:O524"/>
+    <mergeCell ref="P522:P524"/>
+    <mergeCell ref="Q522:Q524"/>
+    <mergeCell ref="R522:S522"/>
+    <mergeCell ref="T522:T524"/>
+    <mergeCell ref="H522:H524"/>
+    <mergeCell ref="I522:I524"/>
+    <mergeCell ref="J522:J524"/>
+    <mergeCell ref="K522:K524"/>
+    <mergeCell ref="L522:L524"/>
+    <mergeCell ref="M522:M524"/>
+    <mergeCell ref="Z525:Z526"/>
+    <mergeCell ref="R527:S527"/>
+    <mergeCell ref="A528:A529"/>
+    <mergeCell ref="B528:B529"/>
+    <mergeCell ref="C528:C529"/>
+    <mergeCell ref="D528:D529"/>
+    <mergeCell ref="F528:F529"/>
+    <mergeCell ref="G528:G529"/>
+    <mergeCell ref="H528:H529"/>
+    <mergeCell ref="I528:I529"/>
+    <mergeCell ref="T525:T526"/>
+    <mergeCell ref="U525:U526"/>
+    <mergeCell ref="V525:V526"/>
+    <mergeCell ref="W525:W526"/>
+    <mergeCell ref="X525:X526"/>
+    <mergeCell ref="Y525:Y526"/>
+    <mergeCell ref="N525:N526"/>
+    <mergeCell ref="O525:O526"/>
+    <mergeCell ref="P525:P526"/>
+    <mergeCell ref="Q525:Q526"/>
+    <mergeCell ref="R525:R526"/>
+    <mergeCell ref="S525:S526"/>
+    <mergeCell ref="H525:H526"/>
+    <mergeCell ref="I525:I526"/>
+    <mergeCell ref="J525:J526"/>
+    <mergeCell ref="K525:K526"/>
+    <mergeCell ref="L525:L526"/>
+    <mergeCell ref="M525:M526"/>
+    <mergeCell ref="A525:A526"/>
+    <mergeCell ref="B525:B526"/>
+    <mergeCell ref="C525:C526"/>
+    <mergeCell ref="D525:D526"/>
+    <mergeCell ref="F525:F526"/>
+    <mergeCell ref="G532:G533"/>
+    <mergeCell ref="V528:V529"/>
+    <mergeCell ref="W528:W529"/>
+    <mergeCell ref="X528:X529"/>
+    <mergeCell ref="Y528:Y529"/>
+    <mergeCell ref="Z528:Z529"/>
+    <mergeCell ref="Q531:R531"/>
+    <mergeCell ref="P528:P529"/>
+    <mergeCell ref="Q528:Q529"/>
+    <mergeCell ref="R528:R529"/>
+    <mergeCell ref="S528:S529"/>
+    <mergeCell ref="T528:T529"/>
+    <mergeCell ref="U528:U529"/>
+    <mergeCell ref="J528:J529"/>
+    <mergeCell ref="K528:K529"/>
+    <mergeCell ref="L528:L529"/>
+    <mergeCell ref="M528:M529"/>
+    <mergeCell ref="N528:N529"/>
+    <mergeCell ref="O528:O529"/>
+    <mergeCell ref="Z532:Z533"/>
+    <mergeCell ref="R534:S534"/>
+    <mergeCell ref="A535:A536"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="C535:C536"/>
+    <mergeCell ref="D535:D536"/>
+    <mergeCell ref="F535:F536"/>
+    <mergeCell ref="G535:G536"/>
+    <mergeCell ref="H535:H536"/>
+    <mergeCell ref="I535:I536"/>
+    <mergeCell ref="T532:T533"/>
+    <mergeCell ref="U532:U533"/>
+    <mergeCell ref="V532:V533"/>
+    <mergeCell ref="W532:W533"/>
+    <mergeCell ref="X532:X533"/>
+    <mergeCell ref="Y532:Y533"/>
+    <mergeCell ref="N532:N533"/>
+    <mergeCell ref="O532:O533"/>
+    <mergeCell ref="P532:P533"/>
+    <mergeCell ref="Q532:Q533"/>
+    <mergeCell ref="R532:R533"/>
+    <mergeCell ref="S532:S533"/>
+    <mergeCell ref="H532:H533"/>
+    <mergeCell ref="I532:I533"/>
+    <mergeCell ref="J532:J533"/>
+    <mergeCell ref="K532:K533"/>
+    <mergeCell ref="L532:L533"/>
+    <mergeCell ref="M532:M533"/>
+    <mergeCell ref="A532:A533"/>
+    <mergeCell ref="B532:B533"/>
+    <mergeCell ref="C532:C533"/>
+    <mergeCell ref="D532:D533"/>
+    <mergeCell ref="F532:F533"/>
+    <mergeCell ref="A548:A549"/>
+    <mergeCell ref="B548:B549"/>
+    <mergeCell ref="C548:C549"/>
+    <mergeCell ref="D548:D549"/>
+    <mergeCell ref="F548:F549"/>
+    <mergeCell ref="G548:G549"/>
+    <mergeCell ref="Q538:R538"/>
+    <mergeCell ref="Q539:R539"/>
+    <mergeCell ref="Q540:R540"/>
+    <mergeCell ref="R542:S542"/>
+    <mergeCell ref="R544:S544"/>
+    <mergeCell ref="Q547:R547"/>
+    <mergeCell ref="V535:V536"/>
+    <mergeCell ref="W535:W536"/>
+    <mergeCell ref="X535:X536"/>
+    <mergeCell ref="Y535:Y536"/>
+    <mergeCell ref="Z535:Z536"/>
+    <mergeCell ref="S537:T537"/>
+    <mergeCell ref="P535:P536"/>
+    <mergeCell ref="Q535:Q536"/>
+    <mergeCell ref="R535:R536"/>
+    <mergeCell ref="S535:S536"/>
+    <mergeCell ref="T535:T536"/>
+    <mergeCell ref="U535:U536"/>
+    <mergeCell ref="J535:J536"/>
+    <mergeCell ref="K535:K536"/>
+    <mergeCell ref="L535:L536"/>
+    <mergeCell ref="M535:M536"/>
+    <mergeCell ref="N535:N536"/>
+    <mergeCell ref="O535:O536"/>
+    <mergeCell ref="G550:G551"/>
+    <mergeCell ref="U548:U549"/>
+    <mergeCell ref="V548:V549"/>
+    <mergeCell ref="W548:W549"/>
+    <mergeCell ref="X548:X549"/>
+    <mergeCell ref="Y548:Y549"/>
+    <mergeCell ref="Z548:Z549"/>
+    <mergeCell ref="N548:N549"/>
+    <mergeCell ref="O548:O549"/>
+    <mergeCell ref="P548:P549"/>
+    <mergeCell ref="Q548:Q549"/>
+    <mergeCell ref="R548:S548"/>
+    <mergeCell ref="T548:T549"/>
+    <mergeCell ref="H548:H549"/>
+    <mergeCell ref="I548:I549"/>
+    <mergeCell ref="J548:J549"/>
+    <mergeCell ref="K548:K549"/>
+    <mergeCell ref="L548:L549"/>
+    <mergeCell ref="M548:M549"/>
+    <mergeCell ref="Z550:Z551"/>
+    <mergeCell ref="S552:T552"/>
+    <mergeCell ref="A553:A554"/>
+    <mergeCell ref="B553:B554"/>
+    <mergeCell ref="C553:C554"/>
+    <mergeCell ref="D553:D554"/>
+    <mergeCell ref="F553:F554"/>
+    <mergeCell ref="G553:G554"/>
+    <mergeCell ref="H553:H554"/>
+    <mergeCell ref="I553:I554"/>
+    <mergeCell ref="T550:T551"/>
+    <mergeCell ref="U550:U551"/>
+    <mergeCell ref="V550:V551"/>
+    <mergeCell ref="W550:W551"/>
+    <mergeCell ref="X550:X551"/>
+    <mergeCell ref="Y550:Y551"/>
+    <mergeCell ref="N550:N551"/>
+    <mergeCell ref="O550:O551"/>
+    <mergeCell ref="P550:P551"/>
+    <mergeCell ref="Q550:Q551"/>
+    <mergeCell ref="R550:R551"/>
+    <mergeCell ref="S550:S551"/>
+    <mergeCell ref="H550:H551"/>
+    <mergeCell ref="I550:I551"/>
+    <mergeCell ref="J550:J551"/>
+    <mergeCell ref="K550:K551"/>
+    <mergeCell ref="L550:L551"/>
+    <mergeCell ref="M550:M551"/>
+    <mergeCell ref="A550:A551"/>
+    <mergeCell ref="B550:B551"/>
+    <mergeCell ref="C550:C551"/>
+    <mergeCell ref="D550:D551"/>
+    <mergeCell ref="F550:F551"/>
+    <mergeCell ref="K558:K559"/>
+    <mergeCell ref="L558:L559"/>
+    <mergeCell ref="V553:V554"/>
+    <mergeCell ref="W553:W554"/>
+    <mergeCell ref="X553:X554"/>
+    <mergeCell ref="Y553:Y554"/>
+    <mergeCell ref="Z553:Z554"/>
+    <mergeCell ref="A558:A559"/>
+    <mergeCell ref="B558:B559"/>
+    <mergeCell ref="C558:C559"/>
+    <mergeCell ref="D558:D559"/>
+    <mergeCell ref="F558:F559"/>
+    <mergeCell ref="P553:P554"/>
+    <mergeCell ref="Q553:Q554"/>
+    <mergeCell ref="R553:R554"/>
+    <mergeCell ref="S553:S554"/>
+    <mergeCell ref="T553:T554"/>
+    <mergeCell ref="U553:U554"/>
+    <mergeCell ref="J553:J554"/>
+    <mergeCell ref="K553:K554"/>
+    <mergeCell ref="L553:L554"/>
+    <mergeCell ref="M553:M554"/>
+    <mergeCell ref="N553:N554"/>
+    <mergeCell ref="O553:O554"/>
+    <mergeCell ref="R569:S569"/>
+    <mergeCell ref="R571:S571"/>
+    <mergeCell ref="Q574:R574"/>
+    <mergeCell ref="R576:S576"/>
+    <mergeCell ref="A577:A578"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="C577:C578"/>
+    <mergeCell ref="D577:D578"/>
+    <mergeCell ref="F577:F578"/>
+    <mergeCell ref="G577:G578"/>
+    <mergeCell ref="Z558:Z559"/>
+    <mergeCell ref="R560:S560"/>
+    <mergeCell ref="T561:U561"/>
+    <mergeCell ref="R562:S562"/>
+    <mergeCell ref="S563:T563"/>
+    <mergeCell ref="Q566:R566"/>
+    <mergeCell ref="T558:T559"/>
+    <mergeCell ref="U558:U559"/>
+    <mergeCell ref="V558:V559"/>
+    <mergeCell ref="W558:W559"/>
+    <mergeCell ref="X558:X559"/>
+    <mergeCell ref="Y558:Y559"/>
+    <mergeCell ref="M558:M559"/>
+    <mergeCell ref="N558:N559"/>
+    <mergeCell ref="O558:O559"/>
+    <mergeCell ref="P558:P559"/>
+    <mergeCell ref="Q558:R558"/>
+    <mergeCell ref="S558:S559"/>
+    <mergeCell ref="G558:G559"/>
+    <mergeCell ref="H558:H559"/>
+    <mergeCell ref="I558:I559"/>
+    <mergeCell ref="J558:J559"/>
+    <mergeCell ref="Z577:Z578"/>
+    <mergeCell ref="R582:S582"/>
+    <mergeCell ref="S584:T584"/>
+    <mergeCell ref="A585:A586"/>
+    <mergeCell ref="B585:B586"/>
+    <mergeCell ref="C585:C586"/>
+    <mergeCell ref="D585:D586"/>
+    <mergeCell ref="F585:F586"/>
+    <mergeCell ref="G585:G586"/>
+    <mergeCell ref="H585:H586"/>
+    <mergeCell ref="T577:T578"/>
+    <mergeCell ref="U577:U578"/>
+    <mergeCell ref="V577:V578"/>
+    <mergeCell ref="W577:W578"/>
+    <mergeCell ref="X577:X578"/>
+    <mergeCell ref="Y577:Y578"/>
+    <mergeCell ref="N577:N578"/>
+    <mergeCell ref="O577:O578"/>
+    <mergeCell ref="P577:P578"/>
+    <mergeCell ref="Q577:Q578"/>
+    <mergeCell ref="R577:R578"/>
+    <mergeCell ref="S577:S578"/>
+    <mergeCell ref="H577:H578"/>
+    <mergeCell ref="I577:I578"/>
+    <mergeCell ref="J577:J578"/>
+    <mergeCell ref="K577:K578"/>
+    <mergeCell ref="L577:L578"/>
+    <mergeCell ref="M577:M578"/>
+    <mergeCell ref="F588:F589"/>
+    <mergeCell ref="G588:G589"/>
+    <mergeCell ref="U585:U586"/>
+    <mergeCell ref="V585:V586"/>
+    <mergeCell ref="W585:W586"/>
+    <mergeCell ref="X585:X586"/>
+    <mergeCell ref="Y585:Y586"/>
+    <mergeCell ref="Z585:Z586"/>
+    <mergeCell ref="O585:O586"/>
+    <mergeCell ref="P585:P586"/>
+    <mergeCell ref="Q585:Q586"/>
+    <mergeCell ref="R585:R586"/>
+    <mergeCell ref="S585:S586"/>
+    <mergeCell ref="T585:T586"/>
+    <mergeCell ref="I585:I586"/>
+    <mergeCell ref="J585:J586"/>
+    <mergeCell ref="K585:K586"/>
+    <mergeCell ref="L585:L586"/>
+    <mergeCell ref="M585:M586"/>
+    <mergeCell ref="N585:N586"/>
+    <mergeCell ref="Z588:Z589"/>
+    <mergeCell ref="A593:A594"/>
+    <mergeCell ref="B593:B594"/>
+    <mergeCell ref="C593:C594"/>
+    <mergeCell ref="D593:D594"/>
+    <mergeCell ref="F593:F594"/>
+    <mergeCell ref="G593:G594"/>
+    <mergeCell ref="H593:H594"/>
+    <mergeCell ref="I593:I594"/>
+    <mergeCell ref="J593:J594"/>
+    <mergeCell ref="T588:T589"/>
+    <mergeCell ref="U588:U589"/>
+    <mergeCell ref="V588:V589"/>
+    <mergeCell ref="W588:W589"/>
+    <mergeCell ref="X588:X589"/>
+    <mergeCell ref="Y588:Y589"/>
+    <mergeCell ref="N588:N589"/>
+    <mergeCell ref="O588:O589"/>
+    <mergeCell ref="P588:P589"/>
+    <mergeCell ref="Q588:Q589"/>
+    <mergeCell ref="R588:R589"/>
+    <mergeCell ref="S588:S589"/>
+    <mergeCell ref="H588:H589"/>
+    <mergeCell ref="I588:I589"/>
+    <mergeCell ref="J588:J589"/>
+    <mergeCell ref="K588:K589"/>
+    <mergeCell ref="L588:L589"/>
+    <mergeCell ref="M588:M589"/>
+    <mergeCell ref="A588:A589"/>
+    <mergeCell ref="B588:B589"/>
+    <mergeCell ref="C588:C589"/>
+    <mergeCell ref="D588:D589"/>
+    <mergeCell ref="W593:W594"/>
+    <mergeCell ref="X593:X594"/>
+    <mergeCell ref="Y593:Y594"/>
+    <mergeCell ref="Z593:Z594"/>
+    <mergeCell ref="R595:S595"/>
+    <mergeCell ref="Q597:R597"/>
+    <mergeCell ref="Q593:Q594"/>
+    <mergeCell ref="R593:R594"/>
+    <mergeCell ref="S593:S594"/>
+    <mergeCell ref="T593:T594"/>
+    <mergeCell ref="U593:U594"/>
+    <mergeCell ref="V593:V594"/>
+    <mergeCell ref="K593:K594"/>
+    <mergeCell ref="L593:L594"/>
+    <mergeCell ref="M593:M594"/>
+    <mergeCell ref="N593:N594"/>
+    <mergeCell ref="O593:O594"/>
+    <mergeCell ref="P593:P594"/>
+    <mergeCell ref="O598:O599"/>
+    <mergeCell ref="P598:P599"/>
+    <mergeCell ref="Q598:Q599"/>
+    <mergeCell ref="R598:R599"/>
+    <mergeCell ref="S598:S599"/>
+    <mergeCell ref="H598:H599"/>
+    <mergeCell ref="I598:I599"/>
+    <mergeCell ref="J598:J599"/>
+    <mergeCell ref="K598:K599"/>
+    <mergeCell ref="L598:L599"/>
+    <mergeCell ref="M598:M599"/>
+    <mergeCell ref="A598:A599"/>
+    <mergeCell ref="B598:B599"/>
+    <mergeCell ref="C598:C599"/>
+    <mergeCell ref="D598:D599"/>
+    <mergeCell ref="F598:F599"/>
+    <mergeCell ref="G598:G599"/>
+    <mergeCell ref="Z603:Z605"/>
+    <mergeCell ref="T606:U606"/>
+    <mergeCell ref="R607:S607"/>
+    <mergeCell ref="Q603:Q605"/>
+    <mergeCell ref="R603:R605"/>
+    <mergeCell ref="S603:S605"/>
+    <mergeCell ref="T603:T605"/>
+    <mergeCell ref="U603:U605"/>
+    <mergeCell ref="V603:V605"/>
+    <mergeCell ref="K603:K605"/>
+    <mergeCell ref="L603:L605"/>
+    <mergeCell ref="M603:M605"/>
+    <mergeCell ref="N603:N605"/>
+    <mergeCell ref="O603:O605"/>
+    <mergeCell ref="P603:P605"/>
+    <mergeCell ref="Z598:Z599"/>
+    <mergeCell ref="A603:A605"/>
+    <mergeCell ref="B603:B605"/>
+    <mergeCell ref="C603:C605"/>
+    <mergeCell ref="D603:D605"/>
+    <mergeCell ref="F603:F605"/>
+    <mergeCell ref="G603:G605"/>
+    <mergeCell ref="H603:H605"/>
+    <mergeCell ref="I603:I605"/>
+    <mergeCell ref="J603:J605"/>
+    <mergeCell ref="T598:T599"/>
+    <mergeCell ref="U598:U599"/>
+    <mergeCell ref="V598:V599"/>
+    <mergeCell ref="W598:W599"/>
+    <mergeCell ref="X598:X599"/>
+    <mergeCell ref="Y598:Y599"/>
+    <mergeCell ref="N598:N599"/>
+    <mergeCell ref="S624:T624"/>
+    <mergeCell ref="R625:S625"/>
+    <mergeCell ref="A628:A629"/>
+    <mergeCell ref="B628:B629"/>
+    <mergeCell ref="C628:C629"/>
+    <mergeCell ref="D628:D629"/>
+    <mergeCell ref="F628:F629"/>
+    <mergeCell ref="G628:G629"/>
+    <mergeCell ref="H628:H629"/>
+    <mergeCell ref="I628:I629"/>
+    <mergeCell ref="Q610:R610"/>
+    <mergeCell ref="X612:Y612"/>
+    <mergeCell ref="R614:S614"/>
+    <mergeCell ref="Q615:R615"/>
+    <mergeCell ref="R620:S620"/>
+    <mergeCell ref="T621:U621"/>
+    <mergeCell ref="W603:W605"/>
+    <mergeCell ref="X603:X605"/>
+    <mergeCell ref="Y603:Y605"/>
+    <mergeCell ref="A636:A637"/>
+    <mergeCell ref="B636:B637"/>
+    <mergeCell ref="C636:C637"/>
+    <mergeCell ref="D636:D637"/>
+    <mergeCell ref="F636:F637"/>
+    <mergeCell ref="G636:G637"/>
+    <mergeCell ref="H636:H637"/>
+    <mergeCell ref="I636:I637"/>
+    <mergeCell ref="J636:J637"/>
+    <mergeCell ref="W628:W629"/>
+    <mergeCell ref="X628:X629"/>
+    <mergeCell ref="Y628:Y629"/>
+    <mergeCell ref="Z628:Z629"/>
+    <mergeCell ref="R632:S632"/>
+    <mergeCell ref="Q633:R633"/>
+    <mergeCell ref="P628:P629"/>
+    <mergeCell ref="Q628:Q629"/>
+    <mergeCell ref="R628:R629"/>
+    <mergeCell ref="S628:T628"/>
+    <mergeCell ref="U628:U629"/>
+    <mergeCell ref="V628:V629"/>
+    <mergeCell ref="J628:J629"/>
+    <mergeCell ref="K628:K629"/>
+    <mergeCell ref="L628:L629"/>
+    <mergeCell ref="M628:M629"/>
+    <mergeCell ref="N628:N629"/>
+    <mergeCell ref="O628:O629"/>
+    <mergeCell ref="W636:W637"/>
+    <mergeCell ref="X636:X637"/>
+    <mergeCell ref="Y636:Y637"/>
+    <mergeCell ref="Z636:Z637"/>
+    <mergeCell ref="C638:C639"/>
+    <mergeCell ref="D638:D639"/>
+    <mergeCell ref="F638:F639"/>
+    <mergeCell ref="G638:G639"/>
+    <mergeCell ref="Q636:Q637"/>
+    <mergeCell ref="R636:R637"/>
+    <mergeCell ref="S636:S637"/>
+    <mergeCell ref="T636:T637"/>
+    <mergeCell ref="U636:U637"/>
+    <mergeCell ref="V636:V637"/>
+    <mergeCell ref="K636:K637"/>
+    <mergeCell ref="L636:L637"/>
+    <mergeCell ref="M636:M637"/>
+    <mergeCell ref="N636:N637"/>
+    <mergeCell ref="O636:O637"/>
+    <mergeCell ref="P636:P637"/>
+    <mergeCell ref="Q635:R635"/>
+    <mergeCell ref="Z638:Z639"/>
+    <mergeCell ref="S643:T643"/>
+    <mergeCell ref="R644:S644"/>
+    <mergeCell ref="Q645:R645"/>
+    <mergeCell ref="Q648:R648"/>
+    <mergeCell ref="A653:A654"/>
+    <mergeCell ref="B653:B654"/>
+    <mergeCell ref="C653:C654"/>
+    <mergeCell ref="D653:D654"/>
+    <mergeCell ref="F653:F654"/>
+    <mergeCell ref="T638:T639"/>
+    <mergeCell ref="U638:U639"/>
+    <mergeCell ref="V638:V639"/>
+    <mergeCell ref="W638:W639"/>
+    <mergeCell ref="X638:X639"/>
+    <mergeCell ref="Y638:Y639"/>
+    <mergeCell ref="N638:N639"/>
+    <mergeCell ref="O638:O639"/>
+    <mergeCell ref="P638:P639"/>
+    <mergeCell ref="Q638:Q639"/>
+    <mergeCell ref="R638:R639"/>
+    <mergeCell ref="S638:S639"/>
+    <mergeCell ref="H638:H639"/>
+    <mergeCell ref="I638:I639"/>
+    <mergeCell ref="J638:J639"/>
+    <mergeCell ref="K638:K639"/>
+    <mergeCell ref="L638:L639"/>
+    <mergeCell ref="M638:M639"/>
+    <mergeCell ref="Y653:Y654"/>
+    <mergeCell ref="Z653:Z654"/>
+    <mergeCell ref="A638:A639"/>
+    <mergeCell ref="B638:B639"/>
+    <mergeCell ref="T655:U655"/>
+    <mergeCell ref="A656:A657"/>
+    <mergeCell ref="B656:B657"/>
+    <mergeCell ref="C656:C657"/>
+    <mergeCell ref="D656:D657"/>
+    <mergeCell ref="F656:F657"/>
+    <mergeCell ref="G656:G657"/>
+    <mergeCell ref="H656:H657"/>
+    <mergeCell ref="S653:S654"/>
+    <mergeCell ref="T653:T654"/>
+    <mergeCell ref="U653:U654"/>
+    <mergeCell ref="V653:V654"/>
+    <mergeCell ref="W653:W654"/>
+    <mergeCell ref="X653:X654"/>
+    <mergeCell ref="M653:M654"/>
+    <mergeCell ref="N653:N654"/>
+    <mergeCell ref="O653:O654"/>
+    <mergeCell ref="P653:P654"/>
+    <mergeCell ref="Q653:Q654"/>
+    <mergeCell ref="R653:R654"/>
+    <mergeCell ref="G653:G654"/>
+    <mergeCell ref="H653:H654"/>
+    <mergeCell ref="I653:I654"/>
+    <mergeCell ref="J653:J654"/>
+    <mergeCell ref="K653:K654"/>
+    <mergeCell ref="L653:L654"/>
+    <mergeCell ref="F659:F661"/>
+    <mergeCell ref="G659:G661"/>
+    <mergeCell ref="U656:U657"/>
+    <mergeCell ref="V656:V657"/>
+    <mergeCell ref="W656:W657"/>
+    <mergeCell ref="X656:X657"/>
+    <mergeCell ref="Y656:Y657"/>
+    <mergeCell ref="Z656:Z657"/>
+    <mergeCell ref="O656:O657"/>
+    <mergeCell ref="P656:P657"/>
+    <mergeCell ref="Q656:Q657"/>
+    <mergeCell ref="R656:R657"/>
+    <mergeCell ref="S656:S657"/>
+    <mergeCell ref="T656:T657"/>
+    <mergeCell ref="I656:I657"/>
+    <mergeCell ref="J656:J657"/>
+    <mergeCell ref="K656:K657"/>
+    <mergeCell ref="L656:L657"/>
+    <mergeCell ref="M656:M657"/>
+    <mergeCell ref="N656:N657"/>
+    <mergeCell ref="S664:T664"/>
+    <mergeCell ref="A665:A666"/>
+    <mergeCell ref="B665:B666"/>
+    <mergeCell ref="C665:C666"/>
+    <mergeCell ref="D665:D666"/>
+    <mergeCell ref="F665:F666"/>
+    <mergeCell ref="G665:G666"/>
+    <mergeCell ref="H665:H666"/>
+    <mergeCell ref="I665:I666"/>
+    <mergeCell ref="J665:J666"/>
+    <mergeCell ref="U659:U661"/>
+    <mergeCell ref="V659:V661"/>
+    <mergeCell ref="W659:W661"/>
+    <mergeCell ref="X659:X661"/>
+    <mergeCell ref="Y659:Y661"/>
+    <mergeCell ref="Z659:Z661"/>
+    <mergeCell ref="N659:N661"/>
+    <mergeCell ref="O659:O661"/>
+    <mergeCell ref="P659:P661"/>
+    <mergeCell ref="Q659:R659"/>
+    <mergeCell ref="S659:S661"/>
+    <mergeCell ref="T659:T661"/>
+    <mergeCell ref="H659:H661"/>
+    <mergeCell ref="I659:I661"/>
+    <mergeCell ref="J659:J661"/>
+    <mergeCell ref="K659:K661"/>
+    <mergeCell ref="L659:L661"/>
+    <mergeCell ref="M659:M661"/>
+    <mergeCell ref="A659:A661"/>
+    <mergeCell ref="B659:B661"/>
+    <mergeCell ref="C659:C661"/>
+    <mergeCell ref="D659:D661"/>
+    <mergeCell ref="X665:X666"/>
+    <mergeCell ref="Y665:Y666"/>
+    <mergeCell ref="Z665:Z666"/>
+    <mergeCell ref="R669:S669"/>
+    <mergeCell ref="Q670:R670"/>
+    <mergeCell ref="A672:A674"/>
+    <mergeCell ref="B672:B674"/>
+    <mergeCell ref="C672:C674"/>
+    <mergeCell ref="D672:D674"/>
+    <mergeCell ref="F672:F674"/>
+    <mergeCell ref="Q665:R665"/>
+    <mergeCell ref="S665:S666"/>
+    <mergeCell ref="T665:T666"/>
+    <mergeCell ref="U665:U666"/>
+    <mergeCell ref="V665:V666"/>
+    <mergeCell ref="W665:W666"/>
+    <mergeCell ref="K665:K666"/>
+    <mergeCell ref="L665:L666"/>
+    <mergeCell ref="M665:M666"/>
+    <mergeCell ref="N665:N666"/>
+    <mergeCell ref="O665:O666"/>
+    <mergeCell ref="P665:P666"/>
+    <mergeCell ref="Y672:Y674"/>
+    <mergeCell ref="Z672:Z674"/>
+    <mergeCell ref="Q675:R675"/>
+    <mergeCell ref="Q676:R676"/>
+    <mergeCell ref="X677:Y677"/>
+    <mergeCell ref="A678:A679"/>
+    <mergeCell ref="B678:B679"/>
+    <mergeCell ref="C678:C679"/>
+    <mergeCell ref="D678:D679"/>
+    <mergeCell ref="F678:F679"/>
+    <mergeCell ref="S672:S674"/>
+    <mergeCell ref="T672:T674"/>
+    <mergeCell ref="U672:U674"/>
+    <mergeCell ref="V672:V674"/>
+    <mergeCell ref="W672:W674"/>
+    <mergeCell ref="X672:X674"/>
+    <mergeCell ref="M672:M674"/>
+    <mergeCell ref="N672:N674"/>
+    <mergeCell ref="O672:O674"/>
+    <mergeCell ref="P672:P674"/>
+    <mergeCell ref="Q672:Q674"/>
+    <mergeCell ref="R672:R674"/>
+    <mergeCell ref="G672:G674"/>
+    <mergeCell ref="H672:H674"/>
+    <mergeCell ref="I672:I674"/>
+    <mergeCell ref="J672:J674"/>
+    <mergeCell ref="K672:K674"/>
+    <mergeCell ref="L672:L674"/>
+    <mergeCell ref="Y678:Y679"/>
+    <mergeCell ref="Z678:Z679"/>
+    <mergeCell ref="A681:A682"/>
+    <mergeCell ref="B681:B682"/>
+    <mergeCell ref="C681:C682"/>
+    <mergeCell ref="D681:D682"/>
+    <mergeCell ref="F681:F682"/>
+    <mergeCell ref="G681:G682"/>
+    <mergeCell ref="H681:H682"/>
+    <mergeCell ref="I681:I682"/>
+    <mergeCell ref="S678:S679"/>
+    <mergeCell ref="T678:T679"/>
+    <mergeCell ref="U678:U679"/>
+    <mergeCell ref="V678:V679"/>
+    <mergeCell ref="W678:W679"/>
+    <mergeCell ref="X678:X679"/>
+    <mergeCell ref="M678:M679"/>
+    <mergeCell ref="N678:N679"/>
+    <mergeCell ref="O678:O679"/>
+    <mergeCell ref="P678:P679"/>
+    <mergeCell ref="Q678:Q679"/>
+    <mergeCell ref="R678:R679"/>
+    <mergeCell ref="G678:G679"/>
+    <mergeCell ref="H678:H679"/>
+    <mergeCell ref="I678:I679"/>
+    <mergeCell ref="J678:J679"/>
+    <mergeCell ref="K678:K679"/>
+    <mergeCell ref="L678:L679"/>
+    <mergeCell ref="W681:W682"/>
+    <mergeCell ref="X681:X682"/>
+    <mergeCell ref="Y681:Y682"/>
+    <mergeCell ref="Z681:Z682"/>
+    <mergeCell ref="Q683:R683"/>
+    <mergeCell ref="A687:A688"/>
+    <mergeCell ref="B687:B688"/>
+    <mergeCell ref="C687:C688"/>
+    <mergeCell ref="D687:D688"/>
+    <mergeCell ref="F687:F688"/>
+    <mergeCell ref="P681:P682"/>
+    <mergeCell ref="Q681:R681"/>
+    <mergeCell ref="S681:S682"/>
+    <mergeCell ref="T681:T682"/>
+    <mergeCell ref="U681:U682"/>
+    <mergeCell ref="V681:V682"/>
+    <mergeCell ref="J681:J682"/>
+    <mergeCell ref="K681:K682"/>
+    <mergeCell ref="L681:L682"/>
+    <mergeCell ref="M681:M682"/>
+    <mergeCell ref="N681:N682"/>
+    <mergeCell ref="O681:O682"/>
+    <mergeCell ref="Z687:Z688"/>
+    <mergeCell ref="Q692:R692"/>
+    <mergeCell ref="Q693:R693"/>
+    <mergeCell ref="Q694:R694"/>
+    <mergeCell ref="R697:S697"/>
+    <mergeCell ref="S687:S688"/>
+    <mergeCell ref="T687:T688"/>
+    <mergeCell ref="U687:U688"/>
+    <mergeCell ref="V687:V688"/>
+    <mergeCell ref="W687:W688"/>
+    <mergeCell ref="X687:X688"/>
+    <mergeCell ref="M687:M688"/>
+    <mergeCell ref="N687:N688"/>
+    <mergeCell ref="O687:O688"/>
+    <mergeCell ref="P687:P688"/>
+    <mergeCell ref="Q687:Q688"/>
+    <mergeCell ref="R687:R688"/>
+    <mergeCell ref="T709:U709"/>
+    <mergeCell ref="R714:S714"/>
+    <mergeCell ref="R717:S717"/>
+    <mergeCell ref="Q721:R721"/>
+    <mergeCell ref="R722:S722"/>
+    <mergeCell ref="A726:A727"/>
+    <mergeCell ref="B726:B727"/>
+    <mergeCell ref="C726:C727"/>
+    <mergeCell ref="D726:D727"/>
+    <mergeCell ref="F726:F727"/>
+    <mergeCell ref="R699:S699"/>
+    <mergeCell ref="Q700:R700"/>
+    <mergeCell ref="S703:T703"/>
+    <mergeCell ref="R705:S705"/>
+    <mergeCell ref="Q706:R706"/>
+    <mergeCell ref="S708:T708"/>
+    <mergeCell ref="Y687:Y688"/>
+    <mergeCell ref="G687:G688"/>
+    <mergeCell ref="H687:H688"/>
+    <mergeCell ref="I687:I688"/>
+    <mergeCell ref="J687:J688"/>
+    <mergeCell ref="K687:K688"/>
+    <mergeCell ref="L687:L688"/>
+    <mergeCell ref="Z726:Z727"/>
+    <mergeCell ref="A728:A729"/>
+    <mergeCell ref="B728:B729"/>
+    <mergeCell ref="C728:C729"/>
+    <mergeCell ref="D728:D729"/>
+    <mergeCell ref="F728:F729"/>
+    <mergeCell ref="G728:G729"/>
+    <mergeCell ref="H728:H729"/>
+    <mergeCell ref="I728:I729"/>
+    <mergeCell ref="J728:J729"/>
+    <mergeCell ref="T726:T727"/>
+    <mergeCell ref="U726:U727"/>
+    <mergeCell ref="V726:V727"/>
+    <mergeCell ref="W726:W727"/>
+    <mergeCell ref="X726:X727"/>
+    <mergeCell ref="Y726:Y727"/>
+    <mergeCell ref="M726:M727"/>
+    <mergeCell ref="N726:N727"/>
+    <mergeCell ref="O726:O727"/>
+    <mergeCell ref="P726:P727"/>
+    <mergeCell ref="Q726:Q727"/>
+    <mergeCell ref="R726:S726"/>
+    <mergeCell ref="G726:G727"/>
+    <mergeCell ref="H726:H727"/>
+    <mergeCell ref="I726:I727"/>
+    <mergeCell ref="J726:J727"/>
+    <mergeCell ref="K726:K727"/>
+    <mergeCell ref="L726:L727"/>
+    <mergeCell ref="W728:W729"/>
+    <mergeCell ref="X728:X729"/>
+    <mergeCell ref="Y728:Y729"/>
+    <mergeCell ref="Z728:Z729"/>
+    <mergeCell ref="R731:S731"/>
+    <mergeCell ref="A734:A736"/>
+    <mergeCell ref="B734:B736"/>
+    <mergeCell ref="C734:C736"/>
+    <mergeCell ref="D734:D736"/>
+    <mergeCell ref="F734:F736"/>
+    <mergeCell ref="Q728:Q729"/>
+    <mergeCell ref="R728:R729"/>
+    <mergeCell ref="S728:S729"/>
+    <mergeCell ref="T728:T729"/>
+    <mergeCell ref="U728:U729"/>
+    <mergeCell ref="V728:V729"/>
+    <mergeCell ref="K728:K729"/>
+    <mergeCell ref="L728:L729"/>
+    <mergeCell ref="M728:M729"/>
+    <mergeCell ref="N728:N729"/>
+    <mergeCell ref="O728:O729"/>
+    <mergeCell ref="P728:P729"/>
+    <mergeCell ref="Z734:Z736"/>
+    <mergeCell ref="Q740:R740"/>
+    <mergeCell ref="W741:X741"/>
+    <mergeCell ref="A742:A743"/>
+    <mergeCell ref="B742:B743"/>
+    <mergeCell ref="C742:C743"/>
+    <mergeCell ref="D742:D743"/>
+    <mergeCell ref="F742:F743"/>
+    <mergeCell ref="G742:G743"/>
+    <mergeCell ref="H742:H743"/>
+    <mergeCell ref="T734:T736"/>
+    <mergeCell ref="U734:U736"/>
+    <mergeCell ref="V734:V736"/>
+    <mergeCell ref="W734:W736"/>
+    <mergeCell ref="X734:X736"/>
+    <mergeCell ref="Y734:Y736"/>
+    <mergeCell ref="M734:M736"/>
+    <mergeCell ref="N734:N736"/>
+    <mergeCell ref="O734:O736"/>
+    <mergeCell ref="P734:P736"/>
+    <mergeCell ref="Q734:Q736"/>
+    <mergeCell ref="R734:S734"/>
+    <mergeCell ref="G734:G736"/>
+    <mergeCell ref="H734:H736"/>
+    <mergeCell ref="I734:I736"/>
+    <mergeCell ref="J734:J736"/>
+    <mergeCell ref="K734:K736"/>
+    <mergeCell ref="L734:L736"/>
+    <mergeCell ref="S746:T746"/>
+    <mergeCell ref="A747:A748"/>
+    <mergeCell ref="B747:B748"/>
+    <mergeCell ref="C747:C748"/>
+    <mergeCell ref="D747:D748"/>
+    <mergeCell ref="F747:F748"/>
+    <mergeCell ref="G747:G748"/>
+    <mergeCell ref="H747:H748"/>
+    <mergeCell ref="I747:I748"/>
+    <mergeCell ref="J747:J748"/>
+    <mergeCell ref="V742:V743"/>
+    <mergeCell ref="W742:W743"/>
+    <mergeCell ref="X742:X743"/>
+    <mergeCell ref="Y742:Y743"/>
+    <mergeCell ref="Z742:Z743"/>
+    <mergeCell ref="R744:S744"/>
+    <mergeCell ref="O742:O743"/>
+    <mergeCell ref="P742:P743"/>
+    <mergeCell ref="Q742:Q743"/>
+    <mergeCell ref="R742:S742"/>
+    <mergeCell ref="T742:T743"/>
+    <mergeCell ref="U742:U743"/>
+    <mergeCell ref="I742:I743"/>
+    <mergeCell ref="J742:J743"/>
+    <mergeCell ref="K742:K743"/>
+    <mergeCell ref="L742:L743"/>
+    <mergeCell ref="M742:M743"/>
+    <mergeCell ref="N742:N743"/>
+    <mergeCell ref="L750:L751"/>
+    <mergeCell ref="M750:M751"/>
+    <mergeCell ref="W747:W748"/>
+    <mergeCell ref="X747:X748"/>
+    <mergeCell ref="Y747:Y748"/>
+    <mergeCell ref="Z747:Z748"/>
+    <mergeCell ref="A750:A751"/>
+    <mergeCell ref="B750:B751"/>
+    <mergeCell ref="C750:C751"/>
+    <mergeCell ref="D750:D751"/>
+    <mergeCell ref="F750:F751"/>
+    <mergeCell ref="G750:G751"/>
+    <mergeCell ref="Q747:Q748"/>
+    <mergeCell ref="R747:R748"/>
+    <mergeCell ref="S747:S748"/>
+    <mergeCell ref="T747:T748"/>
+    <mergeCell ref="U747:U748"/>
+    <mergeCell ref="V747:V748"/>
+    <mergeCell ref="K747:K748"/>
+    <mergeCell ref="L747:L748"/>
+    <mergeCell ref="M747:M748"/>
+    <mergeCell ref="N747:N748"/>
+    <mergeCell ref="O747:O748"/>
+    <mergeCell ref="P747:P748"/>
+    <mergeCell ref="Q762:R762"/>
+    <mergeCell ref="T766:U766"/>
+    <mergeCell ref="A767:A768"/>
+    <mergeCell ref="B767:B768"/>
+    <mergeCell ref="C767:C768"/>
+    <mergeCell ref="D767:D768"/>
+    <mergeCell ref="F767:F768"/>
+    <mergeCell ref="G767:G768"/>
+    <mergeCell ref="H767:H768"/>
+    <mergeCell ref="I767:I768"/>
+    <mergeCell ref="Z750:Z751"/>
+    <mergeCell ref="Q755:R755"/>
+    <mergeCell ref="R757:S757"/>
+    <mergeCell ref="R758:S758"/>
+    <mergeCell ref="R760:S760"/>
+    <mergeCell ref="Q761:R761"/>
+    <mergeCell ref="T750:T751"/>
+    <mergeCell ref="U750:U751"/>
+    <mergeCell ref="V750:V751"/>
+    <mergeCell ref="W750:W751"/>
+    <mergeCell ref="X750:X751"/>
+    <mergeCell ref="Y750:Y751"/>
+    <mergeCell ref="N750:N751"/>
+    <mergeCell ref="O750:O751"/>
+    <mergeCell ref="P750:P751"/>
+    <mergeCell ref="Q750:Q751"/>
+    <mergeCell ref="R750:R751"/>
+    <mergeCell ref="S750:S751"/>
+    <mergeCell ref="H750:H751"/>
+    <mergeCell ref="I750:I751"/>
+    <mergeCell ref="J750:J751"/>
+    <mergeCell ref="K750:K751"/>
+    <mergeCell ref="A776:A777"/>
+    <mergeCell ref="B776:B777"/>
+    <mergeCell ref="C776:C777"/>
+    <mergeCell ref="D776:D777"/>
+    <mergeCell ref="X779:X780"/>
+    <mergeCell ref="F776:F777"/>
+    <mergeCell ref="G776:G777"/>
+    <mergeCell ref="W767:W768"/>
+    <mergeCell ref="X767:X768"/>
+    <mergeCell ref="Y767:Y768"/>
+    <mergeCell ref="Z767:Z768"/>
+    <mergeCell ref="Q769:R769"/>
+    <mergeCell ref="Q772:R772"/>
+    <mergeCell ref="P767:P768"/>
+    <mergeCell ref="Q767:Q768"/>
+    <mergeCell ref="R767:R768"/>
+    <mergeCell ref="S767:S768"/>
+    <mergeCell ref="T767:U767"/>
+    <mergeCell ref="V767:V768"/>
+    <mergeCell ref="J767:J768"/>
+    <mergeCell ref="K767:K768"/>
+    <mergeCell ref="L767:L768"/>
+    <mergeCell ref="M767:M768"/>
+    <mergeCell ref="N767:N768"/>
+    <mergeCell ref="O767:O768"/>
+    <mergeCell ref="Z776:Z777"/>
+    <mergeCell ref="T776:T777"/>
+    <mergeCell ref="U776:U777"/>
+    <mergeCell ref="V776:V777"/>
+    <mergeCell ref="W776:W777"/>
+    <mergeCell ref="X776:X777"/>
+    <mergeCell ref="Y776:Y777"/>
+    <mergeCell ref="N776:N777"/>
+    <mergeCell ref="O776:O777"/>
+    <mergeCell ref="P776:P777"/>
+    <mergeCell ref="Q776:Q777"/>
+    <mergeCell ref="R776:R777"/>
+    <mergeCell ref="S776:S777"/>
+    <mergeCell ref="H776:H777"/>
+    <mergeCell ref="I776:I777"/>
+    <mergeCell ref="J776:J777"/>
+    <mergeCell ref="K776:K777"/>
+    <mergeCell ref="L776:L777"/>
+    <mergeCell ref="M776:M777"/>
+    <mergeCell ref="Y779:Y780"/>
+    <mergeCell ref="Z779:Z780"/>
+    <mergeCell ref="A785:A786"/>
+    <mergeCell ref="B785:B786"/>
+    <mergeCell ref="C785:C786"/>
+    <mergeCell ref="D785:D786"/>
+    <mergeCell ref="F785:F786"/>
+    <mergeCell ref="G785:G786"/>
+    <mergeCell ref="H785:H786"/>
+    <mergeCell ref="Q779:R779"/>
+    <mergeCell ref="S779:S780"/>
+    <mergeCell ref="T779:T780"/>
+    <mergeCell ref="U779:U780"/>
+    <mergeCell ref="V779:V780"/>
+    <mergeCell ref="W779:W780"/>
+    <mergeCell ref="K779:K780"/>
+    <mergeCell ref="L779:L780"/>
+    <mergeCell ref="M779:M780"/>
+    <mergeCell ref="N779:N780"/>
+    <mergeCell ref="O779:O780"/>
+    <mergeCell ref="P779:P780"/>
+    <mergeCell ref="A779:A780"/>
+    <mergeCell ref="B779:B780"/>
+    <mergeCell ref="C779:C780"/>
+    <mergeCell ref="D779:D780"/>
+    <mergeCell ref="F779:F780"/>
+    <mergeCell ref="G779:G780"/>
+    <mergeCell ref="H779:H780"/>
+    <mergeCell ref="I779:I780"/>
+    <mergeCell ref="J779:J780"/>
+    <mergeCell ref="F788:F789"/>
+    <mergeCell ref="G788:G789"/>
+    <mergeCell ref="U785:U786"/>
+    <mergeCell ref="V785:V786"/>
+    <mergeCell ref="W785:W786"/>
+    <mergeCell ref="X785:X786"/>
+    <mergeCell ref="Y785:Y786"/>
+    <mergeCell ref="Z785:Z786"/>
+    <mergeCell ref="O785:O786"/>
+    <mergeCell ref="P785:P786"/>
+    <mergeCell ref="Q785:Q786"/>
+    <mergeCell ref="R785:R786"/>
+    <mergeCell ref="S785:S786"/>
+    <mergeCell ref="T785:T786"/>
+    <mergeCell ref="I785:I786"/>
+    <mergeCell ref="J785:J786"/>
+    <mergeCell ref="K785:K786"/>
+    <mergeCell ref="L785:L786"/>
+    <mergeCell ref="M785:M786"/>
+    <mergeCell ref="N785:N786"/>
+    <mergeCell ref="R792:S792"/>
+    <mergeCell ref="A794:A795"/>
+    <mergeCell ref="B794:B795"/>
+    <mergeCell ref="C794:C795"/>
+    <mergeCell ref="D794:D795"/>
+    <mergeCell ref="F794:F795"/>
+    <mergeCell ref="G794:G795"/>
+    <mergeCell ref="H794:H795"/>
+    <mergeCell ref="I794:I795"/>
+    <mergeCell ref="J794:J795"/>
+    <mergeCell ref="U788:U789"/>
+    <mergeCell ref="V788:V789"/>
+    <mergeCell ref="W788:W789"/>
+    <mergeCell ref="X788:X789"/>
+    <mergeCell ref="Y788:Y789"/>
+    <mergeCell ref="Z788:Z789"/>
+    <mergeCell ref="N788:N789"/>
+    <mergeCell ref="O788:O789"/>
+    <mergeCell ref="P788:P789"/>
+    <mergeCell ref="Q788:Q789"/>
+    <mergeCell ref="R788:S788"/>
+    <mergeCell ref="T788:T789"/>
+    <mergeCell ref="H788:H789"/>
+    <mergeCell ref="I788:I789"/>
+    <mergeCell ref="J788:J789"/>
+    <mergeCell ref="K788:K789"/>
+    <mergeCell ref="L788:L789"/>
+    <mergeCell ref="M788:M789"/>
+    <mergeCell ref="A788:A789"/>
+    <mergeCell ref="B788:B789"/>
+    <mergeCell ref="C788:C789"/>
+    <mergeCell ref="D788:D789"/>
+    <mergeCell ref="X794:X795"/>
+    <mergeCell ref="Y794:Y795"/>
+    <mergeCell ref="Z794:Z795"/>
+    <mergeCell ref="A796:A797"/>
+    <mergeCell ref="B796:B797"/>
+    <mergeCell ref="C796:C797"/>
+    <mergeCell ref="D796:D797"/>
+    <mergeCell ref="F796:F797"/>
+    <mergeCell ref="G796:G797"/>
+    <mergeCell ref="H796:H797"/>
+    <mergeCell ref="Q794:Q795"/>
+    <mergeCell ref="R794:S794"/>
+    <mergeCell ref="T794:T795"/>
+    <mergeCell ref="U794:U795"/>
+    <mergeCell ref="V794:V795"/>
+    <mergeCell ref="W794:W795"/>
+    <mergeCell ref="K794:K795"/>
+    <mergeCell ref="L794:L795"/>
+    <mergeCell ref="M794:M795"/>
+    <mergeCell ref="N794:N795"/>
+    <mergeCell ref="O794:O795"/>
+    <mergeCell ref="P794:P795"/>
+    <mergeCell ref="K821:K823"/>
+    <mergeCell ref="L821:L823"/>
+    <mergeCell ref="Q800:R800"/>
+    <mergeCell ref="Q803:R803"/>
+    <mergeCell ref="S805:T805"/>
+    <mergeCell ref="R807:S807"/>
+    <mergeCell ref="S818:T818"/>
+    <mergeCell ref="A821:A823"/>
+    <mergeCell ref="B821:B823"/>
+    <mergeCell ref="C821:C823"/>
+    <mergeCell ref="D821:D823"/>
+    <mergeCell ref="F821:F823"/>
+    <mergeCell ref="V796:V797"/>
+    <mergeCell ref="W796:W797"/>
+    <mergeCell ref="X796:X797"/>
+    <mergeCell ref="Y796:Y797"/>
+    <mergeCell ref="Z796:Z797"/>
+    <mergeCell ref="S798:T798"/>
+    <mergeCell ref="O796:O797"/>
+    <mergeCell ref="P796:P797"/>
+    <mergeCell ref="Q796:Q797"/>
+    <mergeCell ref="R796:S796"/>
+    <mergeCell ref="T796:T797"/>
+    <mergeCell ref="U796:U797"/>
+    <mergeCell ref="I796:I797"/>
+    <mergeCell ref="J796:J797"/>
+    <mergeCell ref="K796:K797"/>
+    <mergeCell ref="L796:L797"/>
+    <mergeCell ref="M796:M797"/>
+    <mergeCell ref="N796:N797"/>
+    <mergeCell ref="R835:S835"/>
+    <mergeCell ref="A843:A844"/>
+    <mergeCell ref="B843:B844"/>
+    <mergeCell ref="C843:C844"/>
+    <mergeCell ref="D843:D844"/>
+    <mergeCell ref="F843:F844"/>
+    <mergeCell ref="G843:G844"/>
+    <mergeCell ref="H843:H844"/>
+    <mergeCell ref="I843:I844"/>
+    <mergeCell ref="J843:J844"/>
+    <mergeCell ref="Z821:Z823"/>
+    <mergeCell ref="Q825:R825"/>
+    <mergeCell ref="Q826:R826"/>
+    <mergeCell ref="R830:S830"/>
+    <mergeCell ref="Q832:R832"/>
+    <mergeCell ref="R833:S833"/>
+    <mergeCell ref="S821:T821"/>
+    <mergeCell ref="U821:U823"/>
+    <mergeCell ref="V821:V823"/>
+    <mergeCell ref="W821:W823"/>
+    <mergeCell ref="X821:X823"/>
+    <mergeCell ref="Y821:Y823"/>
+    <mergeCell ref="M821:M823"/>
+    <mergeCell ref="N821:N823"/>
+    <mergeCell ref="O821:O823"/>
+    <mergeCell ref="P821:P823"/>
+    <mergeCell ref="Q821:Q823"/>
+    <mergeCell ref="R821:R823"/>
+    <mergeCell ref="G821:G823"/>
+    <mergeCell ref="H821:H823"/>
+    <mergeCell ref="I821:I823"/>
+    <mergeCell ref="J821:J823"/>
+    <mergeCell ref="R850:R851"/>
+    <mergeCell ref="S850:S851"/>
+    <mergeCell ref="H850:H851"/>
+    <mergeCell ref="I850:I851"/>
+    <mergeCell ref="J850:J851"/>
+    <mergeCell ref="K850:K851"/>
+    <mergeCell ref="L850:L851"/>
+    <mergeCell ref="M850:M851"/>
+    <mergeCell ref="X843:X844"/>
+    <mergeCell ref="Y843:Y844"/>
+    <mergeCell ref="Z843:Z844"/>
+    <mergeCell ref="Q845:R845"/>
+    <mergeCell ref="A850:A851"/>
+    <mergeCell ref="B850:B851"/>
+    <mergeCell ref="C850:C851"/>
+    <mergeCell ref="D850:D851"/>
+    <mergeCell ref="F850:F851"/>
+    <mergeCell ref="G850:G851"/>
+    <mergeCell ref="Q843:Q844"/>
+    <mergeCell ref="R843:R844"/>
+    <mergeCell ref="S843:S844"/>
+    <mergeCell ref="T843:U843"/>
+    <mergeCell ref="V843:V844"/>
+    <mergeCell ref="W843:W844"/>
+    <mergeCell ref="K843:K844"/>
+    <mergeCell ref="L843:L844"/>
+    <mergeCell ref="M843:M844"/>
+    <mergeCell ref="N843:N844"/>
+    <mergeCell ref="O843:O844"/>
+    <mergeCell ref="P843:P844"/>
+    <mergeCell ref="R883:S883"/>
+    <mergeCell ref="R884:S884"/>
+    <mergeCell ref="R886:S886"/>
+    <mergeCell ref="A887:A889"/>
+    <mergeCell ref="B887:B889"/>
+    <mergeCell ref="C887:C889"/>
+    <mergeCell ref="D887:D889"/>
+    <mergeCell ref="F887:F889"/>
+    <mergeCell ref="G887:G889"/>
+    <mergeCell ref="H887:H889"/>
+    <mergeCell ref="Q871:R871"/>
+    <mergeCell ref="Q873:R873"/>
+    <mergeCell ref="R875:S875"/>
+    <mergeCell ref="Q876:R876"/>
+    <mergeCell ref="T877:U877"/>
+    <mergeCell ref="S881:T881"/>
+    <mergeCell ref="Z850:Z851"/>
+    <mergeCell ref="Q852:R852"/>
+    <mergeCell ref="R853:S853"/>
+    <mergeCell ref="Q866:R866"/>
+    <mergeCell ref="Q869:R869"/>
+    <mergeCell ref="Q870:R870"/>
+    <mergeCell ref="T850:T851"/>
+    <mergeCell ref="U850:U851"/>
+    <mergeCell ref="V850:V851"/>
+    <mergeCell ref="W850:W851"/>
+    <mergeCell ref="X850:X851"/>
+    <mergeCell ref="Y850:Y851"/>
+    <mergeCell ref="N850:N851"/>
+    <mergeCell ref="O850:O851"/>
+    <mergeCell ref="P850:P851"/>
+    <mergeCell ref="Q850:Q851"/>
+    <mergeCell ref="R893:S893"/>
+    <mergeCell ref="Q894:R894"/>
+    <mergeCell ref="Q898:R898"/>
+    <mergeCell ref="R901:S901"/>
+    <mergeCell ref="R903:S903"/>
+    <mergeCell ref="A904:A905"/>
+    <mergeCell ref="B904:B905"/>
+    <mergeCell ref="C904:C905"/>
+    <mergeCell ref="D904:D905"/>
+    <mergeCell ref="F904:F905"/>
+    <mergeCell ref="U887:U889"/>
+    <mergeCell ref="V887:V889"/>
+    <mergeCell ref="W887:W889"/>
+    <mergeCell ref="X887:X889"/>
+    <mergeCell ref="Y887:Y889"/>
+    <mergeCell ref="Z887:Z889"/>
+    <mergeCell ref="O887:O889"/>
+    <mergeCell ref="P887:P889"/>
+    <mergeCell ref="Q887:Q889"/>
+    <mergeCell ref="R887:R889"/>
+    <mergeCell ref="S887:S889"/>
+    <mergeCell ref="T887:T889"/>
+    <mergeCell ref="I887:I889"/>
+    <mergeCell ref="J887:J889"/>
+    <mergeCell ref="K887:K889"/>
+    <mergeCell ref="L887:L889"/>
+    <mergeCell ref="M887:M889"/>
+    <mergeCell ref="N887:N889"/>
+    <mergeCell ref="Z904:Z905"/>
+    <mergeCell ref="A906:A907"/>
+    <mergeCell ref="B906:B907"/>
+    <mergeCell ref="C906:C907"/>
+    <mergeCell ref="D906:D907"/>
+    <mergeCell ref="F906:F907"/>
+    <mergeCell ref="G906:G907"/>
+    <mergeCell ref="H906:H907"/>
+    <mergeCell ref="I906:I907"/>
+    <mergeCell ref="J906:J907"/>
+    <mergeCell ref="T904:T905"/>
+    <mergeCell ref="U904:U905"/>
+    <mergeCell ref="V904:V905"/>
+    <mergeCell ref="W904:W905"/>
+    <mergeCell ref="X904:X905"/>
+    <mergeCell ref="Y904:Y905"/>
+    <mergeCell ref="M904:M905"/>
+    <mergeCell ref="N904:N905"/>
+    <mergeCell ref="O904:O905"/>
+    <mergeCell ref="P904:P905"/>
+    <mergeCell ref="Q904:Q905"/>
+    <mergeCell ref="R904:S904"/>
+    <mergeCell ref="G904:G905"/>
+    <mergeCell ref="H904:H905"/>
+    <mergeCell ref="I904:I905"/>
+    <mergeCell ref="J904:J905"/>
+    <mergeCell ref="K904:K905"/>
+    <mergeCell ref="L904:L905"/>
+    <mergeCell ref="S915:T915"/>
+    <mergeCell ref="Q917:R917"/>
+    <mergeCell ref="A919:A920"/>
+    <mergeCell ref="B919:B920"/>
+    <mergeCell ref="C919:C920"/>
+    <mergeCell ref="D919:D920"/>
+    <mergeCell ref="F919:F920"/>
+    <mergeCell ref="G919:G920"/>
+    <mergeCell ref="H919:H920"/>
+    <mergeCell ref="I919:I920"/>
+    <mergeCell ref="W906:W907"/>
+    <mergeCell ref="X906:X907"/>
+    <mergeCell ref="Y906:Y907"/>
+    <mergeCell ref="Z906:Z907"/>
+    <mergeCell ref="U911:V911"/>
+    <mergeCell ref="R912:S912"/>
+    <mergeCell ref="Q906:Q907"/>
+    <mergeCell ref="R906:R907"/>
+    <mergeCell ref="S906:S907"/>
+    <mergeCell ref="T906:T907"/>
+    <mergeCell ref="U906:U907"/>
+    <mergeCell ref="V906:V907"/>
+    <mergeCell ref="K906:K907"/>
+    <mergeCell ref="L906:L907"/>
+    <mergeCell ref="M906:M907"/>
+    <mergeCell ref="N906:N907"/>
+    <mergeCell ref="O906:O907"/>
+    <mergeCell ref="P906:P907"/>
+    <mergeCell ref="V919:V920"/>
+    <mergeCell ref="W919:W920"/>
+    <mergeCell ref="X919:X920"/>
+    <mergeCell ref="Y919:Y920"/>
+    <mergeCell ref="Z919:Z920"/>
+    <mergeCell ref="Q922:R922"/>
+    <mergeCell ref="P919:P920"/>
+    <mergeCell ref="Q919:Q920"/>
+    <mergeCell ref="R919:R920"/>
+    <mergeCell ref="S919:S920"/>
+    <mergeCell ref="T919:T920"/>
+    <mergeCell ref="U919:U920"/>
+    <mergeCell ref="J919:J920"/>
+    <mergeCell ref="K919:K920"/>
+    <mergeCell ref="L919:L920"/>
+    <mergeCell ref="M919:M920"/>
+    <mergeCell ref="N919:N920"/>
+    <mergeCell ref="O919:O920"/>
+    <mergeCell ref="Q951:R951"/>
+    <mergeCell ref="A953:A954"/>
+    <mergeCell ref="B953:B954"/>
+    <mergeCell ref="C953:C954"/>
+    <mergeCell ref="D953:D954"/>
+    <mergeCell ref="F953:F954"/>
+    <mergeCell ref="G953:G954"/>
+    <mergeCell ref="H953:H954"/>
+    <mergeCell ref="I953:I954"/>
+    <mergeCell ref="J953:J954"/>
+    <mergeCell ref="S937:T937"/>
+    <mergeCell ref="R939:S939"/>
+    <mergeCell ref="Q945:R945"/>
+    <mergeCell ref="Q946:R946"/>
+    <mergeCell ref="Q948:R948"/>
+    <mergeCell ref="T950:U950"/>
+    <mergeCell ref="R924:S924"/>
+    <mergeCell ref="S927:T927"/>
+    <mergeCell ref="Q928:R928"/>
+    <mergeCell ref="S930:T930"/>
+    <mergeCell ref="R935:S935"/>
+    <mergeCell ref="R936:S936"/>
+    <mergeCell ref="W953:W954"/>
+    <mergeCell ref="X953:X954"/>
+    <mergeCell ref="Y953:Y954"/>
+    <mergeCell ref="Z953:Z954"/>
+    <mergeCell ref="A955:A956"/>
+    <mergeCell ref="B955:B956"/>
+    <mergeCell ref="C955:C956"/>
+    <mergeCell ref="D955:D956"/>
+    <mergeCell ref="F955:F956"/>
+    <mergeCell ref="G955:G956"/>
+    <mergeCell ref="Q953:Q954"/>
+    <mergeCell ref="R953:R954"/>
+    <mergeCell ref="S953:S954"/>
+    <mergeCell ref="T953:T954"/>
+    <mergeCell ref="U953:U954"/>
+    <mergeCell ref="V953:V954"/>
+    <mergeCell ref="K953:K954"/>
+    <mergeCell ref="L953:L954"/>
+    <mergeCell ref="M953:M954"/>
+    <mergeCell ref="N953:N954"/>
+    <mergeCell ref="O953:O954"/>
+    <mergeCell ref="P953:P954"/>
+    <mergeCell ref="R957:S957"/>
+    <mergeCell ref="S959:T959"/>
+    <mergeCell ref="Q960:R960"/>
+    <mergeCell ref="R961:S961"/>
+    <mergeCell ref="A963:A964"/>
+    <mergeCell ref="B963:B964"/>
+    <mergeCell ref="C963:C964"/>
+    <mergeCell ref="D963:D964"/>
+    <mergeCell ref="F963:F964"/>
+    <mergeCell ref="G963:G964"/>
+    <mergeCell ref="U955:U956"/>
+    <mergeCell ref="V955:V956"/>
+    <mergeCell ref="W955:W956"/>
+    <mergeCell ref="X955:X956"/>
+    <mergeCell ref="Y955:Y956"/>
+    <mergeCell ref="Z955:Z956"/>
+    <mergeCell ref="N955:N956"/>
+    <mergeCell ref="O955:O956"/>
+    <mergeCell ref="P955:P956"/>
+    <mergeCell ref="Q955:Q956"/>
+    <mergeCell ref="R955:S955"/>
+    <mergeCell ref="T955:T956"/>
+    <mergeCell ref="H955:H956"/>
+    <mergeCell ref="I955:I956"/>
+    <mergeCell ref="J955:J956"/>
+    <mergeCell ref="K955:K956"/>
+    <mergeCell ref="L955:L956"/>
+    <mergeCell ref="M955:M956"/>
+    <mergeCell ref="Z963:Z964"/>
+    <mergeCell ref="J965:J966"/>
+    <mergeCell ref="T963:T964"/>
+    <mergeCell ref="U963:U964"/>
+    <mergeCell ref="V963:V964"/>
+    <mergeCell ref="W963:W964"/>
+    <mergeCell ref="X963:X964"/>
+    <mergeCell ref="Y963:Y964"/>
+    <mergeCell ref="N963:N964"/>
+    <mergeCell ref="O963:O964"/>
+    <mergeCell ref="P963:P964"/>
+    <mergeCell ref="Q963:Q964"/>
+    <mergeCell ref="R963:R964"/>
+    <mergeCell ref="S963:S964"/>
+    <mergeCell ref="H963:H964"/>
+    <mergeCell ref="I963:I964"/>
+    <mergeCell ref="J963:J964"/>
+    <mergeCell ref="K963:K964"/>
+    <mergeCell ref="L963:L964"/>
+    <mergeCell ref="M963:M964"/>
+    <mergeCell ref="L968:L969"/>
+    <mergeCell ref="M968:M969"/>
+    <mergeCell ref="W965:W966"/>
+    <mergeCell ref="X965:X966"/>
+    <mergeCell ref="Y965:Y966"/>
+    <mergeCell ref="Z965:Z966"/>
+    <mergeCell ref="A968:A969"/>
+    <mergeCell ref="B968:B969"/>
+    <mergeCell ref="C968:C969"/>
+    <mergeCell ref="D968:D969"/>
+    <mergeCell ref="F968:F969"/>
+    <mergeCell ref="G968:G969"/>
+    <mergeCell ref="Q965:Q966"/>
+    <mergeCell ref="R965:R966"/>
+    <mergeCell ref="S965:S966"/>
+    <mergeCell ref="T965:T966"/>
+    <mergeCell ref="U965:U966"/>
+    <mergeCell ref="V965:V966"/>
+    <mergeCell ref="K965:K966"/>
+    <mergeCell ref="L965:L966"/>
+    <mergeCell ref="M965:M966"/>
+    <mergeCell ref="N965:N966"/>
+    <mergeCell ref="O965:O966"/>
+    <mergeCell ref="P965:P966"/>
+    <mergeCell ref="A965:A966"/>
+    <mergeCell ref="B965:B966"/>
+    <mergeCell ref="C965:C966"/>
+    <mergeCell ref="D965:D966"/>
+    <mergeCell ref="F965:F966"/>
+    <mergeCell ref="G965:G966"/>
+    <mergeCell ref="H965:H966"/>
+    <mergeCell ref="I965:I966"/>
+    <mergeCell ref="R981:S981"/>
+    <mergeCell ref="Q982:R982"/>
+    <mergeCell ref="Q983:R983"/>
+    <mergeCell ref="A991:A992"/>
+    <mergeCell ref="B991:B992"/>
+    <mergeCell ref="C991:C992"/>
+    <mergeCell ref="D991:D992"/>
+    <mergeCell ref="F991:F992"/>
+    <mergeCell ref="G991:G992"/>
+    <mergeCell ref="H991:H992"/>
+    <mergeCell ref="Z968:Z969"/>
+    <mergeCell ref="S970:T970"/>
+    <mergeCell ref="S971:T971"/>
+    <mergeCell ref="R973:S973"/>
+    <mergeCell ref="R977:S977"/>
+    <mergeCell ref="Q980:R980"/>
+    <mergeCell ref="T968:T969"/>
+    <mergeCell ref="U968:U969"/>
+    <mergeCell ref="V968:V969"/>
+    <mergeCell ref="W968:W969"/>
+    <mergeCell ref="X968:X969"/>
+    <mergeCell ref="Y968:Y969"/>
+    <mergeCell ref="N968:N969"/>
+    <mergeCell ref="O968:O969"/>
+    <mergeCell ref="P968:P969"/>
+    <mergeCell ref="Q968:Q969"/>
+    <mergeCell ref="R968:R969"/>
+    <mergeCell ref="S968:S969"/>
+    <mergeCell ref="H968:H969"/>
+    <mergeCell ref="I968:I969"/>
+    <mergeCell ref="J968:J969"/>
+    <mergeCell ref="K968:K969"/>
+    <mergeCell ref="F993:F994"/>
+    <mergeCell ref="G993:G994"/>
+    <mergeCell ref="U991:U992"/>
+    <mergeCell ref="V991:V992"/>
+    <mergeCell ref="W991:W992"/>
+    <mergeCell ref="X991:X992"/>
+    <mergeCell ref="Y991:Y992"/>
+    <mergeCell ref="Z991:Z992"/>
+    <mergeCell ref="O991:O992"/>
+    <mergeCell ref="P991:P992"/>
+    <mergeCell ref="Q991:Q992"/>
+    <mergeCell ref="R991:R992"/>
+    <mergeCell ref="S991:S992"/>
+    <mergeCell ref="T991:T992"/>
+    <mergeCell ref="I991:I992"/>
+    <mergeCell ref="J991:J992"/>
+    <mergeCell ref="K991:K992"/>
+    <mergeCell ref="L991:L992"/>
+    <mergeCell ref="M991:M992"/>
+    <mergeCell ref="N991:N992"/>
+    <mergeCell ref="R997:S997"/>
+    <mergeCell ref="R999:S999"/>
+    <mergeCell ref="Q1001:R1001"/>
+    <mergeCell ref="A1005:A1006"/>
+    <mergeCell ref="B1005:B1006"/>
+    <mergeCell ref="C1005:C1006"/>
+    <mergeCell ref="D1005:D1006"/>
+    <mergeCell ref="F1005:F1006"/>
+    <mergeCell ref="G1005:G1006"/>
+    <mergeCell ref="H1005:H1006"/>
+    <mergeCell ref="T993:U993"/>
+    <mergeCell ref="V993:V994"/>
+    <mergeCell ref="W993:W994"/>
+    <mergeCell ref="X993:X994"/>
+    <mergeCell ref="Y993:Y994"/>
+    <mergeCell ref="Z993:Z994"/>
+    <mergeCell ref="N993:N994"/>
+    <mergeCell ref="O993:O994"/>
+    <mergeCell ref="P993:P994"/>
+    <mergeCell ref="Q993:Q994"/>
+    <mergeCell ref="R993:R994"/>
+    <mergeCell ref="S993:S994"/>
+    <mergeCell ref="H993:H994"/>
+    <mergeCell ref="I993:I994"/>
+    <mergeCell ref="J993:J994"/>
+    <mergeCell ref="K993:K994"/>
+    <mergeCell ref="L993:L994"/>
+    <mergeCell ref="M993:M994"/>
+    <mergeCell ref="A993:A994"/>
+    <mergeCell ref="B993:B994"/>
+    <mergeCell ref="C993:C994"/>
+    <mergeCell ref="D993:D994"/>
+    <mergeCell ref="R1014:S1014"/>
+    <mergeCell ref="A1015:A1016"/>
+    <mergeCell ref="B1015:B1016"/>
+    <mergeCell ref="C1015:C1016"/>
+    <mergeCell ref="D1015:D1016"/>
+    <mergeCell ref="F1015:F1016"/>
+    <mergeCell ref="G1015:G1016"/>
+    <mergeCell ref="H1015:H1016"/>
+    <mergeCell ref="I1015:I1016"/>
+    <mergeCell ref="J1015:J1016"/>
+    <mergeCell ref="V1005:V1006"/>
+    <mergeCell ref="W1005:W1006"/>
+    <mergeCell ref="X1005:X1006"/>
+    <mergeCell ref="Y1005:Y1006"/>
+    <mergeCell ref="Z1005:Z1006"/>
+    <mergeCell ref="S1008:T1008"/>
+    <mergeCell ref="O1005:O1006"/>
+    <mergeCell ref="P1005:P1006"/>
+    <mergeCell ref="Q1005:Q1006"/>
+    <mergeCell ref="R1005:S1005"/>
+    <mergeCell ref="T1005:T1006"/>
+    <mergeCell ref="U1005:U1006"/>
+    <mergeCell ref="I1005:I1006"/>
+    <mergeCell ref="J1005:J1006"/>
+    <mergeCell ref="K1005:K1006"/>
+    <mergeCell ref="L1005:L1006"/>
+    <mergeCell ref="M1005:M1006"/>
+    <mergeCell ref="N1005:N1006"/>
+    <mergeCell ref="G1037:G1038"/>
+    <mergeCell ref="R1019:S1019"/>
+    <mergeCell ref="R1023:S1023"/>
+    <mergeCell ref="R1024:S1024"/>
+    <mergeCell ref="Q1026:R1026"/>
+    <mergeCell ref="Q1027:R1027"/>
+    <mergeCell ref="Q1030:R1030"/>
+    <mergeCell ref="W1015:W1016"/>
+    <mergeCell ref="X1015:X1016"/>
+    <mergeCell ref="Y1015:Y1016"/>
+    <mergeCell ref="Z1015:Z1016"/>
+    <mergeCell ref="Q1017:R1017"/>
+    <mergeCell ref="Y1018:Z1018"/>
+    <mergeCell ref="Q1015:Q1016"/>
+    <mergeCell ref="R1015:R1016"/>
+    <mergeCell ref="S1015:S1016"/>
+    <mergeCell ref="T1015:T1016"/>
+    <mergeCell ref="U1015:U1016"/>
+    <mergeCell ref="V1015:V1016"/>
+    <mergeCell ref="K1015:K1016"/>
+    <mergeCell ref="L1015:L1016"/>
+    <mergeCell ref="M1015:M1016"/>
+    <mergeCell ref="N1015:N1016"/>
+    <mergeCell ref="O1015:O1016"/>
+    <mergeCell ref="P1015:P1016"/>
+    <mergeCell ref="Z1037:Z1038"/>
+    <mergeCell ref="Q1040:R1040"/>
+    <mergeCell ref="A1041:A1042"/>
+    <mergeCell ref="B1041:B1042"/>
+    <mergeCell ref="C1041:C1042"/>
+    <mergeCell ref="D1041:D1042"/>
+    <mergeCell ref="F1041:F1042"/>
+    <mergeCell ref="G1041:G1042"/>
+    <mergeCell ref="H1041:H1042"/>
+    <mergeCell ref="I1041:I1042"/>
+    <mergeCell ref="T1037:T1038"/>
+    <mergeCell ref="U1037:U1038"/>
+    <mergeCell ref="V1037:V1038"/>
+    <mergeCell ref="W1037:W1038"/>
+    <mergeCell ref="X1037:X1038"/>
+    <mergeCell ref="Y1037:Y1038"/>
+    <mergeCell ref="N1037:N1038"/>
+    <mergeCell ref="O1037:O1038"/>
+    <mergeCell ref="P1037:P1038"/>
+    <mergeCell ref="Q1037:Q1038"/>
+    <mergeCell ref="R1037:R1038"/>
+    <mergeCell ref="S1037:S1038"/>
+    <mergeCell ref="H1037:H1038"/>
+    <mergeCell ref="I1037:I1038"/>
+    <mergeCell ref="J1037:J1038"/>
+    <mergeCell ref="K1037:K1038"/>
+    <mergeCell ref="L1037:L1038"/>
+    <mergeCell ref="M1037:M1038"/>
+    <mergeCell ref="A1037:A1038"/>
+    <mergeCell ref="B1037:B1038"/>
+    <mergeCell ref="C1037:C1038"/>
+    <mergeCell ref="D1037:D1038"/>
+    <mergeCell ref="F1037:F1038"/>
+    <mergeCell ref="K1045:K1046"/>
+    <mergeCell ref="L1045:L1046"/>
+    <mergeCell ref="V1041:V1042"/>
+    <mergeCell ref="W1041:W1042"/>
+    <mergeCell ref="X1041:X1042"/>
+    <mergeCell ref="Y1041:Y1042"/>
+    <mergeCell ref="Z1041:Z1042"/>
+    <mergeCell ref="A1045:A1046"/>
+    <mergeCell ref="B1045:B1046"/>
+    <mergeCell ref="C1045:C1046"/>
+    <mergeCell ref="D1045:D1046"/>
+    <mergeCell ref="F1045:F1046"/>
+    <mergeCell ref="P1041:P1042"/>
+    <mergeCell ref="Q1041:Q1042"/>
+    <mergeCell ref="R1041:R1042"/>
+    <mergeCell ref="S1041:S1042"/>
+    <mergeCell ref="T1041:T1042"/>
+    <mergeCell ref="U1041:U1042"/>
+    <mergeCell ref="J1041:J1042"/>
+    <mergeCell ref="K1041:K1042"/>
+    <mergeCell ref="L1041:L1042"/>
+    <mergeCell ref="M1041:M1042"/>
+    <mergeCell ref="N1041:N1042"/>
+    <mergeCell ref="O1041:O1042"/>
+    <mergeCell ref="J1048:J1049"/>
+    <mergeCell ref="K1048:K1049"/>
+    <mergeCell ref="L1048:L1049"/>
+    <mergeCell ref="M1048:M1049"/>
+    <mergeCell ref="N1048:N1049"/>
+    <mergeCell ref="O1048:O1049"/>
+    <mergeCell ref="Y1045:Y1046"/>
+    <mergeCell ref="Z1045:Z1046"/>
+    <mergeCell ref="A1048:A1049"/>
+    <mergeCell ref="B1048:B1049"/>
+    <mergeCell ref="C1048:C1049"/>
+    <mergeCell ref="D1048:D1049"/>
+    <mergeCell ref="F1048:F1049"/>
+    <mergeCell ref="G1048:G1049"/>
+    <mergeCell ref="H1048:H1049"/>
+    <mergeCell ref="I1048:I1049"/>
+    <mergeCell ref="S1045:S1046"/>
+    <mergeCell ref="T1045:T1046"/>
+    <mergeCell ref="U1045:U1046"/>
+    <mergeCell ref="V1045:V1046"/>
+    <mergeCell ref="W1045:W1046"/>
+    <mergeCell ref="X1045:X1046"/>
+    <mergeCell ref="M1045:M1046"/>
+    <mergeCell ref="N1045:N1046"/>
+    <mergeCell ref="O1045:O1046"/>
+    <mergeCell ref="P1045:P1046"/>
+    <mergeCell ref="Q1045:Q1046"/>
+    <mergeCell ref="R1045:R1046"/>
+    <mergeCell ref="G1045:G1046"/>
+    <mergeCell ref="H1045:H1046"/>
+    <mergeCell ref="I1045:I1046"/>
+    <mergeCell ref="J1045:J1046"/>
+    <mergeCell ref="Q1052:R1052"/>
+    <mergeCell ref="R1053:S1053"/>
+    <mergeCell ref="R1055:S1055"/>
+    <mergeCell ref="R1056:S1056"/>
+    <mergeCell ref="R1059:S1059"/>
+    <mergeCell ref="R1060:S1060"/>
+    <mergeCell ref="V1048:V1049"/>
+    <mergeCell ref="W1048:W1049"/>
+    <mergeCell ref="X1048:X1049"/>
+    <mergeCell ref="Y1048:Y1049"/>
+    <mergeCell ref="Z1048:Z1049"/>
+    <mergeCell ref="S1050:T1050"/>
+    <mergeCell ref="P1048:P1049"/>
+    <mergeCell ref="Q1048:Q1049"/>
+    <mergeCell ref="R1048:R1049"/>
+    <mergeCell ref="S1048:S1049"/>
+    <mergeCell ref="T1048:T1049"/>
+    <mergeCell ref="U1048:U1049"/>
+    <mergeCell ref="A1063:A1064"/>
+    <mergeCell ref="B1063:B1064"/>
+    <mergeCell ref="C1063:C1064"/>
+    <mergeCell ref="D1063:D1064"/>
+    <mergeCell ref="F1063:F1064"/>
+    <mergeCell ref="G1063:G1064"/>
+    <mergeCell ref="U1061:U1062"/>
+    <mergeCell ref="V1061:V1062"/>
+    <mergeCell ref="W1061:W1062"/>
+    <mergeCell ref="X1061:X1062"/>
+    <mergeCell ref="Y1061:Y1062"/>
+    <mergeCell ref="Z1061:Z1062"/>
+    <mergeCell ref="N1061:N1062"/>
+    <mergeCell ref="O1061:O1062"/>
+    <mergeCell ref="P1061:P1062"/>
+    <mergeCell ref="Q1061:Q1062"/>
+    <mergeCell ref="R1061:R1062"/>
+    <mergeCell ref="S1061:T1061"/>
+    <mergeCell ref="H1061:H1062"/>
+    <mergeCell ref="I1061:I1062"/>
+    <mergeCell ref="J1061:J1062"/>
+    <mergeCell ref="K1061:K1062"/>
+    <mergeCell ref="L1061:L1062"/>
+    <mergeCell ref="M1061:M1062"/>
+    <mergeCell ref="A1061:A1062"/>
+    <mergeCell ref="B1061:B1062"/>
+    <mergeCell ref="C1061:C1062"/>
+    <mergeCell ref="D1061:D1062"/>
+    <mergeCell ref="F1061:F1062"/>
+    <mergeCell ref="G1061:G1062"/>
+    <mergeCell ref="C1069:C1070"/>
+    <mergeCell ref="D1069:D1070"/>
+    <mergeCell ref="F1069:F1070"/>
+    <mergeCell ref="G1069:G1070"/>
+    <mergeCell ref="U1063:U1064"/>
+    <mergeCell ref="V1063:V1064"/>
+    <mergeCell ref="W1063:W1064"/>
+    <mergeCell ref="X1063:X1064"/>
+    <mergeCell ref="Y1063:Y1064"/>
+    <mergeCell ref="Z1063:Z1064"/>
+    <mergeCell ref="N1063:N1064"/>
+    <mergeCell ref="O1063:O1064"/>
+    <mergeCell ref="P1063:P1064"/>
+    <mergeCell ref="Q1063:R1063"/>
+    <mergeCell ref="S1063:S1064"/>
+    <mergeCell ref="T1063:T1064"/>
+    <mergeCell ref="H1063:H1064"/>
+    <mergeCell ref="I1063:I1064"/>
+    <mergeCell ref="J1063:J1064"/>
+    <mergeCell ref="K1063:K1064"/>
+    <mergeCell ref="L1063:L1064"/>
+    <mergeCell ref="M1063:M1064"/>
+    <mergeCell ref="K1082:K1083"/>
+    <mergeCell ref="L1082:L1083"/>
+    <mergeCell ref="Z1069:Z1070"/>
+    <mergeCell ref="R1078:S1078"/>
+    <mergeCell ref="Q1079:R1079"/>
+    <mergeCell ref="S1080:T1080"/>
+    <mergeCell ref="Q1081:R1081"/>
+    <mergeCell ref="A1082:A1083"/>
+    <mergeCell ref="B1082:B1083"/>
+    <mergeCell ref="C1082:C1083"/>
+    <mergeCell ref="D1082:D1083"/>
+    <mergeCell ref="F1082:F1083"/>
+    <mergeCell ref="T1069:T1070"/>
+    <mergeCell ref="U1069:U1070"/>
+    <mergeCell ref="V1069:V1070"/>
+    <mergeCell ref="W1069:W1070"/>
+    <mergeCell ref="X1069:X1070"/>
+    <mergeCell ref="Y1069:Y1070"/>
+    <mergeCell ref="N1069:N1070"/>
+    <mergeCell ref="O1069:O1070"/>
+    <mergeCell ref="P1069:P1070"/>
+    <mergeCell ref="Q1069:Q1070"/>
+    <mergeCell ref="R1069:R1070"/>
+    <mergeCell ref="S1069:S1070"/>
+    <mergeCell ref="H1069:H1070"/>
+    <mergeCell ref="I1069:I1070"/>
+    <mergeCell ref="J1069:J1070"/>
+    <mergeCell ref="K1069:K1070"/>
+    <mergeCell ref="L1069:L1070"/>
+    <mergeCell ref="M1069:M1070"/>
+    <mergeCell ref="A1069:A1070"/>
+    <mergeCell ref="B1069:B1070"/>
+    <mergeCell ref="Q1091:R1091"/>
+    <mergeCell ref="R1097:S1097"/>
+    <mergeCell ref="A1100:A1101"/>
+    <mergeCell ref="B1100:B1101"/>
+    <mergeCell ref="C1100:C1101"/>
+    <mergeCell ref="D1100:D1101"/>
+    <mergeCell ref="F1100:F1101"/>
+    <mergeCell ref="G1100:G1101"/>
+    <mergeCell ref="H1100:H1101"/>
+    <mergeCell ref="I1100:I1101"/>
+    <mergeCell ref="Y1082:Y1083"/>
+    <mergeCell ref="Z1082:Z1083"/>
+    <mergeCell ref="R1084:S1084"/>
+    <mergeCell ref="S1087:T1087"/>
+    <mergeCell ref="S1089:T1089"/>
+    <mergeCell ref="R1090:S1090"/>
+    <mergeCell ref="S1082:S1083"/>
+    <mergeCell ref="T1082:T1083"/>
+    <mergeCell ref="U1082:U1083"/>
+    <mergeCell ref="V1082:V1083"/>
+    <mergeCell ref="W1082:W1083"/>
+    <mergeCell ref="X1082:X1083"/>
+    <mergeCell ref="M1082:M1083"/>
+    <mergeCell ref="N1082:N1083"/>
+    <mergeCell ref="O1082:O1083"/>
+    <mergeCell ref="P1082:P1083"/>
+    <mergeCell ref="Q1082:Q1083"/>
+    <mergeCell ref="R1082:R1083"/>
+    <mergeCell ref="G1082:G1083"/>
+    <mergeCell ref="H1082:H1083"/>
+    <mergeCell ref="I1082:I1083"/>
+    <mergeCell ref="J1082:J1083"/>
+    <mergeCell ref="X1100:X1101"/>
+    <mergeCell ref="Y1100:Y1101"/>
+    <mergeCell ref="Z1100:Z1101"/>
+    <mergeCell ref="Q1102:R1102"/>
+    <mergeCell ref="R1103:S1103"/>
+    <mergeCell ref="P1100:P1101"/>
+    <mergeCell ref="Q1100:Q1101"/>
+    <mergeCell ref="R1100:S1100"/>
+    <mergeCell ref="T1100:T1101"/>
+    <mergeCell ref="U1100:U1101"/>
+    <mergeCell ref="V1100:V1101"/>
+    <mergeCell ref="J1100:J1101"/>
+    <mergeCell ref="K1100:K1101"/>
+    <mergeCell ref="L1100:L1101"/>
+    <mergeCell ref="M1100:M1101"/>
+    <mergeCell ref="N1100:N1101"/>
+    <mergeCell ref="O1100:O1101"/>
+    <mergeCell ref="R1126:S1126"/>
+    <mergeCell ref="R1128:S1128"/>
+    <mergeCell ref="U1131:V1131"/>
+    <mergeCell ref="A1132:A1133"/>
+    <mergeCell ref="B1132:B1133"/>
+    <mergeCell ref="C1132:C1133"/>
+    <mergeCell ref="D1132:D1133"/>
+    <mergeCell ref="F1132:F1133"/>
+    <mergeCell ref="G1132:G1133"/>
+    <mergeCell ref="H1132:H1133"/>
+    <mergeCell ref="Q1104:R1104"/>
+    <mergeCell ref="Q1107:R1107"/>
+    <mergeCell ref="V1115:W1115"/>
+    <mergeCell ref="Q1116:R1116"/>
+    <mergeCell ref="Q1123:R1123"/>
+    <mergeCell ref="Q1125:R1125"/>
+    <mergeCell ref="W1100:W1101"/>
+    <mergeCell ref="G1151:G1153"/>
+    <mergeCell ref="U1132:U1133"/>
+    <mergeCell ref="V1132:V1133"/>
+    <mergeCell ref="W1132:W1133"/>
+    <mergeCell ref="X1132:X1133"/>
+    <mergeCell ref="Y1132:Y1133"/>
+    <mergeCell ref="Z1132:Z1133"/>
+    <mergeCell ref="O1132:O1133"/>
+    <mergeCell ref="P1132:P1133"/>
+    <mergeCell ref="Q1132:Q1133"/>
+    <mergeCell ref="R1132:R1133"/>
+    <mergeCell ref="S1132:S1133"/>
+    <mergeCell ref="T1132:T1133"/>
+    <mergeCell ref="I1132:I1133"/>
+    <mergeCell ref="J1132:J1133"/>
+    <mergeCell ref="K1132:K1133"/>
+    <mergeCell ref="L1132:L1133"/>
+    <mergeCell ref="M1132:M1133"/>
+    <mergeCell ref="N1132:N1133"/>
     <mergeCell ref="A1156:A1157"/>
     <mergeCell ref="B1156:B1157"/>
     <mergeCell ref="C1156:C1157"/>
@@ -75790,3281 +79050,23 @@
     <mergeCell ref="C1151:C1153"/>
     <mergeCell ref="D1151:D1153"/>
     <mergeCell ref="F1151:F1153"/>
-    <mergeCell ref="G1151:G1153"/>
-    <mergeCell ref="U1132:U1133"/>
-    <mergeCell ref="V1132:V1133"/>
-    <mergeCell ref="W1132:W1133"/>
-    <mergeCell ref="X1132:X1133"/>
-    <mergeCell ref="Y1132:Y1133"/>
-    <mergeCell ref="Z1132:Z1133"/>
-    <mergeCell ref="O1132:O1133"/>
-    <mergeCell ref="P1132:P1133"/>
-    <mergeCell ref="Q1132:Q1133"/>
-    <mergeCell ref="R1132:R1133"/>
-    <mergeCell ref="S1132:S1133"/>
-    <mergeCell ref="T1132:T1133"/>
-    <mergeCell ref="I1132:I1133"/>
-    <mergeCell ref="J1132:J1133"/>
-    <mergeCell ref="K1132:K1133"/>
-    <mergeCell ref="L1132:L1133"/>
-    <mergeCell ref="M1132:M1133"/>
-    <mergeCell ref="N1132:N1133"/>
-    <mergeCell ref="R1126:S1126"/>
-    <mergeCell ref="R1128:S1128"/>
-    <mergeCell ref="U1131:V1131"/>
-    <mergeCell ref="A1132:A1133"/>
-    <mergeCell ref="B1132:B1133"/>
-    <mergeCell ref="C1132:C1133"/>
-    <mergeCell ref="D1132:D1133"/>
-    <mergeCell ref="F1132:F1133"/>
-    <mergeCell ref="G1132:G1133"/>
-    <mergeCell ref="H1132:H1133"/>
-    <mergeCell ref="Q1104:R1104"/>
-    <mergeCell ref="Q1107:R1107"/>
-    <mergeCell ref="V1115:W1115"/>
-    <mergeCell ref="Q1116:R1116"/>
-    <mergeCell ref="Q1123:R1123"/>
-    <mergeCell ref="Q1125:R1125"/>
-    <mergeCell ref="W1100:W1101"/>
-    <mergeCell ref="X1100:X1101"/>
-    <mergeCell ref="Y1100:Y1101"/>
-    <mergeCell ref="Z1100:Z1101"/>
-    <mergeCell ref="Q1102:R1102"/>
-    <mergeCell ref="R1103:S1103"/>
-    <mergeCell ref="P1100:P1101"/>
-    <mergeCell ref="Q1100:Q1101"/>
-    <mergeCell ref="R1100:S1100"/>
-    <mergeCell ref="T1100:T1101"/>
-    <mergeCell ref="U1100:U1101"/>
-    <mergeCell ref="V1100:V1101"/>
-    <mergeCell ref="J1100:J1101"/>
-    <mergeCell ref="K1100:K1101"/>
-    <mergeCell ref="L1100:L1101"/>
-    <mergeCell ref="M1100:M1101"/>
-    <mergeCell ref="N1100:N1101"/>
-    <mergeCell ref="O1100:O1101"/>
-    <mergeCell ref="Q1091:R1091"/>
-    <mergeCell ref="R1097:S1097"/>
-    <mergeCell ref="A1100:A1101"/>
-    <mergeCell ref="B1100:B1101"/>
-    <mergeCell ref="C1100:C1101"/>
-    <mergeCell ref="D1100:D1101"/>
-    <mergeCell ref="F1100:F1101"/>
-    <mergeCell ref="G1100:G1101"/>
-    <mergeCell ref="H1100:H1101"/>
-    <mergeCell ref="I1100:I1101"/>
-    <mergeCell ref="Y1082:Y1083"/>
-    <mergeCell ref="Z1082:Z1083"/>
-    <mergeCell ref="R1084:S1084"/>
-    <mergeCell ref="S1087:T1087"/>
-    <mergeCell ref="S1089:T1089"/>
-    <mergeCell ref="R1090:S1090"/>
-    <mergeCell ref="S1082:S1083"/>
-    <mergeCell ref="T1082:T1083"/>
-    <mergeCell ref="U1082:U1083"/>
-    <mergeCell ref="V1082:V1083"/>
-    <mergeCell ref="W1082:W1083"/>
-    <mergeCell ref="X1082:X1083"/>
-    <mergeCell ref="M1082:M1083"/>
-    <mergeCell ref="N1082:N1083"/>
-    <mergeCell ref="O1082:O1083"/>
-    <mergeCell ref="P1082:P1083"/>
-    <mergeCell ref="Q1082:Q1083"/>
-    <mergeCell ref="R1082:R1083"/>
-    <mergeCell ref="G1082:G1083"/>
-    <mergeCell ref="H1082:H1083"/>
-    <mergeCell ref="I1082:I1083"/>
-    <mergeCell ref="J1082:J1083"/>
-    <mergeCell ref="K1082:K1083"/>
-    <mergeCell ref="L1082:L1083"/>
-    <mergeCell ref="Z1069:Z1070"/>
-    <mergeCell ref="R1078:S1078"/>
-    <mergeCell ref="Q1079:R1079"/>
-    <mergeCell ref="S1080:T1080"/>
-    <mergeCell ref="Q1081:R1081"/>
-    <mergeCell ref="A1082:A1083"/>
-    <mergeCell ref="B1082:B1083"/>
-    <mergeCell ref="C1082:C1083"/>
-    <mergeCell ref="D1082:D1083"/>
-    <mergeCell ref="F1082:F1083"/>
-    <mergeCell ref="T1069:T1070"/>
-    <mergeCell ref="U1069:U1070"/>
-    <mergeCell ref="V1069:V1070"/>
-    <mergeCell ref="W1069:W1070"/>
-    <mergeCell ref="X1069:X1070"/>
-    <mergeCell ref="Y1069:Y1070"/>
-    <mergeCell ref="N1069:N1070"/>
-    <mergeCell ref="O1069:O1070"/>
-    <mergeCell ref="P1069:P1070"/>
-    <mergeCell ref="Q1069:Q1070"/>
-    <mergeCell ref="R1069:R1070"/>
-    <mergeCell ref="S1069:S1070"/>
-    <mergeCell ref="H1069:H1070"/>
-    <mergeCell ref="I1069:I1070"/>
-    <mergeCell ref="J1069:J1070"/>
-    <mergeCell ref="K1069:K1070"/>
-    <mergeCell ref="L1069:L1070"/>
-    <mergeCell ref="M1069:M1070"/>
-    <mergeCell ref="A1069:A1070"/>
-    <mergeCell ref="B1069:B1070"/>
-    <mergeCell ref="C1069:C1070"/>
-    <mergeCell ref="D1069:D1070"/>
-    <mergeCell ref="F1069:F1070"/>
-    <mergeCell ref="G1069:G1070"/>
-    <mergeCell ref="U1063:U1064"/>
-    <mergeCell ref="V1063:V1064"/>
-    <mergeCell ref="W1063:W1064"/>
-    <mergeCell ref="X1063:X1064"/>
-    <mergeCell ref="Y1063:Y1064"/>
-    <mergeCell ref="Z1063:Z1064"/>
-    <mergeCell ref="N1063:N1064"/>
-    <mergeCell ref="O1063:O1064"/>
-    <mergeCell ref="P1063:P1064"/>
-    <mergeCell ref="Q1063:R1063"/>
-    <mergeCell ref="S1063:S1064"/>
-    <mergeCell ref="T1063:T1064"/>
-    <mergeCell ref="H1063:H1064"/>
-    <mergeCell ref="I1063:I1064"/>
-    <mergeCell ref="J1063:J1064"/>
-    <mergeCell ref="K1063:K1064"/>
-    <mergeCell ref="L1063:L1064"/>
-    <mergeCell ref="M1063:M1064"/>
-    <mergeCell ref="A1063:A1064"/>
-    <mergeCell ref="B1063:B1064"/>
-    <mergeCell ref="C1063:C1064"/>
-    <mergeCell ref="D1063:D1064"/>
-    <mergeCell ref="F1063:F1064"/>
-    <mergeCell ref="G1063:G1064"/>
-    <mergeCell ref="U1061:U1062"/>
-    <mergeCell ref="V1061:V1062"/>
-    <mergeCell ref="W1061:W1062"/>
-    <mergeCell ref="X1061:X1062"/>
-    <mergeCell ref="Y1061:Y1062"/>
-    <mergeCell ref="Z1061:Z1062"/>
-    <mergeCell ref="N1061:N1062"/>
-    <mergeCell ref="O1061:O1062"/>
-    <mergeCell ref="P1061:P1062"/>
-    <mergeCell ref="Q1061:Q1062"/>
-    <mergeCell ref="R1061:R1062"/>
-    <mergeCell ref="S1061:T1061"/>
-    <mergeCell ref="H1061:H1062"/>
-    <mergeCell ref="I1061:I1062"/>
-    <mergeCell ref="J1061:J1062"/>
-    <mergeCell ref="K1061:K1062"/>
-    <mergeCell ref="L1061:L1062"/>
-    <mergeCell ref="M1061:M1062"/>
-    <mergeCell ref="A1061:A1062"/>
-    <mergeCell ref="B1061:B1062"/>
-    <mergeCell ref="C1061:C1062"/>
-    <mergeCell ref="D1061:D1062"/>
-    <mergeCell ref="F1061:F1062"/>
-    <mergeCell ref="G1061:G1062"/>
-    <mergeCell ref="Q1052:R1052"/>
-    <mergeCell ref="R1053:S1053"/>
-    <mergeCell ref="R1055:S1055"/>
-    <mergeCell ref="R1056:S1056"/>
-    <mergeCell ref="R1059:S1059"/>
-    <mergeCell ref="R1060:S1060"/>
-    <mergeCell ref="V1048:V1049"/>
-    <mergeCell ref="W1048:W1049"/>
-    <mergeCell ref="X1048:X1049"/>
-    <mergeCell ref="Y1048:Y1049"/>
-    <mergeCell ref="Z1048:Z1049"/>
-    <mergeCell ref="S1050:T1050"/>
-    <mergeCell ref="P1048:P1049"/>
-    <mergeCell ref="Q1048:Q1049"/>
-    <mergeCell ref="R1048:R1049"/>
-    <mergeCell ref="S1048:S1049"/>
-    <mergeCell ref="T1048:T1049"/>
-    <mergeCell ref="U1048:U1049"/>
-    <mergeCell ref="J1048:J1049"/>
-    <mergeCell ref="K1048:K1049"/>
-    <mergeCell ref="L1048:L1049"/>
-    <mergeCell ref="M1048:M1049"/>
-    <mergeCell ref="N1048:N1049"/>
-    <mergeCell ref="O1048:O1049"/>
-    <mergeCell ref="Y1045:Y1046"/>
-    <mergeCell ref="Z1045:Z1046"/>
-    <mergeCell ref="A1048:A1049"/>
-    <mergeCell ref="B1048:B1049"/>
-    <mergeCell ref="C1048:C1049"/>
-    <mergeCell ref="D1048:D1049"/>
-    <mergeCell ref="F1048:F1049"/>
-    <mergeCell ref="G1048:G1049"/>
-    <mergeCell ref="H1048:H1049"/>
-    <mergeCell ref="I1048:I1049"/>
-    <mergeCell ref="S1045:S1046"/>
-    <mergeCell ref="T1045:T1046"/>
-    <mergeCell ref="U1045:U1046"/>
-    <mergeCell ref="V1045:V1046"/>
-    <mergeCell ref="W1045:W1046"/>
-    <mergeCell ref="X1045:X1046"/>
-    <mergeCell ref="M1045:M1046"/>
-    <mergeCell ref="N1045:N1046"/>
-    <mergeCell ref="O1045:O1046"/>
-    <mergeCell ref="P1045:P1046"/>
-    <mergeCell ref="Q1045:Q1046"/>
-    <mergeCell ref="R1045:R1046"/>
-    <mergeCell ref="G1045:G1046"/>
-    <mergeCell ref="H1045:H1046"/>
-    <mergeCell ref="I1045:I1046"/>
-    <mergeCell ref="J1045:J1046"/>
-    <mergeCell ref="K1045:K1046"/>
-    <mergeCell ref="L1045:L1046"/>
-    <mergeCell ref="V1041:V1042"/>
-    <mergeCell ref="W1041:W1042"/>
-    <mergeCell ref="X1041:X1042"/>
-    <mergeCell ref="Y1041:Y1042"/>
-    <mergeCell ref="Z1041:Z1042"/>
-    <mergeCell ref="A1045:A1046"/>
-    <mergeCell ref="B1045:B1046"/>
-    <mergeCell ref="C1045:C1046"/>
-    <mergeCell ref="D1045:D1046"/>
-    <mergeCell ref="F1045:F1046"/>
-    <mergeCell ref="P1041:P1042"/>
-    <mergeCell ref="Q1041:Q1042"/>
-    <mergeCell ref="R1041:R1042"/>
-    <mergeCell ref="S1041:S1042"/>
-    <mergeCell ref="T1041:T1042"/>
-    <mergeCell ref="U1041:U1042"/>
-    <mergeCell ref="J1041:J1042"/>
-    <mergeCell ref="K1041:K1042"/>
-    <mergeCell ref="L1041:L1042"/>
-    <mergeCell ref="M1041:M1042"/>
-    <mergeCell ref="N1041:N1042"/>
-    <mergeCell ref="O1041:O1042"/>
-    <mergeCell ref="Q1040:R1040"/>
-    <mergeCell ref="A1041:A1042"/>
-    <mergeCell ref="B1041:B1042"/>
-    <mergeCell ref="C1041:C1042"/>
-    <mergeCell ref="D1041:D1042"/>
-    <mergeCell ref="F1041:F1042"/>
-    <mergeCell ref="G1041:G1042"/>
-    <mergeCell ref="H1041:H1042"/>
-    <mergeCell ref="I1041:I1042"/>
-    <mergeCell ref="T1037:T1038"/>
-    <mergeCell ref="U1037:U1038"/>
-    <mergeCell ref="V1037:V1038"/>
-    <mergeCell ref="W1037:W1038"/>
-    <mergeCell ref="X1037:X1038"/>
-    <mergeCell ref="Y1037:Y1038"/>
-    <mergeCell ref="N1037:N1038"/>
-    <mergeCell ref="O1037:O1038"/>
-    <mergeCell ref="P1037:P1038"/>
-    <mergeCell ref="Q1037:Q1038"/>
-    <mergeCell ref="R1037:R1038"/>
-    <mergeCell ref="S1037:S1038"/>
-    <mergeCell ref="H1037:H1038"/>
-    <mergeCell ref="I1037:I1038"/>
-    <mergeCell ref="J1037:J1038"/>
-    <mergeCell ref="K1037:K1038"/>
-    <mergeCell ref="L1037:L1038"/>
-    <mergeCell ref="M1037:M1038"/>
-    <mergeCell ref="A1037:A1038"/>
-    <mergeCell ref="B1037:B1038"/>
-    <mergeCell ref="C1037:C1038"/>
-    <mergeCell ref="D1037:D1038"/>
-    <mergeCell ref="F1037:F1038"/>
-    <mergeCell ref="G1037:G1038"/>
-    <mergeCell ref="R1019:S1019"/>
-    <mergeCell ref="R1023:S1023"/>
-    <mergeCell ref="R1024:S1024"/>
-    <mergeCell ref="Q1026:R1026"/>
-    <mergeCell ref="Q1027:R1027"/>
-    <mergeCell ref="Q1030:R1030"/>
-    <mergeCell ref="W1015:W1016"/>
-    <mergeCell ref="X1015:X1016"/>
-    <mergeCell ref="Y1015:Y1016"/>
-    <mergeCell ref="Z1015:Z1016"/>
-    <mergeCell ref="Q1017:R1017"/>
-    <mergeCell ref="Y1018:Z1018"/>
-    <mergeCell ref="Q1015:Q1016"/>
-    <mergeCell ref="R1015:R1016"/>
-    <mergeCell ref="S1015:S1016"/>
-    <mergeCell ref="T1015:T1016"/>
-    <mergeCell ref="U1015:U1016"/>
-    <mergeCell ref="V1015:V1016"/>
-    <mergeCell ref="K1015:K1016"/>
-    <mergeCell ref="L1015:L1016"/>
-    <mergeCell ref="M1015:M1016"/>
-    <mergeCell ref="N1015:N1016"/>
-    <mergeCell ref="O1015:O1016"/>
-    <mergeCell ref="P1015:P1016"/>
-    <mergeCell ref="Z1037:Z1038"/>
-    <mergeCell ref="R1014:S1014"/>
-    <mergeCell ref="A1015:A1016"/>
-    <mergeCell ref="B1015:B1016"/>
-    <mergeCell ref="C1015:C1016"/>
-    <mergeCell ref="D1015:D1016"/>
-    <mergeCell ref="F1015:F1016"/>
-    <mergeCell ref="G1015:G1016"/>
-    <mergeCell ref="H1015:H1016"/>
-    <mergeCell ref="I1015:I1016"/>
-    <mergeCell ref="J1015:J1016"/>
-    <mergeCell ref="V1005:V1006"/>
-    <mergeCell ref="W1005:W1006"/>
-    <mergeCell ref="X1005:X1006"/>
-    <mergeCell ref="Y1005:Y1006"/>
-    <mergeCell ref="Z1005:Z1006"/>
-    <mergeCell ref="S1008:T1008"/>
-    <mergeCell ref="O1005:O1006"/>
-    <mergeCell ref="P1005:P1006"/>
-    <mergeCell ref="Q1005:Q1006"/>
-    <mergeCell ref="R1005:S1005"/>
-    <mergeCell ref="T1005:T1006"/>
-    <mergeCell ref="U1005:U1006"/>
-    <mergeCell ref="I1005:I1006"/>
-    <mergeCell ref="J1005:J1006"/>
-    <mergeCell ref="K1005:K1006"/>
-    <mergeCell ref="L1005:L1006"/>
-    <mergeCell ref="M1005:M1006"/>
-    <mergeCell ref="N1005:N1006"/>
-    <mergeCell ref="R997:S997"/>
-    <mergeCell ref="R999:S999"/>
-    <mergeCell ref="Q1001:R1001"/>
-    <mergeCell ref="A1005:A1006"/>
-    <mergeCell ref="B1005:B1006"/>
-    <mergeCell ref="C1005:C1006"/>
-    <mergeCell ref="D1005:D1006"/>
-    <mergeCell ref="F1005:F1006"/>
-    <mergeCell ref="G1005:G1006"/>
-    <mergeCell ref="H1005:H1006"/>
-    <mergeCell ref="T993:U993"/>
-    <mergeCell ref="V993:V994"/>
-    <mergeCell ref="W993:W994"/>
-    <mergeCell ref="X993:X994"/>
-    <mergeCell ref="Y993:Y994"/>
-    <mergeCell ref="Z993:Z994"/>
-    <mergeCell ref="N993:N994"/>
-    <mergeCell ref="O993:O994"/>
-    <mergeCell ref="P993:P994"/>
-    <mergeCell ref="Q993:Q994"/>
-    <mergeCell ref="R993:R994"/>
-    <mergeCell ref="S993:S994"/>
-    <mergeCell ref="H993:H994"/>
-    <mergeCell ref="I993:I994"/>
-    <mergeCell ref="J993:J994"/>
-    <mergeCell ref="K993:K994"/>
-    <mergeCell ref="L993:L994"/>
-    <mergeCell ref="M993:M994"/>
-    <mergeCell ref="A993:A994"/>
-    <mergeCell ref="B993:B994"/>
-    <mergeCell ref="C993:C994"/>
-    <mergeCell ref="D993:D994"/>
-    <mergeCell ref="F993:F994"/>
-    <mergeCell ref="G993:G994"/>
-    <mergeCell ref="U991:U992"/>
-    <mergeCell ref="V991:V992"/>
-    <mergeCell ref="W991:W992"/>
-    <mergeCell ref="X991:X992"/>
-    <mergeCell ref="Y991:Y992"/>
-    <mergeCell ref="Z991:Z992"/>
-    <mergeCell ref="O991:O992"/>
-    <mergeCell ref="P991:P992"/>
-    <mergeCell ref="Q991:Q992"/>
-    <mergeCell ref="R991:R992"/>
-    <mergeCell ref="S991:S992"/>
-    <mergeCell ref="T991:T992"/>
-    <mergeCell ref="I991:I992"/>
-    <mergeCell ref="J991:J992"/>
-    <mergeCell ref="K991:K992"/>
-    <mergeCell ref="L991:L992"/>
-    <mergeCell ref="M991:M992"/>
-    <mergeCell ref="N991:N992"/>
-    <mergeCell ref="R981:S981"/>
-    <mergeCell ref="Q982:R982"/>
-    <mergeCell ref="Q983:R983"/>
-    <mergeCell ref="A991:A992"/>
-    <mergeCell ref="B991:B992"/>
-    <mergeCell ref="C991:C992"/>
-    <mergeCell ref="D991:D992"/>
-    <mergeCell ref="F991:F992"/>
-    <mergeCell ref="G991:G992"/>
-    <mergeCell ref="H991:H992"/>
-    <mergeCell ref="Z968:Z969"/>
-    <mergeCell ref="S970:T970"/>
-    <mergeCell ref="S971:T971"/>
-    <mergeCell ref="R973:S973"/>
-    <mergeCell ref="R977:S977"/>
-    <mergeCell ref="Q980:R980"/>
-    <mergeCell ref="T968:T969"/>
-    <mergeCell ref="U968:U969"/>
-    <mergeCell ref="V968:V969"/>
-    <mergeCell ref="W968:W969"/>
-    <mergeCell ref="X968:X969"/>
-    <mergeCell ref="Y968:Y969"/>
-    <mergeCell ref="N968:N969"/>
-    <mergeCell ref="O968:O969"/>
-    <mergeCell ref="P968:P969"/>
-    <mergeCell ref="Q968:Q969"/>
-    <mergeCell ref="R968:R969"/>
-    <mergeCell ref="S968:S969"/>
-    <mergeCell ref="H968:H969"/>
-    <mergeCell ref="I968:I969"/>
-    <mergeCell ref="J968:J969"/>
-    <mergeCell ref="K968:K969"/>
-    <mergeCell ref="L968:L969"/>
-    <mergeCell ref="M968:M969"/>
-    <mergeCell ref="W965:W966"/>
-    <mergeCell ref="X965:X966"/>
-    <mergeCell ref="Y965:Y966"/>
-    <mergeCell ref="Z965:Z966"/>
-    <mergeCell ref="A968:A969"/>
-    <mergeCell ref="B968:B969"/>
-    <mergeCell ref="C968:C969"/>
-    <mergeCell ref="D968:D969"/>
-    <mergeCell ref="F968:F969"/>
-    <mergeCell ref="G968:G969"/>
-    <mergeCell ref="Q965:Q966"/>
-    <mergeCell ref="R965:R966"/>
-    <mergeCell ref="S965:S966"/>
-    <mergeCell ref="T965:T966"/>
-    <mergeCell ref="U965:U966"/>
-    <mergeCell ref="V965:V966"/>
-    <mergeCell ref="K965:K966"/>
-    <mergeCell ref="L965:L966"/>
-    <mergeCell ref="M965:M966"/>
-    <mergeCell ref="N965:N966"/>
-    <mergeCell ref="O965:O966"/>
-    <mergeCell ref="P965:P966"/>
-    <mergeCell ref="A965:A966"/>
-    <mergeCell ref="B965:B966"/>
-    <mergeCell ref="C965:C966"/>
-    <mergeCell ref="D965:D966"/>
-    <mergeCell ref="F965:F966"/>
-    <mergeCell ref="G965:G966"/>
-    <mergeCell ref="H965:H966"/>
-    <mergeCell ref="I965:I966"/>
-    <mergeCell ref="J965:J966"/>
-    <mergeCell ref="T963:T964"/>
-    <mergeCell ref="U963:U964"/>
-    <mergeCell ref="V963:V964"/>
-    <mergeCell ref="W963:W964"/>
-    <mergeCell ref="X963:X964"/>
-    <mergeCell ref="Y963:Y964"/>
-    <mergeCell ref="N963:N964"/>
-    <mergeCell ref="O963:O964"/>
-    <mergeCell ref="P963:P964"/>
-    <mergeCell ref="Q963:Q964"/>
-    <mergeCell ref="R963:R964"/>
-    <mergeCell ref="S963:S964"/>
-    <mergeCell ref="H963:H964"/>
-    <mergeCell ref="I963:I964"/>
-    <mergeCell ref="J963:J964"/>
-    <mergeCell ref="K963:K964"/>
-    <mergeCell ref="L963:L964"/>
-    <mergeCell ref="M963:M964"/>
-    <mergeCell ref="R957:S957"/>
-    <mergeCell ref="S959:T959"/>
-    <mergeCell ref="Q960:R960"/>
-    <mergeCell ref="R961:S961"/>
-    <mergeCell ref="A963:A964"/>
-    <mergeCell ref="B963:B964"/>
-    <mergeCell ref="C963:C964"/>
-    <mergeCell ref="D963:D964"/>
-    <mergeCell ref="F963:F964"/>
-    <mergeCell ref="G963:G964"/>
-    <mergeCell ref="U955:U956"/>
-    <mergeCell ref="V955:V956"/>
-    <mergeCell ref="W955:W956"/>
-    <mergeCell ref="X955:X956"/>
-    <mergeCell ref="Y955:Y956"/>
-    <mergeCell ref="Z955:Z956"/>
-    <mergeCell ref="N955:N956"/>
-    <mergeCell ref="O955:O956"/>
-    <mergeCell ref="P955:P956"/>
-    <mergeCell ref="Q955:Q956"/>
-    <mergeCell ref="R955:S955"/>
-    <mergeCell ref="T955:T956"/>
-    <mergeCell ref="H955:H956"/>
-    <mergeCell ref="I955:I956"/>
-    <mergeCell ref="J955:J956"/>
-    <mergeCell ref="K955:K956"/>
-    <mergeCell ref="L955:L956"/>
-    <mergeCell ref="M955:M956"/>
-    <mergeCell ref="Z963:Z964"/>
-    <mergeCell ref="Q928:R928"/>
-    <mergeCell ref="S930:T930"/>
-    <mergeCell ref="R935:S935"/>
-    <mergeCell ref="R936:S936"/>
-    <mergeCell ref="W953:W954"/>
-    <mergeCell ref="X953:X954"/>
-    <mergeCell ref="Y953:Y954"/>
-    <mergeCell ref="Z953:Z954"/>
-    <mergeCell ref="A955:A956"/>
-    <mergeCell ref="B955:B956"/>
-    <mergeCell ref="C955:C956"/>
-    <mergeCell ref="D955:D956"/>
-    <mergeCell ref="F955:F956"/>
-    <mergeCell ref="G955:G956"/>
-    <mergeCell ref="Q953:Q954"/>
-    <mergeCell ref="R953:R954"/>
-    <mergeCell ref="S953:S954"/>
-    <mergeCell ref="T953:T954"/>
-    <mergeCell ref="U953:U954"/>
-    <mergeCell ref="V953:V954"/>
-    <mergeCell ref="K953:K954"/>
-    <mergeCell ref="L953:L954"/>
-    <mergeCell ref="M953:M954"/>
-    <mergeCell ref="N953:N954"/>
-    <mergeCell ref="O953:O954"/>
-    <mergeCell ref="P953:P954"/>
-    <mergeCell ref="Z919:Z920"/>
-    <mergeCell ref="Q922:R922"/>
-    <mergeCell ref="P919:P920"/>
-    <mergeCell ref="Q919:Q920"/>
-    <mergeCell ref="R919:R920"/>
-    <mergeCell ref="S919:S920"/>
-    <mergeCell ref="T919:T920"/>
-    <mergeCell ref="U919:U920"/>
-    <mergeCell ref="J919:J920"/>
-    <mergeCell ref="K919:K920"/>
-    <mergeCell ref="L919:L920"/>
-    <mergeCell ref="M919:M920"/>
-    <mergeCell ref="N919:N920"/>
-    <mergeCell ref="O919:O920"/>
-    <mergeCell ref="Q951:R951"/>
-    <mergeCell ref="A953:A954"/>
-    <mergeCell ref="B953:B954"/>
-    <mergeCell ref="C953:C954"/>
-    <mergeCell ref="D953:D954"/>
-    <mergeCell ref="F953:F954"/>
-    <mergeCell ref="G953:G954"/>
-    <mergeCell ref="H953:H954"/>
-    <mergeCell ref="I953:I954"/>
-    <mergeCell ref="J953:J954"/>
-    <mergeCell ref="S937:T937"/>
-    <mergeCell ref="R939:S939"/>
-    <mergeCell ref="Q945:R945"/>
-    <mergeCell ref="Q946:R946"/>
-    <mergeCell ref="Q948:R948"/>
-    <mergeCell ref="T950:U950"/>
-    <mergeCell ref="R924:S924"/>
-    <mergeCell ref="S927:T927"/>
-    <mergeCell ref="S915:T915"/>
-    <mergeCell ref="Q917:R917"/>
-    <mergeCell ref="A919:A920"/>
-    <mergeCell ref="B919:B920"/>
-    <mergeCell ref="C919:C920"/>
-    <mergeCell ref="D919:D920"/>
-    <mergeCell ref="F919:F920"/>
-    <mergeCell ref="G919:G920"/>
-    <mergeCell ref="H919:H920"/>
-    <mergeCell ref="I919:I920"/>
-    <mergeCell ref="W906:W907"/>
-    <mergeCell ref="X906:X907"/>
-    <mergeCell ref="Y906:Y907"/>
-    <mergeCell ref="Z906:Z907"/>
-    <mergeCell ref="U911:V911"/>
-    <mergeCell ref="R912:S912"/>
-    <mergeCell ref="Q906:Q907"/>
-    <mergeCell ref="R906:R907"/>
-    <mergeCell ref="S906:S907"/>
-    <mergeCell ref="T906:T907"/>
-    <mergeCell ref="U906:U907"/>
-    <mergeCell ref="V906:V907"/>
-    <mergeCell ref="K906:K907"/>
-    <mergeCell ref="L906:L907"/>
-    <mergeCell ref="M906:M907"/>
-    <mergeCell ref="N906:N907"/>
-    <mergeCell ref="O906:O907"/>
-    <mergeCell ref="P906:P907"/>
-    <mergeCell ref="V919:V920"/>
-    <mergeCell ref="W919:W920"/>
-    <mergeCell ref="X919:X920"/>
-    <mergeCell ref="Y919:Y920"/>
-    <mergeCell ref="A906:A907"/>
-    <mergeCell ref="B906:B907"/>
-    <mergeCell ref="C906:C907"/>
-    <mergeCell ref="D906:D907"/>
-    <mergeCell ref="F906:F907"/>
-    <mergeCell ref="G906:G907"/>
-    <mergeCell ref="H906:H907"/>
-    <mergeCell ref="I906:I907"/>
-    <mergeCell ref="J906:J907"/>
-    <mergeCell ref="T904:T905"/>
-    <mergeCell ref="U904:U905"/>
-    <mergeCell ref="V904:V905"/>
-    <mergeCell ref="W904:W905"/>
-    <mergeCell ref="X904:X905"/>
-    <mergeCell ref="Y904:Y905"/>
-    <mergeCell ref="M904:M905"/>
-    <mergeCell ref="N904:N905"/>
-    <mergeCell ref="O904:O905"/>
-    <mergeCell ref="P904:P905"/>
-    <mergeCell ref="Q904:Q905"/>
-    <mergeCell ref="R904:S904"/>
-    <mergeCell ref="G904:G905"/>
-    <mergeCell ref="H904:H905"/>
-    <mergeCell ref="I904:I905"/>
-    <mergeCell ref="J904:J905"/>
-    <mergeCell ref="K904:K905"/>
-    <mergeCell ref="L904:L905"/>
-    <mergeCell ref="R893:S893"/>
-    <mergeCell ref="Q894:R894"/>
-    <mergeCell ref="Q898:R898"/>
-    <mergeCell ref="R901:S901"/>
-    <mergeCell ref="R903:S903"/>
-    <mergeCell ref="A904:A905"/>
-    <mergeCell ref="B904:B905"/>
-    <mergeCell ref="C904:C905"/>
-    <mergeCell ref="D904:D905"/>
-    <mergeCell ref="F904:F905"/>
-    <mergeCell ref="U887:U889"/>
-    <mergeCell ref="V887:V889"/>
-    <mergeCell ref="W887:W889"/>
-    <mergeCell ref="X887:X889"/>
-    <mergeCell ref="Y887:Y889"/>
-    <mergeCell ref="Z887:Z889"/>
-    <mergeCell ref="O887:O889"/>
-    <mergeCell ref="P887:P889"/>
-    <mergeCell ref="Q887:Q889"/>
-    <mergeCell ref="R887:R889"/>
-    <mergeCell ref="S887:S889"/>
-    <mergeCell ref="T887:T889"/>
-    <mergeCell ref="I887:I889"/>
-    <mergeCell ref="J887:J889"/>
-    <mergeCell ref="K887:K889"/>
-    <mergeCell ref="L887:L889"/>
-    <mergeCell ref="M887:M889"/>
-    <mergeCell ref="N887:N889"/>
-    <mergeCell ref="Z904:Z905"/>
-    <mergeCell ref="R883:S883"/>
-    <mergeCell ref="R884:S884"/>
-    <mergeCell ref="R886:S886"/>
-    <mergeCell ref="A887:A889"/>
-    <mergeCell ref="B887:B889"/>
-    <mergeCell ref="C887:C889"/>
-    <mergeCell ref="D887:D889"/>
-    <mergeCell ref="F887:F889"/>
-    <mergeCell ref="G887:G889"/>
-    <mergeCell ref="H887:H889"/>
-    <mergeCell ref="Q871:R871"/>
-    <mergeCell ref="Q873:R873"/>
-    <mergeCell ref="R875:S875"/>
-    <mergeCell ref="Q876:R876"/>
-    <mergeCell ref="T877:U877"/>
-    <mergeCell ref="S881:T881"/>
-    <mergeCell ref="Z850:Z851"/>
-    <mergeCell ref="Q852:R852"/>
-    <mergeCell ref="R853:S853"/>
-    <mergeCell ref="Q866:R866"/>
-    <mergeCell ref="Q869:R869"/>
-    <mergeCell ref="Q870:R870"/>
-    <mergeCell ref="T850:T851"/>
-    <mergeCell ref="U850:U851"/>
-    <mergeCell ref="V850:V851"/>
-    <mergeCell ref="W850:W851"/>
-    <mergeCell ref="X850:X851"/>
-    <mergeCell ref="Y850:Y851"/>
-    <mergeCell ref="N850:N851"/>
-    <mergeCell ref="O850:O851"/>
-    <mergeCell ref="P850:P851"/>
-    <mergeCell ref="Q850:Q851"/>
-    <mergeCell ref="R850:R851"/>
-    <mergeCell ref="S850:S851"/>
-    <mergeCell ref="H850:H851"/>
-    <mergeCell ref="I850:I851"/>
-    <mergeCell ref="J850:J851"/>
-    <mergeCell ref="K850:K851"/>
-    <mergeCell ref="L850:L851"/>
-    <mergeCell ref="M850:M851"/>
-    <mergeCell ref="X843:X844"/>
-    <mergeCell ref="Y843:Y844"/>
-    <mergeCell ref="Z843:Z844"/>
-    <mergeCell ref="Q845:R845"/>
-    <mergeCell ref="A850:A851"/>
-    <mergeCell ref="B850:B851"/>
-    <mergeCell ref="C850:C851"/>
-    <mergeCell ref="D850:D851"/>
-    <mergeCell ref="F850:F851"/>
-    <mergeCell ref="G850:G851"/>
-    <mergeCell ref="Q843:Q844"/>
-    <mergeCell ref="R843:R844"/>
-    <mergeCell ref="S843:S844"/>
-    <mergeCell ref="T843:U843"/>
-    <mergeCell ref="V843:V844"/>
-    <mergeCell ref="W843:W844"/>
-    <mergeCell ref="K843:K844"/>
-    <mergeCell ref="L843:L844"/>
-    <mergeCell ref="M843:M844"/>
-    <mergeCell ref="N843:N844"/>
-    <mergeCell ref="O843:O844"/>
-    <mergeCell ref="P843:P844"/>
-    <mergeCell ref="R835:S835"/>
-    <mergeCell ref="A843:A844"/>
-    <mergeCell ref="B843:B844"/>
-    <mergeCell ref="C843:C844"/>
-    <mergeCell ref="D843:D844"/>
-    <mergeCell ref="F843:F844"/>
-    <mergeCell ref="G843:G844"/>
-    <mergeCell ref="H843:H844"/>
-    <mergeCell ref="I843:I844"/>
-    <mergeCell ref="J843:J844"/>
-    <mergeCell ref="Z821:Z823"/>
-    <mergeCell ref="Q825:R825"/>
-    <mergeCell ref="Q826:R826"/>
-    <mergeCell ref="R830:S830"/>
-    <mergeCell ref="Q832:R832"/>
-    <mergeCell ref="R833:S833"/>
-    <mergeCell ref="S821:T821"/>
-    <mergeCell ref="U821:U823"/>
-    <mergeCell ref="V821:V823"/>
-    <mergeCell ref="W821:W823"/>
-    <mergeCell ref="X821:X823"/>
-    <mergeCell ref="Y821:Y823"/>
-    <mergeCell ref="M821:M823"/>
-    <mergeCell ref="N821:N823"/>
-    <mergeCell ref="O821:O823"/>
-    <mergeCell ref="P821:P823"/>
-    <mergeCell ref="Q821:Q823"/>
-    <mergeCell ref="R821:R823"/>
-    <mergeCell ref="G821:G823"/>
-    <mergeCell ref="H821:H823"/>
-    <mergeCell ref="I821:I823"/>
-    <mergeCell ref="J821:J823"/>
-    <mergeCell ref="K821:K823"/>
-    <mergeCell ref="L821:L823"/>
-    <mergeCell ref="Q800:R800"/>
-    <mergeCell ref="Q803:R803"/>
-    <mergeCell ref="S805:T805"/>
-    <mergeCell ref="R807:S807"/>
-    <mergeCell ref="S818:T818"/>
-    <mergeCell ref="A821:A823"/>
-    <mergeCell ref="B821:B823"/>
-    <mergeCell ref="C821:C823"/>
-    <mergeCell ref="D821:D823"/>
-    <mergeCell ref="F821:F823"/>
-    <mergeCell ref="V796:V797"/>
-    <mergeCell ref="W796:W797"/>
-    <mergeCell ref="X796:X797"/>
-    <mergeCell ref="Y796:Y797"/>
-    <mergeCell ref="Z796:Z797"/>
-    <mergeCell ref="S798:T798"/>
-    <mergeCell ref="O796:O797"/>
-    <mergeCell ref="P796:P797"/>
-    <mergeCell ref="Q796:Q797"/>
-    <mergeCell ref="R796:S796"/>
-    <mergeCell ref="T796:T797"/>
-    <mergeCell ref="U796:U797"/>
-    <mergeCell ref="I796:I797"/>
-    <mergeCell ref="J796:J797"/>
-    <mergeCell ref="K796:K797"/>
-    <mergeCell ref="L796:L797"/>
-    <mergeCell ref="M796:M797"/>
-    <mergeCell ref="N796:N797"/>
-    <mergeCell ref="X794:X795"/>
-    <mergeCell ref="Y794:Y795"/>
-    <mergeCell ref="Z794:Z795"/>
-    <mergeCell ref="A796:A797"/>
-    <mergeCell ref="B796:B797"/>
-    <mergeCell ref="C796:C797"/>
-    <mergeCell ref="D796:D797"/>
-    <mergeCell ref="F796:F797"/>
-    <mergeCell ref="G796:G797"/>
-    <mergeCell ref="H796:H797"/>
-    <mergeCell ref="Q794:Q795"/>
-    <mergeCell ref="R794:S794"/>
-    <mergeCell ref="T794:T795"/>
-    <mergeCell ref="U794:U795"/>
-    <mergeCell ref="V794:V795"/>
-    <mergeCell ref="W794:W795"/>
-    <mergeCell ref="K794:K795"/>
-    <mergeCell ref="L794:L795"/>
-    <mergeCell ref="M794:M795"/>
-    <mergeCell ref="N794:N795"/>
-    <mergeCell ref="O794:O795"/>
-    <mergeCell ref="P794:P795"/>
-    <mergeCell ref="R792:S792"/>
-    <mergeCell ref="A794:A795"/>
-    <mergeCell ref="B794:B795"/>
-    <mergeCell ref="C794:C795"/>
-    <mergeCell ref="D794:D795"/>
-    <mergeCell ref="F794:F795"/>
-    <mergeCell ref="G794:G795"/>
-    <mergeCell ref="H794:H795"/>
-    <mergeCell ref="I794:I795"/>
-    <mergeCell ref="J794:J795"/>
-    <mergeCell ref="U788:U789"/>
-    <mergeCell ref="V788:V789"/>
-    <mergeCell ref="W788:W789"/>
-    <mergeCell ref="X788:X789"/>
-    <mergeCell ref="Y788:Y789"/>
-    <mergeCell ref="Z788:Z789"/>
-    <mergeCell ref="N788:N789"/>
-    <mergeCell ref="O788:O789"/>
-    <mergeCell ref="P788:P789"/>
-    <mergeCell ref="Q788:Q789"/>
-    <mergeCell ref="R788:S788"/>
-    <mergeCell ref="T788:T789"/>
-    <mergeCell ref="H788:H789"/>
-    <mergeCell ref="I788:I789"/>
-    <mergeCell ref="J788:J789"/>
-    <mergeCell ref="K788:K789"/>
-    <mergeCell ref="L788:L789"/>
-    <mergeCell ref="M788:M789"/>
-    <mergeCell ref="A788:A789"/>
-    <mergeCell ref="B788:B789"/>
-    <mergeCell ref="C788:C789"/>
-    <mergeCell ref="D788:D789"/>
-    <mergeCell ref="F788:F789"/>
-    <mergeCell ref="G788:G789"/>
-    <mergeCell ref="U785:U786"/>
-    <mergeCell ref="V785:V786"/>
-    <mergeCell ref="W785:W786"/>
-    <mergeCell ref="X785:X786"/>
-    <mergeCell ref="Y785:Y786"/>
-    <mergeCell ref="Z785:Z786"/>
-    <mergeCell ref="O785:O786"/>
-    <mergeCell ref="P785:P786"/>
-    <mergeCell ref="Q785:Q786"/>
-    <mergeCell ref="R785:R786"/>
-    <mergeCell ref="S785:S786"/>
-    <mergeCell ref="T785:T786"/>
-    <mergeCell ref="I785:I786"/>
-    <mergeCell ref="J785:J786"/>
-    <mergeCell ref="K785:K786"/>
-    <mergeCell ref="L785:L786"/>
-    <mergeCell ref="M785:M786"/>
-    <mergeCell ref="N785:N786"/>
-    <mergeCell ref="Y779:Y780"/>
-    <mergeCell ref="Z779:Z780"/>
-    <mergeCell ref="A785:A786"/>
-    <mergeCell ref="B785:B786"/>
-    <mergeCell ref="C785:C786"/>
-    <mergeCell ref="D785:D786"/>
-    <mergeCell ref="F785:F786"/>
-    <mergeCell ref="G785:G786"/>
-    <mergeCell ref="H785:H786"/>
-    <mergeCell ref="Q779:R779"/>
-    <mergeCell ref="S779:S780"/>
-    <mergeCell ref="T779:T780"/>
-    <mergeCell ref="U779:U780"/>
-    <mergeCell ref="V779:V780"/>
-    <mergeCell ref="W779:W780"/>
-    <mergeCell ref="K779:K780"/>
-    <mergeCell ref="L779:L780"/>
-    <mergeCell ref="M779:M780"/>
-    <mergeCell ref="N779:N780"/>
-    <mergeCell ref="O779:O780"/>
-    <mergeCell ref="P779:P780"/>
-    <mergeCell ref="A779:A780"/>
-    <mergeCell ref="B779:B780"/>
-    <mergeCell ref="C779:C780"/>
-    <mergeCell ref="D779:D780"/>
-    <mergeCell ref="F779:F780"/>
-    <mergeCell ref="G779:G780"/>
-    <mergeCell ref="H779:H780"/>
-    <mergeCell ref="I779:I780"/>
-    <mergeCell ref="J779:J780"/>
-    <mergeCell ref="T776:T777"/>
-    <mergeCell ref="U776:U777"/>
-    <mergeCell ref="V776:V777"/>
-    <mergeCell ref="W776:W777"/>
-    <mergeCell ref="X776:X777"/>
-    <mergeCell ref="Y776:Y777"/>
-    <mergeCell ref="N776:N777"/>
-    <mergeCell ref="O776:O777"/>
-    <mergeCell ref="P776:P777"/>
-    <mergeCell ref="Q776:Q777"/>
-    <mergeCell ref="R776:R777"/>
-    <mergeCell ref="S776:S777"/>
-    <mergeCell ref="H776:H777"/>
-    <mergeCell ref="I776:I777"/>
-    <mergeCell ref="J776:J777"/>
-    <mergeCell ref="K776:K777"/>
-    <mergeCell ref="L776:L777"/>
-    <mergeCell ref="M776:M777"/>
-    <mergeCell ref="A776:A777"/>
-    <mergeCell ref="B776:B777"/>
-    <mergeCell ref="C776:C777"/>
-    <mergeCell ref="D776:D777"/>
-    <mergeCell ref="X779:X780"/>
-    <mergeCell ref="F776:F777"/>
-    <mergeCell ref="G776:G777"/>
-    <mergeCell ref="W767:W768"/>
-    <mergeCell ref="X767:X768"/>
-    <mergeCell ref="Y767:Y768"/>
-    <mergeCell ref="Z767:Z768"/>
-    <mergeCell ref="Q769:R769"/>
-    <mergeCell ref="Q772:R772"/>
-    <mergeCell ref="P767:P768"/>
-    <mergeCell ref="Q767:Q768"/>
-    <mergeCell ref="R767:R768"/>
-    <mergeCell ref="S767:S768"/>
-    <mergeCell ref="T767:U767"/>
-    <mergeCell ref="V767:V768"/>
-    <mergeCell ref="J767:J768"/>
-    <mergeCell ref="K767:K768"/>
-    <mergeCell ref="L767:L768"/>
-    <mergeCell ref="M767:M768"/>
-    <mergeCell ref="N767:N768"/>
-    <mergeCell ref="O767:O768"/>
-    <mergeCell ref="Z776:Z777"/>
-    <mergeCell ref="Q762:R762"/>
-    <mergeCell ref="T766:U766"/>
-    <mergeCell ref="A767:A768"/>
-    <mergeCell ref="B767:B768"/>
-    <mergeCell ref="C767:C768"/>
-    <mergeCell ref="D767:D768"/>
-    <mergeCell ref="F767:F768"/>
-    <mergeCell ref="G767:G768"/>
-    <mergeCell ref="H767:H768"/>
-    <mergeCell ref="I767:I768"/>
-    <mergeCell ref="Z750:Z751"/>
-    <mergeCell ref="Q755:R755"/>
-    <mergeCell ref="R757:S757"/>
-    <mergeCell ref="R758:S758"/>
-    <mergeCell ref="R760:S760"/>
-    <mergeCell ref="Q761:R761"/>
-    <mergeCell ref="T750:T751"/>
-    <mergeCell ref="U750:U751"/>
-    <mergeCell ref="V750:V751"/>
-    <mergeCell ref="W750:W751"/>
-    <mergeCell ref="X750:X751"/>
-    <mergeCell ref="Y750:Y751"/>
-    <mergeCell ref="N750:N751"/>
-    <mergeCell ref="O750:O751"/>
-    <mergeCell ref="P750:P751"/>
-    <mergeCell ref="Q750:Q751"/>
-    <mergeCell ref="R750:R751"/>
-    <mergeCell ref="S750:S751"/>
-    <mergeCell ref="H750:H751"/>
-    <mergeCell ref="I750:I751"/>
-    <mergeCell ref="J750:J751"/>
-    <mergeCell ref="K750:K751"/>
-    <mergeCell ref="L750:L751"/>
-    <mergeCell ref="M750:M751"/>
-    <mergeCell ref="W747:W748"/>
-    <mergeCell ref="X747:X748"/>
-    <mergeCell ref="Y747:Y748"/>
-    <mergeCell ref="Z747:Z748"/>
-    <mergeCell ref="A750:A751"/>
-    <mergeCell ref="B750:B751"/>
-    <mergeCell ref="C750:C751"/>
-    <mergeCell ref="D750:D751"/>
-    <mergeCell ref="F750:F751"/>
-    <mergeCell ref="G750:G751"/>
-    <mergeCell ref="Q747:Q748"/>
-    <mergeCell ref="R747:R748"/>
-    <mergeCell ref="S747:S748"/>
-    <mergeCell ref="T747:T748"/>
-    <mergeCell ref="U747:U748"/>
-    <mergeCell ref="V747:V748"/>
-    <mergeCell ref="K747:K748"/>
-    <mergeCell ref="L747:L748"/>
-    <mergeCell ref="M747:M748"/>
-    <mergeCell ref="N747:N748"/>
-    <mergeCell ref="O747:O748"/>
-    <mergeCell ref="P747:P748"/>
-    <mergeCell ref="S746:T746"/>
-    <mergeCell ref="A747:A748"/>
-    <mergeCell ref="B747:B748"/>
-    <mergeCell ref="C747:C748"/>
-    <mergeCell ref="D747:D748"/>
-    <mergeCell ref="F747:F748"/>
-    <mergeCell ref="G747:G748"/>
-    <mergeCell ref="H747:H748"/>
-    <mergeCell ref="I747:I748"/>
-    <mergeCell ref="J747:J748"/>
-    <mergeCell ref="V742:V743"/>
-    <mergeCell ref="W742:W743"/>
-    <mergeCell ref="X742:X743"/>
-    <mergeCell ref="Y742:Y743"/>
-    <mergeCell ref="Z742:Z743"/>
-    <mergeCell ref="R744:S744"/>
-    <mergeCell ref="O742:O743"/>
-    <mergeCell ref="P742:P743"/>
-    <mergeCell ref="Q742:Q743"/>
-    <mergeCell ref="R742:S742"/>
-    <mergeCell ref="T742:T743"/>
-    <mergeCell ref="U742:U743"/>
-    <mergeCell ref="I742:I743"/>
-    <mergeCell ref="J742:J743"/>
-    <mergeCell ref="K742:K743"/>
-    <mergeCell ref="L742:L743"/>
-    <mergeCell ref="M742:M743"/>
-    <mergeCell ref="N742:N743"/>
-    <mergeCell ref="Z734:Z736"/>
-    <mergeCell ref="Q740:R740"/>
-    <mergeCell ref="W741:X741"/>
-    <mergeCell ref="A742:A743"/>
-    <mergeCell ref="B742:B743"/>
-    <mergeCell ref="C742:C743"/>
-    <mergeCell ref="D742:D743"/>
-    <mergeCell ref="F742:F743"/>
-    <mergeCell ref="G742:G743"/>
-    <mergeCell ref="H742:H743"/>
-    <mergeCell ref="T734:T736"/>
-    <mergeCell ref="U734:U736"/>
-    <mergeCell ref="V734:V736"/>
-    <mergeCell ref="W734:W736"/>
-    <mergeCell ref="X734:X736"/>
-    <mergeCell ref="Y734:Y736"/>
-    <mergeCell ref="M734:M736"/>
-    <mergeCell ref="N734:N736"/>
-    <mergeCell ref="O734:O736"/>
-    <mergeCell ref="P734:P736"/>
-    <mergeCell ref="Q734:Q736"/>
-    <mergeCell ref="R734:S734"/>
-    <mergeCell ref="G734:G736"/>
-    <mergeCell ref="H734:H736"/>
-    <mergeCell ref="I734:I736"/>
-    <mergeCell ref="J734:J736"/>
-    <mergeCell ref="K734:K736"/>
-    <mergeCell ref="L734:L736"/>
-    <mergeCell ref="R731:S731"/>
-    <mergeCell ref="A734:A736"/>
-    <mergeCell ref="B734:B736"/>
-    <mergeCell ref="C734:C736"/>
-    <mergeCell ref="D734:D736"/>
-    <mergeCell ref="F734:F736"/>
-    <mergeCell ref="Q728:Q729"/>
-    <mergeCell ref="R728:R729"/>
-    <mergeCell ref="S728:S729"/>
-    <mergeCell ref="T728:T729"/>
-    <mergeCell ref="U728:U729"/>
-    <mergeCell ref="V728:V729"/>
-    <mergeCell ref="K728:K729"/>
-    <mergeCell ref="L728:L729"/>
-    <mergeCell ref="M728:M729"/>
-    <mergeCell ref="N728:N729"/>
-    <mergeCell ref="O728:O729"/>
-    <mergeCell ref="P728:P729"/>
-    <mergeCell ref="Z726:Z727"/>
-    <mergeCell ref="A728:A729"/>
-    <mergeCell ref="B728:B729"/>
-    <mergeCell ref="C728:C729"/>
-    <mergeCell ref="D728:D729"/>
-    <mergeCell ref="F728:F729"/>
-    <mergeCell ref="G728:G729"/>
-    <mergeCell ref="H728:H729"/>
-    <mergeCell ref="I728:I729"/>
-    <mergeCell ref="J728:J729"/>
-    <mergeCell ref="T726:T727"/>
-    <mergeCell ref="U726:U727"/>
-    <mergeCell ref="V726:V727"/>
-    <mergeCell ref="W726:W727"/>
-    <mergeCell ref="X726:X727"/>
-    <mergeCell ref="Y726:Y727"/>
-    <mergeCell ref="M726:M727"/>
-    <mergeCell ref="N726:N727"/>
-    <mergeCell ref="O726:O727"/>
-    <mergeCell ref="P726:P727"/>
-    <mergeCell ref="Q726:Q727"/>
-    <mergeCell ref="R726:S726"/>
-    <mergeCell ref="G726:G727"/>
-    <mergeCell ref="H726:H727"/>
-    <mergeCell ref="I726:I727"/>
-    <mergeCell ref="J726:J727"/>
-    <mergeCell ref="K726:K727"/>
-    <mergeCell ref="L726:L727"/>
-    <mergeCell ref="W728:W729"/>
-    <mergeCell ref="X728:X729"/>
-    <mergeCell ref="Y728:Y729"/>
-    <mergeCell ref="Z728:Z729"/>
-    <mergeCell ref="T709:U709"/>
-    <mergeCell ref="R714:S714"/>
-    <mergeCell ref="R717:S717"/>
-    <mergeCell ref="Q721:R721"/>
-    <mergeCell ref="R722:S722"/>
-    <mergeCell ref="A726:A727"/>
-    <mergeCell ref="B726:B727"/>
-    <mergeCell ref="C726:C727"/>
-    <mergeCell ref="D726:D727"/>
-    <mergeCell ref="F726:F727"/>
-    <mergeCell ref="R699:S699"/>
-    <mergeCell ref="Q700:R700"/>
-    <mergeCell ref="S703:T703"/>
-    <mergeCell ref="R705:S705"/>
-    <mergeCell ref="Q706:R706"/>
-    <mergeCell ref="S708:T708"/>
-    <mergeCell ref="Y687:Y688"/>
-    <mergeCell ref="G687:G688"/>
-    <mergeCell ref="H687:H688"/>
-    <mergeCell ref="I687:I688"/>
-    <mergeCell ref="J687:J688"/>
-    <mergeCell ref="K687:K688"/>
-    <mergeCell ref="L687:L688"/>
-    <mergeCell ref="Z687:Z688"/>
-    <mergeCell ref="Q692:R692"/>
-    <mergeCell ref="Q693:R693"/>
-    <mergeCell ref="Q694:R694"/>
-    <mergeCell ref="R697:S697"/>
-    <mergeCell ref="S687:S688"/>
-    <mergeCell ref="T687:T688"/>
-    <mergeCell ref="U687:U688"/>
-    <mergeCell ref="V687:V688"/>
-    <mergeCell ref="W687:W688"/>
-    <mergeCell ref="X687:X688"/>
-    <mergeCell ref="M687:M688"/>
-    <mergeCell ref="N687:N688"/>
-    <mergeCell ref="O687:O688"/>
-    <mergeCell ref="P687:P688"/>
-    <mergeCell ref="Q687:Q688"/>
-    <mergeCell ref="R687:R688"/>
-    <mergeCell ref="Q683:R683"/>
-    <mergeCell ref="A687:A688"/>
-    <mergeCell ref="B687:B688"/>
-    <mergeCell ref="C687:C688"/>
-    <mergeCell ref="D687:D688"/>
-    <mergeCell ref="F687:F688"/>
-    <mergeCell ref="P681:P682"/>
-    <mergeCell ref="Q681:R681"/>
-    <mergeCell ref="S681:S682"/>
-    <mergeCell ref="T681:T682"/>
-    <mergeCell ref="U681:U682"/>
-    <mergeCell ref="V681:V682"/>
-    <mergeCell ref="J681:J682"/>
-    <mergeCell ref="K681:K682"/>
-    <mergeCell ref="L681:L682"/>
-    <mergeCell ref="M681:M682"/>
-    <mergeCell ref="N681:N682"/>
-    <mergeCell ref="O681:O682"/>
-    <mergeCell ref="Z678:Z679"/>
-    <mergeCell ref="A681:A682"/>
-    <mergeCell ref="B681:B682"/>
-    <mergeCell ref="C681:C682"/>
-    <mergeCell ref="D681:D682"/>
-    <mergeCell ref="F681:F682"/>
-    <mergeCell ref="G681:G682"/>
-    <mergeCell ref="H681:H682"/>
-    <mergeCell ref="I681:I682"/>
-    <mergeCell ref="S678:S679"/>
-    <mergeCell ref="T678:T679"/>
-    <mergeCell ref="U678:U679"/>
-    <mergeCell ref="V678:V679"/>
-    <mergeCell ref="W678:W679"/>
-    <mergeCell ref="X678:X679"/>
-    <mergeCell ref="M678:M679"/>
-    <mergeCell ref="N678:N679"/>
-    <mergeCell ref="O678:O679"/>
-    <mergeCell ref="P678:P679"/>
-    <mergeCell ref="Q678:Q679"/>
-    <mergeCell ref="R678:R679"/>
-    <mergeCell ref="G678:G679"/>
-    <mergeCell ref="H678:H679"/>
-    <mergeCell ref="I678:I679"/>
-    <mergeCell ref="J678:J679"/>
-    <mergeCell ref="K678:K679"/>
-    <mergeCell ref="L678:L679"/>
-    <mergeCell ref="W681:W682"/>
-    <mergeCell ref="X681:X682"/>
-    <mergeCell ref="Y681:Y682"/>
-    <mergeCell ref="Z681:Z682"/>
-    <mergeCell ref="Q675:R675"/>
-    <mergeCell ref="Q676:R676"/>
-    <mergeCell ref="X677:Y677"/>
-    <mergeCell ref="A678:A679"/>
-    <mergeCell ref="B678:B679"/>
-    <mergeCell ref="C678:C679"/>
-    <mergeCell ref="D678:D679"/>
-    <mergeCell ref="F678:F679"/>
-    <mergeCell ref="S672:S674"/>
-    <mergeCell ref="T672:T674"/>
-    <mergeCell ref="U672:U674"/>
-    <mergeCell ref="V672:V674"/>
-    <mergeCell ref="W672:W674"/>
-    <mergeCell ref="X672:X674"/>
-    <mergeCell ref="M672:M674"/>
-    <mergeCell ref="N672:N674"/>
-    <mergeCell ref="O672:O674"/>
-    <mergeCell ref="P672:P674"/>
-    <mergeCell ref="Q672:Q674"/>
-    <mergeCell ref="R672:R674"/>
-    <mergeCell ref="G672:G674"/>
-    <mergeCell ref="H672:H674"/>
-    <mergeCell ref="I672:I674"/>
-    <mergeCell ref="J672:J674"/>
-    <mergeCell ref="K672:K674"/>
-    <mergeCell ref="L672:L674"/>
-    <mergeCell ref="Y678:Y679"/>
-    <mergeCell ref="X665:X666"/>
-    <mergeCell ref="Y665:Y666"/>
-    <mergeCell ref="Z665:Z666"/>
-    <mergeCell ref="R669:S669"/>
-    <mergeCell ref="Q670:R670"/>
-    <mergeCell ref="A672:A674"/>
-    <mergeCell ref="B672:B674"/>
-    <mergeCell ref="C672:C674"/>
-    <mergeCell ref="D672:D674"/>
-    <mergeCell ref="F672:F674"/>
-    <mergeCell ref="Q665:R665"/>
-    <mergeCell ref="S665:S666"/>
-    <mergeCell ref="T665:T666"/>
-    <mergeCell ref="U665:U666"/>
-    <mergeCell ref="V665:V666"/>
-    <mergeCell ref="W665:W666"/>
-    <mergeCell ref="K665:K666"/>
-    <mergeCell ref="L665:L666"/>
-    <mergeCell ref="M665:M666"/>
-    <mergeCell ref="N665:N666"/>
-    <mergeCell ref="O665:O666"/>
-    <mergeCell ref="P665:P666"/>
-    <mergeCell ref="Y672:Y674"/>
-    <mergeCell ref="Z672:Z674"/>
-    <mergeCell ref="S664:T664"/>
-    <mergeCell ref="A665:A666"/>
-    <mergeCell ref="B665:B666"/>
-    <mergeCell ref="C665:C666"/>
-    <mergeCell ref="D665:D666"/>
-    <mergeCell ref="F665:F666"/>
-    <mergeCell ref="G665:G666"/>
-    <mergeCell ref="H665:H666"/>
-    <mergeCell ref="I665:I666"/>
-    <mergeCell ref="J665:J666"/>
-    <mergeCell ref="U659:U661"/>
-    <mergeCell ref="V659:V661"/>
-    <mergeCell ref="W659:W661"/>
-    <mergeCell ref="X659:X661"/>
-    <mergeCell ref="Y659:Y661"/>
-    <mergeCell ref="Z659:Z661"/>
-    <mergeCell ref="N659:N661"/>
-    <mergeCell ref="O659:O661"/>
-    <mergeCell ref="P659:P661"/>
-    <mergeCell ref="Q659:R659"/>
-    <mergeCell ref="S659:S661"/>
-    <mergeCell ref="T659:T661"/>
-    <mergeCell ref="H659:H661"/>
-    <mergeCell ref="I659:I661"/>
-    <mergeCell ref="J659:J661"/>
-    <mergeCell ref="K659:K661"/>
-    <mergeCell ref="L659:L661"/>
-    <mergeCell ref="M659:M661"/>
-    <mergeCell ref="A659:A661"/>
-    <mergeCell ref="B659:B661"/>
-    <mergeCell ref="C659:C661"/>
-    <mergeCell ref="D659:D661"/>
-    <mergeCell ref="F659:F661"/>
-    <mergeCell ref="G659:G661"/>
-    <mergeCell ref="U656:U657"/>
-    <mergeCell ref="V656:V657"/>
-    <mergeCell ref="W656:W657"/>
-    <mergeCell ref="X656:X657"/>
-    <mergeCell ref="Y656:Y657"/>
-    <mergeCell ref="Z656:Z657"/>
-    <mergeCell ref="O656:O657"/>
-    <mergeCell ref="P656:P657"/>
-    <mergeCell ref="Q656:Q657"/>
-    <mergeCell ref="R656:R657"/>
-    <mergeCell ref="S656:S657"/>
-    <mergeCell ref="T656:T657"/>
-    <mergeCell ref="I656:I657"/>
-    <mergeCell ref="J656:J657"/>
-    <mergeCell ref="K656:K657"/>
-    <mergeCell ref="L656:L657"/>
-    <mergeCell ref="M656:M657"/>
-    <mergeCell ref="N656:N657"/>
-    <mergeCell ref="T655:U655"/>
-    <mergeCell ref="A656:A657"/>
-    <mergeCell ref="B656:B657"/>
-    <mergeCell ref="C656:C657"/>
-    <mergeCell ref="D656:D657"/>
-    <mergeCell ref="F656:F657"/>
-    <mergeCell ref="G656:G657"/>
-    <mergeCell ref="H656:H657"/>
-    <mergeCell ref="S653:S654"/>
-    <mergeCell ref="T653:T654"/>
-    <mergeCell ref="U653:U654"/>
-    <mergeCell ref="V653:V654"/>
-    <mergeCell ref="W653:W654"/>
-    <mergeCell ref="X653:X654"/>
-    <mergeCell ref="M653:M654"/>
-    <mergeCell ref="N653:N654"/>
-    <mergeCell ref="O653:O654"/>
-    <mergeCell ref="P653:P654"/>
-    <mergeCell ref="Q653:Q654"/>
-    <mergeCell ref="R653:R654"/>
-    <mergeCell ref="G653:G654"/>
-    <mergeCell ref="H653:H654"/>
-    <mergeCell ref="I653:I654"/>
-    <mergeCell ref="J653:J654"/>
-    <mergeCell ref="K653:K654"/>
-    <mergeCell ref="L653:L654"/>
-    <mergeCell ref="Z638:Z639"/>
-    <mergeCell ref="S643:T643"/>
-    <mergeCell ref="R644:S644"/>
-    <mergeCell ref="Q645:R645"/>
-    <mergeCell ref="Q648:R648"/>
-    <mergeCell ref="A653:A654"/>
-    <mergeCell ref="B653:B654"/>
-    <mergeCell ref="C653:C654"/>
-    <mergeCell ref="D653:D654"/>
-    <mergeCell ref="F653:F654"/>
-    <mergeCell ref="T638:T639"/>
-    <mergeCell ref="U638:U639"/>
-    <mergeCell ref="V638:V639"/>
-    <mergeCell ref="W638:W639"/>
-    <mergeCell ref="X638:X639"/>
-    <mergeCell ref="Y638:Y639"/>
-    <mergeCell ref="N638:N639"/>
-    <mergeCell ref="O638:O639"/>
-    <mergeCell ref="P638:P639"/>
-    <mergeCell ref="Q638:Q639"/>
-    <mergeCell ref="R638:R639"/>
-    <mergeCell ref="S638:S639"/>
-    <mergeCell ref="H638:H639"/>
-    <mergeCell ref="I638:I639"/>
-    <mergeCell ref="J638:J639"/>
-    <mergeCell ref="K638:K639"/>
-    <mergeCell ref="L638:L639"/>
-    <mergeCell ref="M638:M639"/>
-    <mergeCell ref="Y653:Y654"/>
-    <mergeCell ref="Z653:Z654"/>
-    <mergeCell ref="A638:A639"/>
-    <mergeCell ref="B638:B639"/>
-    <mergeCell ref="C638:C639"/>
-    <mergeCell ref="D638:D639"/>
-    <mergeCell ref="F638:F639"/>
-    <mergeCell ref="G638:G639"/>
-    <mergeCell ref="Q636:Q637"/>
-    <mergeCell ref="R636:R637"/>
-    <mergeCell ref="S636:S637"/>
-    <mergeCell ref="T636:T637"/>
-    <mergeCell ref="U636:U637"/>
-    <mergeCell ref="V636:V637"/>
-    <mergeCell ref="K636:K637"/>
-    <mergeCell ref="L636:L637"/>
-    <mergeCell ref="M636:M637"/>
-    <mergeCell ref="N636:N637"/>
-    <mergeCell ref="O636:O637"/>
-    <mergeCell ref="P636:P637"/>
-    <mergeCell ref="Q635:R635"/>
-    <mergeCell ref="A636:A637"/>
-    <mergeCell ref="B636:B637"/>
-    <mergeCell ref="C636:C637"/>
-    <mergeCell ref="D636:D637"/>
-    <mergeCell ref="F636:F637"/>
-    <mergeCell ref="G636:G637"/>
-    <mergeCell ref="H636:H637"/>
-    <mergeCell ref="I636:I637"/>
-    <mergeCell ref="J636:J637"/>
-    <mergeCell ref="W628:W629"/>
-    <mergeCell ref="X628:X629"/>
-    <mergeCell ref="Y628:Y629"/>
-    <mergeCell ref="Z628:Z629"/>
-    <mergeCell ref="R632:S632"/>
-    <mergeCell ref="Q633:R633"/>
-    <mergeCell ref="P628:P629"/>
-    <mergeCell ref="Q628:Q629"/>
-    <mergeCell ref="R628:R629"/>
-    <mergeCell ref="S628:T628"/>
-    <mergeCell ref="U628:U629"/>
-    <mergeCell ref="V628:V629"/>
-    <mergeCell ref="J628:J629"/>
-    <mergeCell ref="K628:K629"/>
-    <mergeCell ref="L628:L629"/>
-    <mergeCell ref="M628:M629"/>
-    <mergeCell ref="N628:N629"/>
-    <mergeCell ref="O628:O629"/>
-    <mergeCell ref="W636:W637"/>
-    <mergeCell ref="X636:X637"/>
-    <mergeCell ref="Y636:Y637"/>
-    <mergeCell ref="Z636:Z637"/>
-    <mergeCell ref="S624:T624"/>
-    <mergeCell ref="R625:S625"/>
-    <mergeCell ref="A628:A629"/>
-    <mergeCell ref="B628:B629"/>
-    <mergeCell ref="C628:C629"/>
-    <mergeCell ref="D628:D629"/>
-    <mergeCell ref="F628:F629"/>
-    <mergeCell ref="G628:G629"/>
-    <mergeCell ref="H628:H629"/>
-    <mergeCell ref="I628:I629"/>
-    <mergeCell ref="Q610:R610"/>
-    <mergeCell ref="X612:Y612"/>
-    <mergeCell ref="R614:S614"/>
-    <mergeCell ref="Q615:R615"/>
-    <mergeCell ref="R620:S620"/>
-    <mergeCell ref="T621:U621"/>
-    <mergeCell ref="W603:W605"/>
-    <mergeCell ref="X603:X605"/>
-    <mergeCell ref="Y603:Y605"/>
-    <mergeCell ref="Z603:Z605"/>
-    <mergeCell ref="T606:U606"/>
-    <mergeCell ref="R607:S607"/>
-    <mergeCell ref="Q603:Q605"/>
-    <mergeCell ref="R603:R605"/>
-    <mergeCell ref="S603:S605"/>
-    <mergeCell ref="T603:T605"/>
-    <mergeCell ref="U603:U605"/>
-    <mergeCell ref="V603:V605"/>
-    <mergeCell ref="K603:K605"/>
-    <mergeCell ref="L603:L605"/>
-    <mergeCell ref="M603:M605"/>
-    <mergeCell ref="N603:N605"/>
-    <mergeCell ref="O603:O605"/>
-    <mergeCell ref="P603:P605"/>
-    <mergeCell ref="Z598:Z599"/>
-    <mergeCell ref="A603:A605"/>
-    <mergeCell ref="B603:B605"/>
-    <mergeCell ref="C603:C605"/>
-    <mergeCell ref="D603:D605"/>
-    <mergeCell ref="F603:F605"/>
-    <mergeCell ref="G603:G605"/>
-    <mergeCell ref="H603:H605"/>
-    <mergeCell ref="I603:I605"/>
-    <mergeCell ref="J603:J605"/>
-    <mergeCell ref="T598:T599"/>
-    <mergeCell ref="U598:U599"/>
-    <mergeCell ref="V598:V599"/>
-    <mergeCell ref="W598:W599"/>
-    <mergeCell ref="X598:X599"/>
-    <mergeCell ref="Y598:Y599"/>
-    <mergeCell ref="N598:N599"/>
-    <mergeCell ref="O598:O599"/>
-    <mergeCell ref="P598:P599"/>
-    <mergeCell ref="Q598:Q599"/>
-    <mergeCell ref="R598:R599"/>
-    <mergeCell ref="S598:S599"/>
-    <mergeCell ref="H598:H599"/>
-    <mergeCell ref="I598:I599"/>
-    <mergeCell ref="J598:J599"/>
-    <mergeCell ref="K598:K599"/>
-    <mergeCell ref="L598:L599"/>
-    <mergeCell ref="M598:M599"/>
-    <mergeCell ref="A598:A599"/>
-    <mergeCell ref="B598:B599"/>
-    <mergeCell ref="C598:C599"/>
-    <mergeCell ref="D598:D599"/>
-    <mergeCell ref="F598:F599"/>
-    <mergeCell ref="G598:G599"/>
-    <mergeCell ref="X593:X594"/>
-    <mergeCell ref="Y593:Y594"/>
-    <mergeCell ref="Z593:Z594"/>
-    <mergeCell ref="R595:S595"/>
-    <mergeCell ref="Q597:R597"/>
-    <mergeCell ref="Q593:Q594"/>
-    <mergeCell ref="R593:R594"/>
-    <mergeCell ref="S593:S594"/>
-    <mergeCell ref="T593:T594"/>
-    <mergeCell ref="U593:U594"/>
-    <mergeCell ref="V593:V594"/>
-    <mergeCell ref="K593:K594"/>
-    <mergeCell ref="L593:L594"/>
-    <mergeCell ref="M593:M594"/>
-    <mergeCell ref="N593:N594"/>
-    <mergeCell ref="O593:O594"/>
-    <mergeCell ref="P593:P594"/>
-    <mergeCell ref="A593:A594"/>
-    <mergeCell ref="B593:B594"/>
-    <mergeCell ref="C593:C594"/>
-    <mergeCell ref="D593:D594"/>
-    <mergeCell ref="F593:F594"/>
-    <mergeCell ref="G593:G594"/>
-    <mergeCell ref="H593:H594"/>
-    <mergeCell ref="I593:I594"/>
-    <mergeCell ref="J593:J594"/>
-    <mergeCell ref="T588:T589"/>
-    <mergeCell ref="U588:U589"/>
-    <mergeCell ref="V588:V589"/>
-    <mergeCell ref="W588:W589"/>
-    <mergeCell ref="X588:X589"/>
-    <mergeCell ref="Y588:Y589"/>
-    <mergeCell ref="N588:N589"/>
-    <mergeCell ref="O588:O589"/>
-    <mergeCell ref="P588:P589"/>
-    <mergeCell ref="Q588:Q589"/>
-    <mergeCell ref="R588:R589"/>
-    <mergeCell ref="S588:S589"/>
-    <mergeCell ref="H588:H589"/>
-    <mergeCell ref="I588:I589"/>
-    <mergeCell ref="J588:J589"/>
-    <mergeCell ref="K588:K589"/>
-    <mergeCell ref="L588:L589"/>
-    <mergeCell ref="M588:M589"/>
-    <mergeCell ref="A588:A589"/>
-    <mergeCell ref="B588:B589"/>
-    <mergeCell ref="C588:C589"/>
-    <mergeCell ref="D588:D589"/>
-    <mergeCell ref="W593:W594"/>
-    <mergeCell ref="F588:F589"/>
-    <mergeCell ref="G588:G589"/>
-    <mergeCell ref="U585:U586"/>
-    <mergeCell ref="V585:V586"/>
-    <mergeCell ref="W585:W586"/>
-    <mergeCell ref="X585:X586"/>
-    <mergeCell ref="Y585:Y586"/>
-    <mergeCell ref="Z585:Z586"/>
-    <mergeCell ref="O585:O586"/>
-    <mergeCell ref="P585:P586"/>
-    <mergeCell ref="Q585:Q586"/>
-    <mergeCell ref="R585:R586"/>
-    <mergeCell ref="S585:S586"/>
-    <mergeCell ref="T585:T586"/>
-    <mergeCell ref="I585:I586"/>
-    <mergeCell ref="J585:J586"/>
-    <mergeCell ref="K585:K586"/>
-    <mergeCell ref="L585:L586"/>
-    <mergeCell ref="M585:M586"/>
-    <mergeCell ref="N585:N586"/>
-    <mergeCell ref="Z588:Z589"/>
-    <mergeCell ref="Z577:Z578"/>
-    <mergeCell ref="R582:S582"/>
-    <mergeCell ref="S584:T584"/>
-    <mergeCell ref="A585:A586"/>
-    <mergeCell ref="B585:B586"/>
-    <mergeCell ref="C585:C586"/>
-    <mergeCell ref="D585:D586"/>
-    <mergeCell ref="F585:F586"/>
-    <mergeCell ref="G585:G586"/>
-    <mergeCell ref="H585:H586"/>
-    <mergeCell ref="T577:T578"/>
-    <mergeCell ref="U577:U578"/>
-    <mergeCell ref="V577:V578"/>
-    <mergeCell ref="W577:W578"/>
-    <mergeCell ref="X577:X578"/>
-    <mergeCell ref="Y577:Y578"/>
-    <mergeCell ref="N577:N578"/>
-    <mergeCell ref="O577:O578"/>
-    <mergeCell ref="P577:P578"/>
-    <mergeCell ref="Q577:Q578"/>
-    <mergeCell ref="R577:R578"/>
-    <mergeCell ref="S577:S578"/>
-    <mergeCell ref="H577:H578"/>
-    <mergeCell ref="I577:I578"/>
-    <mergeCell ref="J577:J578"/>
-    <mergeCell ref="K577:K578"/>
-    <mergeCell ref="L577:L578"/>
-    <mergeCell ref="M577:M578"/>
-    <mergeCell ref="R569:S569"/>
-    <mergeCell ref="R571:S571"/>
-    <mergeCell ref="Q574:R574"/>
-    <mergeCell ref="R576:S576"/>
-    <mergeCell ref="A577:A578"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="C577:C578"/>
-    <mergeCell ref="D577:D578"/>
-    <mergeCell ref="F577:F578"/>
-    <mergeCell ref="G577:G578"/>
-    <mergeCell ref="Z558:Z559"/>
-    <mergeCell ref="R560:S560"/>
-    <mergeCell ref="T561:U561"/>
-    <mergeCell ref="R562:S562"/>
-    <mergeCell ref="S563:T563"/>
-    <mergeCell ref="Q566:R566"/>
-    <mergeCell ref="T558:T559"/>
-    <mergeCell ref="U558:U559"/>
-    <mergeCell ref="V558:V559"/>
-    <mergeCell ref="W558:W559"/>
-    <mergeCell ref="X558:X559"/>
-    <mergeCell ref="Y558:Y559"/>
-    <mergeCell ref="M558:M559"/>
-    <mergeCell ref="N558:N559"/>
-    <mergeCell ref="O558:O559"/>
-    <mergeCell ref="P558:P559"/>
-    <mergeCell ref="Q558:R558"/>
-    <mergeCell ref="S558:S559"/>
-    <mergeCell ref="G558:G559"/>
-    <mergeCell ref="H558:H559"/>
-    <mergeCell ref="I558:I559"/>
-    <mergeCell ref="J558:J559"/>
-    <mergeCell ref="K558:K559"/>
-    <mergeCell ref="L558:L559"/>
-    <mergeCell ref="V553:V554"/>
-    <mergeCell ref="W553:W554"/>
-    <mergeCell ref="X553:X554"/>
-    <mergeCell ref="Y553:Y554"/>
-    <mergeCell ref="Z553:Z554"/>
-    <mergeCell ref="A558:A559"/>
-    <mergeCell ref="B558:B559"/>
-    <mergeCell ref="C558:C559"/>
-    <mergeCell ref="D558:D559"/>
-    <mergeCell ref="F558:F559"/>
-    <mergeCell ref="P553:P554"/>
-    <mergeCell ref="Q553:Q554"/>
-    <mergeCell ref="R553:R554"/>
-    <mergeCell ref="S553:S554"/>
-    <mergeCell ref="T553:T554"/>
-    <mergeCell ref="U553:U554"/>
-    <mergeCell ref="J553:J554"/>
-    <mergeCell ref="K553:K554"/>
-    <mergeCell ref="L553:L554"/>
-    <mergeCell ref="M553:M554"/>
-    <mergeCell ref="N553:N554"/>
-    <mergeCell ref="O553:O554"/>
-    <mergeCell ref="S552:T552"/>
-    <mergeCell ref="A553:A554"/>
-    <mergeCell ref="B553:B554"/>
-    <mergeCell ref="C553:C554"/>
-    <mergeCell ref="D553:D554"/>
-    <mergeCell ref="F553:F554"/>
-    <mergeCell ref="G553:G554"/>
-    <mergeCell ref="H553:H554"/>
-    <mergeCell ref="I553:I554"/>
-    <mergeCell ref="T550:T551"/>
-    <mergeCell ref="U550:U551"/>
-    <mergeCell ref="V550:V551"/>
-    <mergeCell ref="W550:W551"/>
-    <mergeCell ref="X550:X551"/>
-    <mergeCell ref="Y550:Y551"/>
-    <mergeCell ref="N550:N551"/>
-    <mergeCell ref="O550:O551"/>
-    <mergeCell ref="P550:P551"/>
-    <mergeCell ref="Q550:Q551"/>
-    <mergeCell ref="R550:R551"/>
-    <mergeCell ref="S550:S551"/>
-    <mergeCell ref="H550:H551"/>
-    <mergeCell ref="I550:I551"/>
-    <mergeCell ref="J550:J551"/>
-    <mergeCell ref="K550:K551"/>
-    <mergeCell ref="L550:L551"/>
-    <mergeCell ref="M550:M551"/>
-    <mergeCell ref="A550:A551"/>
-    <mergeCell ref="B550:B551"/>
-    <mergeCell ref="C550:C551"/>
-    <mergeCell ref="D550:D551"/>
-    <mergeCell ref="F550:F551"/>
-    <mergeCell ref="G550:G551"/>
-    <mergeCell ref="U548:U549"/>
-    <mergeCell ref="V548:V549"/>
-    <mergeCell ref="W548:W549"/>
-    <mergeCell ref="X548:X549"/>
-    <mergeCell ref="Y548:Y549"/>
-    <mergeCell ref="Z548:Z549"/>
-    <mergeCell ref="N548:N549"/>
-    <mergeCell ref="O548:O549"/>
-    <mergeCell ref="P548:P549"/>
-    <mergeCell ref="Q548:Q549"/>
-    <mergeCell ref="R548:S548"/>
-    <mergeCell ref="T548:T549"/>
-    <mergeCell ref="H548:H549"/>
-    <mergeCell ref="I548:I549"/>
-    <mergeCell ref="J548:J549"/>
-    <mergeCell ref="K548:K549"/>
-    <mergeCell ref="L548:L549"/>
-    <mergeCell ref="M548:M549"/>
-    <mergeCell ref="Z550:Z551"/>
-    <mergeCell ref="A548:A549"/>
-    <mergeCell ref="B548:B549"/>
-    <mergeCell ref="C548:C549"/>
-    <mergeCell ref="D548:D549"/>
-    <mergeCell ref="F548:F549"/>
-    <mergeCell ref="G548:G549"/>
-    <mergeCell ref="Q538:R538"/>
-    <mergeCell ref="Q539:R539"/>
-    <mergeCell ref="Q540:R540"/>
-    <mergeCell ref="R542:S542"/>
-    <mergeCell ref="R544:S544"/>
-    <mergeCell ref="Q547:R547"/>
-    <mergeCell ref="V535:V536"/>
-    <mergeCell ref="W535:W536"/>
-    <mergeCell ref="X535:X536"/>
-    <mergeCell ref="Y535:Y536"/>
-    <mergeCell ref="Z535:Z536"/>
-    <mergeCell ref="S537:T537"/>
-    <mergeCell ref="P535:P536"/>
-    <mergeCell ref="Q535:Q536"/>
-    <mergeCell ref="R535:R536"/>
-    <mergeCell ref="S535:S536"/>
-    <mergeCell ref="T535:T536"/>
-    <mergeCell ref="U535:U536"/>
-    <mergeCell ref="J535:J536"/>
-    <mergeCell ref="K535:K536"/>
-    <mergeCell ref="L535:L536"/>
-    <mergeCell ref="M535:M536"/>
-    <mergeCell ref="N535:N536"/>
-    <mergeCell ref="O535:O536"/>
-    <mergeCell ref="R534:S534"/>
-    <mergeCell ref="A535:A536"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="C535:C536"/>
-    <mergeCell ref="D535:D536"/>
-    <mergeCell ref="F535:F536"/>
-    <mergeCell ref="G535:G536"/>
-    <mergeCell ref="H535:H536"/>
-    <mergeCell ref="I535:I536"/>
-    <mergeCell ref="T532:T533"/>
-    <mergeCell ref="U532:U533"/>
-    <mergeCell ref="V532:V533"/>
-    <mergeCell ref="W532:W533"/>
-    <mergeCell ref="X532:X533"/>
-    <mergeCell ref="Y532:Y533"/>
-    <mergeCell ref="N532:N533"/>
-    <mergeCell ref="O532:O533"/>
-    <mergeCell ref="P532:P533"/>
-    <mergeCell ref="Q532:Q533"/>
-    <mergeCell ref="R532:R533"/>
-    <mergeCell ref="S532:S533"/>
-    <mergeCell ref="H532:H533"/>
-    <mergeCell ref="I532:I533"/>
-    <mergeCell ref="J532:J533"/>
-    <mergeCell ref="K532:K533"/>
-    <mergeCell ref="L532:L533"/>
-    <mergeCell ref="M532:M533"/>
-    <mergeCell ref="A532:A533"/>
-    <mergeCell ref="B532:B533"/>
-    <mergeCell ref="C532:C533"/>
-    <mergeCell ref="D532:D533"/>
-    <mergeCell ref="F532:F533"/>
-    <mergeCell ref="G532:G533"/>
-    <mergeCell ref="V528:V529"/>
-    <mergeCell ref="W528:W529"/>
-    <mergeCell ref="X528:X529"/>
-    <mergeCell ref="Y528:Y529"/>
-    <mergeCell ref="Z528:Z529"/>
-    <mergeCell ref="Q531:R531"/>
-    <mergeCell ref="P528:P529"/>
-    <mergeCell ref="Q528:Q529"/>
-    <mergeCell ref="R528:R529"/>
-    <mergeCell ref="S528:S529"/>
-    <mergeCell ref="T528:T529"/>
-    <mergeCell ref="U528:U529"/>
-    <mergeCell ref="J528:J529"/>
-    <mergeCell ref="K528:K529"/>
-    <mergeCell ref="L528:L529"/>
-    <mergeCell ref="M528:M529"/>
-    <mergeCell ref="N528:N529"/>
-    <mergeCell ref="O528:O529"/>
-    <mergeCell ref="Z532:Z533"/>
-    <mergeCell ref="R527:S527"/>
-    <mergeCell ref="A528:A529"/>
-    <mergeCell ref="B528:B529"/>
-    <mergeCell ref="C528:C529"/>
-    <mergeCell ref="D528:D529"/>
-    <mergeCell ref="F528:F529"/>
-    <mergeCell ref="G528:G529"/>
-    <mergeCell ref="H528:H529"/>
-    <mergeCell ref="I528:I529"/>
-    <mergeCell ref="T525:T526"/>
-    <mergeCell ref="U525:U526"/>
-    <mergeCell ref="V525:V526"/>
-    <mergeCell ref="W525:W526"/>
-    <mergeCell ref="X525:X526"/>
-    <mergeCell ref="Y525:Y526"/>
-    <mergeCell ref="N525:N526"/>
-    <mergeCell ref="O525:O526"/>
-    <mergeCell ref="P525:P526"/>
-    <mergeCell ref="Q525:Q526"/>
-    <mergeCell ref="R525:R526"/>
-    <mergeCell ref="S525:S526"/>
-    <mergeCell ref="H525:H526"/>
-    <mergeCell ref="I525:I526"/>
-    <mergeCell ref="J525:J526"/>
-    <mergeCell ref="K525:K526"/>
-    <mergeCell ref="L525:L526"/>
-    <mergeCell ref="M525:M526"/>
-    <mergeCell ref="A525:A526"/>
-    <mergeCell ref="B525:B526"/>
-    <mergeCell ref="C525:C526"/>
-    <mergeCell ref="D525:D526"/>
-    <mergeCell ref="F525:F526"/>
-    <mergeCell ref="G525:G526"/>
-    <mergeCell ref="U522:U524"/>
-    <mergeCell ref="V522:V524"/>
-    <mergeCell ref="W522:W524"/>
-    <mergeCell ref="X522:X524"/>
-    <mergeCell ref="Y522:Y524"/>
-    <mergeCell ref="Z522:Z524"/>
-    <mergeCell ref="N522:N524"/>
-    <mergeCell ref="O522:O524"/>
-    <mergeCell ref="P522:P524"/>
-    <mergeCell ref="Q522:Q524"/>
-    <mergeCell ref="R522:S522"/>
-    <mergeCell ref="T522:T524"/>
-    <mergeCell ref="H522:H524"/>
-    <mergeCell ref="I522:I524"/>
-    <mergeCell ref="J522:J524"/>
-    <mergeCell ref="K522:K524"/>
-    <mergeCell ref="L522:L524"/>
-    <mergeCell ref="M522:M524"/>
-    <mergeCell ref="Z525:Z526"/>
-    <mergeCell ref="A522:A524"/>
-    <mergeCell ref="B522:B524"/>
-    <mergeCell ref="C522:C524"/>
-    <mergeCell ref="D522:D524"/>
-    <mergeCell ref="F522:F524"/>
-    <mergeCell ref="G522:G524"/>
-    <mergeCell ref="U520:U521"/>
-    <mergeCell ref="V520:V521"/>
-    <mergeCell ref="W520:W521"/>
-    <mergeCell ref="X520:X521"/>
-    <mergeCell ref="Y520:Y521"/>
-    <mergeCell ref="Z520:Z521"/>
-    <mergeCell ref="O520:O521"/>
-    <mergeCell ref="P520:P521"/>
-    <mergeCell ref="Q520:Q521"/>
-    <mergeCell ref="R520:R521"/>
-    <mergeCell ref="S520:S521"/>
-    <mergeCell ref="T520:T521"/>
-    <mergeCell ref="I520:I521"/>
-    <mergeCell ref="J520:J521"/>
-    <mergeCell ref="K520:K521"/>
-    <mergeCell ref="L520:L521"/>
-    <mergeCell ref="M520:M521"/>
-    <mergeCell ref="N520:N521"/>
-    <mergeCell ref="R509:S509"/>
-    <mergeCell ref="Q515:R515"/>
-    <mergeCell ref="Q516:R516"/>
-    <mergeCell ref="A520:A521"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="C520:C521"/>
-    <mergeCell ref="D520:D521"/>
-    <mergeCell ref="F520:F521"/>
-    <mergeCell ref="G520:G521"/>
-    <mergeCell ref="H520:H521"/>
-    <mergeCell ref="U503:U504"/>
-    <mergeCell ref="V503:V504"/>
-    <mergeCell ref="W503:W504"/>
-    <mergeCell ref="X503:X504"/>
-    <mergeCell ref="Y503:Y504"/>
-    <mergeCell ref="Z503:Z504"/>
-    <mergeCell ref="N503:N504"/>
-    <mergeCell ref="O503:O504"/>
-    <mergeCell ref="P503:P504"/>
-    <mergeCell ref="Q503:R503"/>
-    <mergeCell ref="S503:S504"/>
-    <mergeCell ref="T503:T504"/>
-    <mergeCell ref="H503:H504"/>
-    <mergeCell ref="I503:I504"/>
-    <mergeCell ref="J503:J504"/>
-    <mergeCell ref="K503:K504"/>
-    <mergeCell ref="L503:L504"/>
-    <mergeCell ref="M503:M504"/>
-    <mergeCell ref="A503:A504"/>
-    <mergeCell ref="B503:B504"/>
-    <mergeCell ref="C503:C504"/>
-    <mergeCell ref="D503:D504"/>
-    <mergeCell ref="F503:F504"/>
-    <mergeCell ref="G503:G504"/>
-    <mergeCell ref="W499:W500"/>
-    <mergeCell ref="X499:X500"/>
-    <mergeCell ref="Y499:Y500"/>
-    <mergeCell ref="Z499:Z500"/>
-    <mergeCell ref="R501:S501"/>
-    <mergeCell ref="Q502:R502"/>
-    <mergeCell ref="P499:P500"/>
-    <mergeCell ref="Q499:Q500"/>
-    <mergeCell ref="R499:S499"/>
-    <mergeCell ref="T499:T500"/>
-    <mergeCell ref="U499:U500"/>
-    <mergeCell ref="V499:V500"/>
-    <mergeCell ref="J499:J500"/>
-    <mergeCell ref="K499:K500"/>
-    <mergeCell ref="L499:L500"/>
-    <mergeCell ref="M499:M500"/>
-    <mergeCell ref="N499:N500"/>
-    <mergeCell ref="O499:O500"/>
-    <mergeCell ref="Q497:R497"/>
-    <mergeCell ref="R498:S498"/>
-    <mergeCell ref="A499:A500"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="C499:C500"/>
-    <mergeCell ref="D499:D500"/>
-    <mergeCell ref="F499:F500"/>
-    <mergeCell ref="G499:G500"/>
-    <mergeCell ref="H499:H500"/>
-    <mergeCell ref="I499:I500"/>
-    <mergeCell ref="V490:V491"/>
-    <mergeCell ref="W490:W491"/>
-    <mergeCell ref="X490:X491"/>
-    <mergeCell ref="Y490:Y491"/>
-    <mergeCell ref="Z490:Z491"/>
-    <mergeCell ref="S492:T492"/>
-    <mergeCell ref="P490:P491"/>
-    <mergeCell ref="Q490:Q491"/>
-    <mergeCell ref="R490:R491"/>
-    <mergeCell ref="S490:S491"/>
-    <mergeCell ref="T490:T491"/>
-    <mergeCell ref="U490:U491"/>
-    <mergeCell ref="J490:J491"/>
-    <mergeCell ref="K490:K491"/>
-    <mergeCell ref="L490:L491"/>
-    <mergeCell ref="M490:M491"/>
-    <mergeCell ref="N490:N491"/>
-    <mergeCell ref="O490:O491"/>
-    <mergeCell ref="A490:A491"/>
-    <mergeCell ref="B490:B491"/>
-    <mergeCell ref="C490:C491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="F490:F491"/>
-    <mergeCell ref="G490:G491"/>
-    <mergeCell ref="H490:H491"/>
-    <mergeCell ref="I490:I491"/>
-    <mergeCell ref="S488:S489"/>
-    <mergeCell ref="T488:T489"/>
-    <mergeCell ref="U488:U489"/>
-    <mergeCell ref="V488:V489"/>
-    <mergeCell ref="W488:W489"/>
-    <mergeCell ref="X488:X489"/>
-    <mergeCell ref="M488:M489"/>
-    <mergeCell ref="N488:N489"/>
-    <mergeCell ref="O488:O489"/>
-    <mergeCell ref="P488:P489"/>
-    <mergeCell ref="Q488:Q489"/>
-    <mergeCell ref="R488:R489"/>
-    <mergeCell ref="G488:G489"/>
-    <mergeCell ref="H488:H489"/>
-    <mergeCell ref="I488:I489"/>
-    <mergeCell ref="J488:J489"/>
-    <mergeCell ref="K488:K489"/>
-    <mergeCell ref="L488:L489"/>
-    <mergeCell ref="Z476:Z478"/>
-    <mergeCell ref="Q479:R479"/>
-    <mergeCell ref="Q483:R483"/>
-    <mergeCell ref="Q485:R485"/>
-    <mergeCell ref="S486:T486"/>
-    <mergeCell ref="A488:A489"/>
-    <mergeCell ref="B488:B489"/>
-    <mergeCell ref="C488:C489"/>
-    <mergeCell ref="D488:D489"/>
-    <mergeCell ref="F488:F489"/>
-    <mergeCell ref="T476:T478"/>
-    <mergeCell ref="U476:U478"/>
-    <mergeCell ref="V476:V478"/>
-    <mergeCell ref="W476:W478"/>
-    <mergeCell ref="X476:X478"/>
-    <mergeCell ref="Y476:Y478"/>
-    <mergeCell ref="N476:N478"/>
-    <mergeCell ref="O476:O478"/>
-    <mergeCell ref="P476:P478"/>
-    <mergeCell ref="Q476:Q478"/>
-    <mergeCell ref="R476:R478"/>
-    <mergeCell ref="S476:S478"/>
-    <mergeCell ref="H476:H478"/>
-    <mergeCell ref="I476:I478"/>
-    <mergeCell ref="J476:J478"/>
-    <mergeCell ref="K476:K478"/>
-    <mergeCell ref="L476:L478"/>
-    <mergeCell ref="M476:M478"/>
-    <mergeCell ref="Y488:Y489"/>
-    <mergeCell ref="Z488:Z489"/>
-    <mergeCell ref="R466:S466"/>
-    <mergeCell ref="Q468:R468"/>
-    <mergeCell ref="Q472:R472"/>
-    <mergeCell ref="R473:S473"/>
-    <mergeCell ref="A476:A478"/>
-    <mergeCell ref="B476:B478"/>
-    <mergeCell ref="C476:C478"/>
-    <mergeCell ref="D476:D478"/>
-    <mergeCell ref="F476:F478"/>
-    <mergeCell ref="G476:G478"/>
-    <mergeCell ref="Y460:Y461"/>
-    <mergeCell ref="Z460:Z461"/>
-    <mergeCell ref="S462:T462"/>
-    <mergeCell ref="R463:S463"/>
-    <mergeCell ref="Q464:R464"/>
-    <mergeCell ref="R465:S465"/>
-    <mergeCell ref="S460:S461"/>
-    <mergeCell ref="T460:T461"/>
-    <mergeCell ref="U460:U461"/>
-    <mergeCell ref="V460:V461"/>
-    <mergeCell ref="W460:W461"/>
-    <mergeCell ref="X460:X461"/>
-    <mergeCell ref="M460:M461"/>
-    <mergeCell ref="N460:N461"/>
-    <mergeCell ref="O460:O461"/>
-    <mergeCell ref="P460:P461"/>
-    <mergeCell ref="Q460:Q461"/>
-    <mergeCell ref="R460:R461"/>
-    <mergeCell ref="G460:G461"/>
-    <mergeCell ref="H460:H461"/>
-    <mergeCell ref="I460:I461"/>
-    <mergeCell ref="J460:J461"/>
-    <mergeCell ref="K460:K461"/>
-    <mergeCell ref="L460:L461"/>
-    <mergeCell ref="V458:V459"/>
-    <mergeCell ref="W458:W459"/>
-    <mergeCell ref="X458:X459"/>
-    <mergeCell ref="Y458:Y459"/>
-    <mergeCell ref="Z458:Z459"/>
-    <mergeCell ref="A460:A461"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="F460:F461"/>
-    <mergeCell ref="P458:P459"/>
-    <mergeCell ref="Q458:Q459"/>
-    <mergeCell ref="R458:R459"/>
-    <mergeCell ref="S458:S459"/>
-    <mergeCell ref="T458:T459"/>
-    <mergeCell ref="U458:U459"/>
-    <mergeCell ref="J458:J459"/>
-    <mergeCell ref="K458:K459"/>
-    <mergeCell ref="L458:L459"/>
-    <mergeCell ref="M458:M459"/>
-    <mergeCell ref="N458:N459"/>
-    <mergeCell ref="O458:O459"/>
-    <mergeCell ref="Q447:R447"/>
-    <mergeCell ref="Q450:R450"/>
-    <mergeCell ref="A458:A459"/>
-    <mergeCell ref="B458:B459"/>
-    <mergeCell ref="C458:C459"/>
-    <mergeCell ref="D458:D459"/>
-    <mergeCell ref="F458:F459"/>
-    <mergeCell ref="G458:G459"/>
-    <mergeCell ref="H458:H459"/>
-    <mergeCell ref="I458:I459"/>
-    <mergeCell ref="W440:W441"/>
-    <mergeCell ref="X440:X441"/>
-    <mergeCell ref="Y440:Y441"/>
-    <mergeCell ref="Z440:Z441"/>
-    <mergeCell ref="R444:S444"/>
-    <mergeCell ref="R446:S446"/>
-    <mergeCell ref="Q440:Q441"/>
-    <mergeCell ref="R440:R441"/>
-    <mergeCell ref="S440:S441"/>
-    <mergeCell ref="T440:T441"/>
-    <mergeCell ref="U440:U441"/>
-    <mergeCell ref="V440:V441"/>
-    <mergeCell ref="K440:K441"/>
-    <mergeCell ref="L440:L441"/>
-    <mergeCell ref="M440:M441"/>
-    <mergeCell ref="N440:N441"/>
-    <mergeCell ref="O440:O441"/>
-    <mergeCell ref="P440:P441"/>
-    <mergeCell ref="R439:S439"/>
-    <mergeCell ref="A440:A441"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="D440:D441"/>
-    <mergeCell ref="F440:F441"/>
-    <mergeCell ref="G440:G441"/>
-    <mergeCell ref="H440:H441"/>
-    <mergeCell ref="I440:I441"/>
-    <mergeCell ref="J440:J441"/>
-    <mergeCell ref="U437:U438"/>
-    <mergeCell ref="V437:V438"/>
-    <mergeCell ref="W437:W438"/>
-    <mergeCell ref="X437:X438"/>
-    <mergeCell ref="Y437:Y438"/>
-    <mergeCell ref="Z437:Z438"/>
-    <mergeCell ref="N437:N438"/>
-    <mergeCell ref="O437:O438"/>
-    <mergeCell ref="P437:P438"/>
-    <mergeCell ref="Q437:R437"/>
-    <mergeCell ref="S437:S438"/>
-    <mergeCell ref="T437:T438"/>
-    <mergeCell ref="H437:H438"/>
-    <mergeCell ref="I437:I438"/>
-    <mergeCell ref="J437:J438"/>
-    <mergeCell ref="K437:K438"/>
-    <mergeCell ref="L437:L438"/>
-    <mergeCell ref="M437:M438"/>
-    <mergeCell ref="Q428:R428"/>
-    <mergeCell ref="Q430:R430"/>
-    <mergeCell ref="R431:S431"/>
-    <mergeCell ref="S434:T434"/>
-    <mergeCell ref="A437:A438"/>
-    <mergeCell ref="B437:B438"/>
-    <mergeCell ref="C437:C438"/>
-    <mergeCell ref="D437:D438"/>
-    <mergeCell ref="F437:F438"/>
-    <mergeCell ref="G437:G438"/>
-    <mergeCell ref="X417:X418"/>
-    <mergeCell ref="Y417:Y418"/>
-    <mergeCell ref="Z417:Z418"/>
-    <mergeCell ref="Q420:R420"/>
-    <mergeCell ref="Q422:R422"/>
-    <mergeCell ref="Q424:R424"/>
-    <mergeCell ref="Q417:Q418"/>
-    <mergeCell ref="R417:S417"/>
-    <mergeCell ref="T417:T418"/>
-    <mergeCell ref="U417:U418"/>
-    <mergeCell ref="V417:V418"/>
-    <mergeCell ref="W417:W418"/>
-    <mergeCell ref="K417:K418"/>
-    <mergeCell ref="L417:L418"/>
-    <mergeCell ref="M417:M418"/>
-    <mergeCell ref="N417:N418"/>
-    <mergeCell ref="O417:O418"/>
-    <mergeCell ref="P417:P418"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="B417:B418"/>
-    <mergeCell ref="C417:C418"/>
-    <mergeCell ref="D417:D418"/>
-    <mergeCell ref="F417:F418"/>
-    <mergeCell ref="G417:G418"/>
-    <mergeCell ref="H417:H418"/>
-    <mergeCell ref="I417:I418"/>
-    <mergeCell ref="J417:J418"/>
-    <mergeCell ref="T415:T416"/>
-    <mergeCell ref="U415:U416"/>
-    <mergeCell ref="V415:V416"/>
-    <mergeCell ref="W415:W416"/>
-    <mergeCell ref="X415:X416"/>
-    <mergeCell ref="Y415:Y416"/>
-    <mergeCell ref="N415:N416"/>
-    <mergeCell ref="O415:O416"/>
-    <mergeCell ref="P415:P416"/>
-    <mergeCell ref="Q415:Q416"/>
-    <mergeCell ref="R415:R416"/>
-    <mergeCell ref="S415:S416"/>
-    <mergeCell ref="H415:H416"/>
-    <mergeCell ref="I415:I416"/>
-    <mergeCell ref="J415:J416"/>
-    <mergeCell ref="K415:K416"/>
-    <mergeCell ref="L415:L416"/>
-    <mergeCell ref="M415:M416"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="C415:C416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="F415:F416"/>
-    <mergeCell ref="G415:G416"/>
-    <mergeCell ref="Z389:Z390"/>
-    <mergeCell ref="Q395:R395"/>
-    <mergeCell ref="R399:S399"/>
-    <mergeCell ref="R402:S402"/>
-    <mergeCell ref="R410:S410"/>
-    <mergeCell ref="Q411:R411"/>
-    <mergeCell ref="T389:T390"/>
-    <mergeCell ref="U389:U390"/>
-    <mergeCell ref="V389:V390"/>
-    <mergeCell ref="W389:W390"/>
-    <mergeCell ref="X389:X390"/>
-    <mergeCell ref="Y389:Y390"/>
-    <mergeCell ref="N389:N390"/>
-    <mergeCell ref="O389:O390"/>
-    <mergeCell ref="P389:P390"/>
-    <mergeCell ref="Q389:Q390"/>
-    <mergeCell ref="R389:R390"/>
-    <mergeCell ref="S389:S390"/>
-    <mergeCell ref="H389:H390"/>
-    <mergeCell ref="I389:I390"/>
-    <mergeCell ref="J389:J390"/>
-    <mergeCell ref="K389:K390"/>
-    <mergeCell ref="L389:L390"/>
-    <mergeCell ref="M389:M390"/>
-    <mergeCell ref="Z415:Z416"/>
-    <mergeCell ref="A389:A390"/>
-    <mergeCell ref="B389:B390"/>
-    <mergeCell ref="C389:C390"/>
-    <mergeCell ref="D389:D390"/>
-    <mergeCell ref="F389:F390"/>
-    <mergeCell ref="G389:G390"/>
-    <mergeCell ref="W382:W383"/>
-    <mergeCell ref="X382:X383"/>
-    <mergeCell ref="Y382:Y383"/>
-    <mergeCell ref="Z382:Z383"/>
-    <mergeCell ref="R384:S384"/>
-    <mergeCell ref="R388:S388"/>
-    <mergeCell ref="Q382:Q383"/>
-    <mergeCell ref="R382:R383"/>
-    <mergeCell ref="S382:S383"/>
-    <mergeCell ref="T382:T383"/>
-    <mergeCell ref="U382:U383"/>
-    <mergeCell ref="V382:V383"/>
-    <mergeCell ref="K382:K383"/>
-    <mergeCell ref="L382:L383"/>
-    <mergeCell ref="M382:M383"/>
-    <mergeCell ref="N382:N383"/>
-    <mergeCell ref="O382:O383"/>
-    <mergeCell ref="P382:P383"/>
-    <mergeCell ref="R381:S381"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="F382:F383"/>
-    <mergeCell ref="G382:G383"/>
-    <mergeCell ref="H382:H383"/>
-    <mergeCell ref="I382:I383"/>
-    <mergeCell ref="J382:J383"/>
-    <mergeCell ref="V376:V378"/>
-    <mergeCell ref="W376:W378"/>
-    <mergeCell ref="X376:X378"/>
-    <mergeCell ref="Y376:Y378"/>
-    <mergeCell ref="Z376:Z378"/>
-    <mergeCell ref="S379:T379"/>
-    <mergeCell ref="P376:P378"/>
-    <mergeCell ref="Q376:Q378"/>
-    <mergeCell ref="R376:R378"/>
-    <mergeCell ref="S376:S378"/>
-    <mergeCell ref="T376:T378"/>
-    <mergeCell ref="U376:U378"/>
-    <mergeCell ref="J376:J378"/>
-    <mergeCell ref="K376:K378"/>
-    <mergeCell ref="L376:L378"/>
-    <mergeCell ref="M376:M378"/>
-    <mergeCell ref="N376:N378"/>
-    <mergeCell ref="O376:O378"/>
-    <mergeCell ref="Q371:R371"/>
-    <mergeCell ref="R373:S373"/>
-    <mergeCell ref="A376:A378"/>
-    <mergeCell ref="B376:B378"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="D376:D378"/>
-    <mergeCell ref="F376:F378"/>
-    <mergeCell ref="G376:G378"/>
-    <mergeCell ref="H376:H378"/>
-    <mergeCell ref="I376:I378"/>
-    <mergeCell ref="Z359:Z360"/>
-    <mergeCell ref="T361:U361"/>
-    <mergeCell ref="T364:U364"/>
-    <mergeCell ref="Q366:R366"/>
-    <mergeCell ref="S367:T367"/>
-    <mergeCell ref="Q368:R368"/>
-    <mergeCell ref="T359:T360"/>
-    <mergeCell ref="U359:U360"/>
-    <mergeCell ref="V359:V360"/>
-    <mergeCell ref="W359:W360"/>
-    <mergeCell ref="X359:X360"/>
-    <mergeCell ref="Y359:Y360"/>
-    <mergeCell ref="N359:N360"/>
-    <mergeCell ref="O359:O360"/>
-    <mergeCell ref="P359:P360"/>
-    <mergeCell ref="Q359:Q360"/>
-    <mergeCell ref="R359:R360"/>
-    <mergeCell ref="S359:S360"/>
-    <mergeCell ref="H359:H360"/>
-    <mergeCell ref="I359:I360"/>
-    <mergeCell ref="J359:J360"/>
-    <mergeCell ref="K359:K360"/>
-    <mergeCell ref="L359:L360"/>
-    <mergeCell ref="M359:M360"/>
-    <mergeCell ref="Z348:Z349"/>
-    <mergeCell ref="Q350:R350"/>
-    <mergeCell ref="R351:S351"/>
-    <mergeCell ref="Q355:R355"/>
-    <mergeCell ref="A359:A360"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="D359:D360"/>
-    <mergeCell ref="F359:F360"/>
-    <mergeCell ref="G359:G360"/>
-    <mergeCell ref="T348:T349"/>
-    <mergeCell ref="U348:U349"/>
-    <mergeCell ref="V348:V349"/>
-    <mergeCell ref="W348:W349"/>
-    <mergeCell ref="X348:X349"/>
-    <mergeCell ref="Y348:Y349"/>
-    <mergeCell ref="N348:N349"/>
-    <mergeCell ref="O348:O349"/>
-    <mergeCell ref="P348:P349"/>
-    <mergeCell ref="Q348:Q349"/>
-    <mergeCell ref="R348:R349"/>
-    <mergeCell ref="S348:S349"/>
-    <mergeCell ref="H348:H349"/>
-    <mergeCell ref="I348:I349"/>
-    <mergeCell ref="J348:J349"/>
-    <mergeCell ref="K348:K349"/>
-    <mergeCell ref="L348:L349"/>
-    <mergeCell ref="M348:M349"/>
-    <mergeCell ref="R342:S342"/>
-    <mergeCell ref="Q343:R343"/>
-    <mergeCell ref="Q344:R344"/>
-    <mergeCell ref="R347:S347"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="C348:C349"/>
-    <mergeCell ref="D348:D349"/>
-    <mergeCell ref="F348:F349"/>
-    <mergeCell ref="G348:G349"/>
-    <mergeCell ref="U332:U334"/>
-    <mergeCell ref="V332:V334"/>
-    <mergeCell ref="W332:W334"/>
-    <mergeCell ref="X332:X334"/>
-    <mergeCell ref="Y332:Y334"/>
-    <mergeCell ref="Z332:Z334"/>
-    <mergeCell ref="N332:N334"/>
-    <mergeCell ref="O332:O334"/>
-    <mergeCell ref="P332:P334"/>
-    <mergeCell ref="Q332:Q334"/>
-    <mergeCell ref="R332:S332"/>
-    <mergeCell ref="T332:T334"/>
-    <mergeCell ref="H332:H334"/>
-    <mergeCell ref="I332:I334"/>
-    <mergeCell ref="J332:J334"/>
-    <mergeCell ref="K332:K334"/>
-    <mergeCell ref="L332:L334"/>
-    <mergeCell ref="M332:M334"/>
-    <mergeCell ref="A332:A334"/>
-    <mergeCell ref="B332:B334"/>
-    <mergeCell ref="C332:C334"/>
-    <mergeCell ref="D332:D334"/>
-    <mergeCell ref="F332:F334"/>
-    <mergeCell ref="G332:G334"/>
-    <mergeCell ref="W322:W323"/>
-    <mergeCell ref="X322:X323"/>
-    <mergeCell ref="Y322:Y323"/>
-    <mergeCell ref="Z322:Z323"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="R325:S325"/>
-    <mergeCell ref="Q322:Q323"/>
-    <mergeCell ref="R322:R323"/>
-    <mergeCell ref="S322:S323"/>
-    <mergeCell ref="T322:T323"/>
-    <mergeCell ref="U322:U323"/>
-    <mergeCell ref="V322:V323"/>
-    <mergeCell ref="K322:K323"/>
-    <mergeCell ref="L322:L323"/>
-    <mergeCell ref="M322:M323"/>
-    <mergeCell ref="N322:N323"/>
-    <mergeCell ref="O322:O323"/>
-    <mergeCell ref="P322:P323"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="F322:F323"/>
-    <mergeCell ref="G322:G323"/>
-    <mergeCell ref="H322:H323"/>
-    <mergeCell ref="I322:I323"/>
-    <mergeCell ref="J322:J323"/>
-    <mergeCell ref="T318:T319"/>
-    <mergeCell ref="U318:U319"/>
-    <mergeCell ref="V318:V319"/>
-    <mergeCell ref="W318:W319"/>
-    <mergeCell ref="X318:X319"/>
-    <mergeCell ref="Y318:Y319"/>
-    <mergeCell ref="N318:N319"/>
-    <mergeCell ref="O318:O319"/>
-    <mergeCell ref="P318:P319"/>
-    <mergeCell ref="Q318:Q319"/>
-    <mergeCell ref="R318:R319"/>
-    <mergeCell ref="S318:S319"/>
-    <mergeCell ref="H318:H319"/>
-    <mergeCell ref="I318:I319"/>
-    <mergeCell ref="J318:J319"/>
-    <mergeCell ref="K318:K319"/>
-    <mergeCell ref="L318:L319"/>
-    <mergeCell ref="M318:M319"/>
-    <mergeCell ref="X316:X317"/>
-    <mergeCell ref="Y316:Y317"/>
-    <mergeCell ref="Z316:Z317"/>
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="B318:B319"/>
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="D318:D319"/>
-    <mergeCell ref="F318:F319"/>
-    <mergeCell ref="G318:G319"/>
-    <mergeCell ref="Q316:Q317"/>
-    <mergeCell ref="R316:R317"/>
-    <mergeCell ref="S316:S317"/>
-    <mergeCell ref="T316:T317"/>
-    <mergeCell ref="U316:U317"/>
-    <mergeCell ref="V316:V317"/>
-    <mergeCell ref="K316:K317"/>
-    <mergeCell ref="L316:L317"/>
-    <mergeCell ref="M316:M317"/>
-    <mergeCell ref="N316:N317"/>
-    <mergeCell ref="O316:O317"/>
-    <mergeCell ref="P316:P317"/>
-    <mergeCell ref="Z318:Z319"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="F316:F317"/>
-    <mergeCell ref="G316:G317"/>
-    <mergeCell ref="H316:H317"/>
-    <mergeCell ref="I316:I317"/>
-    <mergeCell ref="J316:J317"/>
-    <mergeCell ref="T312:T313"/>
-    <mergeCell ref="U312:U313"/>
-    <mergeCell ref="V312:V313"/>
-    <mergeCell ref="W312:W313"/>
-    <mergeCell ref="X312:X313"/>
-    <mergeCell ref="Y312:Y313"/>
-    <mergeCell ref="N312:N313"/>
-    <mergeCell ref="O312:O313"/>
-    <mergeCell ref="P312:P313"/>
-    <mergeCell ref="Q312:Q313"/>
-    <mergeCell ref="R312:R313"/>
-    <mergeCell ref="S312:S313"/>
-    <mergeCell ref="H312:H313"/>
-    <mergeCell ref="I312:I313"/>
-    <mergeCell ref="J312:J313"/>
-    <mergeCell ref="K312:K313"/>
-    <mergeCell ref="L312:L313"/>
-    <mergeCell ref="M312:M313"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="D312:D313"/>
-    <mergeCell ref="W316:W317"/>
-    <mergeCell ref="F312:F313"/>
-    <mergeCell ref="G312:G313"/>
-    <mergeCell ref="U307:U308"/>
-    <mergeCell ref="V307:V308"/>
-    <mergeCell ref="W307:W308"/>
-    <mergeCell ref="X307:X308"/>
-    <mergeCell ref="Y307:Y308"/>
-    <mergeCell ref="Z307:Z308"/>
-    <mergeCell ref="O307:O308"/>
-    <mergeCell ref="P307:P308"/>
-    <mergeCell ref="Q307:Q308"/>
-    <mergeCell ref="R307:R308"/>
-    <mergeCell ref="S307:S308"/>
-    <mergeCell ref="T307:T308"/>
-    <mergeCell ref="I307:I308"/>
-    <mergeCell ref="J307:J308"/>
-    <mergeCell ref="K307:K308"/>
-    <mergeCell ref="L307:L308"/>
-    <mergeCell ref="M307:M308"/>
-    <mergeCell ref="N307:N308"/>
-    <mergeCell ref="Z312:Z313"/>
-    <mergeCell ref="Z304:Z305"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="F307:F308"/>
-    <mergeCell ref="G307:G308"/>
-    <mergeCell ref="H307:H308"/>
-    <mergeCell ref="Q304:Q305"/>
-    <mergeCell ref="R304:S304"/>
-    <mergeCell ref="T304:T305"/>
-    <mergeCell ref="U304:U305"/>
-    <mergeCell ref="V304:V305"/>
-    <mergeCell ref="W304:W305"/>
-    <mergeCell ref="K304:K305"/>
-    <mergeCell ref="L304:L305"/>
-    <mergeCell ref="M304:M305"/>
-    <mergeCell ref="N304:N305"/>
-    <mergeCell ref="O304:O305"/>
-    <mergeCell ref="P304:P305"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="F304:F305"/>
-    <mergeCell ref="G304:G305"/>
-    <mergeCell ref="H304:H305"/>
-    <mergeCell ref="I304:I305"/>
-    <mergeCell ref="J304:J305"/>
-    <mergeCell ref="T298:T299"/>
-    <mergeCell ref="U298:U299"/>
-    <mergeCell ref="V298:V299"/>
-    <mergeCell ref="W298:W299"/>
-    <mergeCell ref="X298:X299"/>
-    <mergeCell ref="Y298:Y299"/>
-    <mergeCell ref="N298:N299"/>
-    <mergeCell ref="O298:O299"/>
-    <mergeCell ref="P298:P299"/>
-    <mergeCell ref="Q298:Q299"/>
-    <mergeCell ref="R298:R299"/>
-    <mergeCell ref="S298:S299"/>
-    <mergeCell ref="H298:H299"/>
-    <mergeCell ref="I298:I299"/>
-    <mergeCell ref="J298:J299"/>
-    <mergeCell ref="K298:K299"/>
-    <mergeCell ref="L298:L299"/>
-    <mergeCell ref="M298:M299"/>
-    <mergeCell ref="X304:X305"/>
-    <mergeCell ref="Y304:Y305"/>
-    <mergeCell ref="W289:W290"/>
-    <mergeCell ref="X289:X290"/>
-    <mergeCell ref="Y289:Y290"/>
-    <mergeCell ref="Z289:Z290"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="F298:F299"/>
-    <mergeCell ref="G298:G299"/>
-    <mergeCell ref="Q289:Q290"/>
-    <mergeCell ref="R289:R290"/>
-    <mergeCell ref="S289:S290"/>
-    <mergeCell ref="T289:T290"/>
-    <mergeCell ref="U289:U290"/>
-    <mergeCell ref="V289:V290"/>
-    <mergeCell ref="K289:K290"/>
-    <mergeCell ref="L289:L290"/>
-    <mergeCell ref="M289:M290"/>
-    <mergeCell ref="N289:N290"/>
-    <mergeCell ref="O289:O290"/>
-    <mergeCell ref="P289:P290"/>
-    <mergeCell ref="Z298:Z299"/>
-    <mergeCell ref="Q287:R287"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="G289:G290"/>
-    <mergeCell ref="H289:H290"/>
-    <mergeCell ref="I289:I290"/>
-    <mergeCell ref="J289:J290"/>
-    <mergeCell ref="Y278:Y279"/>
-    <mergeCell ref="Z278:Z279"/>
-    <mergeCell ref="Q281:R281"/>
-    <mergeCell ref="Q283:R283"/>
-    <mergeCell ref="R284:S284"/>
-    <mergeCell ref="Q286:R286"/>
-    <mergeCell ref="S278:S279"/>
-    <mergeCell ref="T278:T279"/>
-    <mergeCell ref="U278:U279"/>
-    <mergeCell ref="V278:V279"/>
-    <mergeCell ref="W278:W279"/>
-    <mergeCell ref="X278:X279"/>
-    <mergeCell ref="M278:M279"/>
-    <mergeCell ref="N278:N279"/>
-    <mergeCell ref="O278:O279"/>
-    <mergeCell ref="P278:P279"/>
-    <mergeCell ref="Q278:Q279"/>
-    <mergeCell ref="R278:R279"/>
-    <mergeCell ref="G278:G279"/>
-    <mergeCell ref="H278:H279"/>
-    <mergeCell ref="I278:I279"/>
-    <mergeCell ref="J278:J279"/>
-    <mergeCell ref="K278:K279"/>
-    <mergeCell ref="L278:L279"/>
-    <mergeCell ref="S269:T269"/>
-    <mergeCell ref="Q270:R270"/>
-    <mergeCell ref="R271:S271"/>
-    <mergeCell ref="S272:T272"/>
-    <mergeCell ref="Q275:R275"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="F278:F279"/>
-    <mergeCell ref="U263:U264"/>
-    <mergeCell ref="V263:V264"/>
-    <mergeCell ref="W263:W264"/>
-    <mergeCell ref="X263:X264"/>
-    <mergeCell ref="Y263:Y264"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="F259:F260"/>
-    <mergeCell ref="Z263:Z264"/>
-    <mergeCell ref="O263:O264"/>
-    <mergeCell ref="P263:P264"/>
-    <mergeCell ref="Q263:Q264"/>
-    <mergeCell ref="R263:R264"/>
-    <mergeCell ref="S263:S264"/>
-    <mergeCell ref="T263:T264"/>
-    <mergeCell ref="I263:I264"/>
-    <mergeCell ref="J263:J264"/>
-    <mergeCell ref="K263:K264"/>
-    <mergeCell ref="L263:L264"/>
-    <mergeCell ref="M263:M264"/>
-    <mergeCell ref="N263:N264"/>
-    <mergeCell ref="Y259:Y260"/>
-    <mergeCell ref="Z259:Z260"/>
-    <mergeCell ref="S261:T261"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="F263:F264"/>
-    <mergeCell ref="G263:G264"/>
-    <mergeCell ref="H263:H264"/>
-    <mergeCell ref="S259:S260"/>
-    <mergeCell ref="T259:T260"/>
-    <mergeCell ref="U259:U260"/>
-    <mergeCell ref="V259:V260"/>
-    <mergeCell ref="Z243:Z244"/>
-    <mergeCell ref="O243:O244"/>
-    <mergeCell ref="P243:P244"/>
-    <mergeCell ref="Q243:Q244"/>
-    <mergeCell ref="R243:R244"/>
-    <mergeCell ref="S243:S244"/>
-    <mergeCell ref="T243:T244"/>
-    <mergeCell ref="I243:I244"/>
-    <mergeCell ref="J243:J244"/>
-    <mergeCell ref="K243:K244"/>
-    <mergeCell ref="L243:L244"/>
-    <mergeCell ref="M243:M244"/>
-    <mergeCell ref="N243:N244"/>
-    <mergeCell ref="P259:P260"/>
-    <mergeCell ref="Q259:Q260"/>
-    <mergeCell ref="R259:R260"/>
-    <mergeCell ref="G259:G260"/>
-    <mergeCell ref="H259:H260"/>
-    <mergeCell ref="I259:I260"/>
-    <mergeCell ref="J259:J260"/>
-    <mergeCell ref="K259:K260"/>
-    <mergeCell ref="L259:L260"/>
-    <mergeCell ref="R245:S245"/>
-    <mergeCell ref="Q249:R249"/>
-    <mergeCell ref="Q253:R253"/>
-    <mergeCell ref="R254:S254"/>
-    <mergeCell ref="R257:S257"/>
-    <mergeCell ref="W259:W260"/>
-    <mergeCell ref="X259:X260"/>
-    <mergeCell ref="M259:M260"/>
-    <mergeCell ref="N259:N260"/>
-    <mergeCell ref="O259:O260"/>
-    <mergeCell ref="Q241:R241"/>
-    <mergeCell ref="Q242:R242"/>
-    <mergeCell ref="A243:A244"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="G243:G244"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="T239:T240"/>
-    <mergeCell ref="U239:U240"/>
-    <mergeCell ref="V239:V240"/>
-    <mergeCell ref="W239:W240"/>
-    <mergeCell ref="X239:X240"/>
-    <mergeCell ref="Y239:Y240"/>
-    <mergeCell ref="N239:N240"/>
-    <mergeCell ref="O239:O240"/>
-    <mergeCell ref="P239:P240"/>
-    <mergeCell ref="Q239:Q240"/>
-    <mergeCell ref="R239:R240"/>
-    <mergeCell ref="S239:S240"/>
-    <mergeCell ref="H239:H240"/>
-    <mergeCell ref="I239:I240"/>
-    <mergeCell ref="J239:J240"/>
-    <mergeCell ref="K239:K240"/>
-    <mergeCell ref="L239:L240"/>
-    <mergeCell ref="M239:M240"/>
-    <mergeCell ref="U243:U244"/>
-    <mergeCell ref="V243:V244"/>
-    <mergeCell ref="W243:W244"/>
-    <mergeCell ref="X243:X244"/>
-    <mergeCell ref="Y243:Y244"/>
-    <mergeCell ref="Z227:Z228"/>
-    <mergeCell ref="R230:S230"/>
-    <mergeCell ref="R231:S231"/>
-    <mergeCell ref="R237:S237"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="B239:B240"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="F239:F240"/>
-    <mergeCell ref="G239:G240"/>
-    <mergeCell ref="T227:T228"/>
-    <mergeCell ref="U227:U228"/>
-    <mergeCell ref="V227:V228"/>
-    <mergeCell ref="W227:W228"/>
-    <mergeCell ref="X227:X228"/>
-    <mergeCell ref="Y227:Y228"/>
-    <mergeCell ref="N227:N228"/>
-    <mergeCell ref="O227:O228"/>
-    <mergeCell ref="P227:P228"/>
-    <mergeCell ref="Q227:Q228"/>
-    <mergeCell ref="R227:R228"/>
-    <mergeCell ref="S227:S228"/>
-    <mergeCell ref="H227:H228"/>
-    <mergeCell ref="I227:I228"/>
-    <mergeCell ref="J227:J228"/>
-    <mergeCell ref="K227:K228"/>
-    <mergeCell ref="L227:L228"/>
-    <mergeCell ref="M227:M228"/>
-    <mergeCell ref="Z239:Z240"/>
-    <mergeCell ref="Q221:R221"/>
-    <mergeCell ref="T223:U223"/>
-    <mergeCell ref="S225:T225"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="T219:T220"/>
-    <mergeCell ref="U219:U220"/>
-    <mergeCell ref="V219:V220"/>
-    <mergeCell ref="W219:W220"/>
-    <mergeCell ref="X219:X220"/>
-    <mergeCell ref="Y219:Y220"/>
-    <mergeCell ref="N219:N220"/>
-    <mergeCell ref="O219:O220"/>
-    <mergeCell ref="P219:P220"/>
-    <mergeCell ref="Q219:Q220"/>
-    <mergeCell ref="R219:R220"/>
-    <mergeCell ref="S219:S220"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="I219:I220"/>
-    <mergeCell ref="J219:J220"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="L219:L220"/>
-    <mergeCell ref="M219:M220"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="W213:W214"/>
-    <mergeCell ref="X213:X214"/>
-    <mergeCell ref="Y213:Y214"/>
-    <mergeCell ref="Z213:Z214"/>
-    <mergeCell ref="Q215:R215"/>
-    <mergeCell ref="R216:S216"/>
-    <mergeCell ref="Q213:Q214"/>
-    <mergeCell ref="R213:R214"/>
-    <mergeCell ref="S213:S214"/>
-    <mergeCell ref="T213:T214"/>
-    <mergeCell ref="U213:U214"/>
-    <mergeCell ref="V213:V214"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="M213:M214"/>
-    <mergeCell ref="N213:N214"/>
-    <mergeCell ref="O213:O214"/>
-    <mergeCell ref="P213:P214"/>
-    <mergeCell ref="Z219:Z220"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="T211:T212"/>
-    <mergeCell ref="U211:U212"/>
-    <mergeCell ref="V211:V212"/>
-    <mergeCell ref="W211:W212"/>
-    <mergeCell ref="X211:X212"/>
-    <mergeCell ref="Y211:Y212"/>
-    <mergeCell ref="N211:N212"/>
-    <mergeCell ref="O211:O212"/>
-    <mergeCell ref="P211:P212"/>
-    <mergeCell ref="Q211:Q212"/>
-    <mergeCell ref="R211:R212"/>
-    <mergeCell ref="S211:S212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="I211:I212"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="L211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="T208:U208"/>
-    <mergeCell ref="V208:V209"/>
-    <mergeCell ref="W208:W209"/>
-    <mergeCell ref="X208:X209"/>
-    <mergeCell ref="Y208:Y209"/>
-    <mergeCell ref="Z208:Z209"/>
-    <mergeCell ref="N208:N209"/>
-    <mergeCell ref="O208:O209"/>
-    <mergeCell ref="P208:P209"/>
-    <mergeCell ref="Q208:Q209"/>
-    <mergeCell ref="R208:R209"/>
-    <mergeCell ref="S208:S209"/>
-    <mergeCell ref="H208:H209"/>
-    <mergeCell ref="I208:I209"/>
-    <mergeCell ref="J208:J209"/>
-    <mergeCell ref="K208:K209"/>
-    <mergeCell ref="L208:L209"/>
-    <mergeCell ref="M208:M209"/>
-    <mergeCell ref="Z211:Z212"/>
-    <mergeCell ref="Q204:R204"/>
-    <mergeCell ref="S205:T205"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="Q207:R207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="Y196:Y197"/>
-    <mergeCell ref="Z196:Z197"/>
-    <mergeCell ref="R199:S199"/>
-    <mergeCell ref="R200:S200"/>
-    <mergeCell ref="Q201:R201"/>
-    <mergeCell ref="S203:T203"/>
-    <mergeCell ref="S196:S197"/>
-    <mergeCell ref="T196:T197"/>
-    <mergeCell ref="U196:U197"/>
-    <mergeCell ref="V196:V197"/>
-    <mergeCell ref="W196:W197"/>
-    <mergeCell ref="X196:X197"/>
-    <mergeCell ref="M196:M197"/>
-    <mergeCell ref="N196:N197"/>
-    <mergeCell ref="O196:O197"/>
-    <mergeCell ref="P196:P197"/>
-    <mergeCell ref="Q196:Q197"/>
-    <mergeCell ref="R196:R197"/>
-    <mergeCell ref="G196:G197"/>
-    <mergeCell ref="H196:H197"/>
-    <mergeCell ref="I196:I197"/>
-    <mergeCell ref="J196:J197"/>
-    <mergeCell ref="K196:K197"/>
-    <mergeCell ref="L196:L197"/>
-    <mergeCell ref="Z189:Z190"/>
-    <mergeCell ref="Q191:R191"/>
-    <mergeCell ref="S192:T192"/>
-    <mergeCell ref="Q193:R193"/>
-    <mergeCell ref="Q194:R194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="T189:T190"/>
-    <mergeCell ref="U189:U190"/>
-    <mergeCell ref="V189:V190"/>
-    <mergeCell ref="W189:W190"/>
-    <mergeCell ref="X189:X190"/>
-    <mergeCell ref="Y189:Y190"/>
-    <mergeCell ref="N189:N190"/>
-    <mergeCell ref="O189:O190"/>
-    <mergeCell ref="P189:P190"/>
-    <mergeCell ref="Q189:Q190"/>
-    <mergeCell ref="R189:R190"/>
-    <mergeCell ref="S189:S190"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="M189:M190"/>
-    <mergeCell ref="Y185:Y186"/>
-    <mergeCell ref="Z185:Z186"/>
-    <mergeCell ref="R187:S187"/>
-    <mergeCell ref="R188:S188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="S185:S186"/>
-    <mergeCell ref="T185:T186"/>
-    <mergeCell ref="U185:U186"/>
-    <mergeCell ref="V185:V186"/>
-    <mergeCell ref="W185:W186"/>
-    <mergeCell ref="X185:X186"/>
-    <mergeCell ref="M185:M186"/>
-    <mergeCell ref="N185:N186"/>
-    <mergeCell ref="O185:O186"/>
-    <mergeCell ref="P185:P186"/>
-    <mergeCell ref="Q185:Q186"/>
-    <mergeCell ref="R185:R186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="I185:I186"/>
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="K185:K186"/>
-    <mergeCell ref="L185:L186"/>
-    <mergeCell ref="S167:T167"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="Q178:R178"/>
-    <mergeCell ref="Q180:R180"/>
-    <mergeCell ref="S182:T182"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="Z155:Z156"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="R160:S160"/>
-    <mergeCell ref="R163:S163"/>
-    <mergeCell ref="R165:S165"/>
-    <mergeCell ref="T155:T156"/>
-    <mergeCell ref="U155:U156"/>
-    <mergeCell ref="V155:V156"/>
-    <mergeCell ref="W155:W156"/>
-    <mergeCell ref="X155:X156"/>
-    <mergeCell ref="Y155:Y156"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="O155:O156"/>
-    <mergeCell ref="P155:P156"/>
-    <mergeCell ref="Q155:Q156"/>
-    <mergeCell ref="R155:R156"/>
-    <mergeCell ref="S155:S156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="T150:U150"/>
-    <mergeCell ref="S152:T152"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="V145:V146"/>
-    <mergeCell ref="W145:W146"/>
-    <mergeCell ref="X145:X146"/>
-    <mergeCell ref="Y145:Y146"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="Z145:Z146"/>
-    <mergeCell ref="N145:N146"/>
-    <mergeCell ref="O145:O146"/>
-    <mergeCell ref="P145:P146"/>
-    <mergeCell ref="Q145:R145"/>
-    <mergeCell ref="S145:S146"/>
-    <mergeCell ref="T145:T146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="W140:W141"/>
-    <mergeCell ref="X140:X141"/>
-    <mergeCell ref="Y140:Y141"/>
-    <mergeCell ref="Z140:Z141"/>
-    <mergeCell ref="Q140:Q141"/>
-    <mergeCell ref="R140:R141"/>
-    <mergeCell ref="S140:S141"/>
-    <mergeCell ref="T140:T141"/>
-    <mergeCell ref="U140:U141"/>
-    <mergeCell ref="V140:V141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="M140:M141"/>
-    <mergeCell ref="N140:N141"/>
-    <mergeCell ref="O140:O141"/>
-    <mergeCell ref="P140:P141"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="W131:W132"/>
-    <mergeCell ref="X131:X132"/>
-    <mergeCell ref="Y131:Y132"/>
-    <mergeCell ref="Z131:Z132"/>
-    <mergeCell ref="R133:S133"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="P131:P132"/>
-    <mergeCell ref="Q131:Q132"/>
-    <mergeCell ref="R131:S131"/>
-    <mergeCell ref="T131:T132"/>
-    <mergeCell ref="U131:U132"/>
-    <mergeCell ref="V131:V132"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="N131:N132"/>
-    <mergeCell ref="O131:O132"/>
-    <mergeCell ref="Z126:Z128"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="S126:S128"/>
-    <mergeCell ref="T126:T128"/>
-    <mergeCell ref="U126:U128"/>
-    <mergeCell ref="V126:V128"/>
-    <mergeCell ref="W126:W128"/>
-    <mergeCell ref="X126:X128"/>
-    <mergeCell ref="M126:M128"/>
-    <mergeCell ref="N126:N128"/>
-    <mergeCell ref="O126:O128"/>
-    <mergeCell ref="P126:P128"/>
-    <mergeCell ref="Q126:Q128"/>
-    <mergeCell ref="R126:R128"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="H126:H128"/>
-    <mergeCell ref="I126:I128"/>
-    <mergeCell ref="J126:J128"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="L126:L128"/>
-    <mergeCell ref="R122:S122"/>
-    <mergeCell ref="R123:S123"/>
-    <mergeCell ref="R124:S124"/>
-    <mergeCell ref="R125:S125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="T119:T120"/>
-    <mergeCell ref="U119:U120"/>
-    <mergeCell ref="V119:V120"/>
-    <mergeCell ref="W119:W120"/>
-    <mergeCell ref="X119:X120"/>
-    <mergeCell ref="Y119:Y120"/>
-    <mergeCell ref="N119:N120"/>
-    <mergeCell ref="O119:O120"/>
-    <mergeCell ref="P119:P120"/>
-    <mergeCell ref="Q119:Q120"/>
-    <mergeCell ref="R119:R120"/>
-    <mergeCell ref="S119:S120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="Y126:Y128"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="V116:V117"/>
-    <mergeCell ref="W116:W117"/>
-    <mergeCell ref="X116:X117"/>
-    <mergeCell ref="Y116:Y117"/>
-    <mergeCell ref="Z116:Z117"/>
-    <mergeCell ref="N116:N117"/>
-    <mergeCell ref="O116:O117"/>
-    <mergeCell ref="P116:P117"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="S116:S117"/>
-    <mergeCell ref="T116:T117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="Z119:Z120"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="Z95:Z96"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="T95:T96"/>
-    <mergeCell ref="U95:U96"/>
-    <mergeCell ref="V95:V96"/>
-    <mergeCell ref="W95:W96"/>
-    <mergeCell ref="X95:X96"/>
-    <mergeCell ref="Y95:Y96"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="S95:S96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="Z92:Z93"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="Q92:Q93"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="T92:T93"/>
-    <mergeCell ref="U92:U93"/>
-    <mergeCell ref="V92:V93"/>
-    <mergeCell ref="W92:W93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="N92:N93"/>
-    <mergeCell ref="O92:O93"/>
-    <mergeCell ref="P92:P93"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="T89:T90"/>
-    <mergeCell ref="U89:U90"/>
-    <mergeCell ref="V89:V90"/>
-    <mergeCell ref="W89:W90"/>
-    <mergeCell ref="X89:X90"/>
-    <mergeCell ref="Y89:Y90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="S89:S90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="X92:X93"/>
-    <mergeCell ref="Y92:Y93"/>
-    <mergeCell ref="X84:X85"/>
-    <mergeCell ref="Y84:Y85"/>
-    <mergeCell ref="Z84:Z85"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="S84:S85"/>
-    <mergeCell ref="T84:T85"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="V84:V85"/>
-    <mergeCell ref="W84:W85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="Z89:Z90"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="Z60:Z61"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="T60:T61"/>
-    <mergeCell ref="U60:U61"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="X60:X61"/>
-    <mergeCell ref="Y60:Y61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="U50:U51"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="W50:W51"/>
-    <mergeCell ref="X50:X51"/>
-    <mergeCell ref="Y50:Y51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="Z50:Z51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:S51"/>
-    <mergeCell ref="T50:T51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:U41"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="Y40:Y41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="W1156:W1157"/>
+    <mergeCell ref="X1156:X1157"/>
+    <mergeCell ref="Y1156:Y1157"/>
+    <mergeCell ref="Z1156:Z1157"/>
+    <mergeCell ref="Q1156:Q1157"/>
+    <mergeCell ref="R1156:R1157"/>
+    <mergeCell ref="S1156:S1157"/>
+    <mergeCell ref="T1156:T1157"/>
+    <mergeCell ref="U1156:U1157"/>
+    <mergeCell ref="V1156:V1157"/>
+    <mergeCell ref="K1156:K1157"/>
+    <mergeCell ref="L1156:L1157"/>
+    <mergeCell ref="M1156:M1157"/>
+    <mergeCell ref="N1156:N1157"/>
+    <mergeCell ref="O1156:O1157"/>
+    <mergeCell ref="P1156:P1157"/>
+    <mergeCell ref="Z1151:Z1153"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -79540,4 +79542,38 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>